--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="_xlfn_T_TEST" vbProcedure="false">NA()</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="256">
   <si>
     <t xml:space="preserve">Nom</t>
   </si>
@@ -787,6 +788,15 @@
   </si>
   <si>
     <t xml:space="preserve">8 intermédiaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test !!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il doit y avoir des notes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zdzd</t>
   </si>
 </sst>
 </file>
@@ -825,6 +835,7 @@
       <color rgb="FF969696"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -832,11 +843,13 @@
       <color rgb="FFFF00FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1068,7 +1081,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1103,8 +1116,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.303115961083355"/>
-          <c:y val="0.0220736629667003"/>
+          <c:x val="0.303258309343104"/>
+          <c:y val="0.0224605678233438"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1121,10 +1134,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0134104654220352"/>
-          <c:y val="0.124621594349142"/>
-          <c:w val="0.96765711280568"/>
-          <c:h val="0.865035317860747"/>
+          <c:x val="0.0133472912850039"/>
+          <c:y val="0.124668769716088"/>
+          <c:w val="0.967416906568961"/>
+          <c:h val="0.864605678233438"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1166,6 +1179,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1391,17 +1405,17 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="95729218"/>
-        <c:axId val="35544237"/>
+        <c:axId val="80292468"/>
+        <c:axId val="61949105"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95729218"/>
+        <c:axId val="80292468"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1426,7 +1440,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35544237"/>
+        <c:crossAx val="61949105"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1434,7 +1448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35544237"/>
+        <c:axId val="61949105"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1473,7 +1487,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95729218"/>
+        <c:crossAx val="80292468"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1511,9 +1525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>109</xdr:col>
-      <xdr:colOff>48960</xdr:colOff>
+      <xdr:colOff>47880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1521,8 +1535,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="103101840" y="2742120"/>
-        <a:ext cx="5475960" cy="2853720"/>
+        <a:off x="103442760" y="2742120"/>
+        <a:ext cx="5501880" cy="2852640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1542,11 +1556,11 @@
   </sheetPr>
   <dimension ref="A1:DJ64077"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO4" activeCellId="0" sqref="AO4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO4" activeCellId="1" sqref="B7 AO4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="16.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="16.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.38"/>
@@ -5708,165 +5722,165 @@
     <row r="15" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="O15" s="16"/>
       <c r="P15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="S15" s="16"/>
       <c r="T15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="U15" s="16"/>
       <c r="V15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="W15" s="16"/>
       <c r="X15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AA15" s="16"/>
       <c r="AB15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AC15" s="16"/>
       <c r="AD15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AE15" s="16"/>
       <c r="AF15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AG15" s="16"/>
       <c r="AH15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AI15" s="16"/>
       <c r="AJ15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AK15" s="16"/>
       <c r="AL15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AM15" s="17"/>
       <c r="AN15" s="16"/>
       <c r="AO15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AP15" s="16"/>
       <c r="AQ15" s="16"/>
       <c r="AR15" s="16"/>
       <c r="AS15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AT15" s="16"/>
       <c r="AU15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AV15" s="16"/>
       <c r="AW15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AX15" s="16"/>
       <c r="AY15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AZ15" s="16"/>
       <c r="BA15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BB15" s="16"/>
       <c r="BC15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BD15" s="16"/>
       <c r="BE15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BF15" s="16"/>
       <c r="BG15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BH15" s="16"/>
       <c r="BI15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BJ15" s="16"/>
       <c r="BK15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BL15" s="16"/>
       <c r="BM15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BN15" s="16"/>
       <c r="BO15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BP15" s="16"/>
       <c r="BQ15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BR15" s="16"/>
       <c r="BS15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BT15" s="16"/>
       <c r="BU15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BV15" s="16"/>
       <c r="BW15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BX15" s="16"/>
       <c r="BY15" s="16" t="e">
         <f aca="false">#REF!*100/1472</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="BZ15" s="17"/>
     </row>
@@ -7340,4 +7354,48 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -403,7 +403,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
               </a:p>
             </txPr>
@@ -662,7 +662,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -714,7 +714,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille5" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille5bis" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="color_line" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cutinparts" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cutinpartsbis" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>
@@ -438,8 +440,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.303915913606358"/>
-          <y val="0.0243994943109987"/>
+          <x val="0.304242886178862"/>
+          <y val="0.0253068455017082"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -458,10 +460,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0130744087675447"/>
-          <y val="0.124905183312263"/>
-          <w val="0.966352624495289"/>
-          <h val="0.862452591656131"/>
+          <x val="0.0129573170731707"/>
+          <y val="0.125015816778439"/>
+          <w val="0.965891768292683"/>
+          <h val="0.861445020878148"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -634,11 +636,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="23471451"/>
-        <axId val="53024987"/>
+        <axId val="48646592"/>
+        <axId val="6995127"/>
       </barChart>
       <catAx>
-        <axId val="23471451"/>
+        <axId val="48646592"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -673,7 +675,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="53024987"/>
+        <crossAx val="6995127"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -681,7 +683,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="53024987"/>
+        <axId val="6995127"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -725,7 +727,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="23471451"/>
+        <crossAx val="48646592"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -782,8 +784,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.3039834987753"/>
-          <y val="0.0243994943109987"/>
+          <x val="0.304270007670672"/>
+          <y val="0.0253068455017082"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -802,10 +804,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0130849555240428"/>
-          <y val="0.124905183312263"/>
-          <w val="0.966288513600619"/>
-          <h val="0.862452591656131"/>
+          <x val="0.0129762209153669"/>
+          <y val="0.125015816778439"/>
+          <w val="0.96573766300179"/>
+          <h val="0.861445020878148"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -978,11 +980,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="12887953"/>
-        <axId val="83296779"/>
+        <axId val="62705975"/>
+        <axId val="13261077"/>
       </barChart>
       <catAx>
-        <axId val="12887953"/>
+        <axId val="62705975"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1017,7 +1019,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="83296779"/>
+        <crossAx val="13261077"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1025,7 +1027,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="83296779"/>
+        <axId val="13261077"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1069,7 +1071,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="12887953"/>
+        <crossAx val="62705975"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1126,8 +1128,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304047956684285"/>
-          <y val="0.0245259165613148"/>
+          <x val="0.30431447746884"/>
+          <y val="0.0254333797292167"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1147,10 +1149,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0524687379141421"/>
-          <y val="0.145132743362832"/>
-          <w val="0.926969189119505"/>
-          <h val="0.82212389380531"/>
+          <x val="0.0524129114733142"/>
+          <y val="0.145261293179805"/>
+          <w val="0.926685842122084"/>
+          <h val="0.821080602302923"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1323,11 +1325,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="34139665"/>
-        <axId val="12387733"/>
+        <axId val="88107833"/>
+        <axId val="20764433"/>
       </barChart>
       <catAx>
-        <axId val="34139665"/>
+        <axId val="88107833"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1362,7 +1364,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="12387733"/>
+        <crossAx val="20764433"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1370,7 +1372,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="12387733"/>
+        <axId val="20764433"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1414,7 +1416,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="34139665"/>
+        <crossAx val="88107833"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1471,8 +1473,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304112414593271"/>
-          <y val="0.0246523388116308"/>
+          <x val="0.304378395653563"/>
+          <y val="0.0255599139567253"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1492,10 +1494,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0524687379141421"/>
-          <y val="0.145132743362832"/>
-          <w val="0.926969189119505"/>
-          <h val="0.82212389380531"/>
+          <x val="0.0524129114733142"/>
+          <y val="0.145261293179805"/>
+          <w val="0.926685842122084"/>
+          <h val="0.821080602302923"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1668,11 +1670,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="24173228"/>
-        <axId val="63056234"/>
+        <axId val="65714624"/>
+        <axId val="28127721"/>
       </barChart>
       <catAx>
-        <axId val="24173228"/>
+        <axId val="65714624"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1707,7 +1709,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="63056234"/>
+        <crossAx val="28127721"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1715,7 +1717,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="63056234"/>
+        <axId val="28127721"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1759,7 +1761,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="24173228"/>
+        <crossAx val="65714624"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1792,9 +1794,9 @@
     </from>
     <to>
       <col>109</col>
-      <colOff>42480</colOff>
+      <colOff>39960</colOff>
       <row>27</row>
-      <rowOff>86040</rowOff>
+      <rowOff>83520</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1824,9 +1826,9 @@
     </from>
     <to>
       <col>100</col>
-      <colOff>694440</colOff>
+      <colOff>691920</colOff>
       <row>30</row>
-      <rowOff>136080</rowOff>
+      <rowOff>133560</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1856,9 +1858,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>694440</colOff>
+      <colOff>691920</colOff>
       <row>30</row>
-      <rowOff>135360</rowOff>
+      <rowOff>132840</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1888,9 +1890,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>694440</colOff>
+      <colOff>691920</colOff>
       <row>30</row>
-      <rowOff>135360</rowOff>
+      <rowOff>132840</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2201,10 +2203,10 @@
   <dimension ref="A1:DJ15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.31640625" defaultRowHeight="16.05" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="16.05" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="16.2" customWidth="1" style="20" min="6" max="6"/>
     <col width="14.38" customWidth="1" style="21" min="7" max="7"/>
@@ -8815,7 +8817,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.08" customWidth="1" style="20" min="6" max="6"/>
     <col width="11.52" customWidth="1" style="20" min="947" max="1024"/>
@@ -9820,7 +9822,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="23">
       <c r="A1" s="20" t="inlineStr">
@@ -10224,11 +10226,11 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="23">
       <c r="A1" s="20" t="inlineStr">
@@ -10776,7 +10778,7 @@
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="23">
       <c r="A1" s="20" t="inlineStr">
@@ -11310,4 +11312,303 @@
   </headerFooter>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="11.31" customWidth="1" style="20" min="1" max="2"/>
+    <col width="11.52" customWidth="1" style="20" min="1010" max="1021"/>
+    <col width="11.52" customWidth="1" style="20" min="1022" max="1024"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="23">
+      <c r="A1" s="20" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B1" s="21" t="inlineStr">
+        <is>
+          <t>Réponse 2</t>
+        </is>
+      </c>
+      <c r="C1" s="24" t="inlineStr">
+        <is>
+          <t>Les chromosomes du père déterminent si le bébé est un garçon ou une fille</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="23">
+      <c r="A2" s="20" t="inlineStr">
+        <is>
+          <t>Aatif Mieulet</t>
+        </is>
+      </c>
+      <c r="B2" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="C2" s="20" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="23">
+      <c r="A3" s="20" t="inlineStr">
+        <is>
+          <t>Abbas</t>
+        </is>
+      </c>
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">partie 1 : Vrai; partie 2 : Vrai; partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="C3" s="20" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="23">
+      <c r="A4" s="20" t="inlineStr">
+        <is>
+          <t>Abdallah</t>
+        </is>
+      </c>
+      <c r="B4" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="C4" s="20" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="23">
+      <c r="A5" s="20" t="inlineStr">
+        <is>
+          <t>Abdel Moneim</t>
+        </is>
+      </c>
+      <c r="B5" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="C5" s="20" t="inlineStr">
+        <is>
+          <t>partie 1 : Faux</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="11.31" customWidth="1" style="20" min="1" max="3"/>
+    <col width="21.53" customWidth="1" style="20" min="4" max="4"/>
+    <col width="11.31" customWidth="1" style="20" min="5" max="5"/>
+    <col width="13.5" customWidth="1" style="20" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="23">
+      <c r="A1" s="20" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B1" s="21" t="inlineStr">
+        <is>
+          <t>Réponse 2</t>
+        </is>
+      </c>
+      <c r="F1" s="24" t="inlineStr">
+        <is>
+          <t>Les chromosomes du père déterminent si le bébé est un garçon ou une fille</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="23">
+      <c r="A2" s="20" t="inlineStr">
+        <is>
+          <t>Aatif Mieulet</t>
+        </is>
+      </c>
+      <c r="B2" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="C2" s="21" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+      <c r="D2" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 2 : Faux</t>
+        </is>
+      </c>
+      <c r="E2" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="F2" s="20" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="23">
+      <c r="A3" s="20" t="inlineStr">
+        <is>
+          <t>Abbas</t>
+        </is>
+      </c>
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">partie 1 : Vrai; partie 2 : Vrai; partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="C3" s="21" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+      <c r="D3" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 2 : Vrai</t>
+        </is>
+      </c>
+      <c r="E3" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="F3" s="20" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="23">
+      <c r="A4" s="20" t="inlineStr">
+        <is>
+          <t>Abdallah</t>
+        </is>
+      </c>
+      <c r="B4" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="C4" s="21" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+      <c r="D4" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 2 : Faux</t>
+        </is>
+      </c>
+      <c r="E4" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="F4" s="20" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="23">
+      <c r="A5" s="20" t="inlineStr">
+        <is>
+          <t>Abdel Moneim</t>
+        </is>
+      </c>
+      <c r="B5" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="C5" s="21" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+      <c r="D5" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 2 : Faux</t>
+        </is>
+      </c>
+      <c r="E5" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="F5" s="20" t="inlineStr">
+        <is>
+          <t>partie 1 : Faux</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,6 +16,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="color_line" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cutinparts" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cutinpartsbis" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delete_lines" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delete_lines_bis" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>
@@ -440,8 +442,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304242886178862"/>
-          <y val="0.0253068455017082"/>
+          <x val="0.304284354173278"/>
+          <y val="0.0254365983295368"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -460,10 +462,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0129573170731707"/>
-          <y val="0.125015816778439"/>
-          <w val="0.965891768292683"/>
-          <h val="0.861445020878148"/>
+          <x val="0.0129482703903523"/>
+          <y val="0.125031637560111"/>
+          <w val="0.96585211044113"/>
+          <h val="0.861300936471779"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -636,11 +638,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="48646592"/>
-        <axId val="6995127"/>
+        <axId val="82962979"/>
+        <axId val="64313139"/>
       </barChart>
       <catAx>
-        <axId val="48646592"/>
+        <axId val="82962979"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -675,7 +677,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="6995127"/>
+        <crossAx val="64313139"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -683,7 +685,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="6995127"/>
+        <axId val="64313139"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -727,7 +729,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="48646592"/>
+        <crossAx val="82962979"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -784,8 +786,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304270007670672"/>
-          <y val="0.0253068455017082"/>
+          <x val="0.304283981357339"/>
+          <y val="0.0254365983295368"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -804,10 +806,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0129762209153669"/>
-          <y val="0.125015816778439"/>
-          <w val="0.96573766300179"/>
-          <h val="0.861445020878148"/>
+          <x val="0.0129604801123667"/>
+          <y val="0.125031637560111"/>
+          <w val="0.965651535465747"/>
+          <h val="0.861300936471779"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -980,11 +982,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="62705975"/>
-        <axId val="13261077"/>
+        <axId val="10632551"/>
+        <axId val="42813938"/>
       </barChart>
       <catAx>
-        <axId val="62705975"/>
+        <axId val="10632551"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1019,7 +1021,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="13261077"/>
+        <crossAx val="42813938"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1027,7 +1029,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="13261077"/>
+        <axId val="42813938"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1071,7 +1073,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="62705975"/>
+        <crossAx val="10632551"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1128,8 +1130,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.30431447746884"/>
-          <y val="0.0254333797292167"/>
+          <x val="0.304372805617619"/>
+          <y val="0.0255631485699823"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1149,10 +1151,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0524129114733142"/>
-          <y val="0.145261293179805"/>
-          <w val="0.926685842122084"/>
-          <h val="0.821080602302923"/>
+          <x val="0.0524098308330674"/>
+          <y val="0.145279676031384"/>
+          <w val="0.926651771465049"/>
+          <h val="0.820931409769679"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1325,11 +1327,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="88107833"/>
-        <axId val="20764433"/>
+        <axId val="83284912"/>
+        <axId val="19779740"/>
       </barChart>
       <catAx>
-        <axId val="88107833"/>
+        <axId val="83284912"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1364,7 +1366,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="20764433"/>
+        <crossAx val="19779740"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1372,7 +1374,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="20764433"/>
+        <axId val="19779740"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1416,7 +1418,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="88107833"/>
+        <crossAx val="83284912"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1473,8 +1475,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304378395653563"/>
-          <y val="0.0255599139567253"/>
+          <x val="0.304436642195978"/>
+          <y val="0.0256896988104277"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1494,10 +1496,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0524129114733142"/>
-          <y val="0.145261293179805"/>
-          <w val="0.926685842122084"/>
-          <h val="0.821080602302923"/>
+          <x val="0.0524098308330674"/>
+          <y val="0.145279676031384"/>
+          <w val="0.926651771465049"/>
+          <h val="0.820931409769679"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1670,11 +1672,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="65714624"/>
-        <axId val="28127721"/>
+        <axId val="53177077"/>
+        <axId val="26377073"/>
       </barChart>
       <catAx>
-        <axId val="65714624"/>
+        <axId val="53177077"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1709,7 +1711,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="28127721"/>
+        <crossAx val="26377073"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1717,7 +1719,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="28127721"/>
+        <axId val="26377073"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1761,7 +1763,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="65714624"/>
+        <crossAx val="53177077"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1794,9 +1796,9 @@
     </from>
     <to>
       <col>109</col>
-      <colOff>39960</colOff>
+      <colOff>39600</colOff>
       <row>27</row>
-      <rowOff>83520</rowOff>
+      <rowOff>83160</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1826,9 +1828,9 @@
     </from>
     <to>
       <col>100</col>
-      <colOff>691920</colOff>
+      <colOff>691560</colOff>
       <row>30</row>
-      <rowOff>133560</rowOff>
+      <rowOff>133200</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1858,9 +1860,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>691920</colOff>
+      <colOff>691560</colOff>
       <row>30</row>
-      <rowOff>132840</rowOff>
+      <rowOff>132480</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1890,9 +1892,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>691920</colOff>
+      <colOff>691560</colOff>
       <row>30</row>
-      <rowOff>132840</rowOff>
+      <rowOff>132480</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2206,7 +2208,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="16.05" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.43359375" defaultRowHeight="16.05" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="16.2" customWidth="1" style="20" min="6" max="6"/>
     <col width="14.38" customWidth="1" style="21" min="7" max="7"/>
@@ -8805,6 +8807,708 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="23">
+      <c r="A1" s="35" t="inlineStr">
+        <is>
+          <t>Les électrons sont plus petits que les atomes</t>
+        </is>
+      </c>
+      <c r="B1" s="36" t="inlineStr">
+        <is>
+          <t>accuracy_Q6</t>
+        </is>
+      </c>
+      <c r="C1" s="24" t="inlineStr">
+        <is>
+          <t>Toute radioactivité résulte de l’action de l’homme</t>
+        </is>
+      </c>
+      <c r="D1" s="24" t="inlineStr">
+        <is>
+          <t>accuracy_Q7</t>
+        </is>
+      </c>
+      <c r="E1" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  La Terre fait le tour du Soleil en un mois</t>
+        </is>
+      </c>
+      <c r="F1" s="24" t="inlineStr">
+        <is>
+          <t>accuracy_Q8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="23">
+      <c r="A2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B2" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D2" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F2" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="23">
+      <c r="A3" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F3" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="23">
+      <c r="A4" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F4" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="23">
+      <c r="A5" s="37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Faux</t>
+        </is>
+      </c>
+      <c r="B5" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F5" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="23">
+      <c r="A6" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F6" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="23">
+      <c r="A7" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F7" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="23">
+      <c r="A8" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B8" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D8" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="23">
+      <c r="A9" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B9" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D9" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F9" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="23">
+      <c r="A10" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B10" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D10" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="23">
+      <c r="A11" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="23">
+      <c r="A12" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B12" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D12" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="12.8" customHeight="1" s="23"/>
+    <row r="14" ht="12.8" customHeight="1" s="23"/>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="23">
+      <c r="A1" s="35" t="inlineStr">
+        <is>
+          <t>Les électrons sont plus petits que les atomes</t>
+        </is>
+      </c>
+      <c r="B1" s="36" t="inlineStr">
+        <is>
+          <t>accuracy_Q6</t>
+        </is>
+      </c>
+      <c r="C1" s="24" t="inlineStr">
+        <is>
+          <t>Toute radioactivité résulte de l’action de l’homme</t>
+        </is>
+      </c>
+      <c r="D1" s="24" t="inlineStr">
+        <is>
+          <t>accuracy_Q7</t>
+        </is>
+      </c>
+      <c r="E1" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  La Terre fait le tour du Soleil en un mois</t>
+        </is>
+      </c>
+      <c r="F1" s="24" t="inlineStr">
+        <is>
+          <t>accuracy_Q8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="23">
+      <c r="A2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B2" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D2" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F2" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="23">
+      <c r="A3" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F3" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="23">
+      <c r="A4" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F4" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="23">
+      <c r="A5" s="37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Faux</t>
+        </is>
+      </c>
+      <c r="B5" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F5" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="23">
+      <c r="A6" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F6" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="23">
+      <c r="A7" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F7" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="23">
+      <c r="A8" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B8" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D8" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="23">
+      <c r="A9" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B9" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D9" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F9" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="23">
+      <c r="A10" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B10" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D10" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="23">
+      <c r="A11" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="23">
+      <c r="A12" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B12" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D12" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
@@ -8817,7 +9521,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.08" customWidth="1" style="20" min="6" max="6"/>
     <col width="11.52" customWidth="1" style="20" min="947" max="1024"/>
@@ -9015,10 +9719,10 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
   </cols>
@@ -9420,7 +10124,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
   </cols>
@@ -9822,7 +10526,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="23">
       <c r="A1" s="20" t="inlineStr">
@@ -10230,7 +10934,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="23">
       <c r="A1" s="20" t="inlineStr">
@@ -10778,7 +11482,7 @@
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="23">
       <c r="A1" s="20" t="inlineStr">
@@ -11322,15 +12026,14 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="20" min="1" max="2"/>
-    <col width="11.52" customWidth="1" style="20" min="1010" max="1021"/>
-    <col width="11.52" customWidth="1" style="20" min="1022" max="1024"/>
+    <col width="11.52" customWidth="1" style="20" min="1010" max="1024"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="23">
@@ -11445,7 +12148,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="20" min="1" max="3"/>
     <col width="21.53" customWidth="1" style="20" min="4" max="4"/>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille5bis" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="color_line" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cutinparts" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cutinpartsbis" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delete_lines" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delete_lines_bis" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Feuille3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Feuille4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Feuille5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Feuille5bis" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="color_line" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="cutinparts" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="cutinpartsbis" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="delete_lines" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="delete_lines_bis" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>
@@ -408,14 +408,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -448,8 +448,8 @@
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+        <a:noFill/>
+        <a:ln w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -487,10 +487,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+            <a:ln w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -498,9 +498,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -653,7 +653,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -661,9 +661,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-5400000"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -694,7 +694,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+            <a:ln w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -707,15 +707,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+          <a:ln w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -738,10 +738,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+    <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+    <a:ln w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -752,14 +752,14 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -792,8 +792,8 @@
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+        <a:noFill/>
+        <a:ln w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -831,10 +831,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+            <a:ln w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -842,9 +842,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -997,7 +997,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -1005,9 +1005,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-5400000"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1038,7 +1038,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+            <a:ln w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -1051,15 +1051,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+          <a:ln w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1082,10 +1082,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+    <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+    <a:ln w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -1096,14 +1096,14 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1136,8 +1136,8 @@
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+        <a:noFill/>
+        <a:ln w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -1176,10 +1176,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+            <a:ln w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1187,9 +1187,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -1342,7 +1342,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -1350,9 +1350,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-5400000"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1383,7 +1383,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+            <a:ln w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -1396,15 +1396,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+          <a:ln w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1427,10 +1427,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+    <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+    <a:ln w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -1441,14 +1441,14 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1481,8 +1481,8 @@
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+        <a:noFill/>
+        <a:ln w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -1521,10 +1521,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+            <a:ln w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1532,9 +1532,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -1687,7 +1687,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -1695,9 +1695,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-5400000"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1728,7 +1728,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+            <a:ln w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -1741,15 +1741,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+          <a:ln w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1772,10 +1772,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+    <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+    <a:ln w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -1786,7 +1786,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>102</col>
@@ -1806,9 +1806,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1818,7 +1818,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>94</col>
@@ -1838,9 +1838,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1850,7 +1850,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>101</col>
@@ -1870,9 +1870,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1882,7 +1882,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>101</col>
@@ -1902,9 +1902,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -2197,7 +2197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -8803,7 +8803,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8813,7 +8813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -10515,7 +10515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -10918,12 +10918,12 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -11466,12 +11466,12 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -12014,7 +12014,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -1,30 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Feuille3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Feuille4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Feuille5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Feuille5bis" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="color_line" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="cutinparts" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="cutinpartsbis" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="delete_lines" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="delete_lines_bis" sheetId="11" state="visible" r:id="rId11"/>
-  </sheets>
-  <definedNames>
-    <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>
-  </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
-</workbook>
-</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -2208,7 +2181,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.43359375" defaultRowHeight="16.05" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.43359375" defaultRowHeight="16.05" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="16.2" customWidth="1" style="20" min="6" max="6"/>
     <col width="14.38" customWidth="1" style="21" min="7" max="7"/>
@@ -8819,7 +8792,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
   </cols>
@@ -9171,7 +9144,7 @@
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
   </cols>
@@ -9521,7 +9494,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.08" customWidth="1" style="20" min="6" max="6"/>
     <col width="11.52" customWidth="1" style="20" min="947" max="1024"/>
@@ -9722,7 +9695,7 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
   </cols>
@@ -10124,7 +10097,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
   </cols>
@@ -12030,7 +12003,7 @@
       <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="20" min="1" max="2"/>
     <col width="11.52" customWidth="1" style="20" min="1010" max="1024"/>
@@ -12148,7 +12121,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="20" min="1" max="3"/>
     <col width="21.53" customWidth="1" style="20" min="4" max="4"/>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -91,7 +91,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -157,26 +157,6 @@
         <fgColor rgb="0000a933"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002a6099"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00bf0041"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffff00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ff0000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -197,7 +177,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -320,21 +300,6 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,8 +407,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304284354173278"/>
-          <y val="0.0254365983295368"/>
+          <x val="0.30432576430293"/>
+          <y val="0.0255663840020251"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -462,10 +427,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0129482703903523"/>
-          <y val="0.125031637560111"/>
-          <w val="0.96585211044113"/>
-          <h val="0.861300936471779"/>
+          <x val="0.0129392363313459"/>
+          <y val="0.125047462346538"/>
+          <w val="0.965812507928454"/>
+          <h val="0.861156815592963"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -638,11 +603,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="82962979"/>
-        <axId val="64313139"/>
+        <axId val="45756070"/>
+        <axId val="48929188"/>
       </barChart>
       <catAx>
-        <axId val="82962979"/>
+        <axId val="45756070"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -677,7 +642,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="64313139"/>
+        <crossAx val="48929188"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -685,7 +650,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="64313139"/>
+        <axId val="48929188"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -729,7 +694,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="82962979"/>
+        <crossAx val="45756070"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -786,8 +751,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304283981357339"/>
-          <y val="0.0254365983295368"/>
+          <x val="0.304322876817138"/>
+          <y val="0.0255663840020251"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -806,10 +771,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0129604801123667"/>
-          <y val="0.125031637560111"/>
-          <w val="0.965651535465747"/>
-          <h val="0.861300936471779"/>
+          <x val="0.0129431267533792"/>
+          <y val="0.125047462346538"/>
+          <w val="0.965570007651109"/>
+          <h val="0.861156815592963"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -982,11 +947,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="10632551"/>
-        <axId val="42813938"/>
+        <axId val="43487628"/>
+        <axId val="30788276"/>
       </barChart>
       <catAx>
-        <axId val="10632551"/>
+        <axId val="43487628"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1021,7 +986,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="42813938"/>
+        <crossAx val="30788276"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1029,7 +994,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="42813938"/>
+        <axId val="30788276"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1073,7 +1038,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="10632551"/>
+        <crossAx val="43487628"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1130,8 +1095,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304372805617619"/>
-          <y val="0.0255631485699823"/>
+          <x val="0.304430985017533"/>
+          <y val="0.0256929502594608"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1151,10 +1116,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0524098308330674"/>
-          <y val="0.145279676031384"/>
-          <w val="0.926651771465049"/>
-          <h val="0.820931409769679"/>
+          <x val="0.0524067580490915"/>
+          <y val="0.145298063536261"/>
+          <w val="0.9266177876952501"/>
+          <h val="0.820782179470953"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1327,11 +1292,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="83284912"/>
-        <axId val="19779740"/>
+        <axId val="6685342"/>
+        <axId val="30578753"/>
       </barChart>
       <catAx>
-        <axId val="83284912"/>
+        <axId val="6685342"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1366,7 +1331,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="19779740"/>
+        <crossAx val="30578753"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1374,7 +1339,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="19779740"/>
+        <axId val="30578753"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1418,7 +1383,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="83284912"/>
+        <crossAx val="6685342"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1475,8 +1440,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304436642195978"/>
-          <y val="0.0256896988104277"/>
+          <x val="0.304494740197641"/>
+          <y val="0.0258195165168966"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1496,10 +1461,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0524098308330674"/>
-          <y val="0.145279676031384"/>
-          <w val="0.926651771465049"/>
-          <h val="0.820931409769679"/>
+          <x val="0.0524067580490915"/>
+          <y val="0.145298063536261"/>
+          <w val="0.9266177876952501"/>
+          <h val="0.820782179470953"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1672,11 +1637,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="53177077"/>
-        <axId val="26377073"/>
+        <axId val="46266503"/>
+        <axId val="60432670"/>
       </barChart>
       <catAx>
-        <axId val="53177077"/>
+        <axId val="46266503"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1711,7 +1676,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="26377073"/>
+        <crossAx val="60432670"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1719,7 +1684,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="26377073"/>
+        <axId val="60432670"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1763,7 +1728,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="53177077"/>
+        <crossAx val="46266503"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1796,9 +1761,9 @@
     </from>
     <to>
       <col>109</col>
-      <colOff>39600</colOff>
+      <colOff>39240</colOff>
       <row>27</row>
-      <rowOff>83160</rowOff>
+      <rowOff>82800</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1828,9 +1793,9 @@
     </from>
     <to>
       <col>100</col>
-      <colOff>691560</colOff>
+      <colOff>691200</colOff>
       <row>30</row>
-      <rowOff>133200</rowOff>
+      <rowOff>132840</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1860,9 +1825,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>691560</colOff>
+      <colOff>691200</colOff>
       <row>30</row>
-      <rowOff>132480</rowOff>
+      <rowOff>132120</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1892,9 +1857,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>691560</colOff>
+      <colOff>691200</colOff>
       <row>30</row>
-      <rowOff>132480</rowOff>
+      <rowOff>132120</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2208,7 +2173,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.43359375" defaultRowHeight="16.05" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.4453125" defaultRowHeight="16.05" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="16.2" customWidth="1" style="20" min="6" max="6"/>
     <col width="14.38" customWidth="1" style="21" min="7" max="7"/>
@@ -9167,7 +9132,7 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -9521,7 +9486,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.08" customWidth="1" style="20" min="6" max="6"/>
     <col width="11.52" customWidth="1" style="20" min="947" max="1024"/>
@@ -9728,12 +9693,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="23">
-      <c r="A1" s="42" t="inlineStr">
+      <c r="A1" s="35" t="inlineStr">
         <is>
           <t>Les électrons sont plus petits que les atomes</t>
         </is>
       </c>
-      <c r="B1" s="44" t="inlineStr">
+      <c r="B1" s="36" t="inlineStr">
         <is>
           <t>accuracy_Q6</t>
         </is>
@@ -9838,12 +9803,12 @@
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="23">
-      <c r="A5" s="43" t="inlineStr">
+      <c r="A5" s="37" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="B5" s="45" t="n">
+      <c r="B5" s="38" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="20" t="inlineStr">
@@ -9872,12 +9837,12 @@
       <c r="B6" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="46" t="inlineStr">
+      <c r="C6" s="32" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Vrai</t>
         </is>
       </c>
-      <c r="D6" s="45" t="n">
+      <c r="D6" s="38" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="20" t="inlineStr">
@@ -10080,12 +10045,12 @@
       <c r="B14" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="46" t="inlineStr">
+      <c r="C14" s="32" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Vrai</t>
         </is>
       </c>
-      <c r="D14" s="45" t="n">
+      <c r="D14" s="38" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="20" t="inlineStr">
@@ -10526,7 +10491,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="23">
       <c r="A1" s="20" t="inlineStr">
@@ -10934,7 +10899,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="23">
       <c r="A1" s="20" t="inlineStr">
@@ -11482,7 +11447,7 @@
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="23">
       <c r="A1" s="20" t="inlineStr">
@@ -12026,14 +11991,15 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="20" min="1" max="2"/>
-    <col width="11.52" customWidth="1" style="20" min="1010" max="1024"/>
+    <col width="11.52" customWidth="1" style="20" min="998" max="1012"/>
+    <col width="11.52" customWidth="1" style="20" min="1013" max="1024"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="23">
@@ -12148,7 +12114,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="20" min="1" max="3"/>
     <col width="21.53" customWidth="1" style="20" min="4" max="4"/>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -10485,7 +10485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -10516,6 +10516,16 @@
       </c>
       <c r="E1" s="20" t="inlineStr">
         <is>
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="F1" s="20" t="inlineStr">
+        <is>
+          <t>Note/10,00</t>
+        </is>
+      </c>
+      <c r="G1" s="20" t="inlineStr">
+        <is>
           <t>Temps utilisé</t>
         </is>
       </c>
@@ -10541,7 +10551,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E2" s="25" t="inlineStr">
+      <c r="E2" s="20" t="inlineStr">
+        <is>
+          <t>Houzefa</t>
+        </is>
+      </c>
+      <c r="F2" s="20" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G2" s="25" t="inlineStr">
         <is>
           <t>5 min 49 s</t>
         </is>
@@ -10568,7 +10588,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E3" s="25" t="inlineStr">
+      <c r="E3" s="20" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="F3" s="20" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G3" s="25" t="inlineStr">
         <is>
           <t>7 min 22 s</t>
         </is>
@@ -10595,7 +10625,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E4" s="25" t="inlineStr">
+      <c r="E4" s="20" t="inlineStr">
+        <is>
+          <t>Zina</t>
+        </is>
+      </c>
+      <c r="F4" s="20" t="inlineStr">
+        <is>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="G4" s="25" t="inlineStr">
         <is>
           <t>5 min 15 s</t>
         </is>
@@ -10622,7 +10662,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E5" s="25" t="inlineStr">
+      <c r="E5" s="20" t="inlineStr">
+        <is>
+          <t>Aboubaker</t>
+        </is>
+      </c>
+      <c r="F5" s="20" t="inlineStr">
+        <is>
+          <t>7,98</t>
+        </is>
+      </c>
+      <c r="G5" s="25" t="inlineStr">
         <is>
           <t>7 min 57 s</t>
         </is>
@@ -10649,7 +10699,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E6" s="25" t="inlineStr">
+      <c r="E6" s="20" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="F6" s="20" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G6" s="25" t="inlineStr">
         <is>
           <t>7 min 44 s</t>
         </is>
@@ -10676,7 +10736,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E7" s="28" t="inlineStr">
+      <c r="E7" s="20" t="inlineStr">
+        <is>
+          <t>Hassan Mahamat</t>
+        </is>
+      </c>
+      <c r="F7" s="20" t="inlineStr">
+        <is>
+          <t>7,52</t>
+        </is>
+      </c>
+      <c r="G7" s="28" t="inlineStr">
         <is>
           <t>23 min 37 s</t>
         </is>
@@ -10703,7 +10773,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E8" s="25" t="inlineStr">
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t>Yacine</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="inlineStr">
+        <is>
+          <t>8,07</t>
+        </is>
+      </c>
+      <c r="G8" s="25" t="inlineStr">
         <is>
           <t>4 min 17 s</t>
         </is>
@@ -10730,7 +10810,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E9" s="25" t="inlineStr">
+      <c r="E9" s="20" t="inlineStr">
+        <is>
+          <t>Paola</t>
+        </is>
+      </c>
+      <c r="F9" s="20" t="inlineStr">
+        <is>
+          <t>7,16</t>
+        </is>
+      </c>
+      <c r="G9" s="25" t="inlineStr">
         <is>
           <t>8 min 33 s</t>
         </is>
@@ -10757,7 +10847,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E10" s="25" t="inlineStr">
+      <c r="E10" s="39" t="inlineStr">
+        <is>
+          <t>Rodolphe</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+      <c r="G10" s="25" t="inlineStr">
         <is>
           <t>15 min 32 s</t>
         </is>
@@ -10784,7 +10884,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E11" s="25" t="inlineStr">
+      <c r="E11" s="20" t="inlineStr">
+        <is>
+          <t>Nouh</t>
+        </is>
+      </c>
+      <c r="F11" s="20" t="inlineStr">
+        <is>
+          <t>7,35</t>
+        </is>
+      </c>
+      <c r="G11" s="25" t="inlineStr">
         <is>
           <t>9 min 27 s</t>
         </is>
@@ -10811,7 +10921,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E12" s="25" t="inlineStr">
+      <c r="E12" s="20" t="inlineStr">
+        <is>
+          <t>Iness</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="G12" s="25" t="inlineStr">
         <is>
           <t>10 min 33 s</t>
         </is>
@@ -10838,7 +10958,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E13" s="25" t="inlineStr">
+      <c r="E13" s="20" t="inlineStr">
+        <is>
+          <t>Zakaria</t>
+        </is>
+      </c>
+      <c r="F13" s="20" t="inlineStr">
+        <is>
+          <t>7,70</t>
+        </is>
+      </c>
+      <c r="G13" s="25" t="inlineStr">
         <is>
           <t>9 min 14 s</t>
         </is>
@@ -10865,7 +10995,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E14" s="28" t="inlineStr">
+      <c r="E14" s="39" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="F14" s="20" t="inlineStr">
+        <is>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="G14" s="28" t="inlineStr">
         <is>
           <t>21 min 49 s</t>
         </is>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -395,8 +395,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304454976303318"/>
-          <y val="0.0259559382122056"/>
+          <x val="0.30458577090017"/>
+          <y val="0.0263457884737175"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -415,10 +415,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0128909952606635"/>
-          <y val="0.125094960749557"/>
-          <w val="0.9656240126382311"/>
-          <h val="0.860724233983287"/>
+          <x val="0.0128326099264012"/>
+          <y val="0.125142495250158"/>
+          <w val="0.965402277159213"/>
+          <h val="0.860291323622546"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -591,11 +591,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="54704306"/>
-        <axId val="58898256"/>
+        <axId val="60210764"/>
+        <axId val="39655215"/>
       </barChart>
       <catAx>
-        <axId val="54704306"/>
+        <axId val="60210764"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -630,7 +630,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="58898256"/>
+        <crossAx val="39655215"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -638,7 +638,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="58898256"/>
+        <axId val="39655215"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -682,7 +682,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="54704306"/>
+        <crossAx val="60210764"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -739,8 +739,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304436252701157"/>
-          <y val="0.0259559382122056"/>
+          <x val="0.304590060145616"/>
+          <y val="0.0263457884737175"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -759,10 +759,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0129019956781492"/>
-          <y val="0.125094960749557"/>
-          <w val="0.965361637218762"/>
-          <h val="0.860724233983287"/>
+          <x val="0.012852168407724"/>
+          <y val="0.125142495250158"/>
+          <w val="0.965115542893321"/>
+          <h val="0.860291323622546"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -935,11 +935,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="16642026"/>
-        <axId val="26930782"/>
+        <axId val="16185274"/>
+        <axId val="62137394"/>
       </barChart>
       <catAx>
-        <axId val="16642026"/>
+        <axId val="16185274"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -974,7 +974,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="26930782"/>
+        <crossAx val="62137394"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -982,7 +982,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="26930782"/>
+        <axId val="62137394"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1026,7 +1026,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="16642026"/>
+        <crossAx val="16185274"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1083,8 +1083,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304544010168414"/>
-          <y val="0.0260825525449481"/>
+          <x val="0.304697391744746"/>
+          <y val="0.0264724509183027"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1104,10 +1104,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0523673339688592"/>
-          <y val="0.145353253988351"/>
-          <w val="0.926469653638386"/>
-          <h val="0.82033426183844"/>
+          <x val="0.0523550265890099"/>
+          <y val="0.145408486383787"/>
+          <w val="0.926373765510256"/>
+          <h val="0.819886003799873"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1280,11 +1280,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="68931994"/>
-        <axId val="89550226"/>
+        <axId val="42916953"/>
+        <axId val="10666216"/>
       </barChart>
       <catAx>
-        <axId val="68931994"/>
+        <axId val="42916953"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1319,7 +1319,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="89550226"/>
+        <crossAx val="10666216"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1327,7 +1327,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="89550226"/>
+        <axId val="10666216"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1371,7 +1371,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="68931994"/>
+        <crossAx val="42916953"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1428,8 +1428,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304607562758182"/>
-          <y val="0.0262091668776906"/>
+          <x val="0.304760698911117"/>
+          <y val="0.0265991133628879"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1449,10 +1449,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0523673339688592"/>
-          <y val="0.145353253988351"/>
-          <w val="0.926469653638386"/>
-          <h val="0.82033426183844"/>
+          <x val="0.0523550265890099"/>
+          <y val="0.145408486383787"/>
+          <w val="0.926373765510256"/>
+          <h val="0.819886003799873"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1625,11 +1625,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="58469090"/>
-        <axId val="4680451"/>
+        <axId val="67993797"/>
+        <axId val="68842535"/>
       </barChart>
       <catAx>
-        <axId val="58469090"/>
+        <axId val="67993797"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1664,7 +1664,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="4680451"/>
+        <crossAx val="68842535"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1672,7 +1672,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="4680451"/>
+        <axId val="68842535"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1716,7 +1716,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="58469090"/>
+        <crossAx val="67993797"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1742,16 +1742,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
-      <col>102</col>
-      <colOff>9360</colOff>
+      <col>99</col>
+      <colOff>10080</colOff>
       <row>13</row>
-      <rowOff>92880</rowOff>
+      <rowOff>93960</rowOff>
     </from>
     <to>
-      <col>109</col>
+      <col>106</col>
       <colOff>38520</colOff>
-      <row>27</row>
-      <rowOff>82080</rowOff>
+      <row>30</row>
+      <rowOff>131040</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1781,9 +1781,9 @@
     </from>
     <to>
       <col>100</col>
-      <colOff>690120</colOff>
+      <colOff>689040</colOff>
       <row>30</row>
-      <rowOff>131760</rowOff>
+      <rowOff>130680</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1813,9 +1813,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>690120</colOff>
+      <colOff>689040</colOff>
       <row>30</row>
-      <rowOff>131040</rowOff>
+      <rowOff>129960</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1845,9 +1845,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>690120</colOff>
+      <colOff>689040</colOff>
       <row>30</row>
-      <rowOff>131040</rowOff>
+      <rowOff>129960</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2157,25 +2157,24 @@
   </sheetPr>
   <dimension ref="A1:DJ14"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="J1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.48828125" defaultRowHeight="16.05" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="16.2" customWidth="1" style="18" min="6" max="6"/>
     <col width="14.38" customWidth="1" style="19" min="7" max="7"/>
     <col width="140.36" customWidth="1" style="18" min="10" max="10"/>
     <col width="13.5" customWidth="1" style="18" min="12" max="12"/>
-    <col width="13.5" customWidth="1" style="18" min="14" max="14"/>
-    <col width="139.25" customWidth="1" style="18" min="37" max="37"/>
-    <col width="15.61" customWidth="1" style="18" min="38" max="38"/>
-    <col width="15.61" customWidth="1" style="20" min="39" max="39"/>
-    <col width="37.25" customWidth="1" style="18" min="40" max="40"/>
-    <col width="37.25" customWidth="1" style="20" min="42" max="42"/>
-    <col width="11.5" customWidth="1" style="19" min="43" max="43"/>
-    <col width="15.61" customWidth="1" style="20" min="78" max="78"/>
-    <col width="11.5" customWidth="1" style="20" min="79" max="79"/>
+    <col width="139.25" customWidth="1" style="18" min="34" max="34"/>
+    <col width="15.61" customWidth="1" style="18" min="35" max="35"/>
+    <col width="15.61" customWidth="1" style="20" min="36" max="36"/>
+    <col width="37.25" customWidth="1" style="18" min="37" max="37"/>
+    <col width="37.25" customWidth="1" style="20" min="39" max="39"/>
+    <col width="11.5" customWidth="1" style="19" min="40" max="40"/>
+    <col width="15.61" customWidth="1" style="20" min="75" max="75"/>
+    <col width="11.5" customWidth="1" style="20" min="76" max="76"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="21">
@@ -7151,1466 +7150,6 @@
         </is>
       </c>
     </row>
-    <row r="64076" ht="12.8" customHeight="1" s="21"/>
-    <row r="64077" ht="12.8" customHeight="1" s="21"/>
-    <row r="64078" ht="12.8" customHeight="1" s="21"/>
-    <row r="64079" ht="12.8" customHeight="1" s="21"/>
-    <row r="64080" ht="12.8" customHeight="1" s="21"/>
-    <row r="64081" ht="12.8" customHeight="1" s="21"/>
-    <row r="64082" ht="12.8" customHeight="1" s="21"/>
-    <row r="64083" ht="12.8" customHeight="1" s="21"/>
-    <row r="64084" ht="12.8" customHeight="1" s="21"/>
-    <row r="64085" ht="12.8" customHeight="1" s="21"/>
-    <row r="64086" ht="12.8" customHeight="1" s="21"/>
-    <row r="64087" ht="12.8" customHeight="1" s="21"/>
-    <row r="64088" ht="12.8" customHeight="1" s="21"/>
-    <row r="64089" ht="12.8" customHeight="1" s="21"/>
-    <row r="64090" ht="12.8" customHeight="1" s="21"/>
-    <row r="64091" ht="12.8" customHeight="1" s="21"/>
-    <row r="64092" ht="12.8" customHeight="1" s="21"/>
-    <row r="64093" ht="12.8" customHeight="1" s="21"/>
-    <row r="64094" ht="12.8" customHeight="1" s="21"/>
-    <row r="64095" ht="12.8" customHeight="1" s="21"/>
-    <row r="64096" ht="12.8" customHeight="1" s="21"/>
-    <row r="64097" ht="12.8" customHeight="1" s="21"/>
-    <row r="64098" ht="12.8" customHeight="1" s="21"/>
-    <row r="64099" ht="12.8" customHeight="1" s="21"/>
-    <row r="64100" ht="12.8" customHeight="1" s="21"/>
-    <row r="64101" ht="12.8" customHeight="1" s="21"/>
-    <row r="64102" ht="12.8" customHeight="1" s="21"/>
-    <row r="64103" ht="12.8" customHeight="1" s="21"/>
-    <row r="64104" ht="12.8" customHeight="1" s="21"/>
-    <row r="64105" ht="12.8" customHeight="1" s="21"/>
-    <row r="64106" ht="12.8" customHeight="1" s="21"/>
-    <row r="64107" ht="12.8" customHeight="1" s="21"/>
-    <row r="64108" ht="12.8" customHeight="1" s="21"/>
-    <row r="64109" ht="12.8" customHeight="1" s="21"/>
-    <row r="64110" ht="12.8" customHeight="1" s="21"/>
-    <row r="64111" ht="12.8" customHeight="1" s="21"/>
-    <row r="64112" ht="12.8" customHeight="1" s="21"/>
-    <row r="64113" ht="12.8" customHeight="1" s="21"/>
-    <row r="64114" ht="12.8" customHeight="1" s="21"/>
-    <row r="64115" ht="12.8" customHeight="1" s="21"/>
-    <row r="64116" ht="12.8" customHeight="1" s="21"/>
-    <row r="64117" ht="12.8" customHeight="1" s="21"/>
-    <row r="64118" ht="12.8" customHeight="1" s="21"/>
-    <row r="64119" ht="12.8" customHeight="1" s="21"/>
-    <row r="64120" ht="12.8" customHeight="1" s="21"/>
-    <row r="64121" ht="12.8" customHeight="1" s="21"/>
-    <row r="64122" ht="12.8" customHeight="1" s="21"/>
-    <row r="64123" ht="12.8" customHeight="1" s="21"/>
-    <row r="64124" ht="12.8" customHeight="1" s="21"/>
-    <row r="64125" ht="12.8" customHeight="1" s="21"/>
-    <row r="64126" ht="12.8" customHeight="1" s="21"/>
-    <row r="64127" ht="12.8" customHeight="1" s="21"/>
-    <row r="64128" ht="12.8" customHeight="1" s="21"/>
-    <row r="64129" ht="12.8" customHeight="1" s="21"/>
-    <row r="64130" ht="12.8" customHeight="1" s="21"/>
-    <row r="64131" ht="12.8" customHeight="1" s="21"/>
-    <row r="64132" ht="12.8" customHeight="1" s="21"/>
-    <row r="64133" ht="12.8" customHeight="1" s="21"/>
-    <row r="64134" ht="12.8" customHeight="1" s="21"/>
-    <row r="64135" ht="12.8" customHeight="1" s="21"/>
-    <row r="64136" ht="12.8" customHeight="1" s="21"/>
-    <row r="64137" ht="12.8" customHeight="1" s="21"/>
-    <row r="64138" ht="12.8" customHeight="1" s="21"/>
-    <row r="64139" ht="12.8" customHeight="1" s="21"/>
-    <row r="64140" ht="12.8" customHeight="1" s="21"/>
-    <row r="64141" ht="12.8" customHeight="1" s="21"/>
-    <row r="64142" ht="12.8" customHeight="1" s="21"/>
-    <row r="64143" ht="12.8" customHeight="1" s="21"/>
-    <row r="64144" ht="12.8" customHeight="1" s="21"/>
-    <row r="64145" ht="12.8" customHeight="1" s="21"/>
-    <row r="64146" ht="12.8" customHeight="1" s="21"/>
-    <row r="64147" ht="12.8" customHeight="1" s="21"/>
-    <row r="64148" ht="12.8" customHeight="1" s="21"/>
-    <row r="64149" ht="12.8" customHeight="1" s="21"/>
-    <row r="64150" ht="12.8" customHeight="1" s="21"/>
-    <row r="64151" ht="12.8" customHeight="1" s="21"/>
-    <row r="64152" ht="12.8" customHeight="1" s="21"/>
-    <row r="64153" ht="12.8" customHeight="1" s="21"/>
-    <row r="64154" ht="12.8" customHeight="1" s="21"/>
-    <row r="64155" ht="12.8" customHeight="1" s="21"/>
-    <row r="64156" ht="12.8" customHeight="1" s="21"/>
-    <row r="64157" ht="12.8" customHeight="1" s="21"/>
-    <row r="64158" ht="12.8" customHeight="1" s="21"/>
-    <row r="64159" ht="12.8" customHeight="1" s="21"/>
-    <row r="64160" ht="12.8" customHeight="1" s="21"/>
-    <row r="64161" ht="12.8" customHeight="1" s="21"/>
-    <row r="64162" ht="12.8" customHeight="1" s="21"/>
-    <row r="64163" ht="12.8" customHeight="1" s="21"/>
-    <row r="64164" ht="12.8" customHeight="1" s="21"/>
-    <row r="64165" ht="12.8" customHeight="1" s="21"/>
-    <row r="64166" ht="12.8" customHeight="1" s="21"/>
-    <row r="64167" ht="12.8" customHeight="1" s="21"/>
-    <row r="64168" ht="12.8" customHeight="1" s="21"/>
-    <row r="64169" ht="12.8" customHeight="1" s="21"/>
-    <row r="64170" ht="12.8" customHeight="1" s="21"/>
-    <row r="64171" ht="12.8" customHeight="1" s="21"/>
-    <row r="64172" ht="12.8" customHeight="1" s="21"/>
-    <row r="64173" ht="12.8" customHeight="1" s="21"/>
-    <row r="64174" ht="12.8" customHeight="1" s="21"/>
-    <row r="64175" ht="12.8" customHeight="1" s="21"/>
-    <row r="64176" ht="12.8" customHeight="1" s="21"/>
-    <row r="64177" ht="12.8" customHeight="1" s="21"/>
-    <row r="64178" ht="12.8" customHeight="1" s="21"/>
-    <row r="64179" ht="12.8" customHeight="1" s="21"/>
-    <row r="64180" ht="12.8" customHeight="1" s="21"/>
-    <row r="64181" ht="12.8" customHeight="1" s="21"/>
-    <row r="64182" ht="12.8" customHeight="1" s="21"/>
-    <row r="64183" ht="12.8" customHeight="1" s="21"/>
-    <row r="64184" ht="12.8" customHeight="1" s="21"/>
-    <row r="64185" ht="12.8" customHeight="1" s="21"/>
-    <row r="64186" ht="12.8" customHeight="1" s="21"/>
-    <row r="64187" ht="12.8" customHeight="1" s="21"/>
-    <row r="64188" ht="12.8" customHeight="1" s="21"/>
-    <row r="64189" ht="12.8" customHeight="1" s="21"/>
-    <row r="64190" ht="12.8" customHeight="1" s="21"/>
-    <row r="64191" ht="12.8" customHeight="1" s="21"/>
-    <row r="64192" ht="12.8" customHeight="1" s="21"/>
-    <row r="64193" ht="12.8" customHeight="1" s="21"/>
-    <row r="64194" ht="12.8" customHeight="1" s="21"/>
-    <row r="64195" ht="12.8" customHeight="1" s="21"/>
-    <row r="64196" ht="12.8" customHeight="1" s="21"/>
-    <row r="64197" ht="12.8" customHeight="1" s="21"/>
-    <row r="64198" ht="12.8" customHeight="1" s="21"/>
-    <row r="64199" ht="12.8" customHeight="1" s="21"/>
-    <row r="64200" ht="12.8" customHeight="1" s="21"/>
-    <row r="64201" ht="12.8" customHeight="1" s="21"/>
-    <row r="64202" ht="12.8" customHeight="1" s="21"/>
-    <row r="64203" ht="12.8" customHeight="1" s="21"/>
-    <row r="64204" ht="12.8" customHeight="1" s="21"/>
-    <row r="64205" ht="12.8" customHeight="1" s="21"/>
-    <row r="64206" ht="12.8" customHeight="1" s="21"/>
-    <row r="64207" ht="12.8" customHeight="1" s="21"/>
-    <row r="64208" ht="12.8" customHeight="1" s="21"/>
-    <row r="64209" ht="12.8" customHeight="1" s="21"/>
-    <row r="64210" ht="12.8" customHeight="1" s="21"/>
-    <row r="64211" ht="12.8" customHeight="1" s="21"/>
-    <row r="64212" ht="12.8" customHeight="1" s="21"/>
-    <row r="64213" ht="12.8" customHeight="1" s="21"/>
-    <row r="64214" ht="12.8" customHeight="1" s="21"/>
-    <row r="64215" ht="12.8" customHeight="1" s="21"/>
-    <row r="64216" ht="12.8" customHeight="1" s="21"/>
-    <row r="64217" ht="12.8" customHeight="1" s="21"/>
-    <row r="64218" ht="12.8" customHeight="1" s="21"/>
-    <row r="64219" ht="12.8" customHeight="1" s="21"/>
-    <row r="64220" ht="12.8" customHeight="1" s="21"/>
-    <row r="64221" ht="12.8" customHeight="1" s="21"/>
-    <row r="64222" ht="12.8" customHeight="1" s="21"/>
-    <row r="64223" ht="12.8" customHeight="1" s="21"/>
-    <row r="64224" ht="12.8" customHeight="1" s="21"/>
-    <row r="64225" ht="12.8" customHeight="1" s="21"/>
-    <row r="64226" ht="12.8" customHeight="1" s="21"/>
-    <row r="64227" ht="12.8" customHeight="1" s="21"/>
-    <row r="64228" ht="12.8" customHeight="1" s="21"/>
-    <row r="64229" ht="12.8" customHeight="1" s="21"/>
-    <row r="64230" ht="12.8" customHeight="1" s="21"/>
-    <row r="64231" ht="12.8" customHeight="1" s="21"/>
-    <row r="64232" ht="12.8" customHeight="1" s="21"/>
-    <row r="64233" ht="12.8" customHeight="1" s="21"/>
-    <row r="64234" ht="12.8" customHeight="1" s="21"/>
-    <row r="64235" ht="12.8" customHeight="1" s="21"/>
-    <row r="64236" ht="12.8" customHeight="1" s="21"/>
-    <row r="64237" ht="12.8" customHeight="1" s="21"/>
-    <row r="64238" ht="12.8" customHeight="1" s="21"/>
-    <row r="64239" ht="12.8" customHeight="1" s="21"/>
-    <row r="64240" ht="12.8" customHeight="1" s="21"/>
-    <row r="64241" ht="12.8" customHeight="1" s="21"/>
-    <row r="64242" ht="12.8" customHeight="1" s="21"/>
-    <row r="64243" ht="12.8" customHeight="1" s="21"/>
-    <row r="64244" ht="12.8" customHeight="1" s="21"/>
-    <row r="64245" ht="12.8" customHeight="1" s="21"/>
-    <row r="64246" ht="12.8" customHeight="1" s="21"/>
-    <row r="64247" ht="12.8" customHeight="1" s="21"/>
-    <row r="64248" ht="12.8" customHeight="1" s="21"/>
-    <row r="64249" ht="12.8" customHeight="1" s="21"/>
-    <row r="64250" ht="12.8" customHeight="1" s="21"/>
-    <row r="64251" ht="12.8" customHeight="1" s="21"/>
-    <row r="64252" ht="12.8" customHeight="1" s="21"/>
-    <row r="64253" ht="12.8" customHeight="1" s="21"/>
-    <row r="64254" ht="12.8" customHeight="1" s="21"/>
-    <row r="64255" ht="12.8" customHeight="1" s="21"/>
-    <row r="64256" ht="12.8" customHeight="1" s="21"/>
-    <row r="64257" ht="12.8" customHeight="1" s="21"/>
-    <row r="64258" ht="12.8" customHeight="1" s="21"/>
-    <row r="64259" ht="12.8" customHeight="1" s="21"/>
-    <row r="64260" ht="12.8" customHeight="1" s="21"/>
-    <row r="64261" ht="12.8" customHeight="1" s="21"/>
-    <row r="64262" ht="12.8" customHeight="1" s="21"/>
-    <row r="64263" ht="12.8" customHeight="1" s="21"/>
-    <row r="64264" ht="12.8" customHeight="1" s="21"/>
-    <row r="64265" ht="12.8" customHeight="1" s="21"/>
-    <row r="64266" ht="12.8" customHeight="1" s="21"/>
-    <row r="64267" ht="12.8" customHeight="1" s="21"/>
-    <row r="64268" ht="12.8" customHeight="1" s="21"/>
-    <row r="64269" ht="12.8" customHeight="1" s="21"/>
-    <row r="64270" ht="12.8" customHeight="1" s="21"/>
-    <row r="64271" ht="12.8" customHeight="1" s="21"/>
-    <row r="64272" ht="12.8" customHeight="1" s="21"/>
-    <row r="64273" ht="12.8" customHeight="1" s="21"/>
-    <row r="64274" ht="12.8" customHeight="1" s="21"/>
-    <row r="64275" ht="12.8" customHeight="1" s="21"/>
-    <row r="64276" ht="12.8" customHeight="1" s="21"/>
-    <row r="64277" ht="12.8" customHeight="1" s="21"/>
-    <row r="64278" ht="12.8" customHeight="1" s="21"/>
-    <row r="64279" ht="12.8" customHeight="1" s="21"/>
-    <row r="64280" ht="12.8" customHeight="1" s="21"/>
-    <row r="64281" ht="12.8" customHeight="1" s="21"/>
-    <row r="64282" ht="12.8" customHeight="1" s="21"/>
-    <row r="64283" ht="12.8" customHeight="1" s="21"/>
-    <row r="64284" ht="12.8" customHeight="1" s="21"/>
-    <row r="64285" ht="12.8" customHeight="1" s="21"/>
-    <row r="64286" ht="12.8" customHeight="1" s="21"/>
-    <row r="64287" ht="12.8" customHeight="1" s="21"/>
-    <row r="64288" ht="12.8" customHeight="1" s="21"/>
-    <row r="64289" ht="12.8" customHeight="1" s="21"/>
-    <row r="64290" ht="12.8" customHeight="1" s="21"/>
-    <row r="64291" ht="12.8" customHeight="1" s="21"/>
-    <row r="64292" ht="12.8" customHeight="1" s="21"/>
-    <row r="64293" ht="12.8" customHeight="1" s="21"/>
-    <row r="64294" ht="12.8" customHeight="1" s="21"/>
-    <row r="64295" ht="12.8" customHeight="1" s="21"/>
-    <row r="64296" ht="12.8" customHeight="1" s="21"/>
-    <row r="64297" ht="12.8" customHeight="1" s="21"/>
-    <row r="64298" ht="12.8" customHeight="1" s="21"/>
-    <row r="64299" ht="12.8" customHeight="1" s="21"/>
-    <row r="64300" ht="12.8" customHeight="1" s="21"/>
-    <row r="64301" ht="12.8" customHeight="1" s="21"/>
-    <row r="64302" ht="12.8" customHeight="1" s="21"/>
-    <row r="64303" ht="12.8" customHeight="1" s="21"/>
-    <row r="64304" ht="12.8" customHeight="1" s="21"/>
-    <row r="64305" ht="12.8" customHeight="1" s="21"/>
-    <row r="64306" ht="12.8" customHeight="1" s="21"/>
-    <row r="64307" ht="12.8" customHeight="1" s="21"/>
-    <row r="64308" ht="12.8" customHeight="1" s="21"/>
-    <row r="64309" ht="12.8" customHeight="1" s="21"/>
-    <row r="64310" ht="12.8" customHeight="1" s="21"/>
-    <row r="64311" ht="12.8" customHeight="1" s="21"/>
-    <row r="64312" ht="12.8" customHeight="1" s="21"/>
-    <row r="64313" ht="12.8" customHeight="1" s="21"/>
-    <row r="64314" ht="12.8" customHeight="1" s="21"/>
-    <row r="64315" ht="12.8" customHeight="1" s="21"/>
-    <row r="64316" ht="12.8" customHeight="1" s="21"/>
-    <row r="64317" ht="12.8" customHeight="1" s="21"/>
-    <row r="64318" ht="12.8" customHeight="1" s="21"/>
-    <row r="64319" ht="12.8" customHeight="1" s="21"/>
-    <row r="64320" ht="12.8" customHeight="1" s="21"/>
-    <row r="64321" ht="12.8" customHeight="1" s="21"/>
-    <row r="64322" ht="12.8" customHeight="1" s="21"/>
-    <row r="64323" ht="12.8" customHeight="1" s="21"/>
-    <row r="64324" ht="12.8" customHeight="1" s="21"/>
-    <row r="64325" ht="12.8" customHeight="1" s="21"/>
-    <row r="64326" ht="12.8" customHeight="1" s="21"/>
-    <row r="64327" ht="12.8" customHeight="1" s="21"/>
-    <row r="64328" ht="12.8" customHeight="1" s="21"/>
-    <row r="64329" ht="12.8" customHeight="1" s="21"/>
-    <row r="64330" ht="12.8" customHeight="1" s="21"/>
-    <row r="64331" ht="12.8" customHeight="1" s="21"/>
-    <row r="64332" ht="12.8" customHeight="1" s="21"/>
-    <row r="64333" ht="12.8" customHeight="1" s="21"/>
-    <row r="64334" ht="12.8" customHeight="1" s="21"/>
-    <row r="64335" ht="12.8" customHeight="1" s="21"/>
-    <row r="64336" ht="12.8" customHeight="1" s="21"/>
-    <row r="64337" ht="12.8" customHeight="1" s="21"/>
-    <row r="64338" ht="12.8" customHeight="1" s="21"/>
-    <row r="64339" ht="12.8" customHeight="1" s="21"/>
-    <row r="64340" ht="12.8" customHeight="1" s="21"/>
-    <row r="64341" ht="12.8" customHeight="1" s="21"/>
-    <row r="64342" ht="12.8" customHeight="1" s="21"/>
-    <row r="64343" ht="12.8" customHeight="1" s="21"/>
-    <row r="64344" ht="12.8" customHeight="1" s="21"/>
-    <row r="64345" ht="12.8" customHeight="1" s="21"/>
-    <row r="64346" ht="12.8" customHeight="1" s="21"/>
-    <row r="64347" ht="12.8" customHeight="1" s="21"/>
-    <row r="64348" ht="12.8" customHeight="1" s="21"/>
-    <row r="64349" ht="12.8" customHeight="1" s="21"/>
-    <row r="64350" ht="12.8" customHeight="1" s="21"/>
-    <row r="64351" ht="12.8" customHeight="1" s="21"/>
-    <row r="64352" ht="12.8" customHeight="1" s="21"/>
-    <row r="64353" ht="12.8" customHeight="1" s="21"/>
-    <row r="64354" ht="12.8" customHeight="1" s="21"/>
-    <row r="64355" ht="12.8" customHeight="1" s="21"/>
-    <row r="64356" ht="12.8" customHeight="1" s="21"/>
-    <row r="64357" ht="12.8" customHeight="1" s="21"/>
-    <row r="64358" ht="12.8" customHeight="1" s="21"/>
-    <row r="64359" ht="12.8" customHeight="1" s="21"/>
-    <row r="64360" ht="12.8" customHeight="1" s="21"/>
-    <row r="64361" ht="12.8" customHeight="1" s="21"/>
-    <row r="64362" ht="12.8" customHeight="1" s="21"/>
-    <row r="64363" ht="12.8" customHeight="1" s="21"/>
-    <row r="64364" ht="12.8" customHeight="1" s="21"/>
-    <row r="64365" ht="12.8" customHeight="1" s="21"/>
-    <row r="64366" ht="12.8" customHeight="1" s="21"/>
-    <row r="64367" ht="12.8" customHeight="1" s="21"/>
-    <row r="64368" ht="12.8" customHeight="1" s="21"/>
-    <row r="64369" ht="12.8" customHeight="1" s="21"/>
-    <row r="64370" ht="12.8" customHeight="1" s="21"/>
-    <row r="64371" ht="12.8" customHeight="1" s="21"/>
-    <row r="64372" ht="12.8" customHeight="1" s="21"/>
-    <row r="64373" ht="12.8" customHeight="1" s="21"/>
-    <row r="64374" ht="12.8" customHeight="1" s="21"/>
-    <row r="64375" ht="12.8" customHeight="1" s="21"/>
-    <row r="64376" ht="12.8" customHeight="1" s="21"/>
-    <row r="64377" ht="12.8" customHeight="1" s="21"/>
-    <row r="64378" ht="12.8" customHeight="1" s="21"/>
-    <row r="64379" ht="12.8" customHeight="1" s="21"/>
-    <row r="64380" ht="12.8" customHeight="1" s="21"/>
-    <row r="64381" ht="12.8" customHeight="1" s="21"/>
-    <row r="64382" ht="12.8" customHeight="1" s="21"/>
-    <row r="64383" ht="12.8" customHeight="1" s="21"/>
-    <row r="64384" ht="12.8" customHeight="1" s="21"/>
-    <row r="64385" ht="12.8" customHeight="1" s="21"/>
-    <row r="64386" ht="12.8" customHeight="1" s="21"/>
-    <row r="64387" ht="12.8" customHeight="1" s="21"/>
-    <row r="64388" ht="12.8" customHeight="1" s="21"/>
-    <row r="64389" ht="12.8" customHeight="1" s="21"/>
-    <row r="64390" ht="12.8" customHeight="1" s="21"/>
-    <row r="64391" ht="12.8" customHeight="1" s="21"/>
-    <row r="64392" ht="12.8" customHeight="1" s="21"/>
-    <row r="64393" ht="12.8" customHeight="1" s="21"/>
-    <row r="64394" ht="12.8" customHeight="1" s="21"/>
-    <row r="64395" ht="12.8" customHeight="1" s="21"/>
-    <row r="64396" ht="12.8" customHeight="1" s="21"/>
-    <row r="64397" ht="12.8" customHeight="1" s="21"/>
-    <row r="64398" ht="12.8" customHeight="1" s="21"/>
-    <row r="64399" ht="12.8" customHeight="1" s="21"/>
-    <row r="64400" ht="12.8" customHeight="1" s="21"/>
-    <row r="64401" ht="12.8" customHeight="1" s="21"/>
-    <row r="64402" ht="12.8" customHeight="1" s="21"/>
-    <row r="64403" ht="12.8" customHeight="1" s="21"/>
-    <row r="64404" ht="12.8" customHeight="1" s="21"/>
-    <row r="64405" ht="12.8" customHeight="1" s="21"/>
-    <row r="64406" ht="12.8" customHeight="1" s="21"/>
-    <row r="64407" ht="12.8" customHeight="1" s="21"/>
-    <row r="64408" ht="12.8" customHeight="1" s="21"/>
-    <row r="64409" ht="12.8" customHeight="1" s="21"/>
-    <row r="64410" ht="12.8" customHeight="1" s="21"/>
-    <row r="64411" ht="12.8" customHeight="1" s="21"/>
-    <row r="64412" ht="12.8" customHeight="1" s="21"/>
-    <row r="64413" ht="12.8" customHeight="1" s="21"/>
-    <row r="64414" ht="12.8" customHeight="1" s="21"/>
-    <row r="64415" ht="12.8" customHeight="1" s="21"/>
-    <row r="64416" ht="12.8" customHeight="1" s="21"/>
-    <row r="64417" ht="12.8" customHeight="1" s="21"/>
-    <row r="64418" ht="12.8" customHeight="1" s="21"/>
-    <row r="64419" ht="12.8" customHeight="1" s="21"/>
-    <row r="64420" ht="12.8" customHeight="1" s="21"/>
-    <row r="64421" ht="12.8" customHeight="1" s="21"/>
-    <row r="64422" ht="12.8" customHeight="1" s="21"/>
-    <row r="64423" ht="12.8" customHeight="1" s="21"/>
-    <row r="64424" ht="12.8" customHeight="1" s="21"/>
-    <row r="64425" ht="12.8" customHeight="1" s="21"/>
-    <row r="64426" ht="12.8" customHeight="1" s="21"/>
-    <row r="64427" ht="12.8" customHeight="1" s="21"/>
-    <row r="64428" ht="12.8" customHeight="1" s="21"/>
-    <row r="64429" ht="12.8" customHeight="1" s="21"/>
-    <row r="64430" ht="12.8" customHeight="1" s="21"/>
-    <row r="64431" ht="12.8" customHeight="1" s="21"/>
-    <row r="64432" ht="12.8" customHeight="1" s="21"/>
-    <row r="64433" ht="12.8" customHeight="1" s="21"/>
-    <row r="64434" ht="12.8" customHeight="1" s="21"/>
-    <row r="64435" ht="12.8" customHeight="1" s="21"/>
-    <row r="64436" ht="12.8" customHeight="1" s="21"/>
-    <row r="64437" ht="12.8" customHeight="1" s="21"/>
-    <row r="64438" ht="12.8" customHeight="1" s="21"/>
-    <row r="64439" ht="12.8" customHeight="1" s="21"/>
-    <row r="64440" ht="12.8" customHeight="1" s="21"/>
-    <row r="64441" ht="12.8" customHeight="1" s="21"/>
-    <row r="64442" ht="12.8" customHeight="1" s="21"/>
-    <row r="64443" ht="12.8" customHeight="1" s="21"/>
-    <row r="64444" ht="12.8" customHeight="1" s="21"/>
-    <row r="64445" ht="12.8" customHeight="1" s="21"/>
-    <row r="64446" ht="12.8" customHeight="1" s="21"/>
-    <row r="64447" ht="12.8" customHeight="1" s="21"/>
-    <row r="64448" ht="12.8" customHeight="1" s="21"/>
-    <row r="64449" ht="12.8" customHeight="1" s="21"/>
-    <row r="64450" ht="12.8" customHeight="1" s="21"/>
-    <row r="64451" ht="12.8" customHeight="1" s="21"/>
-    <row r="64452" ht="12.8" customHeight="1" s="21"/>
-    <row r="64453" ht="12.8" customHeight="1" s="21"/>
-    <row r="64454" ht="12.8" customHeight="1" s="21"/>
-    <row r="64455" ht="12.8" customHeight="1" s="21"/>
-    <row r="64456" ht="12.8" customHeight="1" s="21"/>
-    <row r="64457" ht="12.8" customHeight="1" s="21"/>
-    <row r="64458" ht="12.8" customHeight="1" s="21"/>
-    <row r="64459" ht="12.8" customHeight="1" s="21"/>
-    <row r="64460" ht="12.8" customHeight="1" s="21"/>
-    <row r="64461" ht="12.8" customHeight="1" s="21"/>
-    <row r="64462" ht="12.8" customHeight="1" s="21"/>
-    <row r="64463" ht="12.8" customHeight="1" s="21"/>
-    <row r="64464" ht="12.8" customHeight="1" s="21"/>
-    <row r="64465" ht="12.8" customHeight="1" s="21"/>
-    <row r="64466" ht="12.8" customHeight="1" s="21"/>
-    <row r="64467" ht="12.8" customHeight="1" s="21"/>
-    <row r="64468" ht="12.8" customHeight="1" s="21"/>
-    <row r="64469" ht="12.8" customHeight="1" s="21"/>
-    <row r="64470" ht="12.8" customHeight="1" s="21"/>
-    <row r="64471" ht="12.8" customHeight="1" s="21"/>
-    <row r="64472" ht="12.8" customHeight="1" s="21"/>
-    <row r="64473" ht="12.8" customHeight="1" s="21"/>
-    <row r="64474" ht="12.8" customHeight="1" s="21"/>
-    <row r="64475" ht="12.8" customHeight="1" s="21"/>
-    <row r="64476" ht="12.8" customHeight="1" s="21"/>
-    <row r="64477" ht="12.8" customHeight="1" s="21"/>
-    <row r="64478" ht="12.8" customHeight="1" s="21"/>
-    <row r="64479" ht="12.8" customHeight="1" s="21"/>
-    <row r="64480" ht="12.8" customHeight="1" s="21"/>
-    <row r="64481" ht="12.8" customHeight="1" s="21"/>
-    <row r="64482" ht="12.8" customHeight="1" s="21"/>
-    <row r="64483" ht="12.8" customHeight="1" s="21"/>
-    <row r="64484" ht="12.8" customHeight="1" s="21"/>
-    <row r="64485" ht="12.8" customHeight="1" s="21"/>
-    <row r="64486" ht="12.8" customHeight="1" s="21"/>
-    <row r="64487" ht="12.8" customHeight="1" s="21"/>
-    <row r="64488" ht="12.8" customHeight="1" s="21"/>
-    <row r="64489" ht="12.8" customHeight="1" s="21"/>
-    <row r="64490" ht="12.8" customHeight="1" s="21"/>
-    <row r="64491" ht="12.8" customHeight="1" s="21"/>
-    <row r="64492" ht="12.8" customHeight="1" s="21"/>
-    <row r="64493" ht="12.8" customHeight="1" s="21"/>
-    <row r="64494" ht="12.8" customHeight="1" s="21"/>
-    <row r="64495" ht="12.8" customHeight="1" s="21"/>
-    <row r="64496" ht="12.8" customHeight="1" s="21"/>
-    <row r="64497" ht="12.8" customHeight="1" s="21"/>
-    <row r="64498" ht="12.8" customHeight="1" s="21"/>
-    <row r="64499" ht="12.8" customHeight="1" s="21"/>
-    <row r="64500" ht="12.8" customHeight="1" s="21"/>
-    <row r="64501" ht="12.8" customHeight="1" s="21"/>
-    <row r="64502" ht="12.8" customHeight="1" s="21"/>
-    <row r="64503" ht="12.8" customHeight="1" s="21"/>
-    <row r="64504" ht="12.8" customHeight="1" s="21"/>
-    <row r="64505" ht="12.8" customHeight="1" s="21"/>
-    <row r="64506" ht="12.8" customHeight="1" s="21"/>
-    <row r="64507" ht="12.8" customHeight="1" s="21"/>
-    <row r="64508" ht="12.8" customHeight="1" s="21"/>
-    <row r="64509" ht="12.8" customHeight="1" s="21"/>
-    <row r="64510" ht="12.8" customHeight="1" s="21"/>
-    <row r="64511" ht="12.8" customHeight="1" s="21"/>
-    <row r="64512" ht="12.8" customHeight="1" s="21"/>
-    <row r="64513" ht="12.8" customHeight="1" s="21"/>
-    <row r="64514" ht="12.8" customHeight="1" s="21"/>
-    <row r="64515" ht="12.8" customHeight="1" s="21"/>
-    <row r="64516" ht="12.8" customHeight="1" s="21"/>
-    <row r="64517" ht="12.8" customHeight="1" s="21"/>
-    <row r="64518" ht="12.8" customHeight="1" s="21"/>
-    <row r="64519" ht="12.8" customHeight="1" s="21"/>
-    <row r="64520" ht="12.8" customHeight="1" s="21"/>
-    <row r="64521" ht="12.8" customHeight="1" s="21"/>
-    <row r="64522" ht="12.8" customHeight="1" s="21"/>
-    <row r="64523" ht="12.8" customHeight="1" s="21"/>
-    <row r="64524" ht="12.8" customHeight="1" s="21"/>
-    <row r="64525" ht="12.8" customHeight="1" s="21"/>
-    <row r="64526" ht="12.8" customHeight="1" s="21"/>
-    <row r="64527" ht="12.8" customHeight="1" s="21"/>
-    <row r="64528" ht="12.8" customHeight="1" s="21"/>
-    <row r="64529" ht="12.8" customHeight="1" s="21"/>
-    <row r="64530" ht="12.8" customHeight="1" s="21"/>
-    <row r="64531" ht="12.8" customHeight="1" s="21"/>
-    <row r="64532" ht="12.8" customHeight="1" s="21"/>
-    <row r="64533" ht="12.8" customHeight="1" s="21"/>
-    <row r="64534" ht="12.8" customHeight="1" s="21"/>
-    <row r="64535" ht="12.8" customHeight="1" s="21"/>
-    <row r="64536" ht="12.8" customHeight="1" s="21"/>
-    <row r="64537" ht="12.8" customHeight="1" s="21"/>
-    <row r="64538" ht="12.8" customHeight="1" s="21"/>
-    <row r="64539" ht="12.8" customHeight="1" s="21"/>
-    <row r="64540" ht="12.8" customHeight="1" s="21"/>
-    <row r="64541" ht="12.8" customHeight="1" s="21"/>
-    <row r="64542" ht="12.8" customHeight="1" s="21"/>
-    <row r="64543" ht="12.8" customHeight="1" s="21"/>
-    <row r="64544" ht="12.8" customHeight="1" s="21"/>
-    <row r="64545" ht="12.8" customHeight="1" s="21"/>
-    <row r="64546" ht="12.8" customHeight="1" s="21"/>
-    <row r="64547" ht="12.8" customHeight="1" s="21"/>
-    <row r="64548" ht="12.8" customHeight="1" s="21"/>
-    <row r="64549" ht="12.8" customHeight="1" s="21"/>
-    <row r="64550" ht="12.8" customHeight="1" s="21"/>
-    <row r="64551" ht="12.8" customHeight="1" s="21"/>
-    <row r="64552" ht="12.8" customHeight="1" s="21"/>
-    <row r="64553" ht="12.8" customHeight="1" s="21"/>
-    <row r="64554" ht="12.8" customHeight="1" s="21"/>
-    <row r="64555" ht="12.8" customHeight="1" s="21"/>
-    <row r="64556" ht="12.8" customHeight="1" s="21"/>
-    <row r="64557" ht="12.8" customHeight="1" s="21"/>
-    <row r="64558" ht="12.8" customHeight="1" s="21"/>
-    <row r="64559" ht="12.8" customHeight="1" s="21"/>
-    <row r="64560" ht="12.8" customHeight="1" s="21"/>
-    <row r="64561" ht="12.8" customHeight="1" s="21"/>
-    <row r="64562" ht="12.8" customHeight="1" s="21"/>
-    <row r="64563" ht="12.8" customHeight="1" s="21"/>
-    <row r="64564" ht="12.8" customHeight="1" s="21"/>
-    <row r="64565" ht="12.8" customHeight="1" s="21"/>
-    <row r="64566" ht="12.8" customHeight="1" s="21"/>
-    <row r="64567" ht="12.8" customHeight="1" s="21"/>
-    <row r="64568" ht="12.8" customHeight="1" s="21"/>
-    <row r="64569" ht="12.8" customHeight="1" s="21"/>
-    <row r="64570" ht="12.8" customHeight="1" s="21"/>
-    <row r="64571" ht="12.8" customHeight="1" s="21"/>
-    <row r="64572" ht="12.8" customHeight="1" s="21"/>
-    <row r="64573" ht="12.8" customHeight="1" s="21"/>
-    <row r="64574" ht="12.8" customHeight="1" s="21"/>
-    <row r="64575" ht="12.8" customHeight="1" s="21"/>
-    <row r="64576" ht="12.8" customHeight="1" s="21"/>
-    <row r="64577" ht="12.8" customHeight="1" s="21"/>
-    <row r="64578" ht="12.8" customHeight="1" s="21"/>
-    <row r="64579" ht="12.8" customHeight="1" s="21"/>
-    <row r="64580" ht="12.8" customHeight="1" s="21"/>
-    <row r="64581" ht="12.8" customHeight="1" s="21"/>
-    <row r="64582" ht="12.8" customHeight="1" s="21"/>
-    <row r="64583" ht="12.8" customHeight="1" s="21"/>
-    <row r="64584" ht="12.8" customHeight="1" s="21"/>
-    <row r="64585" ht="12.8" customHeight="1" s="21"/>
-    <row r="64586" ht="12.8" customHeight="1" s="21"/>
-    <row r="64587" ht="12.8" customHeight="1" s="21"/>
-    <row r="64588" ht="12.8" customHeight="1" s="21"/>
-    <row r="64589" ht="12.8" customHeight="1" s="21"/>
-    <row r="64590" ht="12.8" customHeight="1" s="21"/>
-    <row r="64591" ht="12.8" customHeight="1" s="21"/>
-    <row r="64592" ht="12.8" customHeight="1" s="21"/>
-    <row r="64593" ht="12.8" customHeight="1" s="21"/>
-    <row r="64594" ht="12.8" customHeight="1" s="21"/>
-    <row r="64595" ht="12.8" customHeight="1" s="21"/>
-    <row r="64596" ht="12.8" customHeight="1" s="21"/>
-    <row r="64597" ht="12.8" customHeight="1" s="21"/>
-    <row r="64598" ht="12.8" customHeight="1" s="21"/>
-    <row r="64599" ht="12.8" customHeight="1" s="21"/>
-    <row r="64600" ht="12.8" customHeight="1" s="21"/>
-    <row r="64601" ht="12.8" customHeight="1" s="21"/>
-    <row r="64602" ht="12.8" customHeight="1" s="21"/>
-    <row r="64603" ht="12.8" customHeight="1" s="21"/>
-    <row r="64604" ht="12.8" customHeight="1" s="21"/>
-    <row r="64605" ht="12.8" customHeight="1" s="21"/>
-    <row r="64606" ht="12.8" customHeight="1" s="21"/>
-    <row r="64607" ht="12.8" customHeight="1" s="21"/>
-    <row r="64608" ht="12.8" customHeight="1" s="21"/>
-    <row r="64609" ht="12.8" customHeight="1" s="21"/>
-    <row r="64610" ht="12.8" customHeight="1" s="21"/>
-    <row r="64611" ht="12.8" customHeight="1" s="21"/>
-    <row r="64612" ht="12.8" customHeight="1" s="21"/>
-    <row r="64613" ht="12.8" customHeight="1" s="21"/>
-    <row r="64614" ht="12.8" customHeight="1" s="21"/>
-    <row r="64615" ht="12.8" customHeight="1" s="21"/>
-    <row r="64616" ht="12.8" customHeight="1" s="21"/>
-    <row r="64617" ht="12.8" customHeight="1" s="21"/>
-    <row r="64618" ht="12.8" customHeight="1" s="21"/>
-    <row r="64619" ht="12.8" customHeight="1" s="21"/>
-    <row r="64620" ht="12.8" customHeight="1" s="21"/>
-    <row r="64621" ht="12.8" customHeight="1" s="21"/>
-    <row r="64622" ht="12.8" customHeight="1" s="21"/>
-    <row r="64623" ht="12.8" customHeight="1" s="21"/>
-    <row r="64624" ht="12.8" customHeight="1" s="21"/>
-    <row r="64625" ht="12.8" customHeight="1" s="21"/>
-    <row r="64626" ht="12.8" customHeight="1" s="21"/>
-    <row r="64627" ht="12.8" customHeight="1" s="21"/>
-    <row r="64628" ht="12.8" customHeight="1" s="21"/>
-    <row r="64629" ht="12.8" customHeight="1" s="21"/>
-    <row r="64630" ht="12.8" customHeight="1" s="21"/>
-    <row r="64631" ht="12.8" customHeight="1" s="21"/>
-    <row r="64632" ht="12.8" customHeight="1" s="21"/>
-    <row r="64633" ht="12.8" customHeight="1" s="21"/>
-    <row r="64634" ht="12.8" customHeight="1" s="21"/>
-    <row r="64635" ht="12.8" customHeight="1" s="21"/>
-    <row r="64636" ht="12.8" customHeight="1" s="21"/>
-    <row r="64637" ht="12.8" customHeight="1" s="21"/>
-    <row r="64638" ht="12.8" customHeight="1" s="21"/>
-    <row r="64639" ht="12.8" customHeight="1" s="21"/>
-    <row r="64640" ht="12.8" customHeight="1" s="21"/>
-    <row r="64641" ht="12.8" customHeight="1" s="21"/>
-    <row r="64642" ht="12.8" customHeight="1" s="21"/>
-    <row r="64643" ht="12.8" customHeight="1" s="21"/>
-    <row r="64644" ht="12.8" customHeight="1" s="21"/>
-    <row r="64645" ht="12.8" customHeight="1" s="21"/>
-    <row r="64646" ht="12.8" customHeight="1" s="21"/>
-    <row r="64647" ht="12.8" customHeight="1" s="21"/>
-    <row r="64648" ht="12.8" customHeight="1" s="21"/>
-    <row r="64649" ht="12.8" customHeight="1" s="21"/>
-    <row r="64650" ht="12.8" customHeight="1" s="21"/>
-    <row r="64651" ht="12.8" customHeight="1" s="21"/>
-    <row r="64652" ht="12.8" customHeight="1" s="21"/>
-    <row r="64653" ht="12.8" customHeight="1" s="21"/>
-    <row r="64654" ht="12.8" customHeight="1" s="21"/>
-    <row r="64655" ht="12.8" customHeight="1" s="21"/>
-    <row r="64656" ht="12.8" customHeight="1" s="21"/>
-    <row r="64657" ht="12.8" customHeight="1" s="21"/>
-    <row r="64658" ht="12.8" customHeight="1" s="21"/>
-    <row r="64659" ht="12.8" customHeight="1" s="21"/>
-    <row r="64660" ht="12.8" customHeight="1" s="21"/>
-    <row r="64661" ht="12.8" customHeight="1" s="21"/>
-    <row r="64662" ht="12.8" customHeight="1" s="21"/>
-    <row r="64663" ht="12.8" customHeight="1" s="21"/>
-    <row r="64664" ht="12.8" customHeight="1" s="21"/>
-    <row r="64665" ht="12.8" customHeight="1" s="21"/>
-    <row r="64666" ht="12.8" customHeight="1" s="21"/>
-    <row r="64667" ht="12.8" customHeight="1" s="21"/>
-    <row r="64668" ht="12.8" customHeight="1" s="21"/>
-    <row r="64669" ht="12.8" customHeight="1" s="21"/>
-    <row r="64670" ht="12.8" customHeight="1" s="21"/>
-    <row r="64671" ht="12.8" customHeight="1" s="21"/>
-    <row r="64672" ht="12.8" customHeight="1" s="21"/>
-    <row r="64673" ht="12.8" customHeight="1" s="21"/>
-    <row r="64674" ht="12.8" customHeight="1" s="21"/>
-    <row r="64675" ht="12.8" customHeight="1" s="21"/>
-    <row r="64676" ht="12.8" customHeight="1" s="21"/>
-    <row r="64677" ht="12.8" customHeight="1" s="21"/>
-    <row r="64678" ht="12.8" customHeight="1" s="21"/>
-    <row r="64679" ht="12.8" customHeight="1" s="21"/>
-    <row r="64680" ht="12.8" customHeight="1" s="21"/>
-    <row r="64681" ht="12.8" customHeight="1" s="21"/>
-    <row r="64682" ht="12.8" customHeight="1" s="21"/>
-    <row r="64683" ht="12.8" customHeight="1" s="21"/>
-    <row r="64684" ht="12.8" customHeight="1" s="21"/>
-    <row r="64685" ht="12.8" customHeight="1" s="21"/>
-    <row r="64686" ht="12.8" customHeight="1" s="21"/>
-    <row r="64687" ht="12.8" customHeight="1" s="21"/>
-    <row r="64688" ht="12.8" customHeight="1" s="21"/>
-    <row r="64689" ht="12.8" customHeight="1" s="21"/>
-    <row r="64690" ht="12.8" customHeight="1" s="21"/>
-    <row r="64691" ht="12.8" customHeight="1" s="21"/>
-    <row r="64692" ht="12.8" customHeight="1" s="21"/>
-    <row r="64693" ht="12.8" customHeight="1" s="21"/>
-    <row r="64694" ht="12.8" customHeight="1" s="21"/>
-    <row r="64695" ht="12.8" customHeight="1" s="21"/>
-    <row r="64696" ht="12.8" customHeight="1" s="21"/>
-    <row r="64697" ht="12.8" customHeight="1" s="21"/>
-    <row r="64698" ht="12.8" customHeight="1" s="21"/>
-    <row r="64699" ht="12.8" customHeight="1" s="21"/>
-    <row r="64700" ht="12.8" customHeight="1" s="21"/>
-    <row r="64701" ht="12.8" customHeight="1" s="21"/>
-    <row r="64702" ht="12.8" customHeight="1" s="21"/>
-    <row r="64703" ht="12.8" customHeight="1" s="21"/>
-    <row r="64704" ht="12.8" customHeight="1" s="21"/>
-    <row r="64705" ht="12.8" customHeight="1" s="21"/>
-    <row r="64706" ht="12.8" customHeight="1" s="21"/>
-    <row r="64707" ht="12.8" customHeight="1" s="21"/>
-    <row r="64708" ht="12.8" customHeight="1" s="21"/>
-    <row r="64709" ht="12.8" customHeight="1" s="21"/>
-    <row r="64710" ht="12.8" customHeight="1" s="21"/>
-    <row r="64711" ht="12.8" customHeight="1" s="21"/>
-    <row r="64712" ht="12.8" customHeight="1" s="21"/>
-    <row r="64713" ht="12.8" customHeight="1" s="21"/>
-    <row r="64714" ht="12.8" customHeight="1" s="21"/>
-    <row r="64715" ht="12.8" customHeight="1" s="21"/>
-    <row r="64716" ht="12.8" customHeight="1" s="21"/>
-    <row r="64717" ht="12.8" customHeight="1" s="21"/>
-    <row r="64718" ht="12.8" customHeight="1" s="21"/>
-    <row r="64719" ht="12.8" customHeight="1" s="21"/>
-    <row r="64720" ht="12.8" customHeight="1" s="21"/>
-    <row r="64721" ht="12.8" customHeight="1" s="21"/>
-    <row r="64722" ht="12.8" customHeight="1" s="21"/>
-    <row r="64723" ht="12.8" customHeight="1" s="21"/>
-    <row r="64724" ht="12.8" customHeight="1" s="21"/>
-    <row r="64725" ht="12.8" customHeight="1" s="21"/>
-    <row r="64726" ht="12.8" customHeight="1" s="21"/>
-    <row r="64727" ht="12.8" customHeight="1" s="21"/>
-    <row r="64728" ht="12.8" customHeight="1" s="21"/>
-    <row r="64729" ht="12.8" customHeight="1" s="21"/>
-    <row r="64730" ht="12.8" customHeight="1" s="21"/>
-    <row r="64731" ht="12.8" customHeight="1" s="21"/>
-    <row r="64732" ht="12.8" customHeight="1" s="21"/>
-    <row r="64733" ht="12.8" customHeight="1" s="21"/>
-    <row r="64734" ht="12.8" customHeight="1" s="21"/>
-    <row r="64735" ht="12.8" customHeight="1" s="21"/>
-    <row r="64736" ht="12.8" customHeight="1" s="21"/>
-    <row r="64737" ht="12.8" customHeight="1" s="21"/>
-    <row r="64738" ht="12.8" customHeight="1" s="21"/>
-    <row r="64739" ht="12.8" customHeight="1" s="21"/>
-    <row r="64740" ht="12.8" customHeight="1" s="21"/>
-    <row r="64741" ht="12.8" customHeight="1" s="21"/>
-    <row r="64742" ht="12.8" customHeight="1" s="21"/>
-    <row r="64743" ht="12.8" customHeight="1" s="21"/>
-    <row r="64744" ht="12.8" customHeight="1" s="21"/>
-    <row r="64745" ht="12.8" customHeight="1" s="21"/>
-    <row r="64746" ht="12.8" customHeight="1" s="21"/>
-    <row r="64747" ht="12.8" customHeight="1" s="21"/>
-    <row r="64748" ht="12.8" customHeight="1" s="21"/>
-    <row r="64749" ht="12.8" customHeight="1" s="21"/>
-    <row r="64750" ht="12.8" customHeight="1" s="21"/>
-    <row r="64751" ht="12.8" customHeight="1" s="21"/>
-    <row r="64752" ht="12.8" customHeight="1" s="21"/>
-    <row r="64753" ht="12.8" customHeight="1" s="21"/>
-    <row r="64754" ht="12.8" customHeight="1" s="21"/>
-    <row r="64755" ht="12.8" customHeight="1" s="21"/>
-    <row r="64756" ht="12.8" customHeight="1" s="21"/>
-    <row r="64757" ht="12.8" customHeight="1" s="21"/>
-    <row r="64758" ht="12.8" customHeight="1" s="21"/>
-    <row r="64759" ht="12.8" customHeight="1" s="21"/>
-    <row r="64760" ht="12.8" customHeight="1" s="21"/>
-    <row r="64761" ht="12.8" customHeight="1" s="21"/>
-    <row r="64762" ht="12.8" customHeight="1" s="21"/>
-    <row r="64763" ht="12.8" customHeight="1" s="21"/>
-    <row r="64764" ht="12.8" customHeight="1" s="21"/>
-    <row r="64765" ht="12.8" customHeight="1" s="21"/>
-    <row r="64766" ht="12.8" customHeight="1" s="21"/>
-    <row r="64767" ht="12.8" customHeight="1" s="21"/>
-    <row r="64768" ht="12.8" customHeight="1" s="21"/>
-    <row r="64769" ht="12.8" customHeight="1" s="21"/>
-    <row r="64770" ht="12.8" customHeight="1" s="21"/>
-    <row r="64771" ht="12.8" customHeight="1" s="21"/>
-    <row r="64772" ht="12.8" customHeight="1" s="21"/>
-    <row r="64773" ht="12.8" customHeight="1" s="21"/>
-    <row r="64774" ht="12.8" customHeight="1" s="21"/>
-    <row r="64775" ht="12.8" customHeight="1" s="21"/>
-    <row r="64776" ht="12.8" customHeight="1" s="21"/>
-    <row r="64777" ht="12.8" customHeight="1" s="21"/>
-    <row r="64778" ht="12.8" customHeight="1" s="21"/>
-    <row r="64779" ht="12.8" customHeight="1" s="21"/>
-    <row r="64780" ht="12.8" customHeight="1" s="21"/>
-    <row r="64781" ht="12.8" customHeight="1" s="21"/>
-    <row r="64782" ht="12.8" customHeight="1" s="21"/>
-    <row r="64783" ht="12.8" customHeight="1" s="21"/>
-    <row r="64784" ht="12.8" customHeight="1" s="21"/>
-    <row r="64785" ht="12.8" customHeight="1" s="21"/>
-    <row r="64786" ht="12.8" customHeight="1" s="21"/>
-    <row r="64787" ht="12.8" customHeight="1" s="21"/>
-    <row r="64788" ht="12.8" customHeight="1" s="21"/>
-    <row r="64789" ht="12.8" customHeight="1" s="21"/>
-    <row r="64790" ht="12.8" customHeight="1" s="21"/>
-    <row r="64791" ht="12.8" customHeight="1" s="21"/>
-    <row r="64792" ht="12.8" customHeight="1" s="21"/>
-    <row r="64793" ht="12.8" customHeight="1" s="21"/>
-    <row r="64794" ht="12.8" customHeight="1" s="21"/>
-    <row r="64795" ht="12.8" customHeight="1" s="21"/>
-    <row r="64796" ht="12.8" customHeight="1" s="21"/>
-    <row r="64797" ht="12.8" customHeight="1" s="21"/>
-    <row r="64798" ht="12.8" customHeight="1" s="21"/>
-    <row r="64799" ht="12.8" customHeight="1" s="21"/>
-    <row r="64800" ht="12.8" customHeight="1" s="21"/>
-    <row r="64801" ht="12.8" customHeight="1" s="21"/>
-    <row r="64802" ht="12.8" customHeight="1" s="21"/>
-    <row r="64803" ht="12.8" customHeight="1" s="21"/>
-    <row r="64804" ht="12.8" customHeight="1" s="21"/>
-    <row r="64805" ht="12.8" customHeight="1" s="21"/>
-    <row r="64806" ht="12.8" customHeight="1" s="21"/>
-    <row r="64807" ht="12.8" customHeight="1" s="21"/>
-    <row r="64808" ht="12.8" customHeight="1" s="21"/>
-    <row r="64809" ht="12.8" customHeight="1" s="21"/>
-    <row r="64810" ht="12.8" customHeight="1" s="21"/>
-    <row r="64811" ht="12.8" customHeight="1" s="21"/>
-    <row r="64812" ht="12.8" customHeight="1" s="21"/>
-    <row r="64813" ht="12.8" customHeight="1" s="21"/>
-    <row r="64814" ht="12.8" customHeight="1" s="21"/>
-    <row r="64815" ht="12.8" customHeight="1" s="21"/>
-    <row r="64816" ht="12.8" customHeight="1" s="21"/>
-    <row r="64817" ht="12.8" customHeight="1" s="21"/>
-    <row r="64818" ht="12.8" customHeight="1" s="21"/>
-    <row r="64819" ht="12.8" customHeight="1" s="21"/>
-    <row r="64820" ht="12.8" customHeight="1" s="21"/>
-    <row r="64821" ht="12.8" customHeight="1" s="21"/>
-    <row r="64822" ht="12.8" customHeight="1" s="21"/>
-    <row r="64823" ht="12.8" customHeight="1" s="21"/>
-    <row r="64824" ht="12.8" customHeight="1" s="21"/>
-    <row r="64825" ht="12.8" customHeight="1" s="21"/>
-    <row r="64826" ht="12.8" customHeight="1" s="21"/>
-    <row r="64827" ht="12.8" customHeight="1" s="21"/>
-    <row r="64828" ht="12.8" customHeight="1" s="21"/>
-    <row r="64829" ht="12.8" customHeight="1" s="21"/>
-    <row r="64830" ht="12.8" customHeight="1" s="21"/>
-    <row r="64831" ht="12.8" customHeight="1" s="21"/>
-    <row r="64832" ht="12.8" customHeight="1" s="21"/>
-    <row r="64833" ht="12.8" customHeight="1" s="21"/>
-    <row r="64834" ht="12.8" customHeight="1" s="21"/>
-    <row r="64835" ht="12.8" customHeight="1" s="21"/>
-    <row r="64836" ht="12.8" customHeight="1" s="21"/>
-    <row r="64837" ht="12.8" customHeight="1" s="21"/>
-    <row r="64838" ht="12.8" customHeight="1" s="21"/>
-    <row r="64839" ht="12.8" customHeight="1" s="21"/>
-    <row r="64840" ht="12.8" customHeight="1" s="21"/>
-    <row r="64841" ht="12.8" customHeight="1" s="21"/>
-    <row r="64842" ht="12.8" customHeight="1" s="21"/>
-    <row r="64843" ht="12.8" customHeight="1" s="21"/>
-    <row r="64844" ht="12.8" customHeight="1" s="21"/>
-    <row r="64845" ht="12.8" customHeight="1" s="21"/>
-    <row r="64846" ht="12.8" customHeight="1" s="21"/>
-    <row r="64847" ht="12.8" customHeight="1" s="21"/>
-    <row r="64848" ht="12.8" customHeight="1" s="21"/>
-    <row r="64849" ht="12.8" customHeight="1" s="21"/>
-    <row r="64850" ht="12.8" customHeight="1" s="21"/>
-    <row r="64851" ht="12.8" customHeight="1" s="21"/>
-    <row r="64852" ht="12.8" customHeight="1" s="21"/>
-    <row r="64853" ht="12.8" customHeight="1" s="21"/>
-    <row r="64854" ht="12.8" customHeight="1" s="21"/>
-    <row r="64855" ht="12.8" customHeight="1" s="21"/>
-    <row r="64856" ht="12.8" customHeight="1" s="21"/>
-    <row r="64857" ht="12.8" customHeight="1" s="21"/>
-    <row r="64858" ht="12.8" customHeight="1" s="21"/>
-    <row r="64859" ht="12.8" customHeight="1" s="21"/>
-    <row r="64860" ht="12.8" customHeight="1" s="21"/>
-    <row r="64861" ht="12.8" customHeight="1" s="21"/>
-    <row r="64862" ht="12.8" customHeight="1" s="21"/>
-    <row r="64863" ht="12.8" customHeight="1" s="21"/>
-    <row r="64864" ht="12.8" customHeight="1" s="21"/>
-    <row r="64865" ht="12.8" customHeight="1" s="21"/>
-    <row r="64866" ht="12.8" customHeight="1" s="21"/>
-    <row r="64867" ht="12.8" customHeight="1" s="21"/>
-    <row r="64868" ht="12.8" customHeight="1" s="21"/>
-    <row r="64869" ht="12.8" customHeight="1" s="21"/>
-    <row r="64870" ht="12.8" customHeight="1" s="21"/>
-    <row r="64871" ht="12.8" customHeight="1" s="21"/>
-    <row r="64872" ht="12.8" customHeight="1" s="21"/>
-    <row r="64873" ht="12.8" customHeight="1" s="21"/>
-    <row r="64874" ht="12.8" customHeight="1" s="21"/>
-    <row r="64875" ht="12.8" customHeight="1" s="21"/>
-    <row r="64876" ht="12.8" customHeight="1" s="21"/>
-    <row r="64877" ht="12.8" customHeight="1" s="21"/>
-    <row r="64878" ht="12.8" customHeight="1" s="21"/>
-    <row r="64879" ht="12.8" customHeight="1" s="21"/>
-    <row r="64880" ht="12.8" customHeight="1" s="21"/>
-    <row r="64881" ht="12.8" customHeight="1" s="21"/>
-    <row r="64882" ht="12.8" customHeight="1" s="21"/>
-    <row r="64883" ht="12.8" customHeight="1" s="21"/>
-    <row r="64884" ht="12.8" customHeight="1" s="21"/>
-    <row r="64885" ht="12.8" customHeight="1" s="21"/>
-    <row r="64886" ht="12.8" customHeight="1" s="21"/>
-    <row r="64887" ht="12.8" customHeight="1" s="21"/>
-    <row r="64888" ht="12.8" customHeight="1" s="21"/>
-    <row r="64889" ht="12.8" customHeight="1" s="21"/>
-    <row r="64890" ht="12.8" customHeight="1" s="21"/>
-    <row r="64891" ht="12.8" customHeight="1" s="21"/>
-    <row r="64892" ht="12.8" customHeight="1" s="21"/>
-    <row r="64893" ht="12.8" customHeight="1" s="21"/>
-    <row r="64894" ht="12.8" customHeight="1" s="21"/>
-    <row r="64895" ht="12.8" customHeight="1" s="21"/>
-    <row r="64896" ht="12.8" customHeight="1" s="21"/>
-    <row r="64897" ht="12.8" customHeight="1" s="21"/>
-    <row r="64898" ht="12.8" customHeight="1" s="21"/>
-    <row r="64899" ht="12.8" customHeight="1" s="21"/>
-    <row r="64900" ht="12.8" customHeight="1" s="21"/>
-    <row r="64901" ht="12.8" customHeight="1" s="21"/>
-    <row r="64902" ht="12.8" customHeight="1" s="21"/>
-    <row r="64903" ht="12.8" customHeight="1" s="21"/>
-    <row r="64904" ht="12.8" customHeight="1" s="21"/>
-    <row r="64905" ht="12.8" customHeight="1" s="21"/>
-    <row r="64906" ht="12.8" customHeight="1" s="21"/>
-    <row r="64907" ht="12.8" customHeight="1" s="21"/>
-    <row r="64908" ht="12.8" customHeight="1" s="21"/>
-    <row r="64909" ht="12.8" customHeight="1" s="21"/>
-    <row r="64910" ht="12.8" customHeight="1" s="21"/>
-    <row r="64911" ht="12.8" customHeight="1" s="21"/>
-    <row r="64912" ht="12.8" customHeight="1" s="21"/>
-    <row r="64913" ht="12.8" customHeight="1" s="21"/>
-    <row r="64914" ht="12.8" customHeight="1" s="21"/>
-    <row r="64915" ht="12.8" customHeight="1" s="21"/>
-    <row r="64916" ht="12.8" customHeight="1" s="21"/>
-    <row r="64917" ht="12.8" customHeight="1" s="21"/>
-    <row r="64918" ht="12.8" customHeight="1" s="21"/>
-    <row r="64919" ht="12.8" customHeight="1" s="21"/>
-    <row r="64920" ht="12.8" customHeight="1" s="21"/>
-    <row r="64921" ht="12.8" customHeight="1" s="21"/>
-    <row r="64922" ht="12.8" customHeight="1" s="21"/>
-    <row r="64923" ht="12.8" customHeight="1" s="21"/>
-    <row r="64924" ht="12.8" customHeight="1" s="21"/>
-    <row r="64925" ht="12.8" customHeight="1" s="21"/>
-    <row r="64926" ht="12.8" customHeight="1" s="21"/>
-    <row r="64927" ht="12.8" customHeight="1" s="21"/>
-    <row r="64928" ht="12.8" customHeight="1" s="21"/>
-    <row r="64929" ht="12.8" customHeight="1" s="21"/>
-    <row r="64930" ht="12.8" customHeight="1" s="21"/>
-    <row r="64931" ht="12.8" customHeight="1" s="21"/>
-    <row r="64932" ht="12.8" customHeight="1" s="21"/>
-    <row r="64933" ht="12.8" customHeight="1" s="21"/>
-    <row r="64934" ht="12.8" customHeight="1" s="21"/>
-    <row r="64935" ht="12.8" customHeight="1" s="21"/>
-    <row r="64936" ht="12.8" customHeight="1" s="21"/>
-    <row r="64937" ht="12.8" customHeight="1" s="21"/>
-    <row r="64938" ht="12.8" customHeight="1" s="21"/>
-    <row r="64939" ht="12.8" customHeight="1" s="21"/>
-    <row r="64940" ht="12.8" customHeight="1" s="21"/>
-    <row r="64941" ht="12.8" customHeight="1" s="21"/>
-    <row r="64942" ht="12.8" customHeight="1" s="21"/>
-    <row r="64943" ht="12.8" customHeight="1" s="21"/>
-    <row r="64944" ht="12.8" customHeight="1" s="21"/>
-    <row r="64945" ht="12.8" customHeight="1" s="21"/>
-    <row r="64946" ht="12.8" customHeight="1" s="21"/>
-    <row r="64947" ht="12.8" customHeight="1" s="21"/>
-    <row r="64948" ht="12.8" customHeight="1" s="21"/>
-    <row r="64949" ht="12.8" customHeight="1" s="21"/>
-    <row r="64950" ht="12.8" customHeight="1" s="21"/>
-    <row r="64951" ht="12.8" customHeight="1" s="21"/>
-    <row r="64952" ht="12.8" customHeight="1" s="21"/>
-    <row r="64953" ht="12.8" customHeight="1" s="21"/>
-    <row r="64954" ht="12.8" customHeight="1" s="21"/>
-    <row r="64955" ht="12.8" customHeight="1" s="21"/>
-    <row r="64956" ht="12.8" customHeight="1" s="21"/>
-    <row r="64957" ht="12.8" customHeight="1" s="21"/>
-    <row r="64958" ht="12.8" customHeight="1" s="21"/>
-    <row r="64959" ht="12.8" customHeight="1" s="21"/>
-    <row r="64960" ht="12.8" customHeight="1" s="21"/>
-    <row r="64961" ht="12.8" customHeight="1" s="21"/>
-    <row r="64962" ht="12.8" customHeight="1" s="21"/>
-    <row r="64963" ht="12.8" customHeight="1" s="21"/>
-    <row r="64964" ht="12.8" customHeight="1" s="21"/>
-    <row r="64965" ht="12.8" customHeight="1" s="21"/>
-    <row r="64966" ht="12.8" customHeight="1" s="21"/>
-    <row r="64967" ht="12.8" customHeight="1" s="21"/>
-    <row r="64968" ht="12.8" customHeight="1" s="21"/>
-    <row r="64969" ht="12.8" customHeight="1" s="21"/>
-    <row r="64970" ht="12.8" customHeight="1" s="21"/>
-    <row r="64971" ht="12.8" customHeight="1" s="21"/>
-    <row r="64972" ht="12.8" customHeight="1" s="21"/>
-    <row r="64973" ht="12.8" customHeight="1" s="21"/>
-    <row r="64974" ht="12.8" customHeight="1" s="21"/>
-    <row r="64975" ht="12.8" customHeight="1" s="21"/>
-    <row r="64976" ht="12.8" customHeight="1" s="21"/>
-    <row r="64977" ht="12.8" customHeight="1" s="21"/>
-    <row r="64978" ht="12.8" customHeight="1" s="21"/>
-    <row r="64979" ht="12.8" customHeight="1" s="21"/>
-    <row r="64980" ht="12.8" customHeight="1" s="21"/>
-    <row r="64981" ht="12.8" customHeight="1" s="21"/>
-    <row r="64982" ht="12.8" customHeight="1" s="21"/>
-    <row r="64983" ht="12.8" customHeight="1" s="21"/>
-    <row r="64984" ht="12.8" customHeight="1" s="21"/>
-    <row r="64985" ht="12.8" customHeight="1" s="21"/>
-    <row r="64986" ht="12.8" customHeight="1" s="21"/>
-    <row r="64987" ht="12.8" customHeight="1" s="21"/>
-    <row r="64988" ht="12.8" customHeight="1" s="21"/>
-    <row r="64989" ht="12.8" customHeight="1" s="21"/>
-    <row r="64990" ht="12.8" customHeight="1" s="21"/>
-    <row r="64991" ht="12.8" customHeight="1" s="21"/>
-    <row r="64992" ht="12.8" customHeight="1" s="21"/>
-    <row r="64993" ht="12.8" customHeight="1" s="21"/>
-    <row r="64994" ht="12.8" customHeight="1" s="21"/>
-    <row r="64995" ht="12.8" customHeight="1" s="21"/>
-    <row r="64996" ht="12.8" customHeight="1" s="21"/>
-    <row r="64997" ht="12.8" customHeight="1" s="21"/>
-    <row r="64998" ht="12.8" customHeight="1" s="21"/>
-    <row r="64999" ht="12.8" customHeight="1" s="21"/>
-    <row r="65000" ht="12.8" customHeight="1" s="21"/>
-    <row r="65001" ht="12.8" customHeight="1" s="21"/>
-    <row r="65002" ht="12.8" customHeight="1" s="21"/>
-    <row r="65003" ht="12.8" customHeight="1" s="21"/>
-    <row r="65004" ht="12.8" customHeight="1" s="21"/>
-    <row r="65005" ht="12.8" customHeight="1" s="21"/>
-    <row r="65006" ht="12.8" customHeight="1" s="21"/>
-    <row r="65007" ht="12.8" customHeight="1" s="21"/>
-    <row r="65008" ht="12.8" customHeight="1" s="21"/>
-    <row r="65009" ht="12.8" customHeight="1" s="21"/>
-    <row r="65010" ht="12.8" customHeight="1" s="21"/>
-    <row r="65011" ht="12.8" customHeight="1" s="21"/>
-    <row r="65012" ht="12.8" customHeight="1" s="21"/>
-    <row r="65013" ht="12.8" customHeight="1" s="21"/>
-    <row r="65014" ht="12.8" customHeight="1" s="21"/>
-    <row r="65015" ht="12.8" customHeight="1" s="21"/>
-    <row r="65016" ht="12.8" customHeight="1" s="21"/>
-    <row r="65017" ht="12.8" customHeight="1" s="21"/>
-    <row r="65018" ht="12.8" customHeight="1" s="21"/>
-    <row r="65019" ht="12.8" customHeight="1" s="21"/>
-    <row r="65020" ht="12.8" customHeight="1" s="21"/>
-    <row r="65021" ht="12.8" customHeight="1" s="21"/>
-    <row r="65022" ht="12.8" customHeight="1" s="21"/>
-    <row r="65023" ht="12.8" customHeight="1" s="21"/>
-    <row r="65024" ht="12.8" customHeight="1" s="21"/>
-    <row r="65025" ht="12.8" customHeight="1" s="21"/>
-    <row r="65026" ht="12.8" customHeight="1" s="21"/>
-    <row r="65027" ht="12.8" customHeight="1" s="21"/>
-    <row r="65028" ht="12.8" customHeight="1" s="21"/>
-    <row r="65029" ht="12.8" customHeight="1" s="21"/>
-    <row r="65030" ht="12.8" customHeight="1" s="21"/>
-    <row r="65031" ht="12.8" customHeight="1" s="21"/>
-    <row r="65032" ht="12.8" customHeight="1" s="21"/>
-    <row r="65033" ht="12.8" customHeight="1" s="21"/>
-    <row r="65034" ht="12.8" customHeight="1" s="21"/>
-    <row r="65035" ht="12.8" customHeight="1" s="21"/>
-    <row r="65036" ht="12.8" customHeight="1" s="21"/>
-    <row r="65037" ht="12.8" customHeight="1" s="21"/>
-    <row r="65038" ht="12.8" customHeight="1" s="21"/>
-    <row r="65039" ht="12.8" customHeight="1" s="21"/>
-    <row r="65040" ht="12.8" customHeight="1" s="21"/>
-    <row r="65041" ht="12.8" customHeight="1" s="21"/>
-    <row r="65042" ht="12.8" customHeight="1" s="21"/>
-    <row r="65043" ht="12.8" customHeight="1" s="21"/>
-    <row r="65044" ht="12.8" customHeight="1" s="21"/>
-    <row r="65045" ht="12.8" customHeight="1" s="21"/>
-    <row r="65046" ht="12.8" customHeight="1" s="21"/>
-    <row r="65047" ht="12.8" customHeight="1" s="21"/>
-    <row r="65048" ht="12.8" customHeight="1" s="21"/>
-    <row r="65049" ht="12.8" customHeight="1" s="21"/>
-    <row r="65050" ht="12.8" customHeight="1" s="21"/>
-    <row r="65051" ht="12.8" customHeight="1" s="21"/>
-    <row r="65052" ht="12.8" customHeight="1" s="21"/>
-    <row r="65053" ht="12.8" customHeight="1" s="21"/>
-    <row r="65054" ht="12.8" customHeight="1" s="21"/>
-    <row r="65055" ht="12.8" customHeight="1" s="21"/>
-    <row r="65056" ht="12.8" customHeight="1" s="21"/>
-    <row r="65057" ht="12.8" customHeight="1" s="21"/>
-    <row r="65058" ht="12.8" customHeight="1" s="21"/>
-    <row r="65059" ht="12.8" customHeight="1" s="21"/>
-    <row r="65060" ht="12.8" customHeight="1" s="21"/>
-    <row r="65061" ht="12.8" customHeight="1" s="21"/>
-    <row r="65062" ht="12.8" customHeight="1" s="21"/>
-    <row r="65063" ht="12.8" customHeight="1" s="21"/>
-    <row r="65064" ht="12.8" customHeight="1" s="21"/>
-    <row r="65065" ht="12.8" customHeight="1" s="21"/>
-    <row r="65066" ht="12.8" customHeight="1" s="21"/>
-    <row r="65067" ht="12.8" customHeight="1" s="21"/>
-    <row r="65068" ht="12.8" customHeight="1" s="21"/>
-    <row r="65069" ht="12.8" customHeight="1" s="21"/>
-    <row r="65070" ht="12.8" customHeight="1" s="21"/>
-    <row r="65071" ht="12.8" customHeight="1" s="21"/>
-    <row r="65072" ht="12.8" customHeight="1" s="21"/>
-    <row r="65073" ht="12.8" customHeight="1" s="21"/>
-    <row r="65074" ht="12.8" customHeight="1" s="21"/>
-    <row r="65075" ht="12.8" customHeight="1" s="21"/>
-    <row r="65076" ht="12.8" customHeight="1" s="21"/>
-    <row r="65077" ht="12.8" customHeight="1" s="21"/>
-    <row r="65078" ht="12.8" customHeight="1" s="21"/>
-    <row r="65079" ht="12.8" customHeight="1" s="21"/>
-    <row r="65080" ht="12.8" customHeight="1" s="21"/>
-    <row r="65081" ht="12.8" customHeight="1" s="21"/>
-    <row r="65082" ht="12.8" customHeight="1" s="21"/>
-    <row r="65083" ht="12.8" customHeight="1" s="21"/>
-    <row r="65084" ht="12.8" customHeight="1" s="21"/>
-    <row r="65085" ht="12.8" customHeight="1" s="21"/>
-    <row r="65086" ht="12.8" customHeight="1" s="21"/>
-    <row r="65087" ht="12.8" customHeight="1" s="21"/>
-    <row r="65088" ht="12.8" customHeight="1" s="21"/>
-    <row r="65089" ht="12.8" customHeight="1" s="21"/>
-    <row r="65090" ht="12.8" customHeight="1" s="21"/>
-    <row r="65091" ht="12.8" customHeight="1" s="21"/>
-    <row r="65092" ht="12.8" customHeight="1" s="21"/>
-    <row r="65093" ht="12.8" customHeight="1" s="21"/>
-    <row r="65094" ht="12.8" customHeight="1" s="21"/>
-    <row r="65095" ht="12.8" customHeight="1" s="21"/>
-    <row r="65096" ht="12.8" customHeight="1" s="21"/>
-    <row r="65097" ht="12.8" customHeight="1" s="21"/>
-    <row r="65098" ht="12.8" customHeight="1" s="21"/>
-    <row r="65099" ht="12.8" customHeight="1" s="21"/>
-    <row r="65100" ht="12.8" customHeight="1" s="21"/>
-    <row r="65101" ht="12.8" customHeight="1" s="21"/>
-    <row r="65102" ht="12.8" customHeight="1" s="21"/>
-    <row r="65103" ht="12.8" customHeight="1" s="21"/>
-    <row r="65104" ht="12.8" customHeight="1" s="21"/>
-    <row r="65105" ht="12.8" customHeight="1" s="21"/>
-    <row r="65106" ht="12.8" customHeight="1" s="21"/>
-    <row r="65107" ht="12.8" customHeight="1" s="21"/>
-    <row r="65108" ht="12.8" customHeight="1" s="21"/>
-    <row r="65109" ht="12.8" customHeight="1" s="21"/>
-    <row r="65110" ht="12.8" customHeight="1" s="21"/>
-    <row r="65111" ht="12.8" customHeight="1" s="21"/>
-    <row r="65112" ht="12.8" customHeight="1" s="21"/>
-    <row r="65113" ht="12.8" customHeight="1" s="21"/>
-    <row r="65114" ht="12.8" customHeight="1" s="21"/>
-    <row r="65115" ht="12.8" customHeight="1" s="21"/>
-    <row r="65116" ht="12.8" customHeight="1" s="21"/>
-    <row r="65117" ht="12.8" customHeight="1" s="21"/>
-    <row r="65118" ht="12.8" customHeight="1" s="21"/>
-    <row r="65119" ht="12.8" customHeight="1" s="21"/>
-    <row r="65120" ht="12.8" customHeight="1" s="21"/>
-    <row r="65121" ht="12.8" customHeight="1" s="21"/>
-    <row r="65122" ht="12.8" customHeight="1" s="21"/>
-    <row r="65123" ht="12.8" customHeight="1" s="21"/>
-    <row r="65124" ht="12.8" customHeight="1" s="21"/>
-    <row r="65125" ht="12.8" customHeight="1" s="21"/>
-    <row r="65126" ht="12.8" customHeight="1" s="21"/>
-    <row r="65127" ht="12.8" customHeight="1" s="21"/>
-    <row r="65128" ht="12.8" customHeight="1" s="21"/>
-    <row r="65129" ht="12.8" customHeight="1" s="21"/>
-    <row r="65130" ht="12.8" customHeight="1" s="21"/>
-    <row r="65131" ht="12.8" customHeight="1" s="21"/>
-    <row r="65132" ht="12.8" customHeight="1" s="21"/>
-    <row r="65133" ht="12.8" customHeight="1" s="21"/>
-    <row r="65134" ht="12.8" customHeight="1" s="21"/>
-    <row r="65135" ht="12.8" customHeight="1" s="21"/>
-    <row r="65136" ht="12.8" customHeight="1" s="21"/>
-    <row r="65137" ht="12.8" customHeight="1" s="21"/>
-    <row r="65138" ht="12.8" customHeight="1" s="21"/>
-    <row r="65139" ht="12.8" customHeight="1" s="21"/>
-    <row r="65140" ht="12.8" customHeight="1" s="21"/>
-    <row r="65141" ht="12.8" customHeight="1" s="21"/>
-    <row r="65142" ht="12.8" customHeight="1" s="21"/>
-    <row r="65143" ht="12.8" customHeight="1" s="21"/>
-    <row r="65144" ht="12.8" customHeight="1" s="21"/>
-    <row r="65145" ht="12.8" customHeight="1" s="21"/>
-    <row r="65146" ht="12.8" customHeight="1" s="21"/>
-    <row r="65147" ht="12.8" customHeight="1" s="21"/>
-    <row r="65148" ht="12.8" customHeight="1" s="21"/>
-    <row r="65149" ht="12.8" customHeight="1" s="21"/>
-    <row r="65150" ht="12.8" customHeight="1" s="21"/>
-    <row r="65151" ht="12.8" customHeight="1" s="21"/>
-    <row r="65152" ht="12.8" customHeight="1" s="21"/>
-    <row r="65153" ht="12.8" customHeight="1" s="21"/>
-    <row r="65154" ht="12.8" customHeight="1" s="21"/>
-    <row r="65155" ht="12.8" customHeight="1" s="21"/>
-    <row r="65156" ht="12.8" customHeight="1" s="21"/>
-    <row r="65157" ht="12.8" customHeight="1" s="21"/>
-    <row r="65158" ht="12.8" customHeight="1" s="21"/>
-    <row r="65159" ht="12.8" customHeight="1" s="21"/>
-    <row r="65160" ht="12.8" customHeight="1" s="21"/>
-    <row r="65161" ht="12.8" customHeight="1" s="21"/>
-    <row r="65162" ht="12.8" customHeight="1" s="21"/>
-    <row r="65163" ht="12.8" customHeight="1" s="21"/>
-    <row r="65164" ht="12.8" customHeight="1" s="21"/>
-    <row r="65165" ht="12.8" customHeight="1" s="21"/>
-    <row r="65166" ht="12.8" customHeight="1" s="21"/>
-    <row r="65167" ht="12.8" customHeight="1" s="21"/>
-    <row r="65168" ht="12.8" customHeight="1" s="21"/>
-    <row r="65169" ht="12.8" customHeight="1" s="21"/>
-    <row r="65170" ht="12.8" customHeight="1" s="21"/>
-    <row r="65171" ht="12.8" customHeight="1" s="21"/>
-    <row r="65172" ht="12.8" customHeight="1" s="21"/>
-    <row r="65173" ht="12.8" customHeight="1" s="21"/>
-    <row r="65174" ht="12.8" customHeight="1" s="21"/>
-    <row r="65175" ht="12.8" customHeight="1" s="21"/>
-    <row r="65176" ht="12.8" customHeight="1" s="21"/>
-    <row r="65177" ht="12.8" customHeight="1" s="21"/>
-    <row r="65178" ht="12.8" customHeight="1" s="21"/>
-    <row r="65179" ht="12.8" customHeight="1" s="21"/>
-    <row r="65180" ht="12.8" customHeight="1" s="21"/>
-    <row r="65181" ht="12.8" customHeight="1" s="21"/>
-    <row r="65182" ht="12.8" customHeight="1" s="21"/>
-    <row r="65183" ht="12.8" customHeight="1" s="21"/>
-    <row r="65184" ht="12.8" customHeight="1" s="21"/>
-    <row r="65185" ht="12.8" customHeight="1" s="21"/>
-    <row r="65186" ht="12.8" customHeight="1" s="21"/>
-    <row r="65187" ht="12.8" customHeight="1" s="21"/>
-    <row r="65188" ht="12.8" customHeight="1" s="21"/>
-    <row r="65189" ht="12.8" customHeight="1" s="21"/>
-    <row r="65190" ht="12.8" customHeight="1" s="21"/>
-    <row r="65191" ht="12.8" customHeight="1" s="21"/>
-    <row r="65192" ht="12.8" customHeight="1" s="21"/>
-    <row r="65193" ht="12.8" customHeight="1" s="21"/>
-    <row r="65194" ht="12.8" customHeight="1" s="21"/>
-    <row r="65195" ht="12.8" customHeight="1" s="21"/>
-    <row r="65196" ht="12.8" customHeight="1" s="21"/>
-    <row r="65197" ht="12.8" customHeight="1" s="21"/>
-    <row r="65198" ht="12.8" customHeight="1" s="21"/>
-    <row r="65199" ht="12.8" customHeight="1" s="21"/>
-    <row r="65200" ht="12.8" customHeight="1" s="21"/>
-    <row r="65201" ht="12.8" customHeight="1" s="21"/>
-    <row r="65202" ht="12.8" customHeight="1" s="21"/>
-    <row r="65203" ht="12.8" customHeight="1" s="21"/>
-    <row r="65204" ht="12.8" customHeight="1" s="21"/>
-    <row r="65205" ht="12.8" customHeight="1" s="21"/>
-    <row r="65206" ht="12.8" customHeight="1" s="21"/>
-    <row r="65207" ht="12.8" customHeight="1" s="21"/>
-    <row r="65208" ht="12.8" customHeight="1" s="21"/>
-    <row r="65209" ht="12.8" customHeight="1" s="21"/>
-    <row r="65210" ht="12.8" customHeight="1" s="21"/>
-    <row r="65211" ht="12.8" customHeight="1" s="21"/>
-    <row r="65212" ht="12.8" customHeight="1" s="21"/>
-    <row r="65213" ht="12.8" customHeight="1" s="21"/>
-    <row r="65214" ht="12.8" customHeight="1" s="21"/>
-    <row r="65215" ht="12.8" customHeight="1" s="21"/>
-    <row r="65216" ht="12.8" customHeight="1" s="21"/>
-    <row r="65217" ht="12.8" customHeight="1" s="21"/>
-    <row r="65218" ht="12.8" customHeight="1" s="21"/>
-    <row r="65219" ht="12.8" customHeight="1" s="21"/>
-    <row r="65220" ht="12.8" customHeight="1" s="21"/>
-    <row r="65221" ht="12.8" customHeight="1" s="21"/>
-    <row r="65222" ht="12.8" customHeight="1" s="21"/>
-    <row r="65223" ht="12.8" customHeight="1" s="21"/>
-    <row r="65224" ht="12.8" customHeight="1" s="21"/>
-    <row r="65225" ht="12.8" customHeight="1" s="21"/>
-    <row r="65226" ht="12.8" customHeight="1" s="21"/>
-    <row r="65227" ht="12.8" customHeight="1" s="21"/>
-    <row r="65228" ht="12.8" customHeight="1" s="21"/>
-    <row r="65229" ht="12.8" customHeight="1" s="21"/>
-    <row r="65230" ht="12.8" customHeight="1" s="21"/>
-    <row r="65231" ht="12.8" customHeight="1" s="21"/>
-    <row r="65232" ht="12.8" customHeight="1" s="21"/>
-    <row r="65233" ht="12.8" customHeight="1" s="21"/>
-    <row r="65234" ht="12.8" customHeight="1" s="21"/>
-    <row r="65235" ht="12.8" customHeight="1" s="21"/>
-    <row r="65236" ht="12.8" customHeight="1" s="21"/>
-    <row r="65237" ht="12.8" customHeight="1" s="21"/>
-    <row r="65238" ht="12.8" customHeight="1" s="21"/>
-    <row r="65239" ht="12.8" customHeight="1" s="21"/>
-    <row r="65240" ht="12.8" customHeight="1" s="21"/>
-    <row r="65241" ht="12.8" customHeight="1" s="21"/>
-    <row r="65242" ht="12.8" customHeight="1" s="21"/>
-    <row r="65243" ht="12.8" customHeight="1" s="21"/>
-    <row r="65244" ht="12.8" customHeight="1" s="21"/>
-    <row r="65245" ht="12.8" customHeight="1" s="21"/>
-    <row r="65246" ht="12.8" customHeight="1" s="21"/>
-    <row r="65247" ht="12.8" customHeight="1" s="21"/>
-    <row r="65248" ht="12.8" customHeight="1" s="21"/>
-    <row r="65249" ht="12.8" customHeight="1" s="21"/>
-    <row r="65250" ht="12.8" customHeight="1" s="21"/>
-    <row r="65251" ht="12.8" customHeight="1" s="21"/>
-    <row r="65252" ht="12.8" customHeight="1" s="21"/>
-    <row r="65253" ht="12.8" customHeight="1" s="21"/>
-    <row r="65254" ht="12.8" customHeight="1" s="21"/>
-    <row r="65255" ht="12.8" customHeight="1" s="21"/>
-    <row r="65256" ht="12.8" customHeight="1" s="21"/>
-    <row r="65257" ht="12.8" customHeight="1" s="21"/>
-    <row r="65258" ht="12.8" customHeight="1" s="21"/>
-    <row r="65259" ht="12.8" customHeight="1" s="21"/>
-    <row r="65260" ht="12.8" customHeight="1" s="21"/>
-    <row r="65261" ht="12.8" customHeight="1" s="21"/>
-    <row r="65262" ht="12.8" customHeight="1" s="21"/>
-    <row r="65263" ht="12.8" customHeight="1" s="21"/>
-    <row r="65264" ht="12.8" customHeight="1" s="21"/>
-    <row r="65265" ht="12.8" customHeight="1" s="21"/>
-    <row r="65266" ht="12.8" customHeight="1" s="21"/>
-    <row r="65267" ht="12.8" customHeight="1" s="21"/>
-    <row r="65268" ht="12.8" customHeight="1" s="21"/>
-    <row r="65269" ht="12.8" customHeight="1" s="21"/>
-    <row r="65270" ht="12.8" customHeight="1" s="21"/>
-    <row r="65271" ht="12.8" customHeight="1" s="21"/>
-    <row r="65272" ht="12.8" customHeight="1" s="21"/>
-    <row r="65273" ht="12.8" customHeight="1" s="21"/>
-    <row r="65274" ht="12.8" customHeight="1" s="21"/>
-    <row r="65275" ht="12.8" customHeight="1" s="21"/>
-    <row r="65276" ht="12.8" customHeight="1" s="21"/>
-    <row r="65277" ht="12.8" customHeight="1" s="21"/>
-    <row r="65278" ht="12.8" customHeight="1" s="21"/>
-    <row r="65279" ht="12.8" customHeight="1" s="21"/>
-    <row r="65280" ht="12.8" customHeight="1" s="21"/>
-    <row r="65281" ht="12.8" customHeight="1" s="21"/>
-    <row r="65282" ht="12.8" customHeight="1" s="21"/>
-    <row r="65283" ht="12.8" customHeight="1" s="21"/>
-    <row r="65284" ht="12.8" customHeight="1" s="21"/>
-    <row r="65285" ht="12.8" customHeight="1" s="21"/>
-    <row r="65286" ht="12.8" customHeight="1" s="21"/>
-    <row r="65287" ht="12.8" customHeight="1" s="21"/>
-    <row r="65288" ht="12.8" customHeight="1" s="21"/>
-    <row r="65289" ht="12.8" customHeight="1" s="21"/>
-    <row r="65290" ht="12.8" customHeight="1" s="21"/>
-    <row r="65291" ht="12.8" customHeight="1" s="21"/>
-    <row r="65292" ht="12.8" customHeight="1" s="21"/>
-    <row r="65293" ht="12.8" customHeight="1" s="21"/>
-    <row r="65294" ht="12.8" customHeight="1" s="21"/>
-    <row r="65295" ht="12.8" customHeight="1" s="21"/>
-    <row r="65296" ht="12.8" customHeight="1" s="21"/>
-    <row r="65297" ht="12.8" customHeight="1" s="21"/>
-    <row r="65298" ht="12.8" customHeight="1" s="21"/>
-    <row r="65299" ht="12.8" customHeight="1" s="21"/>
-    <row r="65300" ht="12.8" customHeight="1" s="21"/>
-    <row r="65301" ht="12.8" customHeight="1" s="21"/>
-    <row r="65302" ht="12.8" customHeight="1" s="21"/>
-    <row r="65303" ht="12.8" customHeight="1" s="21"/>
-    <row r="65304" ht="12.8" customHeight="1" s="21"/>
-    <row r="65305" ht="12.8" customHeight="1" s="21"/>
-    <row r="65306" ht="12.8" customHeight="1" s="21"/>
-    <row r="65307" ht="12.8" customHeight="1" s="21"/>
-    <row r="65308" ht="12.8" customHeight="1" s="21"/>
-    <row r="65309" ht="12.8" customHeight="1" s="21"/>
-    <row r="65310" ht="12.8" customHeight="1" s="21"/>
-    <row r="65311" ht="12.8" customHeight="1" s="21"/>
-    <row r="65312" ht="12.8" customHeight="1" s="21"/>
-    <row r="65313" ht="12.8" customHeight="1" s="21"/>
-    <row r="65314" ht="12.8" customHeight="1" s="21"/>
-    <row r="65315" ht="12.8" customHeight="1" s="21"/>
-    <row r="65316" ht="12.8" customHeight="1" s="21"/>
-    <row r="65317" ht="12.8" customHeight="1" s="21"/>
-    <row r="65318" ht="12.8" customHeight="1" s="21"/>
-    <row r="65319" ht="12.8" customHeight="1" s="21"/>
-    <row r="65320" ht="12.8" customHeight="1" s="21"/>
-    <row r="65321" ht="12.8" customHeight="1" s="21"/>
-    <row r="65322" ht="12.8" customHeight="1" s="21"/>
-    <row r="65323" ht="12.8" customHeight="1" s="21"/>
-    <row r="65324" ht="12.8" customHeight="1" s="21"/>
-    <row r="65325" ht="12.8" customHeight="1" s="21"/>
-    <row r="65326" ht="12.8" customHeight="1" s="21"/>
-    <row r="65327" ht="12.8" customHeight="1" s="21"/>
-    <row r="65328" ht="12.8" customHeight="1" s="21"/>
-    <row r="65329" ht="12.8" customHeight="1" s="21"/>
-    <row r="65330" ht="12.8" customHeight="1" s="21"/>
-    <row r="65331" ht="12.8" customHeight="1" s="21"/>
-    <row r="65332" ht="12.8" customHeight="1" s="21"/>
-    <row r="65333" ht="12.8" customHeight="1" s="21"/>
-    <row r="65334" ht="12.8" customHeight="1" s="21"/>
-    <row r="65335" ht="12.8" customHeight="1" s="21"/>
-    <row r="65336" ht="12.8" customHeight="1" s="21"/>
-    <row r="65337" ht="12.8" customHeight="1" s="21"/>
-    <row r="65338" ht="12.8" customHeight="1" s="21"/>
-    <row r="65339" ht="12.8" customHeight="1" s="21"/>
-    <row r="65340" ht="12.8" customHeight="1" s="21"/>
-    <row r="65341" ht="12.8" customHeight="1" s="21"/>
-    <row r="65342" ht="12.8" customHeight="1" s="21"/>
-    <row r="65343" ht="12.8" customHeight="1" s="21"/>
-    <row r="65344" ht="12.8" customHeight="1" s="21"/>
-    <row r="65345" ht="12.8" customHeight="1" s="21"/>
-    <row r="65346" ht="12.8" customHeight="1" s="21"/>
-    <row r="65347" ht="12.8" customHeight="1" s="21"/>
-    <row r="65348" ht="12.8" customHeight="1" s="21"/>
-    <row r="65349" ht="12.8" customHeight="1" s="21"/>
-    <row r="65350" ht="12.8" customHeight="1" s="21"/>
-    <row r="65351" ht="12.8" customHeight="1" s="21"/>
-    <row r="65352" ht="12.8" customHeight="1" s="21"/>
-    <row r="65353" ht="12.8" customHeight="1" s="21"/>
-    <row r="65354" ht="12.8" customHeight="1" s="21"/>
-    <row r="65355" ht="12.8" customHeight="1" s="21"/>
-    <row r="65356" ht="12.8" customHeight="1" s="21"/>
-    <row r="65357" ht="12.8" customHeight="1" s="21"/>
-    <row r="65358" ht="12.8" customHeight="1" s="21"/>
-    <row r="65359" ht="12.8" customHeight="1" s="21"/>
-    <row r="65360" ht="12.8" customHeight="1" s="21"/>
-    <row r="65361" ht="12.8" customHeight="1" s="21"/>
-    <row r="65362" ht="12.8" customHeight="1" s="21"/>
-    <row r="65363" ht="12.8" customHeight="1" s="21"/>
-    <row r="65364" ht="12.8" customHeight="1" s="21"/>
-    <row r="65365" ht="12.8" customHeight="1" s="21"/>
-    <row r="65366" ht="12.8" customHeight="1" s="21"/>
-    <row r="65367" ht="12.8" customHeight="1" s="21"/>
-    <row r="65368" ht="12.8" customHeight="1" s="21"/>
-    <row r="65369" ht="12.8" customHeight="1" s="21"/>
-    <row r="65370" ht="12.8" customHeight="1" s="21"/>
-    <row r="65371" ht="12.8" customHeight="1" s="21"/>
-    <row r="65372" ht="12.8" customHeight="1" s="21"/>
-    <row r="65373" ht="12.8" customHeight="1" s="21"/>
-    <row r="65374" ht="12.8" customHeight="1" s="21"/>
-    <row r="65375" ht="12.8" customHeight="1" s="21"/>
-    <row r="65376" ht="12.8" customHeight="1" s="21"/>
-    <row r="65377" ht="12.8" customHeight="1" s="21"/>
-    <row r="65378" ht="12.8" customHeight="1" s="21"/>
-    <row r="65379" ht="12.8" customHeight="1" s="21"/>
-    <row r="65380" ht="12.8" customHeight="1" s="21"/>
-    <row r="65381" ht="12.8" customHeight="1" s="21"/>
-    <row r="65382" ht="12.8" customHeight="1" s="21"/>
-    <row r="65383" ht="12.8" customHeight="1" s="21"/>
-    <row r="65384" ht="12.8" customHeight="1" s="21"/>
-    <row r="65385" ht="12.8" customHeight="1" s="21"/>
-    <row r="65386" ht="12.8" customHeight="1" s="21"/>
-    <row r="65387" ht="12.8" customHeight="1" s="21"/>
-    <row r="65388" ht="12.8" customHeight="1" s="21"/>
-    <row r="65389" ht="12.8" customHeight="1" s="21"/>
-    <row r="65390" ht="12.8" customHeight="1" s="21"/>
-    <row r="65391" ht="12.8" customHeight="1" s="21"/>
-    <row r="65392" ht="12.8" customHeight="1" s="21"/>
-    <row r="65393" ht="12.8" customHeight="1" s="21"/>
-    <row r="65394" ht="12.8" customHeight="1" s="21"/>
-    <row r="65395" ht="12.8" customHeight="1" s="21"/>
-    <row r="65396" ht="12.8" customHeight="1" s="21"/>
-    <row r="65397" ht="12.8" customHeight="1" s="21"/>
-    <row r="65398" ht="12.8" customHeight="1" s="21"/>
-    <row r="65399" ht="12.8" customHeight="1" s="21"/>
-    <row r="65400" ht="12.8" customHeight="1" s="21"/>
-    <row r="65401" ht="12.8" customHeight="1" s="21"/>
-    <row r="65402" ht="12.8" customHeight="1" s="21"/>
-    <row r="65403" ht="12.8" customHeight="1" s="21"/>
-    <row r="65404" ht="12.8" customHeight="1" s="21"/>
-    <row r="65405" ht="12.8" customHeight="1" s="21"/>
-    <row r="65406" ht="12.8" customHeight="1" s="21"/>
-    <row r="65407" ht="12.8" customHeight="1" s="21"/>
-    <row r="65408" ht="12.8" customHeight="1" s="21"/>
-    <row r="65409" ht="12.8" customHeight="1" s="21"/>
-    <row r="65410" ht="12.8" customHeight="1" s="21"/>
-    <row r="65411" ht="12.8" customHeight="1" s="21"/>
-    <row r="65412" ht="12.8" customHeight="1" s="21"/>
-    <row r="65413" ht="12.8" customHeight="1" s="21"/>
-    <row r="65414" ht="12.8" customHeight="1" s="21"/>
-    <row r="65415" ht="12.8" customHeight="1" s="21"/>
-    <row r="65416" ht="12.8" customHeight="1" s="21"/>
-    <row r="65417" ht="12.8" customHeight="1" s="21"/>
-    <row r="65418" ht="12.8" customHeight="1" s="21"/>
-    <row r="65419" ht="12.8" customHeight="1" s="21"/>
-    <row r="65420" ht="12.8" customHeight="1" s="21"/>
-    <row r="65421" ht="12.8" customHeight="1" s="21"/>
-    <row r="65422" ht="12.8" customHeight="1" s="21"/>
-    <row r="65423" ht="12.8" customHeight="1" s="21"/>
-    <row r="65424" ht="12.8" customHeight="1" s="21"/>
-    <row r="65425" ht="12.8" customHeight="1" s="21"/>
-    <row r="65426" ht="12.8" customHeight="1" s="21"/>
-    <row r="65427" ht="12.8" customHeight="1" s="21"/>
-    <row r="65428" ht="12.8" customHeight="1" s="21"/>
-    <row r="65429" ht="12.8" customHeight="1" s="21"/>
-    <row r="65430" ht="12.8" customHeight="1" s="21"/>
-    <row r="65431" ht="12.8" customHeight="1" s="21"/>
-    <row r="65432" ht="12.8" customHeight="1" s="21"/>
-    <row r="65433" ht="12.8" customHeight="1" s="21"/>
-    <row r="65434" ht="12.8" customHeight="1" s="21"/>
-    <row r="65435" ht="12.8" customHeight="1" s="21"/>
-    <row r="65436" ht="12.8" customHeight="1" s="21"/>
-    <row r="65437" ht="12.8" customHeight="1" s="21"/>
-    <row r="65438" ht="12.8" customHeight="1" s="21"/>
-    <row r="65439" ht="12.8" customHeight="1" s="21"/>
-    <row r="65440" ht="12.8" customHeight="1" s="21"/>
-    <row r="65441" ht="12.8" customHeight="1" s="21"/>
-    <row r="65442" ht="12.8" customHeight="1" s="21"/>
-    <row r="65443" ht="12.8" customHeight="1" s="21"/>
-    <row r="65444" ht="12.8" customHeight="1" s="21"/>
-    <row r="65445" ht="12.8" customHeight="1" s="21"/>
-    <row r="65446" ht="12.8" customHeight="1" s="21"/>
-    <row r="65447" ht="12.8" customHeight="1" s="21"/>
-    <row r="65448" ht="12.8" customHeight="1" s="21"/>
-    <row r="65449" ht="12.8" customHeight="1" s="21"/>
-    <row r="65450" ht="12.8" customHeight="1" s="21"/>
-    <row r="65451" ht="12.8" customHeight="1" s="21"/>
-    <row r="65452" ht="12.8" customHeight="1" s="21"/>
-    <row r="65453" ht="12.8" customHeight="1" s="21"/>
-    <row r="65454" ht="12.8" customHeight="1" s="21"/>
-    <row r="65455" ht="12.8" customHeight="1" s="21"/>
-    <row r="65456" ht="12.8" customHeight="1" s="21"/>
-    <row r="65457" ht="12.8" customHeight="1" s="21"/>
-    <row r="65458" ht="12.8" customHeight="1" s="21"/>
-    <row r="65459" ht="12.8" customHeight="1" s="21"/>
-    <row r="65460" ht="12.8" customHeight="1" s="21"/>
-    <row r="65461" ht="12.8" customHeight="1" s="21"/>
-    <row r="65462" ht="12.8" customHeight="1" s="21"/>
-    <row r="65463" ht="12.8" customHeight="1" s="21"/>
-    <row r="65464" ht="12.8" customHeight="1" s="21"/>
-    <row r="65465" ht="12.8" customHeight="1" s="21"/>
-    <row r="65466" ht="12.8" customHeight="1" s="21"/>
-    <row r="65467" ht="12.8" customHeight="1" s="21"/>
-    <row r="65468" ht="12.8" customHeight="1" s="21"/>
-    <row r="65469" ht="12.8" customHeight="1" s="21"/>
-    <row r="65470" ht="12.8" customHeight="1" s="21"/>
-    <row r="65471" ht="12.8" customHeight="1" s="21"/>
-    <row r="65472" ht="12.8" customHeight="1" s="21"/>
-    <row r="65473" ht="12.8" customHeight="1" s="21"/>
-    <row r="65474" ht="12.8" customHeight="1" s="21"/>
-    <row r="65475" ht="12.8" customHeight="1" s="21"/>
-    <row r="65476" ht="12.8" customHeight="1" s="21"/>
-    <row r="65477" ht="12.8" customHeight="1" s="21"/>
-    <row r="65478" ht="12.8" customHeight="1" s="21"/>
-    <row r="65479" ht="12.8" customHeight="1" s="21"/>
-    <row r="65480" ht="12.8" customHeight="1" s="21"/>
-    <row r="65481" ht="12.8" customHeight="1" s="21"/>
-    <row r="65482" ht="12.8" customHeight="1" s="21"/>
-    <row r="65483" ht="12.8" customHeight="1" s="21"/>
-    <row r="65484" ht="12.8" customHeight="1" s="21"/>
-    <row r="65485" ht="12.8" customHeight="1" s="21"/>
-    <row r="65486" ht="12.8" customHeight="1" s="21"/>
-    <row r="65487" ht="12.8" customHeight="1" s="21"/>
-    <row r="65488" ht="12.8" customHeight="1" s="21"/>
-    <row r="65489" ht="12.8" customHeight="1" s="21"/>
-    <row r="65490" ht="12.8" customHeight="1" s="21"/>
-    <row r="65491" ht="12.8" customHeight="1" s="21"/>
-    <row r="65492" ht="12.8" customHeight="1" s="21"/>
-    <row r="65493" ht="12.8" customHeight="1" s="21"/>
-    <row r="65494" ht="12.8" customHeight="1" s="21"/>
-    <row r="65495" ht="12.8" customHeight="1" s="21"/>
-    <row r="65496" ht="12.8" customHeight="1" s="21"/>
-    <row r="65497" ht="12.8" customHeight="1" s="21"/>
-    <row r="65498" ht="12.8" customHeight="1" s="21"/>
-    <row r="65499" ht="12.8" customHeight="1" s="21"/>
-    <row r="65500" ht="12.8" customHeight="1" s="21"/>
-    <row r="65501" ht="12.8" customHeight="1" s="21"/>
-    <row r="65502" ht="12.8" customHeight="1" s="21"/>
-    <row r="65503" ht="12.8" customHeight="1" s="21"/>
-    <row r="65504" ht="12.8" customHeight="1" s="21"/>
-    <row r="65505" ht="12.8" customHeight="1" s="21"/>
-    <row r="65506" ht="12.8" customHeight="1" s="21"/>
-    <row r="65507" ht="12.8" customHeight="1" s="21"/>
-    <row r="65508" ht="12.8" customHeight="1" s="21"/>
-    <row r="65509" ht="12.8" customHeight="1" s="21"/>
-    <row r="65510" ht="12.8" customHeight="1" s="21"/>
-    <row r="65511" ht="12.8" customHeight="1" s="21"/>
-    <row r="65512" ht="12.8" customHeight="1" s="21"/>
-    <row r="65513" ht="12.8" customHeight="1" s="21"/>
-    <row r="65514" ht="12.8" customHeight="1" s="21"/>
-    <row r="65515" ht="12.8" customHeight="1" s="21"/>
-    <row r="65516" ht="12.8" customHeight="1" s="21"/>
-    <row r="65517" ht="12.8" customHeight="1" s="21"/>
-    <row r="65518" ht="12.8" customHeight="1" s="21"/>
-    <row r="65519" ht="12.8" customHeight="1" s="21"/>
-    <row r="65520" ht="12.8" customHeight="1" s="21"/>
-    <row r="65521" ht="12.8" customHeight="1" s="21"/>
-    <row r="65522" ht="12.8" customHeight="1" s="21"/>
-    <row r="65523" ht="12.8" customHeight="1" s="21"/>
-    <row r="65524" ht="12.8" customHeight="1" s="21"/>
-    <row r="65525" ht="12.8" customHeight="1" s="21"/>
-    <row r="65526" ht="12.8" customHeight="1" s="21"/>
-    <row r="65527" ht="12.8" customHeight="1" s="21"/>
-    <row r="65528" ht="12.8" customHeight="1" s="21"/>
-    <row r="65529" ht="12.8" customHeight="1" s="21"/>
-    <row r="65530" ht="12.8" customHeight="1" s="21"/>
-    <row r="65531" ht="12.8" customHeight="1" s="21"/>
-    <row r="65532" ht="12.8" customHeight="1" s="21"/>
-    <row r="65533" ht="12.8" customHeight="1" s="21"/>
-    <row r="65534" ht="12.8" customHeight="1" s="21"/>
-    <row r="65535" ht="12.8" customHeight="1" s="21"/>
     <row r="1048576" ht="12.8" customHeight="1" s="21"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -9338,11 +7877,11 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.08" customWidth="1" style="18" min="6" max="6"/>
     <col width="11.52" customWidth="1" style="18" min="947" max="1024"/>
@@ -10380,7 +8919,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="21">
       <c r="A1" s="18" t="inlineStr">
@@ -10928,7 +9467,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="21">
       <c r="A1" s="18" t="inlineStr">
@@ -11476,7 +10015,7 @@
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="21">
       <c r="A1" s="18" t="inlineStr">
@@ -12024,7 +10563,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="18" min="1" max="2"/>
     <col width="11.52" customWidth="1" style="18" min="998" max="1024"/>
@@ -12142,7 +10681,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="18" min="1" max="3"/>
     <col width="21.53" customWidth="1" style="18" min="4" max="4"/>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Feuille3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Feuille4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Feuille5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Feuille5bis" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="color_line" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="cutinparts" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="cutinpartsbis" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="delete_lines" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="delete_lines_bis" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille5bis" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="color_line" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cutinparts" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cutinpartsbis" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delete_lines" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delete_lines_bis" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>
@@ -361,14 +361,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -401,8 +401,8 @@
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -440,10 +440,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -451,9 +451,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -606,7 +606,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -614,9 +614,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-5400000"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -647,7 +647,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -660,15 +660,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -691,10 +691,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="0">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -705,14 +705,14 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -745,8 +745,8 @@
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -784,10 +784,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -795,9 +795,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -950,7 +950,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -958,9 +958,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-5400000"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -991,7 +991,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -1004,15 +1004,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1035,10 +1035,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="0">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -1049,14 +1049,14 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1089,8 +1089,8 @@
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -1129,10 +1129,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1140,9 +1140,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -1295,7 +1295,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -1303,9 +1303,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-5400000"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1336,7 +1336,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -1349,15 +1349,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1380,10 +1380,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="0">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -1394,14 +1394,14 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1434,8 +1434,8 @@
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -1474,10 +1474,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1485,9 +1485,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -1640,7 +1640,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -1648,9 +1648,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-5400000"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1681,7 +1681,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -1694,15 +1694,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1725,10 +1725,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="0">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -1739,7 +1739,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>99</col>
@@ -1759,9 +1759,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1771,7 +1771,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>94</col>
@@ -1791,9 +1791,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1803,7 +1803,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>101</col>
@@ -1823,9 +1823,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1835,7 +1835,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>101</col>
@@ -1855,9 +1855,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -2150,7 +2150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -7163,7 +7163,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8908,7 +8908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -9451,12 +9451,12 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -9999,12 +9999,12 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -10547,7 +10547,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -395,8 +395,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.30458577090017"/>
-          <y val="0.0263457884737175"/>
+          <x val="0.304922118380062"/>
+          <y val="0.0272565922920892"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -415,10 +415,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0128326099264012"/>
-          <y val="0.125142495250158"/>
-          <w val="0.965402277159213"/>
-          <h val="0.860291323622546"/>
+          <x val="0.0127102803738318"/>
+          <y val="0.12525354969574"/>
+          <w val="0.964922118380062"/>
+          <h val="0.859279918864097"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -591,11 +591,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="60210764"/>
-        <axId val="39655215"/>
+        <axId val="38660563"/>
+        <axId val="4767489"/>
       </barChart>
       <catAx>
-        <axId val="60210764"/>
+        <axId val="38660563"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -630,7 +630,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="39655215"/>
+        <crossAx val="4767489"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -638,7 +638,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="39655215"/>
+        <axId val="4767489"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -682,7 +682,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="60210764"/>
+        <crossAx val="38660563"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -739,8 +739,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304590060145616"/>
-          <y val="0.0263457884737175"/>
+          <x val="0.304847419314329"/>
+          <y val="0.0272565922920892"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -759,10 +759,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.012852168407724"/>
-          <y val="0.125142495250158"/>
-          <w val="0.965115542893321"/>
-          <h val="0.860291323622546"/>
+          <x val="0.0127464523420821"/>
+          <y val="0.12525354969574"/>
+          <w val="0.964586211226925"/>
+          <h val="0.859279918864097"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -935,11 +935,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="16185274"/>
-        <axId val="62137394"/>
+        <axId val="98788891"/>
+        <axId val="3515034"/>
       </barChart>
       <catAx>
-        <axId val="16185274"/>
+        <axId val="98788891"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -974,7 +974,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="62137394"/>
+        <crossAx val="3515034"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -982,7 +982,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="62137394"/>
+        <axId val="3515034"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1026,7 +1026,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="16185274"/>
+        <crossAx val="98788891"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1083,8 +1083,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304697391744746"/>
-          <y val="0.0264724509183027"/>
+          <x val="0.304973000125581"/>
+          <y val="0.0273833671399594"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1104,10 +1104,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0523550265890099"/>
-          <y val="0.145408486383787"/>
-          <w val="0.926373765510256"/>
-          <h val="0.819886003799873"/>
+          <x val="0.0523044078864749"/>
+          <y val="0.14553752535497"/>
+          <w val="0.926095692578174"/>
+          <h val="0.818838742393509"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1280,11 +1280,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="42916953"/>
-        <axId val="10666216"/>
+        <axId val="82133774"/>
+        <axId val="91640293"/>
       </barChart>
       <catAx>
-        <axId val="42916953"/>
+        <axId val="82133774"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1319,7 +1319,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="10666216"/>
+        <crossAx val="91640293"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1327,7 +1327,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="10666216"/>
+        <axId val="91640293"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1371,7 +1371,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="42916953"/>
+        <crossAx val="82133774"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1428,8 +1428,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304760698911117"/>
-          <y val="0.0265991133628879"/>
+          <x val="0.305035790531207"/>
+          <y val="0.0275101419878296"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1449,10 +1449,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0523550265890099"/>
-          <y val="0.145408486383787"/>
-          <w val="0.926373765510256"/>
-          <h val="0.819886003799873"/>
+          <x val="0.0523044078864749"/>
+          <y val="0.14553752535497"/>
+          <w val="0.926095692578174"/>
+          <h val="0.818838742393509"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1625,11 +1625,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="67993797"/>
-        <axId val="68842535"/>
+        <axId val="99313391"/>
+        <axId val="53093549"/>
       </barChart>
       <catAx>
-        <axId val="67993797"/>
+        <axId val="99313391"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1664,7 +1664,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="68842535"/>
+        <crossAx val="53093549"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1672,7 +1672,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="68842535"/>
+        <axId val="53093549"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1716,7 +1716,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="67993797"/>
+        <crossAx val="99313391"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1749,9 +1749,9 @@
     </from>
     <to>
       <col>106</col>
-      <colOff>38520</colOff>
+      <colOff>36000</colOff>
       <row>30</row>
-      <rowOff>131040</rowOff>
+      <rowOff>128520</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1781,9 +1781,9 @@
     </from>
     <to>
       <col>100</col>
-      <colOff>689040</colOff>
+      <colOff>686520</colOff>
       <row>30</row>
-      <rowOff>130680</rowOff>
+      <rowOff>128160</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1813,9 +1813,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>689040</colOff>
+      <colOff>686520</colOff>
       <row>30</row>
-      <rowOff>129960</rowOff>
+      <rowOff>127440</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1845,9 +1845,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>689040</colOff>
+      <colOff>686520</colOff>
       <row>30</row>
-      <rowOff>129960</rowOff>
+      <rowOff>127440</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2157,11 +2157,11 @@
   </sheetPr>
   <dimension ref="A1:DJ14"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="J1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="J1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="16.2" customWidth="1" style="18" min="6" max="6"/>
     <col width="14.38" customWidth="1" style="19" min="7" max="7"/>
@@ -7175,11 +7175,11 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="18" min="1" max="1024"/>
   </cols>
@@ -7504,6 +7504,10 @@
     </row>
     <row r="13" ht="12.8" customHeight="1" s="21"/>
     <row r="14" ht="12.8" customHeight="1" s="21"/>
+    <row r="15" ht="12.8" customHeight="1" s="21"/>
+    <row r="16" ht="12.8" customHeight="1" s="21"/>
+    <row r="17" ht="12.8" customHeight="1" s="21"/>
+    <row r="18" ht="12.8" customHeight="1" s="21"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7528,10 +7532,10 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="18" min="1" max="1024"/>
   </cols>
@@ -7881,7 +7885,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.08" customWidth="1" style="18" min="6" max="6"/>
     <col width="11.52" customWidth="1" style="18" min="947" max="1024"/>
@@ -8115,7 +8119,7 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="18" min="1" max="1024"/>
   </cols>
@@ -8517,7 +8521,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="18" min="1" max="1024"/>
   </cols>
@@ -8919,7 +8923,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="21">
       <c r="A1" s="18" t="inlineStr">
@@ -9467,7 +9471,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="21">
       <c r="A1" s="18" t="inlineStr">
@@ -10015,7 +10019,7 @@
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="21">
       <c r="A1" s="18" t="inlineStr">
@@ -10563,7 +10567,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="18" min="1" max="2"/>
     <col width="11.52" customWidth="1" style="18" min="998" max="1024"/>
@@ -10681,7 +10685,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="18" min="1" max="3"/>
     <col width="21.53" customWidth="1" style="18" min="4" max="4"/>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -395,8 +395,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304922118380062"/>
-          <y val="0.0272565922920892"/>
+          <x val="0.304962331112633"/>
+          <y val="0.0273868391023203"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -415,10 +415,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0127102803738318"/>
-          <y val="0.12525354969574"/>
-          <w val="0.964922118380062"/>
-          <h val="0.859279918864097"/>
+          <x val="0.0127015752443808"/>
+          <y val="0.125269430708761"/>
+          <w val="0.964883880206712"/>
+          <h val="0.8591352859135289"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -591,11 +591,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="38660563"/>
-        <axId val="4767489"/>
+        <axId val="81793939"/>
+        <axId val="72976670"/>
       </barChart>
       <catAx>
-        <axId val="38660563"/>
+        <axId val="81793939"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -630,7 +630,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="4767489"/>
+        <crossAx val="72976670"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -638,7 +638,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="4767489"/>
+        <axId val="72976670"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -682,7 +682,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="38660563"/>
+        <crossAx val="81793939"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -739,8 +739,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304847419314329"/>
-          <y val="0.0272565922920892"/>
+          <x val="0.304860457823769"/>
+          <y val="0.0273868391023203"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -759,10 +759,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0127464523420821"/>
-          <y val="0.12525354969574"/>
-          <w val="0.964586211226925"/>
-          <h val="0.859279918864097"/>
+          <x val="0.0127312637190342"/>
+          <y val="0.125269430708761"/>
+          <w val="0.964502978990279"/>
+          <h val="0.8591352859135289"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -935,11 +935,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="98788891"/>
-        <axId val="3515034"/>
+        <axId val="80877132"/>
+        <axId val="52049170"/>
       </barChart>
       <catAx>
-        <axId val="98788891"/>
+        <axId val="80877132"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -974,7 +974,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="3515034"/>
+        <crossAx val="52049170"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -982,7 +982,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="3515034"/>
+        <axId val="52049170"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1026,7 +1026,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="98788891"/>
+        <crossAx val="80877132"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1083,8 +1083,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304973000125581"/>
-          <y val="0.0273833671399594"/>
+          <x val="0.305029474476358"/>
+          <y val="0.0275136300240903"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1104,10 +1104,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0523044078864749"/>
-          <y val="0.14553752535497"/>
-          <w val="0.926095692578174"/>
-          <h val="0.818838742393509"/>
+          <x val="0.0523015176219742"/>
+          <y val="0.145555978191961"/>
+          <w val="0.926062962498432"/>
+          <h val="0.818688981868898"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1280,11 +1280,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="82133774"/>
-        <axId val="91640293"/>
+        <axId val="89348863"/>
+        <axId val="82001105"/>
       </barChart>
       <catAx>
-        <axId val="82133774"/>
+        <axId val="89348863"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1319,7 +1319,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="91640293"/>
+        <crossAx val="82001105"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1327,7 +1327,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="91640293"/>
+        <axId val="82001105"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1371,7 +1371,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="82133774"/>
+        <crossAx val="89348863"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1428,8 +1428,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305035790531207"/>
-          <y val="0.0275101419878296"/>
+          <x val="0.305092186128183"/>
+          <y val="0.0276404209458603"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1449,10 +1449,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0523044078864749"/>
-          <y val="0.14553752535497"/>
-          <w val="0.926095692578174"/>
-          <h val="0.818838742393509"/>
+          <x val="0.0523015176219742"/>
+          <y val="0.145555978191961"/>
+          <w val="0.926062962498432"/>
+          <h val="0.818688981868898"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1625,11 +1625,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="99313391"/>
-        <axId val="53093549"/>
+        <axId val="93897720"/>
+        <axId val="5572710"/>
       </barChart>
       <catAx>
-        <axId val="99313391"/>
+        <axId val="93897720"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1664,7 +1664,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="53093549"/>
+        <crossAx val="5572710"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1672,7 +1672,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="53093549"/>
+        <axId val="5572710"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1716,7 +1716,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="99313391"/>
+        <crossAx val="93897720"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1749,9 +1749,9 @@
     </from>
     <to>
       <col>106</col>
-      <colOff>36000</colOff>
+      <colOff>35640</colOff>
       <row>30</row>
-      <rowOff>128520</rowOff>
+      <rowOff>128160</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1781,9 +1781,9 @@
     </from>
     <to>
       <col>100</col>
-      <colOff>686520</colOff>
+      <colOff>686160</colOff>
       <row>30</row>
-      <rowOff>128160</rowOff>
+      <rowOff>127800</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1813,9 +1813,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>686520</colOff>
+      <colOff>686160</colOff>
       <row>30</row>
-      <rowOff>127440</rowOff>
+      <rowOff>127080</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1845,9 +1845,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>686520</colOff>
+      <colOff>686160</colOff>
       <row>30</row>
-      <rowOff>127440</rowOff>
+      <rowOff>127080</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2161,7 +2161,7 @@
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="16.2" customWidth="1" style="18" min="6" max="6"/>
     <col width="14.38" customWidth="1" style="19" min="7" max="7"/>
@@ -7176,7 +7176,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7508,6 +7508,8 @@
     <row r="16" ht="12.8" customHeight="1" s="21"/>
     <row r="17" ht="12.8" customHeight="1" s="21"/>
     <row r="18" ht="12.8" customHeight="1" s="21"/>
+    <row r="19" ht="12.8" customHeight="1" s="21"/>
+    <row r="20" ht="12.8" customHeight="1" s="21"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7885,7 +7887,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.08" customWidth="1" style="18" min="6" max="6"/>
     <col width="11.52" customWidth="1" style="18" min="947" max="1024"/>
@@ -8923,7 +8925,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="21">
       <c r="A1" s="18" t="inlineStr">
@@ -9471,7 +9473,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="21">
       <c r="A1" s="18" t="inlineStr">
@@ -10019,7 +10021,7 @@
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="16.05" customHeight="1" s="21">
       <c r="A1" s="18" t="inlineStr">
@@ -10567,7 +10569,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="18" min="1" max="2"/>
     <col width="11.52" customWidth="1" style="18" min="998" max="1024"/>
@@ -10685,7 +10687,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="18" min="1" max="3"/>
     <col width="21.53" customWidth="1" style="18" min="4" max="4"/>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille5bis" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="color_line" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cutinparts" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cutinpartsbis" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delete_lines" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delete_lines_bis" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Feuille3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Feuille4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Feuille5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Feuille5bis" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="color_line" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="cutinparts" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="cutinpartsbis" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="delete_lines" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="delete_lines_bis" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>
@@ -171,11 +171,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -361,14 +361,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -395,14 +395,14 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304962331112633"/>
-          <y val="0.0273868391023203"/>
+          <x val="0.30502459373638"/>
+          <y val="0.0275264432267108"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+        <a:noFill/>
+        <a:ln w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -416,9 +416,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.0127015752443808"/>
-          <y val="0.125269430708761"/>
-          <w val="0.964883880206712"/>
-          <h val="0.8591352859135289"/>
+          <y val="0.125270804128967"/>
+          <w val="0.964821617582965"/>
+          <h val="0.859054415700268"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -440,10 +440,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+            <a:ln w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -451,9 +451,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -591,11 +591,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="81793939"/>
-        <axId val="72976670"/>
+        <axId val="55897541"/>
+        <axId val="87795147"/>
       </barChart>
       <catAx>
-        <axId val="81793939"/>
+        <axId val="55897541"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -606,7 +606,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -614,9 +614,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-5400000"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -630,7 +630,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="72976670"/>
+        <crossAx val="87795147"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -638,7 +638,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="72976670"/>
+        <axId val="87795147"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -647,7 +647,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+            <a:ln w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -660,15 +660,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+          <a:ln w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -682,7 +682,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="81793939"/>
+        <crossAx val="55897541"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -691,10 +691,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+    <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+    <a:ln w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -705,14 +705,14 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -739,14 +739,14 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.304860457823769"/>
-          <y val="0.0273868391023203"/>
+          <x val="0.304879578524837"/>
+          <y val="0.0275264432267108"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+        <a:noFill/>
+        <a:ln w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -759,10 +759,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0127312637190342"/>
-          <y val="0.125269430708761"/>
-          <w val="0.964502978990279"/>
-          <h val="0.8591352859135289"/>
+          <x val="0.0127320622177622"/>
+          <y val="0.125270804128967"/>
+          <w val="0.964438033115906"/>
+          <h val="0.859054415700268"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -784,10 +784,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+            <a:ln w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -795,9 +795,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -935,11 +935,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="80877132"/>
-        <axId val="52049170"/>
+        <axId val="84741888"/>
+        <axId val="96678767"/>
       </barChart>
       <catAx>
-        <axId val="80877132"/>
+        <axId val="84741888"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -950,7 +950,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -958,9 +958,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-5400000"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -974,7 +974,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="52049170"/>
+        <crossAx val="96678767"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -982,7 +982,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="52049170"/>
+        <axId val="96678767"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -991,7 +991,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+            <a:ln w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -1004,15 +1004,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+          <a:ln w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1026,7 +1026,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="80877132"/>
+        <crossAx val="84741888"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1035,10 +1035,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+    <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+    <a:ln w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -1049,14 +1049,14 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1083,14 +1083,14 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305029474476358"/>
-          <y val="0.0275136300240903"/>
+          <x val="0.305048604578238"/>
+          <y val="0.0276538804638715"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+        <a:noFill/>
+        <a:ln w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -1104,10 +1104,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0523015176219742"/>
-          <y val="0.145555978191961"/>
-          <w val="0.926062962498432"/>
-          <h val="0.818688981868898"/>
+          <x val="0.0523047977422389"/>
+          <y val="0.145533324837518"/>
+          <w val="0.925995609909062"/>
+          <h val="0.818529374283166"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1129,10 +1129,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+            <a:ln w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1140,9 +1140,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -1280,11 +1280,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="89348863"/>
-        <axId val="82001105"/>
+        <axId val="7229560"/>
+        <axId val="27523515"/>
       </barChart>
       <catAx>
-        <axId val="89348863"/>
+        <axId val="7229560"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1295,7 +1295,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -1303,9 +1303,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-5400000"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1319,7 +1319,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="82001105"/>
+        <crossAx val="27523515"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1327,7 +1327,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="82001105"/>
+        <axId val="27523515"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1336,7 +1336,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+            <a:ln w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -1349,15 +1349,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+          <a:ln w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1371,7 +1371,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="89348863"/>
+        <crossAx val="7229560"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1380,10 +1380,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+    <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+    <a:ln w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -1394,14 +1394,14 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1428,14 +1428,14 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305092186128183"/>
-          <y val="0.0276404209458603"/>
+          <x val="0.305111320163061"/>
+          <y val="0.0277813177010322"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+        <a:noFill/>
+        <a:ln w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -1449,10 +1449,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0523015176219742"/>
-          <y val="0.145555978191961"/>
-          <w val="0.926062962498432"/>
-          <h val="0.818688981868898"/>
+          <x val="0.0523047977422389"/>
+          <y val="0.145533324837518"/>
+          <w val="0.925995609909062"/>
+          <h val="0.818529374283166"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1474,10 +1474,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+            <a:ln w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1485,9 +1485,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -1625,11 +1625,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="93897720"/>
-        <axId val="5572710"/>
+        <axId val="73364202"/>
+        <axId val="89878224"/>
       </barChart>
       <catAx>
-        <axId val="93897720"/>
+        <axId val="73364202"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1640,7 +1640,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -1648,9 +1648,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-5400000"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1664,7 +1664,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="5572710"/>
+        <crossAx val="89878224"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1672,7 +1672,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="5572710"/>
+        <axId val="89878224"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1681,7 +1681,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+            <a:ln w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -1694,15 +1694,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+          <a:ln w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1716,7 +1716,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="93897720"/>
+        <crossAx val="73364202"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1725,10 +1725,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+    <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
+    <a:ln w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -1739,7 +1739,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>99</col>
@@ -1749,9 +1749,9 @@
     </from>
     <to>
       <col>106</col>
-      <colOff>35640</colOff>
+      <colOff>35280</colOff>
       <row>30</row>
-      <rowOff>128160</rowOff>
+      <rowOff>127800</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1759,9 +1759,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1771,7 +1771,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>94</col>
@@ -1781,9 +1781,9 @@
     </from>
     <to>
       <col>100</col>
-      <colOff>686160</colOff>
+      <colOff>685800</colOff>
       <row>30</row>
-      <rowOff>127800</rowOff>
+      <rowOff>127440</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1791,9 +1791,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1803,7 +1803,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>101</col>
@@ -1813,9 +1813,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>686160</colOff>
+      <colOff>685800</colOff>
       <row>30</row>
-      <rowOff>127080</rowOff>
+      <rowOff>126720</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1823,9 +1823,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1835,7 +1835,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>101</col>
@@ -1845,9 +1845,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>686160</colOff>
+      <colOff>685800</colOff>
       <row>30</row>
-      <rowOff>127080</rowOff>
+      <rowOff>126720</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1855,9 +1855,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1867,41 +1867,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -1909,248 +1909,140 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -2161,7 +2053,7 @@
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="16.2" customWidth="1" style="18" min="6" max="6"/>
     <col width="14.38" customWidth="1" style="19" min="7" max="7"/>
@@ -2177,7 +2069,7 @@
     <col width="11.5" customWidth="1" style="20" min="76" max="76"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.05" customHeight="1" s="21">
+    <row r="1" ht="15.75" customHeight="1" s="21">
       <c r="A1" s="18" t="inlineStr">
         <is>
           <t>Nom</t>
@@ -2564,7 +2456,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="16.05" customHeight="1" s="21">
+    <row r="2" ht="15.75" customHeight="1" s="21">
       <c r="A2" s="18" t="inlineStr">
         <is>
           <t>Aatif Mieulet</t>
@@ -2879,7 +2771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="16.05" customHeight="1" s="21">
+    <row r="3" ht="15.75" customHeight="1" s="21">
       <c r="A3" s="18" t="inlineStr">
         <is>
           <t>Abbas</t>
@@ -3196,7 +3088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="16.05" customHeight="1" s="21">
+    <row r="4" ht="15.75" customHeight="1" s="21">
       <c r="A4" s="18" t="inlineStr">
         <is>
           <t>Abdallah</t>
@@ -3511,7 +3403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" ht="16.05" customHeight="1" s="21">
+    <row r="5" ht="15.75" customHeight="1" s="21">
       <c r="A5" s="18" t="inlineStr">
         <is>
           <t>Abdel Moneim</t>
@@ -3931,7 +3823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" ht="16.05" customHeight="1" s="21">
+    <row r="6" ht="15.75" customHeight="1" s="21">
       <c r="A6" s="18" t="inlineStr">
         <is>
           <t>Abdelali</t>
@@ -4351,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="16.05" customHeight="1" s="21">
+    <row r="7" ht="15.75" customHeight="1" s="21">
       <c r="A7" s="18" t="inlineStr">
         <is>
           <t>Abdelgow</t>
@@ -4667,7 +4559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="16.05" customHeight="1" s="21">
+    <row r="8" ht="15.75" customHeight="1" s="21">
       <c r="A8" s="18" t="inlineStr">
         <is>
           <t>Abdelhadi</t>
@@ -4982,7 +4874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="16.05" customHeight="1" s="21">
+    <row r="9" ht="15.75" customHeight="1" s="21">
       <c r="A9" s="18" t="inlineStr">
         <is>
           <t>Abdelkarim</t>
@@ -5299,7 +5191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="16.05" customHeight="1" s="21">
+    <row r="10" ht="15.75" customHeight="1" s="21">
       <c r="A10" s="18" t="inlineStr">
         <is>
           <t>Abdenbaoui</t>
@@ -5780,7 +5672,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="16.05" customHeight="1" s="21">
+    <row r="11" ht="15.75" customHeight="1" s="21">
       <c r="A11" s="18" t="inlineStr">
         <is>
           <t>Abdulhoussen</t>
@@ -6197,7 +6089,7 @@
         <v>89.8777173913043</v>
       </c>
     </row>
-    <row r="12" ht="16.05" customHeight="1" s="21">
+    <row r="12" ht="15.75" customHeight="1" s="21">
       <c r="A12" s="18" t="inlineStr">
         <is>
           <t>Abed Meraim</t>
@@ -6514,7 +6406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" ht="16.05" customHeight="1" s="21">
+    <row r="13" ht="15.75" customHeight="1" s="21">
       <c r="A13" s="30" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
@@ -6830,7 +6722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" ht="16.05" customHeight="1" s="21">
+    <row r="14" ht="15.75" customHeight="1" s="21">
       <c r="A14" s="30" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
@@ -7150,7 +7042,7 @@
         </is>
       </c>
     </row>
-    <row r="1048576" ht="12.8" customHeight="1" s="21"/>
+    <row r="1048576" ht="12.75" customHeight="1" s="21"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.3" right="0.3" top="0.6097222222222221" bottom="0.370138888888889" header="0.1" footer="0.1"/>
@@ -7163,7 +7055,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7175,16 +7067,16 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="18" min="1" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="21">
+    <row r="1" ht="12.75" customHeight="1" s="21">
       <c r="A1" s="31" t="inlineStr">
         <is>
           <t>Les électrons sont plus petits que les atomes</t>
@@ -7216,7 +7108,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="21">
+    <row r="2" ht="12.75" customHeight="1" s="21">
       <c r="A2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7242,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="21">
+    <row r="3" ht="12.75" customHeight="1" s="21">
       <c r="A3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7268,7 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="21">
+    <row r="4" ht="12.75" customHeight="1" s="21">
       <c r="A4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7294,7 +7186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="21">
+    <row r="5" ht="12.75" customHeight="1" s="21">
       <c r="A5" s="33" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
@@ -7320,7 +7212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="12.8" customHeight="1" s="21">
+    <row r="6" ht="12.75" customHeight="1" s="21">
       <c r="A6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7346,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="12.8" customHeight="1" s="21">
+    <row r="7" ht="12.75" customHeight="1" s="21">
       <c r="A7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7372,7 +7264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" s="21">
+    <row r="8" ht="12.75" customHeight="1" s="21">
       <c r="A8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7398,7 +7290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="12.8" customHeight="1" s="21">
+    <row r="9" ht="12.75" customHeight="1" s="21">
       <c r="A9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7424,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="12.8" customHeight="1" s="21">
+    <row r="10" ht="12.75" customHeight="1" s="21">
       <c r="A10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7450,7 +7342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="12.8" customHeight="1" s="21">
+    <row r="11" ht="12.75" customHeight="1" s="21">
       <c r="A11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7476,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="12.8" customHeight="1" s="21">
+    <row r="12" ht="12.75" customHeight="1" s="21">
       <c r="A12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7502,14 +7394,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="12.8" customHeight="1" s="21"/>
-    <row r="14" ht="12.8" customHeight="1" s="21"/>
-    <row r="15" ht="12.8" customHeight="1" s="21"/>
-    <row r="16" ht="12.8" customHeight="1" s="21"/>
-    <row r="17" ht="12.8" customHeight="1" s="21"/>
-    <row r="18" ht="12.8" customHeight="1" s="21"/>
-    <row r="19" ht="12.8" customHeight="1" s="21"/>
-    <row r="20" ht="12.8" customHeight="1" s="21"/>
+    <row r="13" ht="12.75" customHeight="1" s="21"/>
+    <row r="14" ht="12.75" customHeight="1" s="21"/>
+    <row r="15" ht="12.75" customHeight="1" s="21"/>
+    <row r="16" ht="12.75" customHeight="1" s="21"/>
+    <row r="17" ht="12.75" customHeight="1" s="21"/>
+    <row r="18" ht="12.75" customHeight="1" s="21"/>
+    <row r="19" ht="12.75" customHeight="1" s="21"/>
+    <row r="20" ht="12.75" customHeight="1" s="21"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7537,12 +7429,12 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="18" min="1" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="21">
+    <row r="1" ht="12.75" customHeight="1" s="21">
       <c r="A1" s="31" t="inlineStr">
         <is>
           <t>Les électrons sont plus petits que les atomes</t>
@@ -7574,7 +7466,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="21">
+    <row r="2" ht="12.75" customHeight="1" s="21">
       <c r="A2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7600,7 +7492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="21">
+    <row r="3" ht="12.75" customHeight="1" s="21">
       <c r="A3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7626,7 +7518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="21">
+    <row r="4" ht="12.75" customHeight="1" s="21">
       <c r="A4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7652,7 +7544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="21">
+    <row r="5" ht="12.75" customHeight="1" s="21">
       <c r="A5" s="33" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
@@ -7678,7 +7570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="12.8" customHeight="1" s="21">
+    <row r="6" ht="12.75" customHeight="1" s="21">
       <c r="A6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7704,7 +7596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="12.8" customHeight="1" s="21">
+    <row r="7" ht="12.75" customHeight="1" s="21">
       <c r="A7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7730,7 +7622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" s="21">
+    <row r="8" ht="12.75" customHeight="1" s="21">
       <c r="A8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7756,7 +7648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="12.8" customHeight="1" s="21">
+    <row r="9" ht="12.75" customHeight="1" s="21">
       <c r="A9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7782,7 +7674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="12.8" customHeight="1" s="21">
+    <row r="10" ht="12.75" customHeight="1" s="21">
       <c r="A10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7808,7 +7700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="12.8" customHeight="1" s="21">
+    <row r="11" ht="12.75" customHeight="1" s="21">
       <c r="A11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7834,7 +7726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="12.8" customHeight="1" s="21">
+    <row r="12" ht="12.75" customHeight="1" s="21">
       <c r="A12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -7887,13 +7779,13 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.2109375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.08" customWidth="1" style="18" min="6" max="6"/>
     <col width="11.52" customWidth="1" style="18" min="947" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="21">
+    <row r="1" ht="12.75" customHeight="1" s="21">
       <c r="A1" s="18" t="inlineStr">
         <is>
           <t>Test !!!!</t>
@@ -7910,7 +7802,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="21">
+    <row r="2" ht="12.75" customHeight="1" s="21">
       <c r="F2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
@@ -7923,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="21">
+    <row r="3" ht="12.75" customHeight="1" s="21">
       <c r="F3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
@@ -7936,7 +7828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="21">
+    <row r="4" ht="12.75" customHeight="1" s="21">
       <c r="C4" s="18" t="inlineStr">
         <is>
           <t>Il doit y avoir des notes.</t>
@@ -7954,7 +7846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="21">
+    <row r="5" ht="12.75" customHeight="1" s="21">
       <c r="F5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
@@ -7967,7 +7859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="12.8" customHeight="1" s="21">
+    <row r="6" ht="12.75" customHeight="1" s="21">
       <c r="B6" s="18" t="inlineStr">
         <is>
           <t>zdzd</t>
@@ -7985,7 +7877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="12.8" customHeight="1" s="21">
+    <row r="7" ht="12.75" customHeight="1" s="21">
       <c r="B7" s="18" t="inlineStr">
         <is>
           <t>zdzd</t>
@@ -8003,7 +7895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" s="21">
+    <row r="8" ht="12.75" customHeight="1" s="21">
       <c r="F8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
@@ -8016,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="12.8" customHeight="1" s="21">
+    <row r="9" ht="12.75" customHeight="1" s="21">
       <c r="F9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
@@ -8029,7 +7921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="12.8" customHeight="1" s="21">
+    <row r="10" ht="12.75" customHeight="1" s="21">
       <c r="F10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
@@ -8042,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="12.8" customHeight="1" s="21">
+    <row r="11" ht="12.75" customHeight="1" s="21">
       <c r="F11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
@@ -8055,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="12.8" customHeight="1" s="21">
+    <row r="12" ht="12.75" customHeight="1" s="21">
       <c r="F12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
@@ -8068,7 +7960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="12.8" customHeight="1" s="21">
+    <row r="13" ht="12.75" customHeight="1" s="21">
       <c r="F13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
@@ -8081,7 +7973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="12.8" customHeight="1" s="21">
+    <row r="14" ht="12.75" customHeight="1" s="21">
       <c r="F14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
@@ -8121,12 +8013,12 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="18" min="1" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="21">
+    <row r="1" ht="12.75" customHeight="1" s="21">
       <c r="A1" s="31" t="inlineStr">
         <is>
           <t>Les électrons sont plus petits que les atomes</t>
@@ -8158,7 +8050,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="21">
+    <row r="2" ht="12.75" customHeight="1" s="21">
       <c r="A2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8184,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="21">
+    <row r="3" ht="12.75" customHeight="1" s="21">
       <c r="A3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8210,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="21">
+    <row r="4" ht="12.75" customHeight="1" s="21">
       <c r="A4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8236,7 +8128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="21">
+    <row r="5" ht="12.75" customHeight="1" s="21">
       <c r="A5" s="33" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
@@ -8262,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="12.8" customHeight="1" s="21">
+    <row r="6" ht="12.75" customHeight="1" s="21">
       <c r="A6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8288,7 +8180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="12.8" customHeight="1" s="21">
+    <row r="7" ht="12.75" customHeight="1" s="21">
       <c r="A7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8314,7 +8206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" s="21">
+    <row r="8" ht="12.75" customHeight="1" s="21">
       <c r="A8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8340,7 +8232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="12.8" customHeight="1" s="21">
+    <row r="9" ht="12.75" customHeight="1" s="21">
       <c r="A9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8366,7 +8258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="12.8" customHeight="1" s="21">
+    <row r="10" ht="12.75" customHeight="1" s="21">
       <c r="A10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8392,7 +8284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="12.8" customHeight="1" s="21">
+    <row r="11" ht="12.75" customHeight="1" s="21">
       <c r="A11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8418,7 +8310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="12.8" customHeight="1" s="21">
+    <row r="12" ht="12.75" customHeight="1" s="21">
       <c r="A12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8444,7 +8336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="12.8" customHeight="1" s="21">
+    <row r="13" ht="12.75" customHeight="1" s="21">
       <c r="A13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8470,7 +8362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="12.8" customHeight="1" s="21">
+    <row r="14" ht="12.75" customHeight="1" s="21">
       <c r="A14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8523,12 +8415,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="18" min="1" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="21">
+    <row r="1" ht="12.75" customHeight="1" s="21">
       <c r="A1" s="31" t="inlineStr">
         <is>
           <t>Les électrons sont plus petits que les atomes</t>
@@ -8560,7 +8452,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="21">
+    <row r="2" ht="12.75" customHeight="1" s="21">
       <c r="A2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8586,7 +8478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="21">
+    <row r="3" ht="12.75" customHeight="1" s="21">
       <c r="A3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8612,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="21">
+    <row r="4" ht="12.75" customHeight="1" s="21">
       <c r="A4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8638,7 +8530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="21">
+    <row r="5" ht="12.75" customHeight="1" s="21">
       <c r="A5" s="33" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
@@ -8664,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="12.8" customHeight="1" s="21">
+    <row r="6" ht="12.75" customHeight="1" s="21">
       <c r="A6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8690,7 +8582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="12.8" customHeight="1" s="21">
+    <row r="7" ht="12.75" customHeight="1" s="21">
       <c r="A7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8716,7 +8608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" s="21">
+    <row r="8" ht="12.75" customHeight="1" s="21">
       <c r="A8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8742,7 +8634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="12.8" customHeight="1" s="21">
+    <row r="9" ht="12.75" customHeight="1" s="21">
       <c r="A9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8768,7 +8660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="12.8" customHeight="1" s="21">
+    <row r="10" ht="12.75" customHeight="1" s="21">
       <c r="A10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8794,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="12.8" customHeight="1" s="21">
+    <row r="11" ht="12.75" customHeight="1" s="21">
       <c r="A11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8820,7 +8712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="12.8" customHeight="1" s="21">
+    <row r="12" ht="12.75" customHeight="1" s="21">
       <c r="A12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8846,7 +8738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="12.8" customHeight="1" s="21">
+    <row r="13" ht="12.75" customHeight="1" s="21">
       <c r="A13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8872,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="12.8" customHeight="1" s="21">
+    <row r="14" ht="12.75" customHeight="1" s="21">
       <c r="A14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
@@ -8914,7 +8806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -8925,9 +8817,9 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="16.05" customHeight="1" s="21">
+    <row r="1" ht="15.75" customHeight="1" s="21">
       <c r="A1" s="18" t="inlineStr">
         <is>
           <t>Nom</t>
@@ -8964,7 +8856,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="16.05" customHeight="1" s="21">
+    <row r="2" ht="15.75" customHeight="1" s="21">
       <c r="A2" s="18" t="inlineStr">
         <is>
           <t>Abdulhoussen</t>
@@ -9001,7 +8893,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="16.05" customHeight="1" s="21">
+    <row r="3" ht="15.75" customHeight="1" s="21">
       <c r="A3" s="18" t="inlineStr">
         <is>
           <t>Abdel Moneim</t>
@@ -9038,7 +8930,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="16.05" customHeight="1" s="21">
+    <row r="4" ht="15.75" customHeight="1" s="21">
       <c r="A4" s="18" t="inlineStr">
         <is>
           <t>Abbas</t>
@@ -9075,7 +8967,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="16.05" customHeight="1" s="21">
+    <row r="5" ht="15.75" customHeight="1" s="21">
       <c r="A5" s="18" t="inlineStr">
         <is>
           <t>Abdallah</t>
@@ -9112,7 +9004,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="16.05" customHeight="1" s="21">
+    <row r="6" ht="15.75" customHeight="1" s="21">
       <c r="A6" s="18" t="inlineStr">
         <is>
           <t>Abdelali</t>
@@ -9149,7 +9041,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="16.05" customHeight="1" s="21">
+    <row r="7" ht="15.75" customHeight="1" s="21">
       <c r="A7" s="18" t="inlineStr">
         <is>
           <t>Abdelgow</t>
@@ -9186,7 +9078,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="16.05" customHeight="1" s="21">
+    <row r="8" ht="15.75" customHeight="1" s="21">
       <c r="A8" s="18" t="inlineStr">
         <is>
           <t>Abdelkarim</t>
@@ -9223,7 +9115,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="16.05" customHeight="1" s="21">
+    <row r="9" ht="15.75" customHeight="1" s="21">
       <c r="A9" s="18" t="inlineStr">
         <is>
           <t>Aatif Mieulet</t>
@@ -9260,7 +9152,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="16.05" customHeight="1" s="21">
+    <row r="10" ht="15.75" customHeight="1" s="21">
       <c r="A10" s="30" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
@@ -9297,7 +9189,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="16.05" customHeight="1" s="21">
+    <row r="11" ht="15.75" customHeight="1" s="21">
       <c r="A11" s="18" t="inlineStr">
         <is>
           <t>Abdelhadi</t>
@@ -9334,7 +9226,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="16.05" customHeight="1" s="21">
+    <row r="12" ht="15.75" customHeight="1" s="21">
       <c r="A12" s="18" t="inlineStr">
         <is>
           <t>Abdenbaoui</t>
@@ -9371,7 +9263,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="16.05" customHeight="1" s="21">
+    <row r="13" ht="15.75" customHeight="1" s="21">
       <c r="A13" s="18" t="inlineStr">
         <is>
           <t>Abed Meraim</t>
@@ -9408,7 +9300,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="16.05" customHeight="1" s="21">
+    <row r="14" ht="15.75" customHeight="1" s="21">
       <c r="A14" s="30" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
@@ -9457,12 +9349,12 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -9473,9 +9365,9 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="16.05" customHeight="1" s="21">
+    <row r="1" ht="15.75" customHeight="1" s="21">
       <c r="A1" s="18" t="inlineStr">
         <is>
           <t>Nom</t>
@@ -9512,7 +9404,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="16.05" customHeight="1" s="21">
+    <row r="2" ht="15.75" customHeight="1" s="21">
       <c r="A2" s="18" t="inlineStr">
         <is>
           <t>Abdulhoussen</t>
@@ -9549,7 +9441,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="16.05" customHeight="1" s="21">
+    <row r="3" ht="15.75" customHeight="1" s="21">
       <c r="A3" s="18" t="inlineStr">
         <is>
           <t>Abdel Moneim</t>
@@ -9586,7 +9478,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="16.05" customHeight="1" s="21">
+    <row r="4" ht="15.75" customHeight="1" s="21">
       <c r="A4" s="18" t="inlineStr">
         <is>
           <t>Abbas</t>
@@ -9623,7 +9515,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="16.05" customHeight="1" s="21">
+    <row r="5" ht="15.75" customHeight="1" s="21">
       <c r="A5" s="18" t="inlineStr">
         <is>
           <t>Abdallah</t>
@@ -9660,7 +9552,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="16.05" customHeight="1" s="21">
+    <row r="6" ht="15.75" customHeight="1" s="21">
       <c r="A6" s="18" t="inlineStr">
         <is>
           <t>Abdelali</t>
@@ -9697,7 +9589,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="16.05" customHeight="1" s="21">
+    <row r="7" ht="15.75" customHeight="1" s="21">
       <c r="A7" s="18" t="inlineStr">
         <is>
           <t>Abdelgow</t>
@@ -9734,7 +9626,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="16.05" customHeight="1" s="21">
+    <row r="8" ht="15.75" customHeight="1" s="21">
       <c r="A8" s="18" t="inlineStr">
         <is>
           <t>Abdelkarim</t>
@@ -9771,7 +9663,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="16.05" customHeight="1" s="21">
+    <row r="9" ht="15.75" customHeight="1" s="21">
       <c r="A9" s="18" t="inlineStr">
         <is>
           <t>Aatif Mieulet</t>
@@ -9808,7 +9700,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="16.05" customHeight="1" s="21">
+    <row r="10" ht="15.75" customHeight="1" s="21">
       <c r="A10" s="30" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
@@ -9845,7 +9737,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="16.05" customHeight="1" s="21">
+    <row r="11" ht="15.75" customHeight="1" s="21">
       <c r="A11" s="18" t="inlineStr">
         <is>
           <t>Abdelhadi</t>
@@ -9882,7 +9774,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="16.05" customHeight="1" s="21">
+    <row r="12" ht="15.75" customHeight="1" s="21">
       <c r="A12" s="18" t="inlineStr">
         <is>
           <t>Abdenbaoui</t>
@@ -9919,7 +9811,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="16.05" customHeight="1" s="21">
+    <row r="13" ht="15.75" customHeight="1" s="21">
       <c r="A13" s="18" t="inlineStr">
         <is>
           <t>Abed Meraim</t>
@@ -9956,7 +9848,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="16.05" customHeight="1" s="21">
+    <row r="14" ht="15.75" customHeight="1" s="21">
       <c r="A14" s="30" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
@@ -10005,12 +9897,12 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -10021,9 +9913,9 @@
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="16.05" customHeight="1" s="21">
+    <row r="1" ht="15.75" customHeight="1" s="21">
       <c r="A1" s="18" t="inlineStr">
         <is>
           <t>Nom</t>
@@ -10060,7 +9952,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="16.05" customHeight="1" s="21">
+    <row r="2" ht="15.75" customHeight="1" s="21">
       <c r="A2" s="18" t="inlineStr">
         <is>
           <t>Abdulhoussen</t>
@@ -10097,7 +9989,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="16.05" customHeight="1" s="21">
+    <row r="3" ht="15.75" customHeight="1" s="21">
       <c r="A3" s="18" t="inlineStr">
         <is>
           <t>Abdel Moneim</t>
@@ -10134,7 +10026,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="16.05" customHeight="1" s="21">
+    <row r="4" ht="15.75" customHeight="1" s="21">
       <c r="A4" s="37" t="inlineStr">
         <is>
           <t>Abbas</t>
@@ -10171,7 +10063,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="16.05" customHeight="1" s="21">
+    <row r="5" ht="15.75" customHeight="1" s="21">
       <c r="A5" s="18" t="inlineStr">
         <is>
           <t>Abdallah</t>
@@ -10208,7 +10100,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="16.05" customHeight="1" s="21">
+    <row r="6" ht="15.75" customHeight="1" s="21">
       <c r="A6" s="18" t="inlineStr">
         <is>
           <t>Abdelali</t>
@@ -10245,7 +10137,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="16.05" customHeight="1" s="21">
+    <row r="7" ht="15.75" customHeight="1" s="21">
       <c r="A7" s="37" t="inlineStr">
         <is>
           <t>Abdelgow</t>
@@ -10282,7 +10174,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="16.05" customHeight="1" s="21">
+    <row r="8" ht="15.75" customHeight="1" s="21">
       <c r="A8" s="18" t="inlineStr">
         <is>
           <t>Abdelkarim</t>
@@ -10319,7 +10211,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="16.05" customHeight="1" s="21">
+    <row r="9" ht="15.75" customHeight="1" s="21">
       <c r="A9" s="18" t="inlineStr">
         <is>
           <t>Aatif Mieulet</t>
@@ -10356,7 +10248,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="16.05" customHeight="1" s="21">
+    <row r="10" ht="15.75" customHeight="1" s="21">
       <c r="A10" s="37" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
@@ -10393,7 +10285,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="16.05" customHeight="1" s="21">
+    <row r="11" ht="15.75" customHeight="1" s="21">
       <c r="A11" s="18" t="inlineStr">
         <is>
           <t>Abdelhadi</t>
@@ -10430,7 +10322,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="16.05" customHeight="1" s="21">
+    <row r="12" ht="15.75" customHeight="1" s="21">
       <c r="A12" s="37" t="inlineStr">
         <is>
           <t>-</t>
@@ -10467,7 +10359,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="16.05" customHeight="1" s="21">
+    <row r="13" ht="15.75" customHeight="1" s="21">
       <c r="A13" s="18" t="inlineStr">
         <is>
           <t>Abed Meraim</t>
@@ -10504,7 +10396,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="16.05" customHeight="1" s="21">
+    <row r="14" ht="15.75" customHeight="1" s="21">
       <c r="A14" s="37" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
@@ -10553,7 +10445,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10565,17 +10457,18 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="18" min="1" max="2"/>
-    <col width="11.52" customWidth="1" style="18" min="998" max="1024"/>
+    <col width="11.52" customWidth="1" style="18" min="986" max="1012"/>
+    <col width="11.53" customWidth="1" style="18" min="16373" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="21">
+    <row r="1" ht="12.75" customHeight="1" s="21">
       <c r="A1" s="18" t="inlineStr">
         <is>
           <t>Nom</t>
@@ -10592,7 +10485,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="21">
+    <row r="2" ht="12.75" customHeight="1" s="21">
       <c r="A2" s="18" t="inlineStr">
         <is>
           <t>Aatif Mieulet</t>
@@ -10609,7 +10502,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="21">
+    <row r="3" ht="12.75" customHeight="1" s="21">
       <c r="A3" s="18" t="inlineStr">
         <is>
           <t>Abbas</t>
@@ -10626,7 +10519,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="21">
+    <row r="4" ht="12.75" customHeight="1" s="21">
       <c r="A4" s="18" t="inlineStr">
         <is>
           <t>Abdallah</t>
@@ -10643,7 +10536,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="21">
+    <row r="5" ht="12.75" customHeight="1" s="21">
       <c r="A5" s="18" t="inlineStr">
         <is>
           <t>Abdel Moneim</t>
@@ -10684,10 +10577,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="18" min="1" max="3"/>
     <col width="21.53" customWidth="1" style="18" min="4" max="4"/>
@@ -10695,7 +10588,7 @@
     <col width="13.5" customWidth="1" style="18" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="21">
+    <row r="1" ht="12.75" customHeight="1" s="21">
       <c r="A1" s="18" t="inlineStr">
         <is>
           <t>Nom</t>
@@ -10712,7 +10605,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="21">
+    <row r="2" ht="12.75" customHeight="1" s="21">
       <c r="A2" s="18" t="inlineStr">
         <is>
           <t>Aatif Mieulet</t>
@@ -10744,7 +10637,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="21">
+    <row r="3" ht="12.75" customHeight="1" s="21">
       <c r="A3" s="18" t="inlineStr">
         <is>
           <t>Abbas</t>
@@ -10776,7 +10669,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="21">
+    <row r="4" ht="12.75" customHeight="1" s="21">
       <c r="A4" s="18" t="inlineStr">
         <is>
           <t>Abdallah</t>
@@ -10808,7 +10701,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="21">
+    <row r="5" ht="12.75" customHeight="1" s="21">
       <c r="A5" s="18" t="inlineStr">
         <is>
           <t>Abdel Moneim</t>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -8790,7 +8790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -8824,6 +8824,16 @@
       </c>
       <c r="E1" s="18" t="inlineStr">
         <is>
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="F1" s="18" t="inlineStr">
+        <is>
+          <t>Note/10,00</t>
+        </is>
+      </c>
+      <c r="G1" s="18" t="inlineStr">
+        <is>
           <t>Temps utilisé</t>
         </is>
       </c>
@@ -8849,7 +8859,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E2" s="23" t="inlineStr">
+      <c r="E2" s="18" t="inlineStr">
+        <is>
+          <t>Houzefa</t>
+        </is>
+      </c>
+      <c r="F2" s="18" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G2" s="23" t="inlineStr">
         <is>
           <t>5 min 49 s</t>
         </is>
@@ -8876,7 +8896,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E3" s="23" t="inlineStr">
+      <c r="E3" s="18" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="F3" s="18" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G3" s="23" t="inlineStr">
         <is>
           <t>7 min 22 s</t>
         </is>
@@ -8903,7 +8933,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E4" s="23" t="inlineStr">
+      <c r="E4" s="18" t="inlineStr">
+        <is>
+          <t>Zina</t>
+        </is>
+      </c>
+      <c r="F4" s="18" t="inlineStr">
+        <is>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="G4" s="23" t="inlineStr">
         <is>
           <t>5 min 15 s</t>
         </is>
@@ -8930,7 +8970,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E5" s="23" t="inlineStr">
+      <c r="E5" s="18" t="inlineStr">
+        <is>
+          <t>Aboubaker</t>
+        </is>
+      </c>
+      <c r="F5" s="18" t="inlineStr">
+        <is>
+          <t>7,98</t>
+        </is>
+      </c>
+      <c r="G5" s="23" t="inlineStr">
         <is>
           <t>7 min 57 s</t>
         </is>
@@ -8957,7 +9007,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E6" s="23" t="inlineStr">
+      <c r="E6" s="18" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="F6" s="18" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G6" s="23" t="inlineStr">
         <is>
           <t>7 min 44 s</t>
         </is>
@@ -8984,7 +9044,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E7" s="26" t="inlineStr">
+      <c r="E7" s="18" t="inlineStr">
+        <is>
+          <t>Hassan Mahamat</t>
+        </is>
+      </c>
+      <c r="F7" s="18" t="inlineStr">
+        <is>
+          <t>7,52</t>
+        </is>
+      </c>
+      <c r="G7" s="26" t="inlineStr">
         <is>
           <t>23 min 37 s</t>
         </is>
@@ -9011,7 +9081,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E8" s="23" t="inlineStr">
+      <c r="E8" s="18" t="inlineStr">
+        <is>
+          <t>Yacine</t>
+        </is>
+      </c>
+      <c r="F8" s="18" t="inlineStr">
+        <is>
+          <t>8,07</t>
+        </is>
+      </c>
+      <c r="G8" s="23" t="inlineStr">
         <is>
           <t>4 min 17 s</t>
         </is>
@@ -9038,7 +9118,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E9" s="23" t="inlineStr">
+      <c r="E9" s="18" t="inlineStr">
+        <is>
+          <t>Paola</t>
+        </is>
+      </c>
+      <c r="F9" s="18" t="inlineStr">
+        <is>
+          <t>7,16</t>
+        </is>
+      </c>
+      <c r="G9" s="23" t="inlineStr">
         <is>
           <t>8 min 33 s</t>
         </is>
@@ -9065,7 +9155,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E10" s="23" t="inlineStr">
+      <c r="E10" s="35" t="inlineStr">
+        <is>
+          <t>Rodolphe</t>
+        </is>
+      </c>
+      <c r="F10" s="18" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+      <c r="G10" s="23" t="inlineStr">
         <is>
           <t>15 min 32 s</t>
         </is>
@@ -9092,7 +9192,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E11" s="23" t="inlineStr">
+      <c r="E11" s="18" t="inlineStr">
+        <is>
+          <t>Nouh</t>
+        </is>
+      </c>
+      <c r="F11" s="18" t="inlineStr">
+        <is>
+          <t>7,35</t>
+        </is>
+      </c>
+      <c r="G11" s="23" t="inlineStr">
         <is>
           <t>9 min 27 s</t>
         </is>
@@ -9119,7 +9229,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E12" s="23" t="inlineStr">
+      <c r="E12" s="18" t="inlineStr">
+        <is>
+          <t>Iness</t>
+        </is>
+      </c>
+      <c r="F12" s="18" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="G12" s="23" t="inlineStr">
         <is>
           <t>10 min 33 s</t>
         </is>
@@ -9146,7 +9266,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E13" s="23" t="inlineStr">
+      <c r="E13" s="18" t="inlineStr">
+        <is>
+          <t>Zakaria</t>
+        </is>
+      </c>
+      <c r="F13" s="18" t="inlineStr">
+        <is>
+          <t>7,70</t>
+        </is>
+      </c>
+      <c r="G13" s="23" t="inlineStr">
         <is>
           <t>9 min 14 s</t>
         </is>
@@ -9173,7 +9303,17 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E14" s="26" t="inlineStr">
+      <c r="E14" s="35" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="F14" s="18" t="inlineStr">
+        <is>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="G14" s="26" t="inlineStr">
         <is>
           <t>21 min 49 s</t>
         </is>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -2047,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:DJ14"/>
+  <dimension ref="A1:DL14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
@@ -2120,342 +2120,342 @@
           <t>Les chromosomes du père déterminent si le bébé est un garçon ou une fille</t>
         </is>
       </c>
-      <c r="M1" s="22" t="inlineStr">
+      <c r="N1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q1</t>
         </is>
       </c>
-      <c r="N1" s="22" t="inlineStr">
+      <c r="P1" s="22" t="inlineStr">
         <is>
           <t>L’être humain s’est développé à partir d’espèces animales plus anciennes</t>
         </is>
       </c>
-      <c r="O1" s="22" t="inlineStr">
+      <c r="Q1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q2</t>
         </is>
       </c>
-      <c r="P1" s="22" t="inlineStr">
+      <c r="R1" s="22" t="inlineStr">
         <is>
           <t xml:space="preserve">Les continents se déplacent depuis des millions d’années et continueront à se déplacer dans le futur </t>
         </is>
       </c>
-      <c r="Q1" s="22" t="inlineStr">
+      <c r="S1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q3</t>
         </is>
       </c>
-      <c r="R1" s="22" t="inlineStr">
+      <c r="T1" s="22" t="inlineStr">
         <is>
           <t>Les lasers fonctionnent en faisant converger des ondes sonores</t>
         </is>
       </c>
-      <c r="S1" s="22" t="inlineStr">
+      <c r="U1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q4</t>
         </is>
       </c>
-      <c r="T1" s="22" t="inlineStr">
+      <c r="V1" s="22" t="inlineStr">
         <is>
           <t xml:space="preserve">Les antibiotiques tuent les virus ainsi que les bactéries </t>
         </is>
       </c>
-      <c r="U1" s="22" t="inlineStr">
+      <c r="W1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q5</t>
         </is>
       </c>
-      <c r="V1" s="22" t="inlineStr">
+      <c r="X1" s="22" t="inlineStr">
         <is>
           <t>Les électrons sont plus petits que les atomes</t>
         </is>
       </c>
-      <c r="W1" s="22" t="inlineStr">
+      <c r="Y1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q6</t>
         </is>
       </c>
-      <c r="X1" s="22" t="inlineStr">
+      <c r="Z1" s="22" t="inlineStr">
         <is>
           <t>Toute radioactivité résulte de l’action de l’homme</t>
         </is>
       </c>
-      <c r="Y1" s="22" t="inlineStr">
+      <c r="AA1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q7</t>
         </is>
       </c>
-      <c r="Z1" s="22" t="inlineStr">
+      <c r="AB1" s="22" t="inlineStr">
         <is>
           <t xml:space="preserve">  La Terre fait le tour du Soleil en un mois</t>
         </is>
       </c>
-      <c r="AA1" s="22" t="inlineStr">
+      <c r="AC1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q8</t>
         </is>
       </c>
-      <c r="AB1" s="22" t="inlineStr">
+      <c r="AD1" s="22" t="inlineStr">
         <is>
           <t xml:space="preserve"> Les premiers êtres humains vivaient à la même époque que les dinosaures</t>
         </is>
       </c>
-      <c r="AC1" s="22" t="inlineStr">
+      <c r="AE1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q9</t>
         </is>
       </c>
-      <c r="AD1" s="22" t="inlineStr">
+      <c r="AF1" s="22" t="inlineStr">
         <is>
           <t>Le lait radioactif peut être rendu sain en le faisant bouillir</t>
         </is>
       </c>
-      <c r="AE1" s="22" t="inlineStr">
+      <c r="AG1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q10</t>
         </is>
       </c>
-      <c r="AF1" s="22" t="inlineStr">
+      <c r="AH1" s="22" t="inlineStr">
         <is>
           <t xml:space="preserve">  Le Soleil tourne autour de la Terre</t>
         </is>
       </c>
-      <c r="AG1" s="22" t="inlineStr">
+      <c r="AI1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q11</t>
         </is>
       </c>
-      <c r="AH1" s="22" t="inlineStr">
+      <c r="AJ1" s="22" t="inlineStr">
         <is>
           <t xml:space="preserve">  L’oxygène que nous respirons vient des plantes</t>
         </is>
       </c>
-      <c r="AI1" s="22" t="inlineStr">
+      <c r="AK1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q12</t>
         </is>
       </c>
-      <c r="AJ1" s="22" t="inlineStr">
+      <c r="AL1" s="22" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre de la Terre est très chaud </t>
         </is>
       </c>
-      <c r="AK1" s="22" t="inlineStr">
+      <c r="AM1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q13</t>
         </is>
       </c>
-      <c r="AL1" s="22" t="inlineStr">
+      <c r="AN1" s="22" t="inlineStr">
         <is>
           <t>Laquelle ou lesquelles de ces questions peu(ven)t être testée(s) scientifiquement ?</t>
         </is>
       </c>
-      <c r="AM1" s="22" t="inlineStr">
+      <c r="AO1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q14</t>
         </is>
       </c>
-      <c r="AN1" s="20" t="inlineStr">
+      <c r="AP1" s="20" t="inlineStr">
         <is>
           <t>sous-score Q1 à Q14</t>
         </is>
       </c>
-      <c r="AO1" s="22" t="inlineStr">
+      <c r="AQ1" s="22" t="inlineStr">
         <is>
           <t xml:space="preserve">Pouvez-vous citer le nom d'un programme d'envergure internationale ayant pour but la détection des ondes gravitationnelles ? </t>
         </is>
       </c>
-      <c r="AP1" s="22" t="inlineStr">
+      <c r="AR1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q15</t>
         </is>
       </c>
-      <c r="AQ1" s="20" t="inlineStr">
+      <c r="AS1" s="20" t="inlineStr">
         <is>
           <t>sous-score Q15</t>
         </is>
       </c>
-      <c r="AR1" s="19" t="inlineStr">
+      <c r="AT1" s="19" t="inlineStr">
         <is>
           <t>Réponse 5</t>
         </is>
       </c>
-      <c r="AS1" s="22" t="inlineStr">
+      <c r="AU1" s="22" t="inlineStr">
         <is>
           <t>Des différences de fonctionnement du cerveau entre des bébés filles et des bébés garçons permettent de conclure que ces différences sont génétiques</t>
         </is>
       </c>
-      <c r="AT1" s="22" t="inlineStr">
+      <c r="AV1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q16</t>
         </is>
       </c>
-      <c r="AU1" s="22" t="inlineStr">
+      <c r="AW1" s="22" t="inlineStr">
         <is>
           <t>Faire de la recherche scientifique nécessite de faire des expériences en laboratoire</t>
         </is>
       </c>
-      <c r="AV1" s="22" t="inlineStr">
+      <c r="AX1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q17</t>
         </is>
       </c>
-      <c r="AW1" s="22" t="inlineStr">
+      <c r="AY1" s="22" t="inlineStr">
         <is>
           <t>Il est probable que la Terre soit plate</t>
         </is>
       </c>
-      <c r="AX1" s="22" t="inlineStr">
+      <c r="AZ1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q18</t>
         </is>
       </c>
-      <c r="AY1" s="22" t="inlineStr">
+      <c r="BA1" s="22" t="inlineStr">
         <is>
           <t>L’objectif de la biologie de synthèse est de créer des systèmes biologiques nouveaux</t>
         </is>
       </c>
-      <c r="AZ1" s="22" t="inlineStr">
+      <c r="BB1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q19</t>
         </is>
       </c>
-      <c r="BA1" s="22" t="inlineStr">
+      <c r="BC1" s="22" t="inlineStr">
         <is>
           <t xml:space="preserve">  La lumière et l’espace-temps s’influencent mutuellement. C’est ce qu’</t>
         </is>
       </c>
-      <c r="BB1" s="22" t="inlineStr">
+      <c r="BD1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q20</t>
         </is>
       </c>
-      <c r="BC1" s="22" t="inlineStr">
+      <c r="BE1" s="22" t="inlineStr">
         <is>
           <t>L’appareil de mesure permettant la détection des ondes gravitationnelles est appelé un spectromètre</t>
         </is>
       </c>
-      <c r="BD1" s="22" t="inlineStr">
+      <c r="BF1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q21</t>
         </is>
       </c>
-      <c r="BE1" s="22" t="inlineStr">
+      <c r="BG1" s="22" t="inlineStr">
         <is>
           <t>L’intelligence d’une personne est directement corrélée au poids de son cerveau</t>
         </is>
       </c>
-      <c r="BF1" s="22" t="inlineStr">
+      <c r="BH1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q22</t>
         </is>
       </c>
-      <c r="BG1" s="22" t="inlineStr">
+      <c r="BI1" s="22" t="inlineStr">
         <is>
           <t>La Terre tourne sur elle-même en 24 heures</t>
         </is>
       </c>
-      <c r="BH1" s="22" t="inlineStr">
+      <c r="BJ1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q23</t>
         </is>
       </c>
-      <c r="BI1" s="22" t="inlineStr">
+      <c r="BK1" s="22" t="inlineStr">
         <is>
           <t>Le cerveau a une activité électrique</t>
         </is>
       </c>
-      <c r="BJ1" s="22" t="inlineStr">
+      <c r="BL1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q24</t>
         </is>
       </c>
-      <c r="BK1" s="22" t="inlineStr">
+      <c r="BM1" s="22" t="inlineStr">
         <is>
           <t>Notre système solaire est constitué de planètes gravitant autour du Soleil</t>
         </is>
       </c>
-      <c r="BL1" s="22" t="inlineStr">
+      <c r="BN1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q25</t>
         </is>
       </c>
-      <c r="BM1" s="22" t="inlineStr">
+      <c r="BO1" s="22" t="inlineStr">
         <is>
           <t>On ne peut pas techniquement créer d’entités vivantes qui sont des hybrides humain-animal</t>
         </is>
       </c>
-      <c r="BN1" s="22" t="inlineStr">
+      <c r="BP1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q26</t>
         </is>
       </c>
-      <c r="BO1" s="22" t="inlineStr">
+      <c r="BQ1" s="22" t="inlineStr">
         <is>
           <t>Le cerveau est constitué uniquement de neurones</t>
         </is>
       </c>
-      <c r="BP1" s="22" t="inlineStr">
+      <c r="BR1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q27</t>
         </is>
       </c>
-      <c r="BQ1" s="22" t="inlineStr">
+      <c r="BS1" s="22" t="inlineStr">
         <is>
           <t>On peut aujourd’hui équiper des humains de prothèses qui augmentent fortement leurs performances ou ajoutent des fonctionnalités nouvelles qui ne sont pas naturellement possibles</t>
         </is>
       </c>
-      <c r="BR1" s="22" t="inlineStr">
+      <c r="BT1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q28</t>
         </is>
       </c>
-      <c r="BS1" s="22" t="inlineStr">
+      <c r="BU1" s="22" t="inlineStr">
         <is>
           <t>Le fait que plus de femmes exercent des emplois de secrétaires est directement lié au fonctionnement du cerveau des femmes</t>
         </is>
       </c>
-      <c r="BT1" s="22" t="inlineStr">
+      <c r="BV1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q29</t>
         </is>
       </c>
-      <c r="BU1" s="22" t="inlineStr">
+      <c r="BW1" s="22" t="inlineStr">
         <is>
           <t>Une onde peut se caractériser par une fréquence et une amplitude</t>
         </is>
       </c>
-      <c r="BV1" s="22" t="inlineStr">
+      <c r="BX1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q30</t>
         </is>
       </c>
-      <c r="BW1" s="22" t="inlineStr">
+      <c r="BY1" s="22" t="inlineStr">
         <is>
           <t>Si à un test de mathématiques, un groupe de femmes est meilleur qu’un groupe d’hommes, peut-on en conclure que les femmes sont meilleures en mathématiques que les hommes ?</t>
         </is>
       </c>
-      <c r="BX1" s="22" t="inlineStr">
+      <c r="BZ1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q31</t>
         </is>
       </c>
-      <c r="BY1" s="22" t="inlineStr">
+      <c r="CA1" s="22" t="inlineStr">
         <is>
           <t>Sciences et techniques peuvent résoudre tous les problèmes</t>
         </is>
       </c>
-      <c r="BZ1" s="22" t="inlineStr">
+      <c r="CB1" s="22" t="inlineStr">
         <is>
           <t>accuracy_Q32</t>
         </is>
       </c>
-      <c r="CA1" s="20" t="inlineStr">
+      <c r="CC1" s="20" t="inlineStr">
         <is>
           <t>sous-score Q16 à Q32</t>
         </is>
       </c>
-      <c r="CB1" s="20" t="inlineStr">
+      <c r="CD1" s="20" t="inlineStr">
         <is>
           <t>SCORE_TOTAL</t>
         </is>
@@ -2510,267 +2510,273 @@
       <c r="M2" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="N2" s="18" t="inlineStr">
+      <c r="N2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="O2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="18" t="inlineStr">
+      <c r="Q2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="18" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="T2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="U2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="18" t="inlineStr">
+      <c r="W2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="18" t="inlineStr">
+      <c r="Y2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="18" t="inlineStr">
+      <c r="AA2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="18" t="inlineStr">
+      <c r="AC2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="18" t="inlineStr">
+      <c r="AE2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="18" t="inlineStr">
+      <c r="AG2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="18" t="inlineStr">
+      <c r="AI2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="AI2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="18" t="inlineStr">
+      <c r="AK2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="18" t="inlineStr">
+      <c r="AM2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="18" t="inlineStr">
         <is>
           <t>La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="20" t="n">
+      <c r="AO2" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="AO2" s="18" t="inlineStr">
+      <c r="AQ2" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AP2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="19" t="inlineStr">
+      <c r="AR2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="19" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Je ne sais pas; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS2" s="18" t="inlineStr">
+      <c r="AU2" s="18" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="18" t="inlineStr">
+      <c r="AV2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="AV2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="18" t="inlineStr">
+      <c r="AX2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="18" t="inlineStr">
+      <c r="AZ2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="AZ2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="18" t="inlineStr">
+      <c r="BB2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="BB2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="18" t="inlineStr">
+      <c r="BD2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" s="18" t="inlineStr">
+      <c r="BF2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" s="18" t="inlineStr">
+      <c r="BH2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" s="18" t="inlineStr">
+      <c r="BJ2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" s="18" t="inlineStr">
+      <c r="BL2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="18" t="inlineStr">
+      <c r="BN2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Vrai</t>
         </is>
       </c>
-      <c r="BN2" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="18" t="inlineStr">
+      <c r="BP2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" s="18" t="inlineStr">
+      <c r="BR2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" s="18" t="inlineStr">
+      <c r="BT2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" s="18" t="inlineStr">
+      <c r="BV2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW2" s="18" t="inlineStr">
+      <c r="BX2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" s="18" t="inlineStr">
+      <c r="BZ2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ2" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" s="20" t="n">
+      <c r="CB2" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="CB2" s="20" t="n">
+      <c r="CD2" s="20" t="n">
         <v>22</v>
       </c>
     </row>
@@ -2823,269 +2829,275 @@
       <c r="M3" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="N3" s="18" t="inlineStr">
+      <c r="N3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="O3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="18" t="inlineStr">
+      <c r="Q3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="T3" s="18" t="inlineStr">
+      <c r="T3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="U3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="18" t="inlineStr">
+      <c r="W3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="18" t="inlineStr">
+      <c r="Y3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="18" t="inlineStr">
+      <c r="AA3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="18" t="inlineStr">
+      <c r="AC3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="18" t="inlineStr">
+      <c r="AE3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="18" t="inlineStr">
+      <c r="AG3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="18" t="inlineStr">
+      <c r="AI3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="18" t="inlineStr">
+      <c r="AK3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="24" t="inlineStr">
+      <c r="AM3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="24" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?
 ; Combien de girafes vivent en Afrique ?
 ; La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="20" t="n">
+      <c r="AO3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="AO3" s="18" t="inlineStr">
+      <c r="AQ3" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AP3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="19" t="inlineStr">
+      <c r="AR3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="19" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas; partie 2 : Vrai; partie 3 : Faux; partie 4 : Je ne sais pas; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS3" s="18" t="inlineStr">
+      <c r="AU3" s="18" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="AT3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="18" t="inlineStr">
+      <c r="AV3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="AV3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="18" t="inlineStr">
+      <c r="AX3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="18" t="inlineStr">
+      <c r="AZ3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="AZ3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="18" t="inlineStr">
+      <c r="BB3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="BB3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="18" t="inlineStr">
+      <c r="BD3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="18" t="inlineStr">
+      <c r="BF3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG3" s="18" t="inlineStr">
+      <c r="BH3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="18" t="inlineStr">
+      <c r="BJ3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK3" s="18" t="inlineStr">
+      <c r="BL3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="18" t="inlineStr">
+      <c r="BN3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Vrai</t>
         </is>
       </c>
-      <c r="BN3" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="18" t="inlineStr">
+      <c r="BP3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ3" s="18" t="inlineStr">
+      <c r="BR3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS3" s="18" t="inlineStr">
+      <c r="BT3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU3" s="18" t="inlineStr">
+      <c r="BV3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW3" s="18" t="inlineStr">
+      <c r="BX3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY3" s="18" t="inlineStr">
+      <c r="BZ3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ3" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA3" s="20" t="n">
+      <c r="CB3" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="CB3" s="20" t="n">
+      <c r="CD3" s="20" t="n">
         <v>24</v>
       </c>
     </row>
@@ -3138,267 +3150,273 @@
       <c r="M4" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="N4" s="18" t="inlineStr">
+      <c r="N4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="O4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="18" t="inlineStr">
+      <c r="Q4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="T4" s="18" t="inlineStr">
+      <c r="T4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="U4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="18" t="inlineStr">
+      <c r="W4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="18" t="inlineStr">
+      <c r="Y4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="18" t="inlineStr">
+      <c r="AA4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="18" t="inlineStr">
+      <c r="AC4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="18" t="inlineStr">
+      <c r="AE4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="18" t="inlineStr">
+      <c r="AG4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="18" t="inlineStr">
+      <c r="AI4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="18" t="inlineStr">
+      <c r="AK4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="18" t="inlineStr">
+      <c r="AM4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="18" t="inlineStr">
         <is>
           <t>La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="20" t="n">
+      <c r="AO4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="AO4" s="25" t="inlineStr">
+      <c r="AQ4" s="25" t="inlineStr">
         <is>
           <t>LISA</t>
         </is>
       </c>
-      <c r="AP4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="19" t="inlineStr">
+      <c r="AR4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="19" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Faux; partie 3 : Faux; partie 4 : Vrai; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Oui</t>
         </is>
       </c>
-      <c r="AS4" s="18" t="inlineStr">
+      <c r="AU4" s="18" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
       </c>
-      <c r="AT4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="18" t="inlineStr">
+      <c r="AV4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="AV4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="18" t="inlineStr">
+      <c r="AX4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="18" t="inlineStr">
+      <c r="AZ4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="AZ4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="18" t="inlineStr">
+      <c r="BB4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="BB4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="18" t="inlineStr">
+      <c r="BD4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="18" t="inlineStr">
+      <c r="BF4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG4" s="18" t="inlineStr">
+      <c r="BH4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="18" t="inlineStr">
+      <c r="BJ4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK4" s="18" t="inlineStr">
+      <c r="BL4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM4" s="18" t="inlineStr">
+      <c r="BN4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="BN4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="18" t="inlineStr">
+      <c r="BP4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="18" t="inlineStr">
+      <c r="BR4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS4" s="18" t="inlineStr">
+      <c r="BT4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="18" t="inlineStr">
+      <c r="BV4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW4" s="18" t="inlineStr">
+      <c r="BX4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY4" s="18" t="inlineStr">
+      <c r="BZ4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Oui</t>
         </is>
       </c>
-      <c r="BZ4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="20" t="n">
+      <c r="CB4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="CB4" s="20" t="n">
+      <c r="CD4" s="20" t="n">
         <v>27</v>
       </c>
     </row>
@@ -3451,372 +3469,378 @@
       <c r="M5" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="N5" s="18" t="inlineStr">
+      <c r="N5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="O5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="18" t="inlineStr">
+      <c r="Q5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="T5" s="18" t="inlineStr">
+      <c r="T5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="U5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="18" t="inlineStr">
+      <c r="W5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="W5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="18" t="inlineStr">
+      <c r="Y5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="18" t="inlineStr">
+      <c r="AA5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="18" t="inlineStr">
+      <c r="AC5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="18" t="inlineStr">
+      <c r="AE5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="18" t="inlineStr">
+      <c r="AG5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="18" t="inlineStr">
+      <c r="AI5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="18" t="inlineStr">
+      <c r="AK5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="24" t="inlineStr">
+      <c r="AM5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="24" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?
 ; La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM5" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="20" t="n">
+      <c r="AO5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="AO5" s="18" t="inlineStr">
+      <c r="AQ5" s="18" t="inlineStr">
         <is>
           <t>Je ne sais pas</t>
         </is>
       </c>
-      <c r="AP5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="19" t="inlineStr">
+      <c r="AR5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="19" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Faux; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS5" s="18" t="inlineStr">
+      <c r="AU5" s="18" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="18" t="inlineStr">
+      <c r="AV5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="AV5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="18" t="inlineStr">
+      <c r="AX5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="18" t="inlineStr">
+      <c r="AZ5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Faux</t>
         </is>
       </c>
-      <c r="AZ5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="18" t="inlineStr">
+      <c r="BB5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="BB5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="18" t="inlineStr">
+      <c r="BD5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="18" t="inlineStr">
+      <c r="BF5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="18" t="inlineStr">
+      <c r="BH5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI5" s="18" t="inlineStr">
+      <c r="BJ5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK5" s="18" t="inlineStr">
+      <c r="BL5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM5" s="18" t="inlineStr">
+      <c r="BN5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="BN5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO5" s="18" t="inlineStr">
+      <c r="BP5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ5" s="18" t="inlineStr">
+      <c r="BR5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS5" s="18" t="inlineStr">
+      <c r="BT5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU5" s="18" t="inlineStr">
+      <c r="BV5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW5" s="18" t="inlineStr">
+      <c r="BX5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY5" s="18" t="inlineStr">
+      <c r="BZ5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA5" s="20" t="n">
+      <c r="CB5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="CB5" s="20" t="n">
+      <c r="CD5" s="20" t="n">
         <v>25</v>
       </c>
-      <c r="CC5" s="22" t="inlineStr">
+      <c r="CE5" s="22" t="inlineStr">
         <is>
           <t>score</t>
         </is>
       </c>
-      <c r="CD5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="18" t="n">
-        <v>1</v>
-      </c>
       <c r="CF5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH5" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="CG5" s="18" t="n">
+      <c r="CI5" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="CH5" s="18" t="n">
+      <c r="CJ5" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="CI5" s="18" t="n">
+      <c r="CK5" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="CJ5" s="18" t="n">
+      <c r="CL5" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="CK5" s="18" t="n">
+      <c r="CM5" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="CL5" s="18" t="n">
+      <c r="CN5" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="CM5" s="18" t="n">
+      <c r="CO5" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="CN5" s="18" t="n">
+      <c r="CP5" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="CO5" s="18" t="n">
+      <c r="CQ5" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="CP5" s="18" t="n">
+      <c r="CR5" s="18" t="n">
         <v>12</v>
       </c>
-      <c r="CQ5" s="18" t="n">
+      <c r="CS5" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="CR5" s="18" t="n">
+      <c r="CT5" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="CS5" s="18" t="n">
+      <c r="CU5" s="18" t="n">
         <v>15</v>
       </c>
-      <c r="CT5" s="18" t="n">
+      <c r="CV5" s="18" t="n">
         <v>16</v>
       </c>
-      <c r="CU5" s="18" t="n">
+      <c r="CW5" s="18" t="n">
         <v>17</v>
       </c>
-      <c r="CV5" s="18" t="n">
+      <c r="CX5" s="18" t="n">
         <v>18</v>
       </c>
-      <c r="CW5" s="18" t="n">
+      <c r="CY5" s="18" t="n">
         <v>19</v>
       </c>
-      <c r="CX5" s="18" t="n">
+      <c r="CZ5" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="CY5" s="18" t="n">
+      <c r="DA5" s="18" t="n">
         <v>21</v>
       </c>
-      <c r="CZ5" s="18" t="n">
+      <c r="DB5" s="18" t="n">
         <v>22</v>
       </c>
-      <c r="DA5" s="18" t="n">
+      <c r="DC5" s="18" t="n">
         <v>23</v>
       </c>
-      <c r="DB5" s="18" t="n">
+      <c r="DD5" s="18" t="n">
         <v>24</v>
       </c>
-      <c r="DC5" s="18" t="n">
+      <c r="DE5" s="18" t="n">
         <v>25</v>
       </c>
-      <c r="DD5" s="18" t="n">
+      <c r="DF5" s="18" t="n">
         <v>26</v>
       </c>
-      <c r="DE5" s="18" t="n">
+      <c r="DG5" s="18" t="n">
         <v>27</v>
       </c>
-      <c r="DF5" s="18" t="n">
+      <c r="DH5" s="18" t="n">
         <v>28</v>
       </c>
-      <c r="DG5" s="18" t="n">
+      <c r="DI5" s="18" t="n">
         <v>29</v>
       </c>
-      <c r="DH5" s="18" t="n">
+      <c r="DJ5" s="18" t="n">
         <v>30</v>
       </c>
-      <c r="DI5" s="18" t="n">
+      <c r="DK5" s="18" t="n">
         <v>31</v>
       </c>
-      <c r="DJ5" s="18" t="n">
+      <c r="DL5" s="18" t="n">
         <v>32</v>
       </c>
     </row>
@@ -3869,281 +3893,281 @@
       <c r="M6" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="18" t="inlineStr">
+      <c r="N6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="O6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="18" t="inlineStr">
+      <c r="Q6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="18" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="T6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="U6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="18" t="inlineStr">
+      <c r="W6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="18" t="inlineStr">
+      <c r="Y6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Vrai</t>
         </is>
       </c>
-      <c r="Y6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="18" t="inlineStr">
+      <c r="AA6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="18" t="inlineStr">
+      <c r="AC6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="18" t="inlineStr">
+      <c r="AE6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="18" t="inlineStr">
+      <c r="AG6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="18" t="inlineStr">
+      <c r="AI6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="18" t="inlineStr">
+      <c r="AK6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="24" t="inlineStr">
+      <c r="AM6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="24" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?
 ; Combien de girafes vivent en Afrique ?</t>
         </is>
       </c>
-      <c r="AM6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="20" t="n">
+      <c r="AO6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="AO6" s="18" t="inlineStr">
+      <c r="AQ6" s="18" t="inlineStr">
         <is>
           <t>NASA</t>
         </is>
       </c>
-      <c r="AP6" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="19" t="inlineStr">
+      <c r="AR6" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="19" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Faux; partie 3 : Faux; partie 4 : Vrai; partie 5 : Je ne sais pas; partie 6 : Vrai; partie 7 : Faux; partie 8 : Vrai; partie 9 : Faux; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS6" s="18" t="inlineStr">
+      <c r="AU6" s="18" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="18" t="inlineStr">
+      <c r="AV6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="AV6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="18" t="inlineStr">
+      <c r="AX6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="18" t="inlineStr">
+      <c r="AZ6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="AZ6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="18" t="inlineStr">
+      <c r="BB6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="BB6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="18" t="inlineStr">
+      <c r="BD6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="BD6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="18" t="inlineStr">
+      <c r="BF6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="18" t="inlineStr">
+      <c r="BH6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI6" s="18" t="inlineStr">
+      <c r="BJ6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="BJ6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="18" t="inlineStr">
+      <c r="BL6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM6" s="18" t="inlineStr">
+      <c r="BN6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="BN6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO6" s="18" t="inlineStr">
+      <c r="BP6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ6" s="18" t="inlineStr">
+      <c r="BR6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS6" s="18" t="inlineStr">
+      <c r="BT6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU6" s="18" t="inlineStr">
+      <c r="BV6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW6" s="18" t="inlineStr">
+      <c r="BX6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY6" s="18" t="inlineStr">
+      <c r="BZ6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA6" s="20" t="n">
+      <c r="CB6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="CB6" s="20" t="n">
+      <c r="CD6" s="20" t="n">
         <v>24</v>
       </c>
-      <c r="CC6" s="22" t="inlineStr">
+      <c r="CE6" s="22" t="inlineStr">
         <is>
           <t>nombre</t>
         </is>
       </c>
-      <c r="CD6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="CF6" s="18" t="n">
         <v>0</v>
       </c>
@@ -4172,25 +4196,25 @@
         <v>0</v>
       </c>
       <c r="CO6" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR6" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="CQ6" s="18" t="n">
+      <c r="CS6" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="CR6" s="18" t="n">
+      <c r="CT6" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="CS6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT6" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="CU6" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV6" s="18" t="n">
         <v>0</v>
@@ -4235,6 +4259,12 @@
         <v>0</v>
       </c>
       <c r="DJ6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL6" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4287,268 +4317,274 @@
       <c r="M7" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="18" t="inlineStr">
+      <c r="N7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="O7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="18" t="inlineStr">
+      <c r="Q7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="18" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="T7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="U7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="18" t="inlineStr">
+      <c r="W7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="18" t="inlineStr">
+      <c r="Y7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="18" t="inlineStr">
+      <c r="AA7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="18" t="inlineStr">
+      <c r="AC7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="18" t="inlineStr">
+      <c r="AE7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="AE7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="18" t="inlineStr">
+      <c r="AG7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="18" t="inlineStr">
+      <c r="AI7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="AI7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="18" t="inlineStr">
+      <c r="AK7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="24" t="inlineStr">
+      <c r="AM7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="24" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?
 ; La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM7" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="20" t="n">
+      <c r="AO7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="AO7" s="18" t="inlineStr">
+      <c r="AQ7" s="18" t="inlineStr">
         <is>
           <t>Virgo</t>
         </is>
       </c>
-      <c r="AP7" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="19" t="inlineStr">
+      <c r="AR7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="19" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Je ne sais pas; partie 4 : Vrai; partie 5 : Faux; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Faux; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS7" s="18" t="inlineStr">
+      <c r="AU7" s="18" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="18" t="inlineStr">
+      <c r="AV7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="AV7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="18" t="inlineStr">
+      <c r="AX7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="AX7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="18" t="inlineStr">
+      <c r="AZ7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="AZ7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="18" t="inlineStr">
+      <c r="BB7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="BB7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="18" t="inlineStr">
+      <c r="BD7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE7" s="18" t="inlineStr">
+      <c r="BF7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG7" s="18" t="inlineStr">
+      <c r="BH7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI7" s="18" t="inlineStr">
+      <c r="BJ7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK7" s="18" t="inlineStr">
+      <c r="BL7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM7" s="18" t="inlineStr">
+      <c r="BN7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Vrai</t>
         </is>
       </c>
-      <c r="BN7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="18" t="inlineStr">
+      <c r="BP7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ7" s="18" t="inlineStr">
+      <c r="BR7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Faux</t>
         </is>
       </c>
-      <c r="BR7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="18" t="inlineStr">
+      <c r="BT7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU7" s="18" t="inlineStr">
+      <c r="BV7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW7" s="18" t="inlineStr">
+      <c r="BX7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY7" s="18" t="inlineStr">
+      <c r="BZ7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ7" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA7" s="20" t="n">
+      <c r="CB7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="CB7" s="20" t="n">
+      <c r="CD7" s="20" t="n">
         <v>22</v>
       </c>
     </row>
@@ -4601,267 +4637,273 @@
       <c r="M8" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="N8" s="18" t="inlineStr">
+      <c r="N8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="O8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="18" t="inlineStr">
+      <c r="Q8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="18" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="T8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="U8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" s="18" t="inlineStr">
+      <c r="W8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" s="18" t="inlineStr">
+      <c r="Y8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="18" t="inlineStr">
+      <c r="AA8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="18" t="inlineStr">
+      <c r="AC8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="18" t="inlineStr">
+      <c r="AE8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="18" t="inlineStr">
+      <c r="AG8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="18" t="inlineStr">
+      <c r="AI8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="18" t="inlineStr">
+      <c r="AK8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="18" t="inlineStr">
+      <c r="AM8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="18" t="inlineStr">
         <is>
           <t>La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM8" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="20" t="n">
+      <c r="AO8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="AO8" s="18" t="inlineStr">
+      <c r="AQ8" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AP8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="19" t="inlineStr">
+      <c r="AR8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="19" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Vrai; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Vrai; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS8" s="18" t="inlineStr">
+      <c r="AU8" s="18" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="18" t="inlineStr">
+      <c r="AV8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="AV8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="18" t="inlineStr">
+      <c r="AX8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY8" s="18" t="inlineStr">
+      <c r="AZ8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="AZ8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA8" s="18" t="inlineStr">
+      <c r="BB8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="BB8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="18" t="inlineStr">
+      <c r="BD8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE8" s="18" t="inlineStr">
+      <c r="BF8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG8" s="18" t="inlineStr">
+      <c r="BH8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI8" s="18" t="inlineStr">
+      <c r="BJ8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK8" s="18" t="inlineStr">
+      <c r="BL8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM8" s="18" t="inlineStr">
+      <c r="BN8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Vrai</t>
         </is>
       </c>
-      <c r="BN8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="18" t="inlineStr">
+      <c r="BP8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="BP8" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="18" t="inlineStr">
+      <c r="BR8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS8" s="18" t="inlineStr">
+      <c r="BT8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU8" s="18" t="inlineStr">
+      <c r="BV8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW8" s="18" t="inlineStr">
+      <c r="BX8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY8" s="18" t="inlineStr">
+      <c r="BZ8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA8" s="20" t="n">
+      <c r="CB8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="CB8" s="20" t="n">
+      <c r="CD8" s="20" t="n">
         <v>24</v>
       </c>
     </row>
@@ -4914,269 +4956,275 @@
       <c r="M9" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="N9" s="18" t="inlineStr">
+      <c r="N9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="O9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="18" t="inlineStr">
+      <c r="Q9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="T9" s="18" t="inlineStr">
+      <c r="T9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="U9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="18" t="inlineStr">
+      <c r="W9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" s="18" t="inlineStr">
+      <c r="Y9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="18" t="inlineStr">
+      <c r="AA9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="18" t="inlineStr">
+      <c r="AC9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="18" t="inlineStr">
+      <c r="AE9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="18" t="inlineStr">
+      <c r="AG9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="18" t="inlineStr">
+      <c r="AI9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="18" t="inlineStr">
+      <c r="AK9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL9" s="24" t="inlineStr">
+      <c r="AM9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="24" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?
 ; Combien de girafes vivent en Afrique ?
 ; La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="20" t="n">
+      <c r="AO9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="AO9" s="18" t="inlineStr">
+      <c r="AQ9" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AP9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="19" t="inlineStr">
+      <c r="AR9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="19" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas; partie 2 : Faux; partie 3 : Faux; partie 4 : Je ne sais pas; partie 5 : Je ne sais pas; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS9" s="18" t="inlineStr">
+      <c r="AU9" s="18" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="AT9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="18" t="inlineStr">
+      <c r="AV9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="AV9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="18" t="inlineStr">
+      <c r="AX9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY9" s="18" t="inlineStr">
+      <c r="AZ9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="AZ9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="18" t="inlineStr">
+      <c r="BB9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="BB9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="18" t="inlineStr">
+      <c r="BD9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE9" s="18" t="inlineStr">
+      <c r="BF9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG9" s="18" t="inlineStr">
+      <c r="BH9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI9" s="18" t="inlineStr">
+      <c r="BJ9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK9" s="18" t="inlineStr">
+      <c r="BL9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM9" s="18" t="inlineStr">
+      <c r="BN9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="BN9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO9" s="18" t="inlineStr">
+      <c r="BP9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ9" s="18" t="inlineStr">
+      <c r="BR9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS9" s="18" t="inlineStr">
+      <c r="BT9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU9" s="18" t="inlineStr">
+      <c r="BV9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW9" s="18" t="inlineStr">
+      <c r="BX9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY9" s="18" t="inlineStr">
+      <c r="BZ9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA9" s="20" t="n">
+      <c r="CB9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC9" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="CB9" s="20" t="n">
+      <c r="CD9" s="20" t="n">
         <v>25</v>
       </c>
     </row>
@@ -5229,431 +5277,437 @@
       <c r="M10" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="N10" s="18" t="inlineStr">
+      <c r="N10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="O10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="18" t="inlineStr">
+      <c r="Q10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="S10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="18" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="T10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="U10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="18" t="inlineStr">
+      <c r="W10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" s="18" t="inlineStr">
+      <c r="Y10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="18" t="inlineStr">
+      <c r="AA10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="18" t="inlineStr">
+      <c r="AC10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="18" t="inlineStr">
+      <c r="AE10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="18" t="inlineStr">
+      <c r="AG10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="18" t="inlineStr">
+      <c r="AI10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="18" t="inlineStr">
+      <c r="AK10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="24" t="inlineStr">
+      <c r="AM10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="24" t="inlineStr">
         <is>
           <t>Combien de girafes vivent en Afrique ?
 ; La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM10" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="20" t="n">
+      <c r="AO10" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="AO10" s="18" t="inlineStr">
+      <c r="AQ10" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AP10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="19" t="inlineStr">
+      <c r="AR10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="19" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Faux; partie 3 : Faux; partie 4 : Je ne sais pas; partie 5 : Je ne sais pas; partie 6 : Vrai; partie 7 : Faux; partie 8 : Vrai; partie 9 : Faux; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Vrai; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS10" s="18" t="inlineStr">
+      <c r="AU10" s="18" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="18" t="inlineStr">
+      <c r="AV10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="AV10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="18" t="inlineStr">
+      <c r="AX10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY10" s="18" t="inlineStr">
+      <c r="AZ10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="AZ10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="18" t="inlineStr">
+      <c r="BB10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="BB10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="18" t="inlineStr">
+      <c r="BD10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="BD10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="18" t="inlineStr">
+      <c r="BF10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG10" s="18" t="inlineStr">
+      <c r="BH10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI10" s="18" t="inlineStr">
+      <c r="BJ10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="BJ10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" s="18" t="inlineStr">
+      <c r="BL10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM10" s="18" t="inlineStr">
+      <c r="BN10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Vrai</t>
         </is>
       </c>
-      <c r="BN10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" s="18" t="inlineStr">
+      <c r="BP10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="BP10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" s="18" t="inlineStr">
+      <c r="BR10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS10" s="18" t="inlineStr">
+      <c r="BT10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU10" s="18" t="inlineStr">
+      <c r="BV10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW10" s="18" t="inlineStr">
+      <c r="BX10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY10" s="18" t="inlineStr">
+      <c r="BZ10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA10" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA10" s="20" t="n">
+      <c r="CB10" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC10" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="CB10" s="20" t="n">
+      <c r="CD10" s="20" t="n">
         <v>21</v>
       </c>
-      <c r="CC10" s="18" t="inlineStr">
+      <c r="CE10" s="18" t="inlineStr">
         <is>
           <t>num question</t>
         </is>
       </c>
-      <c r="CD10" s="18" t="inlineStr">
+      <c r="CF10" s="18" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="CE10" s="18" t="inlineStr">
+      <c r="CG10" s="18" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="CF10" s="18" t="inlineStr">
+      <c r="CH10" s="18" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="CG10" s="18" t="inlineStr">
+      <c r="CI10" s="18" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="CH10" s="18" t="inlineStr">
+      <c r="CJ10" s="18" t="inlineStr">
         <is>
           <t>Q5</t>
         </is>
       </c>
-      <c r="CI10" s="18" t="inlineStr">
+      <c r="CK10" s="18" t="inlineStr">
         <is>
           <t>Q6</t>
         </is>
       </c>
-      <c r="CJ10" s="18" t="inlineStr">
+      <c r="CL10" s="18" t="inlineStr">
         <is>
           <t>Q7</t>
         </is>
       </c>
-      <c r="CK10" s="18" t="inlineStr">
+      <c r="CM10" s="18" t="inlineStr">
         <is>
           <t>Q8</t>
         </is>
       </c>
-      <c r="CL10" s="18" t="inlineStr">
+      <c r="CN10" s="18" t="inlineStr">
         <is>
           <t>Q9</t>
         </is>
       </c>
-      <c r="CM10" s="18" t="inlineStr">
+      <c r="CO10" s="18" t="inlineStr">
         <is>
           <t>Q10</t>
         </is>
       </c>
-      <c r="CN10" s="18" t="inlineStr">
+      <c r="CP10" s="18" t="inlineStr">
         <is>
           <t>Q11</t>
         </is>
       </c>
-      <c r="CO10" s="18" t="inlineStr">
+      <c r="CQ10" s="18" t="inlineStr">
         <is>
           <t>Q12</t>
         </is>
       </c>
-      <c r="CP10" s="18" t="inlineStr">
+      <c r="CR10" s="18" t="inlineStr">
         <is>
           <t>Q13</t>
         </is>
       </c>
-      <c r="CQ10" s="18" t="inlineStr">
+      <c r="CS10" s="18" t="inlineStr">
         <is>
           <t>Q14</t>
         </is>
       </c>
-      <c r="CR10" s="18" t="inlineStr">
+      <c r="CT10" s="18" t="inlineStr">
         <is>
           <t>Q15</t>
         </is>
       </c>
-      <c r="CS10" s="18" t="inlineStr">
+      <c r="CU10" s="18" t="inlineStr">
         <is>
           <t>Q16</t>
         </is>
       </c>
-      <c r="CT10" s="18" t="inlineStr">
+      <c r="CV10" s="18" t="inlineStr">
         <is>
           <t>Q17</t>
         </is>
       </c>
-      <c r="CU10" s="18" t="inlineStr">
+      <c r="CW10" s="18" t="inlineStr">
         <is>
           <t>Q18</t>
         </is>
       </c>
-      <c r="CV10" s="18" t="inlineStr">
+      <c r="CX10" s="18" t="inlineStr">
         <is>
           <t>Q19</t>
         </is>
       </c>
-      <c r="CW10" s="18" t="inlineStr">
+      <c r="CY10" s="18" t="inlineStr">
         <is>
           <t>Q20</t>
         </is>
       </c>
-      <c r="CX10" s="18" t="inlineStr">
+      <c r="CZ10" s="18" t="inlineStr">
         <is>
           <t>Q21</t>
         </is>
       </c>
-      <c r="CY10" s="18" t="inlineStr">
+      <c r="DA10" s="18" t="inlineStr">
         <is>
           <t>Q22</t>
         </is>
       </c>
-      <c r="CZ10" s="18" t="inlineStr">
+      <c r="DB10" s="18" t="inlineStr">
         <is>
           <t>Q23</t>
         </is>
       </c>
-      <c r="DA10" s="18" t="inlineStr">
+      <c r="DC10" s="18" t="inlineStr">
         <is>
           <t>Q24</t>
         </is>
       </c>
-      <c r="DB10" s="18" t="inlineStr">
+      <c r="DD10" s="18" t="inlineStr">
         <is>
           <t>Q25</t>
         </is>
       </c>
-      <c r="DC10" s="18" t="inlineStr">
+      <c r="DE10" s="18" t="inlineStr">
         <is>
           <t>Q26</t>
         </is>
       </c>
-      <c r="DD10" s="18" t="inlineStr">
+      <c r="DF10" s="18" t="inlineStr">
         <is>
           <t>Q27</t>
         </is>
       </c>
-      <c r="DE10" s="18" t="inlineStr">
+      <c r="DG10" s="18" t="inlineStr">
         <is>
           <t>Q28</t>
         </is>
       </c>
-      <c r="DF10" s="18" t="inlineStr">
+      <c r="DH10" s="18" t="inlineStr">
         <is>
           <t>Q29</t>
         </is>
       </c>
-      <c r="DG10" s="18" t="inlineStr">
+      <c r="DI10" s="18" t="inlineStr">
         <is>
           <t>Q30</t>
         </is>
       </c>
-      <c r="DH10" s="18" t="inlineStr">
+      <c r="DJ10" s="18" t="inlineStr">
         <is>
           <t>Q31</t>
         </is>
       </c>
-      <c r="DI10" s="18" t="inlineStr">
+      <c r="DK10" s="18" t="inlineStr">
         <is>
           <t>Q32</t>
         </is>
@@ -5708,369 +5762,375 @@
       <c r="M11" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="18" t="inlineStr">
+      <c r="N11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="O11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="18" t="inlineStr">
+      <c r="Q11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="S11" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="T11" s="18" t="inlineStr">
+      <c r="T11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="U11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="18" t="inlineStr">
+      <c r="W11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" s="18" t="inlineStr">
+      <c r="Y11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="18" t="inlineStr">
+      <c r="AA11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="18" t="inlineStr">
+      <c r="AC11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="18" t="inlineStr">
+      <c r="AE11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="18" t="inlineStr">
+      <c r="AG11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="18" t="inlineStr">
+      <c r="AI11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="18" t="inlineStr">
+      <c r="AK11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="24" t="inlineStr">
+      <c r="AM11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="24" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?
 ; La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM11" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="20" t="n">
+      <c r="AO11" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="AO11" s="18" t="inlineStr">
+      <c r="AQ11" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AP11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="19" t="inlineStr">
+      <c r="AR11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="19" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Vrai; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS11" s="18" t="inlineStr">
+      <c r="AU11" s="18" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="18" t="inlineStr">
+      <c r="AV11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="AV11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="18" t="inlineStr">
+      <c r="AX11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY11" s="18" t="inlineStr">
+      <c r="AZ11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="AZ11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA11" s="18" t="inlineStr">
+      <c r="BB11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="BB11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="18" t="inlineStr">
+      <c r="BD11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE11" s="18" t="inlineStr">
+      <c r="BF11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG11" s="18" t="inlineStr">
+      <c r="BH11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI11" s="18" t="inlineStr">
+      <c r="BJ11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK11" s="18" t="inlineStr">
+      <c r="BL11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM11" s="18" t="inlineStr">
+      <c r="BN11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Vrai</t>
         </is>
       </c>
-      <c r="BN11" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO11" s="18" t="inlineStr">
+      <c r="BP11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ11" s="18" t="inlineStr">
+      <c r="BR11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS11" s="18" t="inlineStr">
+      <c r="BT11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU11" s="18" t="inlineStr">
+      <c r="BV11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW11" s="18" t="inlineStr">
+      <c r="BX11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY11" s="18" t="inlineStr">
+      <c r="BZ11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA11" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA11" s="20" t="n">
+      <c r="CB11" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC11" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="CB11" s="20" t="n">
+      <c r="CD11" s="20" t="n">
         <v>25</v>
       </c>
-      <c r="CC11" s="18" t="inlineStr">
+      <c r="CE11" s="18" t="inlineStr">
         <is>
           <t>taux réussite</t>
         </is>
       </c>
-      <c r="CD11" s="27" t="n">
+      <c r="CF11" s="27" t="n">
         <v>51.2907608695652</v>
       </c>
-      <c r="CE11" s="28" t="n">
+      <c r="CG11" s="28" t="n">
         <v>77.3777173913043</v>
       </c>
-      <c r="CF11" s="28" t="n">
+      <c r="CH11" s="28" t="n">
         <v>91.64402173913039</v>
       </c>
-      <c r="CG11" s="27" t="n">
+      <c r="CI11" s="27" t="n">
         <v>75.4076086956522</v>
       </c>
-      <c r="CH11" s="29" t="n">
+      <c r="CJ11" s="29" t="n">
         <v>76.6304347826087</v>
       </c>
-      <c r="CI11" s="27" t="n">
+      <c r="CK11" s="27" t="n">
         <v>91.3722826086957</v>
       </c>
-      <c r="CJ11" s="27" t="n">
+      <c r="CL11" s="27" t="n">
         <v>89.1983695652174</v>
       </c>
-      <c r="CK11" s="28" t="n">
+      <c r="CM11" s="28" t="n">
         <v>95.991847826087</v>
       </c>
-      <c r="CL11" s="28" t="n">
+      <c r="CN11" s="28" t="n">
         <v>94.8369565217391</v>
       </c>
-      <c r="CM11" s="27" t="n">
+      <c r="CO11" s="27" t="n">
         <v>87.5</v>
       </c>
-      <c r="CN11" s="28" t="n">
+      <c r="CP11" s="28" t="n">
         <v>94.36141304347829</v>
       </c>
-      <c r="CO11" s="27" t="n">
+      <c r="CQ11" s="27" t="n">
         <v>79.5516304347826</v>
       </c>
-      <c r="CP11" s="28" t="n">
+      <c r="CR11" s="28" t="n">
         <v>95.92391304347829</v>
       </c>
-      <c r="CQ11" s="29" t="n">
+      <c r="CS11" s="29" t="n">
         <v>48.9809782608696</v>
       </c>
-      <c r="CR11" s="29" t="n">
+      <c r="CT11" s="29" t="n">
         <v>34.7146739130435</v>
       </c>
-      <c r="CS11" s="29" t="n">
+      <c r="CU11" s="29" t="n">
         <v>57.6086956521739</v>
       </c>
-      <c r="CT11" s="29" t="n">
+      <c r="CV11" s="29" t="n">
         <v>66.16847826086961</v>
       </c>
-      <c r="CU11" s="28" t="n">
+      <c r="CW11" s="28" t="n">
         <v>96.0597826086957</v>
       </c>
-      <c r="CV11" s="29" t="n">
+      <c r="CX11" s="29" t="n">
         <v>40.0815217391304</v>
       </c>
-      <c r="CW11" s="29" t="n">
+      <c r="CY11" s="29" t="n">
         <v>20.5842391304348</v>
       </c>
-      <c r="CX11" s="29" t="n">
+      <c r="CZ11" s="29" t="n">
         <v>61.5489130434783</v>
       </c>
-      <c r="CY11" s="27" t="n">
+      <c r="DA11" s="27" t="n">
         <v>95.5842391304348</v>
       </c>
-      <c r="CZ11" s="28" t="n">
+      <c r="DB11" s="28" t="n">
         <v>94.429347826087</v>
       </c>
-      <c r="DA11" s="27" t="n">
+      <c r="DC11" s="27" t="n">
         <v>91.3722826086957</v>
       </c>
-      <c r="DB11" s="28" t="n">
+      <c r="DD11" s="28" t="n">
         <v>96.9429347826087</v>
       </c>
-      <c r="DC11" s="29" t="n">
+      <c r="DE11" s="29" t="n">
         <v>40.2853260869565</v>
       </c>
-      <c r="DD11" s="28" t="n">
+      <c r="DF11" s="28" t="n">
         <v>93.2744565217391</v>
       </c>
-      <c r="DE11" s="29" t="n">
+      <c r="DG11" s="29" t="n">
         <v>73.3695652173913</v>
       </c>
-      <c r="DF11" s="29" t="n">
+      <c r="DH11" s="29" t="n">
         <v>94.70108695652171</v>
       </c>
-      <c r="DG11" s="28" t="n">
+      <c r="DI11" s="28" t="n">
         <v>95.3125</v>
       </c>
-      <c r="DH11" s="29" t="n">
+      <c r="DJ11" s="29" t="n">
         <v>94.76902173913039</v>
       </c>
-      <c r="DI11" s="28" t="n">
+      <c r="DK11" s="28" t="n">
         <v>89.8777173913043</v>
       </c>
     </row>
@@ -6123,269 +6183,275 @@
       <c r="M12" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="N12" s="18" t="inlineStr">
+      <c r="N12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="O12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="18" t="inlineStr">
+      <c r="Q12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="S12" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="T12" s="18" t="inlineStr">
+      <c r="T12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="U12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="18" t="inlineStr">
+      <c r="W12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" s="18" t="inlineStr">
+      <c r="Y12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="18" t="inlineStr">
+      <c r="AA12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="18" t="inlineStr">
+      <c r="AC12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="18" t="inlineStr">
+      <c r="AE12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="18" t="inlineStr">
+      <c r="AG12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="18" t="inlineStr">
+      <c r="AI12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="18" t="inlineStr">
+      <c r="AK12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="24" t="inlineStr">
+      <c r="AM12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="24" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?
 ; Combien de girafes vivent en Afrique ?
 ; La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="20" t="n">
+      <c r="AO12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="AO12" s="18" t="inlineStr">
+      <c r="AQ12" s="18" t="inlineStr">
         <is>
           <t>Virgo</t>
         </is>
       </c>
-      <c r="AP12" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="19" t="inlineStr">
+      <c r="AR12" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="19" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas; partie 2 : Faux; partie 3 : Faux; partie 4 : Faux; partie 5 : Je ne sais pas; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Faux; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS12" s="18" t="inlineStr">
+      <c r="AU12" s="18" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="AT12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="18" t="inlineStr">
+      <c r="AV12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="AV12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="18" t="inlineStr">
+      <c r="AX12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="18" t="inlineStr">
+      <c r="AZ12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Faux</t>
         </is>
       </c>
-      <c r="AZ12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="18" t="inlineStr">
+      <c r="BB12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="BB12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="18" t="inlineStr">
+      <c r="BD12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="18" t="inlineStr">
+      <c r="BF12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="18" t="inlineStr">
+      <c r="BH12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI12" s="18" t="inlineStr">
+      <c r="BJ12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK12" s="18" t="inlineStr">
+      <c r="BL12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM12" s="18" t="inlineStr">
+      <c r="BN12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Vrai</t>
         </is>
       </c>
-      <c r="BN12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO12" s="18" t="inlineStr">
+      <c r="BP12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ12" s="18" t="inlineStr">
+      <c r="BR12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Faux</t>
         </is>
       </c>
-      <c r="BR12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS12" s="18" t="inlineStr">
+      <c r="BT12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU12" s="18" t="inlineStr">
+      <c r="BV12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW12" s="18" t="inlineStr">
+      <c r="BX12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY12" s="18" t="inlineStr">
+      <c r="BZ12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA12" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA12" s="20" t="n">
+      <c r="CB12" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC12" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="CB12" s="20" t="n">
+      <c r="CD12" s="20" t="n">
         <v>25</v>
       </c>
     </row>
@@ -6438,268 +6504,274 @@
       <c r="M13" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="N13" s="18" t="inlineStr">
+      <c r="N13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="O13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="18" t="inlineStr">
+      <c r="Q13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="S13" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="T13" s="18" t="inlineStr">
+      <c r="T13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="U13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" s="18" t="inlineStr">
+      <c r="W13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" s="18" t="inlineStr">
+      <c r="Y13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="18" t="inlineStr">
+      <c r="AA13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="18" t="inlineStr">
+      <c r="AC13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="18" t="inlineStr">
+      <c r="AE13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="18" t="inlineStr">
+      <c r="AG13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="18" t="inlineStr">
+      <c r="AI13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="18" t="inlineStr">
+      <c r="AK13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="24" t="inlineStr">
+      <c r="AM13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="24" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?
 ; Combien de girafes vivent en Afrique ?</t>
         </is>
       </c>
-      <c r="AM13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="20" t="n">
+      <c r="AO13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="AO13" s="18" t="inlineStr">
+      <c r="AQ13" s="18" t="inlineStr">
         <is>
           <t>virgo</t>
         </is>
       </c>
-      <c r="AP13" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="19" t="inlineStr">
+      <c r="AR13" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="19" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Vrai; partie 5 : Faux; partie 6 : Vrai; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS13" s="18" t="inlineStr">
+      <c r="AU13" s="18" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="18" t="inlineStr">
+      <c r="AV13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="AV13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="18" t="inlineStr">
+      <c r="AX13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY13" s="18" t="inlineStr">
+      <c r="AZ13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="AZ13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA13" s="18" t="inlineStr">
+      <c r="BB13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="BB13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC13" s="18" t="inlineStr">
+      <c r="BD13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="BD13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="18" t="inlineStr">
+      <c r="BF13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG13" s="18" t="inlineStr">
+      <c r="BH13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI13" s="18" t="inlineStr">
+      <c r="BJ13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK13" s="18" t="inlineStr">
+      <c r="BL13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM13" s="18" t="inlineStr">
+      <c r="BN13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="BN13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO13" s="18" t="inlineStr">
+      <c r="BP13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ13" s="18" t="inlineStr">
+      <c r="BR13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS13" s="18" t="inlineStr">
+      <c r="BT13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU13" s="18" t="inlineStr">
+      <c r="BV13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW13" s="18" t="inlineStr">
+      <c r="BX13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY13" s="18" t="inlineStr">
+      <c r="BZ13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA13" s="20" t="n">
+      <c r="CB13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC13" s="20" t="n">
         <v>15</v>
       </c>
-      <c r="CB13" s="20" t="n">
+      <c r="CD13" s="20" t="n">
         <v>28</v>
       </c>
     </row>
@@ -6752,270 +6824,276 @@
       <c r="M14" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="18" t="inlineStr">
+      <c r="N14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="O14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="18" t="inlineStr">
+      <c r="Q14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="S14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" s="18" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="T14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="U14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" s="18" t="inlineStr">
+      <c r="W14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" s="18" t="inlineStr">
+      <c r="Y14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Vrai</t>
         </is>
       </c>
-      <c r="Y14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="18" t="inlineStr">
+      <c r="AA14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="18" t="inlineStr">
+      <c r="AC14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="18" t="inlineStr">
+      <c r="AE14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="18" t="inlineStr">
+      <c r="AG14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="18" t="inlineStr">
+      <c r="AI14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="18" t="inlineStr">
+      <c r="AK14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="18" t="inlineStr">
+      <c r="AM14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="18" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?</t>
         </is>
       </c>
-      <c r="AM14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="20" t="n">
+      <c r="AO14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="AO14" s="18" t="inlineStr">
+      <c r="AQ14" s="18" t="inlineStr">
         <is>
           <t>Laser Interferometer Gravitational-Wave Observatory(LIGO)</t>
         </is>
       </c>
-      <c r="AP14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR14" s="19" t="inlineStr">
+      <c r="AR14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="19" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Vrai; partie 5 : Je ne sais pas; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Faux; partie 14 : Faux; partie 15 : Faux; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS14" s="18" t="inlineStr">
+      <c r="AU14" s="18" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="18" t="inlineStr">
+      <c r="AV14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="AV14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="18" t="inlineStr">
+      <c r="AX14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY14" s="18" t="inlineStr">
+      <c r="AZ14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="AZ14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA14" s="18" t="inlineStr">
+      <c r="BB14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="BB14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="18" t="inlineStr">
+      <c r="BD14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE14" s="18" t="inlineStr">
+      <c r="BF14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG14" s="18" t="inlineStr">
+      <c r="BH14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI14" s="18" t="inlineStr">
+      <c r="BJ14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK14" s="18" t="inlineStr">
+      <c r="BL14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM14" s="18" t="inlineStr">
+      <c r="BN14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Vrai</t>
         </is>
       </c>
-      <c r="BN14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO14" s="18" t="inlineStr">
+      <c r="BP14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ14" s="18" t="inlineStr">
+      <c r="BR14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Faux</t>
         </is>
       </c>
-      <c r="BR14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS14" s="18" t="inlineStr">
+      <c r="BT14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU14" s="18" t="inlineStr">
+      <c r="BV14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Faux</t>
         </is>
       </c>
-      <c r="BV14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" s="18" t="inlineStr">
+      <c r="BX14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY14" s="18" t="inlineStr">
+      <c r="BZ14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA14" s="20" t="n">
+      <c r="CB14" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC14" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="CB14" s="20" t="n">
+      <c r="CD14" s="20" t="n">
         <v>22</v>
       </c>
-      <c r="CE14" s="18" t="inlineStr">
+      <c r="CG14" s="18" t="inlineStr">
         <is>
           <t>8 intermédiaires</t>
         </is>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -91,7 +91,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -163,6 +163,11 @@
         <fgColor rgb="00ff2112"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000a933"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -183,7 +188,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -300,6 +305,10 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -477,7 +486,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
               </a:p>
             </txPr>
@@ -640,7 +649,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -692,7 +701,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -821,7 +830,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
               </a:p>
             </txPr>
@@ -984,7 +993,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -1036,7 +1045,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -1166,7 +1175,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
               </a:p>
             </txPr>
@@ -1329,7 +1338,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -1381,7 +1390,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -1511,7 +1520,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
               </a:p>
             </txPr>
@@ -1674,7 +1683,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -1726,7 +1735,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -10101,37 +10110,37 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="22">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="41" t="inlineStr">
         <is>
           <t>Abbas</t>
         </is>
       </c>
-      <c r="B4" s="36" t="inlineStr">
+      <c r="B4" s="41" t="inlineStr">
         <is>
           <t>Zina</t>
         </is>
       </c>
-      <c r="C4" s="36" t="inlineStr">
+      <c r="C4" s="41" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D4" s="36" t="inlineStr">
+      <c r="D4" s="41" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E4" s="36" t="inlineStr">
+      <c r="E4" s="41" t="inlineStr">
         <is>
           <t>Zina</t>
         </is>
       </c>
-      <c r="F4" s="36" t="inlineStr">
+      <c r="F4" s="41" t="inlineStr">
         <is>
           <t>7,28</t>
         </is>
       </c>
-      <c r="G4" s="36" t="inlineStr">
+      <c r="G4" s="41" t="inlineStr">
         <is>
           <t>5 min 15 s</t>
         </is>
@@ -10212,37 +10221,37 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="22">
-      <c r="A7" s="36" t="inlineStr">
+      <c r="A7" s="41" t="inlineStr">
         <is>
           <t>Abdelgow</t>
         </is>
       </c>
-      <c r="B7" s="36" t="inlineStr">
+      <c r="B7" s="41" t="inlineStr">
         <is>
           <t>Hassan Mahamat</t>
         </is>
       </c>
-      <c r="C7" s="36" t="inlineStr">
+      <c r="C7" s="41" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D7" s="36" t="inlineStr">
+      <c r="D7" s="41" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E7" s="36" t="inlineStr">
+      <c r="E7" s="41" t="inlineStr">
         <is>
           <t>Hassan Mahamat</t>
         </is>
       </c>
-      <c r="F7" s="36" t="inlineStr">
+      <c r="F7" s="41" t="inlineStr">
         <is>
           <t>7,52</t>
         </is>
       </c>
-      <c r="G7" s="36" t="inlineStr">
+      <c r="G7" s="41" t="inlineStr">
         <is>
           <t>23 min 37 s</t>
         </is>
@@ -10323,37 +10332,37 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="22">
-      <c r="A10" s="36" t="inlineStr">
+      <c r="A10" s="41" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B10" s="36" t="inlineStr">
+      <c r="B10" s="41" t="inlineStr">
         <is>
           <t>Rodolphe</t>
         </is>
       </c>
-      <c r="C10" s="36" t="inlineStr">
+      <c r="C10" s="41" t="inlineStr">
         <is>
           <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D10" s="36" t="inlineStr">
+      <c r="D10" s="41" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E10" s="36" t="inlineStr">
+      <c r="E10" s="41" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F10" s="36" t="inlineStr">
+      <c r="F10" s="41" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
-      <c r="G10" s="36" t="inlineStr">
+      <c r="G10" s="41" t="inlineStr">
         <is>
           <t>15 min 32 s</t>
         </is>
@@ -10397,37 +10406,37 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="22">
-      <c r="A12" s="36" t="inlineStr">
+      <c r="A12" s="41" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B12" s="36" t="inlineStr">
+      <c r="B12" s="41" t="inlineStr">
         <is>
           <t>Iness</t>
         </is>
       </c>
-      <c r="C12" s="36" t="inlineStr">
+      <c r="C12" s="41" t="inlineStr">
         <is>
           <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D12" s="36" t="inlineStr">
+      <c r="D12" s="41" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E12" s="36" t="inlineStr">
+      <c r="E12" s="41" t="inlineStr">
         <is>
           <t>Iness</t>
         </is>
       </c>
-      <c r="F12" s="36" t="inlineStr">
+      <c r="F12" s="41" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G12" s="36" t="inlineStr">
+      <c r="G12" s="41" t="inlineStr">
         <is>
           <t>10 min 33 s</t>
         </is>
@@ -10471,37 +10480,37 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="22">
-      <c r="A14" s="37" t="inlineStr">
+      <c r="A14" s="41" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B14" s="37" t="inlineStr">
+      <c r="B14" s="41" t="inlineStr">
         <is>
           <t>Christian</t>
         </is>
       </c>
-      <c r="C14" s="37" t="inlineStr">
+      <c r="C14" s="41" t="inlineStr">
         <is>
           <t>christian.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D14" s="37" t="inlineStr">
+      <c r="D14" s="41" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E14" s="37" t="inlineStr">
+      <c r="E14" s="41" t="inlineStr">
         <is>
           <t>Christian</t>
         </is>
       </c>
-      <c r="F14" s="37" t="inlineStr">
+      <c r="F14" s="41" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="G14" s="37" t="inlineStr">
+      <c r="G14" s="41" t="inlineStr">
         <is>
           <t>21 min 49 s</t>
         </is>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -91,7 +91,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -168,6 +168,11 @@
         <fgColor rgb="0000a933"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff2211"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -188,7 +193,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -309,6 +314,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2500,7 +2508,7 @@
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D2" s="38" t="inlineStr">
+      <c r="D2" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
@@ -2819,7 +2827,7 @@
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D3" s="38" t="inlineStr">
+      <c r="D3" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
@@ -3140,7 +3148,7 @@
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D4" s="38" t="inlineStr">
+      <c r="D4" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
@@ -3459,7 +3467,7 @@
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D5" s="38" t="inlineStr">
+      <c r="D5" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
@@ -3883,7 +3891,7 @@
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D6" s="38" t="inlineStr">
+      <c r="D6" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
@@ -4307,7 +4315,7 @@
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D7" s="38" t="inlineStr">
+      <c r="D7" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
@@ -4627,7 +4635,7 @@
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D8" s="38" t="inlineStr">
+      <c r="D8" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
@@ -4946,7 +4954,7 @@
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D9" s="38" t="inlineStr">
+      <c r="D9" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
@@ -5267,7 +5275,7 @@
           <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D10" s="38" t="inlineStr">
+      <c r="D10" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
@@ -5752,7 +5760,7 @@
           <t>houzefa.abdulhoussen@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D11" s="38" t="inlineStr">
+      <c r="D11" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
@@ -6173,7 +6181,7 @@
           <t>20221641@etud.univ-evry.fr</t>
         </is>
       </c>
-      <c r="D12" s="38" t="inlineStr">
+      <c r="D12" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
@@ -6494,7 +6502,7 @@
           <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D13" s="38" t="inlineStr">
+      <c r="D13" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
@@ -6814,7 +6822,7 @@
           <t>christian.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D14" s="38" t="inlineStr">
+      <c r="D14" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -91,7 +91,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -158,6 +158,11 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000a933"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -178,7 +183,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -295,6 +300,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2062,7 +2070,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.09" customWidth="1" style="37" min="1" max="7"/>
     <col width="140.36" customWidth="1" style="37" min="8" max="8"/>
@@ -7135,7 +7143,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="37" min="1" max="1024"/>
   </cols>
@@ -7493,7 +7501,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="37" min="1" max="1024"/>
   </cols>
@@ -7843,7 +7851,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.2109375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.2109375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.08" customWidth="1" style="37" min="6" max="6"/>
     <col width="11.52" customWidth="1" style="37" min="947" max="1024"/>
@@ -8077,7 +8085,7 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="37" min="1" max="1024"/>
   </cols>
@@ -8479,7 +8487,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="37" min="1" max="1024"/>
   </cols>
@@ -8881,7 +8889,7 @@
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.53" customWidth="1" style="37" min="16365" max="16384"/>
   </cols>
@@ -10397,7 +10405,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="37" min="1" max="2"/>
     <col width="11.52" customWidth="1" style="37" min="980" max="1006"/>
@@ -10516,7 +10524,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="37" min="1" max="3"/>
     <col width="21.53" customWidth="1" style="37" min="4" max="4"/>
@@ -10589,7 +10597,7 @@
           <t>partie 1 : Vrai</t>
         </is>
       </c>
-      <c r="D3" s="20" t="inlineStr">
+      <c r="D3" s="40" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -183,7 +183,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -303,6 +303,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -10560,7 +10563,7 @@
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="C2" s="20" t="inlineStr">
+      <c r="C2" s="40" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
@@ -10575,14 +10578,14 @@
           <t xml:space="preserve"> partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="F2" s="37" t="inlineStr">
+      <c r="F2" s="41" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="22">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="41" t="inlineStr">
         <is>
           <t>Abbas</t>
         </is>
@@ -10592,7 +10595,7 @@
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Vrai; partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="C3" s="20" t="inlineStr">
+      <c r="C3" s="40" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
@@ -10607,7 +10610,7 @@
           <t xml:space="preserve"> partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="F3" s="37" t="inlineStr">
+      <c r="F3" s="41" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
@@ -10624,7 +10627,7 @@
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="C4" s="20" t="inlineStr">
+      <c r="C4" s="40" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
@@ -10639,7 +10642,7 @@
           <t xml:space="preserve"> partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="F4" s="37" t="inlineStr">
+      <c r="F4" s="41" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
@@ -10656,7 +10659,7 @@
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="C5" s="20" t="inlineStr">
+      <c r="C5" s="40" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="cutinpartsbis" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="delete_lines" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="delete_lines_bis" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="time_min" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="time_min_expected" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>
@@ -424,8 +426,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305385862111956"/>
-          <y val="0.0300204394481349"/>
+          <x val="0.305519176800748"/>
+          <y val="0.0309423347398031"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -444,10 +446,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0127166188754519"/>
-          <y val="0.125574859478794"/>
-          <w val="0.963595561650667"/>
-          <h val="0.856285130301482"/>
+          <x val="0.0127221702525725"/>
+          <y val="0.125687252269531"/>
+          <w val="0.963143124415341"/>
+          <h val="0.85526147551464"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -620,11 +622,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="25103631"/>
-        <axId val="97802298"/>
+        <axId val="46191872"/>
+        <axId val="29177310"/>
       </barChart>
       <catAx>
-        <axId val="25103631"/>
+        <axId val="46191872"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -659,7 +661,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="97802298"/>
+        <crossAx val="29177310"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -667,7 +669,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="97802298"/>
+        <axId val="29177310"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -711,7 +713,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="25103631"/>
+        <crossAx val="46191872"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -768,8 +770,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305243328100471"/>
-          <y val="0.0300204394481349"/>
+          <x val="0.305377559994974"/>
+          <y val="0.0309423347398031"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -788,10 +790,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0127472527472527"/>
-          <y val="0.125574859478794"/>
-          <w val="0.96320251177394"/>
-          <h val="0.856285130301482"/>
+          <x val="0.0127528583992964"/>
+          <y val="0.125687252269531"/>
+          <w val="0.962746576203041"/>
+          <h val="0.85526147551464"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -964,11 +966,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="76034018"/>
-        <axId val="12270066"/>
+        <axId val="5370765"/>
+        <axId val="32017228"/>
       </barChart>
       <catAx>
-        <axId val="76034018"/>
+        <axId val="5370765"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1003,7 +1005,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="12270066"/>
+        <crossAx val="32017228"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1011,7 +1013,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="12270066"/>
+        <axId val="32017228"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1055,7 +1057,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="76034018"/>
+        <crossAx val="5370765"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1112,8 +1114,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305412532964963"/>
-          <y val="0.030148185998978"/>
+          <x val="0.305546830831082"/>
+          <y val="0.0310701956271577"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1133,10 +1135,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.052367198292101"/>
-          <y val="0.145886561062851"/>
-          <w val="0.924714303654402"/>
-          <h val="0.815661727133367"/>
+          <x val="0.0523902255166782"/>
+          <y val="0.146017133358906"/>
+          <w val="0.9242414724543"/>
+          <h val="0.814601713335891"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1309,11 +1311,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="47487803"/>
-        <axId val="16667942"/>
+        <axId val="27704434"/>
+        <axId val="65417075"/>
       </barChart>
       <catAx>
-        <axId val="47487803"/>
+        <axId val="27704434"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1348,7 +1350,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="16667942"/>
+        <crossAx val="65417075"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1356,7 +1358,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="16667942"/>
+        <axId val="65417075"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1400,7 +1402,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="47487803"/>
+        <crossAx val="27704434"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1457,8 +1459,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305475323370589"/>
-          <y val="0.0302759325498212"/>
+          <x val="0.305609648847289"/>
+          <y val="0.0311980565145122"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1478,10 +1480,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.052367198292101"/>
-          <y val="0.145886561062851"/>
-          <w val="0.924714303654402"/>
-          <h val="0.815661727133367"/>
+          <x val="0.0523902255166782"/>
+          <y val="0.146017133358906"/>
+          <w val="0.9242414724543"/>
+          <h val="0.814601713335891"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1654,11 +1656,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="727618"/>
-        <axId val="1132976"/>
+        <axId val="65124397"/>
+        <axId val="8457015"/>
       </barChart>
       <catAx>
-        <axId val="727618"/>
+        <axId val="65124397"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1693,7 +1695,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="1132976"/>
+        <crossAx val="8457015"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1701,7 +1703,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="1132976"/>
+        <axId val="8457015"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1745,7 +1747,1042 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="727618"/>
+        <crossAx val="65124397"/>
+        <crossesAt val="1"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:solidFill>
+        <a:srgbClr val="c0c0c0"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>taux réussite ( %) par question</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <layout>
+        <manualLayout>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.30550320392009"/>
+          <y val="0.0311980565145122"/>
+        </manualLayout>
+      </layout>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout>
+        <manualLayout>
+          <layoutTarget val="inner"/>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.0483729111697449"/>
+          <y val="0.146017133358906"/>
+          <w val="0.9271265234325921"/>
+          <h val="0.814473852448536"/>
+        </manualLayout>
+      </layout>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>time_min!$AS$13:$AS$13</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>None</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>None</a:t>
+                </a:r>
+              </a:p>
+            </txPr>
+            <dLblPos val="outEnd"/>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showLeaderLines val="1"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>time_min!$AT$12:$BY$12</f>
+              <strCache>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>None</v>
+                </pt>
+                <pt idx="1">
+                  <v>None</v>
+                </pt>
+                <pt idx="2">
+                  <v>None</v>
+                </pt>
+                <pt idx="3">
+                  <v>None</v>
+                </pt>
+                <pt idx="4">
+                  <v>None</v>
+                </pt>
+                <pt idx="5">
+                  <v>None</v>
+                </pt>
+                <pt idx="6">
+                  <v>None</v>
+                </pt>
+                <pt idx="7">
+                  <v>None</v>
+                </pt>
+                <pt idx="8">
+                  <v>None</v>
+                </pt>
+                <pt idx="9">
+                  <v>None</v>
+                </pt>
+                <pt idx="10">
+                  <v>None</v>
+                </pt>
+                <pt idx="11">
+                  <v>None</v>
+                </pt>
+                <pt idx="12">
+                  <v>None</v>
+                </pt>
+                <pt idx="13">
+                  <v>None</v>
+                </pt>
+                <pt idx="14">
+                  <v>None</v>
+                </pt>
+                <pt idx="15">
+                  <v>None</v>
+                </pt>
+                <pt idx="16">
+                  <v>None</v>
+                </pt>
+                <pt idx="17">
+                  <v>None</v>
+                </pt>
+                <pt idx="18">
+                  <v>None</v>
+                </pt>
+                <pt idx="19">
+                  <v>None</v>
+                </pt>
+                <pt idx="20">
+                  <v>None</v>
+                </pt>
+                <pt idx="21">
+                  <v>None</v>
+                </pt>
+                <pt idx="22">
+                  <v>None</v>
+                </pt>
+                <pt idx="23">
+                  <v>None</v>
+                </pt>
+                <pt idx="24">
+                  <v>None</v>
+                </pt>
+                <pt idx="25">
+                  <v>None</v>
+                </pt>
+                <pt idx="26">
+                  <v>None</v>
+                </pt>
+                <pt idx="27">
+                  <v>None</v>
+                </pt>
+                <pt idx="28">
+                  <v>None</v>
+                </pt>
+                <pt idx="29">
+                  <v>None</v>
+                </pt>
+                <pt idx="30">
+                  <v>None</v>
+                </pt>
+                <pt idx="31">
+                  <v>None</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>time_min!$AT$13:$BY$13</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="219"/>
+        <overlap val="-27"/>
+        <axId val="16514139"/>
+        <axId val="92265786"/>
+      </barChart>
+      <catAx>
+        <axId val="16514139"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="c0c0c0"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-5400000"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </txPr>
+        <crossAx val="92265786"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="92265786"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="100"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="c0c0c0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="0" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln w="0">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </txPr>
+        <crossAx val="16514139"/>
+        <crossesAt val="1"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:solidFill>
+        <a:srgbClr val="c0c0c0"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>taux réussite ( %) par question</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <layout>
+        <manualLayout>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.30550320392009"/>
+          <y val="0.0311858316221766"/>
+        </manualLayout>
+      </layout>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout>
+        <manualLayout>
+          <layoutTarget val="inner"/>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.0483729111697449"/>
+          <y val="0.145918891170431"/>
+          <w val="0.9271265234325921"/>
+          <h val="0.8145533880903491"/>
+        </manualLayout>
+      </layout>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>time_min_expected!$AW$13</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>None</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>None</a:t>
+                </a:r>
+              </a:p>
+            </txPr>
+            <dLblPos val="outEnd"/>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showLeaderLines val="1"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>time_min_expected!$AX$12:$CC$12</f>
+              <strCache>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>None</v>
+                </pt>
+                <pt idx="1">
+                  <v>None</v>
+                </pt>
+                <pt idx="2">
+                  <v>None</v>
+                </pt>
+                <pt idx="3">
+                  <v>None</v>
+                </pt>
+                <pt idx="4">
+                  <v>None</v>
+                </pt>
+                <pt idx="5">
+                  <v>None</v>
+                </pt>
+                <pt idx="6">
+                  <v>None</v>
+                </pt>
+                <pt idx="7">
+                  <v>None</v>
+                </pt>
+                <pt idx="8">
+                  <v>None</v>
+                </pt>
+                <pt idx="9">
+                  <v>None</v>
+                </pt>
+                <pt idx="10">
+                  <v>None</v>
+                </pt>
+                <pt idx="11">
+                  <v>None</v>
+                </pt>
+                <pt idx="12">
+                  <v>None</v>
+                </pt>
+                <pt idx="13">
+                  <v>None</v>
+                </pt>
+                <pt idx="14">
+                  <v>None</v>
+                </pt>
+                <pt idx="15">
+                  <v>None</v>
+                </pt>
+                <pt idx="16">
+                  <v>None</v>
+                </pt>
+                <pt idx="17">
+                  <v>None</v>
+                </pt>
+                <pt idx="18">
+                  <v>None</v>
+                </pt>
+                <pt idx="19">
+                  <v>None</v>
+                </pt>
+                <pt idx="20">
+                  <v>None</v>
+                </pt>
+                <pt idx="21">
+                  <v>None</v>
+                </pt>
+                <pt idx="22">
+                  <v>None</v>
+                </pt>
+                <pt idx="23">
+                  <v>None</v>
+                </pt>
+                <pt idx="24">
+                  <v>None</v>
+                </pt>
+                <pt idx="25">
+                  <v>None</v>
+                </pt>
+                <pt idx="26">
+                  <v>None</v>
+                </pt>
+                <pt idx="27">
+                  <v>None</v>
+                </pt>
+                <pt idx="28">
+                  <v>None</v>
+                </pt>
+                <pt idx="29">
+                  <v>None</v>
+                </pt>
+                <pt idx="30">
+                  <v>None</v>
+                </pt>
+                <pt idx="31">
+                  <v>None</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>time_min_expected!$AX$13:$CC$13</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="219"/>
+        <overlap val="-27"/>
+        <axId val="87775539"/>
+        <axId val="12380380"/>
+      </barChart>
+      <catAx>
+        <axId val="87775539"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="c0c0c0"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-5400000"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </txPr>
+        <crossAx val="12380380"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="12380380"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="100"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="c0c0c0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="0" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln w="0">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </txPr>
+        <crossAx val="87775539"/>
+        <crossesAt val="1"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:solidFill>
+        <a:srgbClr val="c0c0c0"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>taux réussite ( %) par question</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <layout>
+        <manualLayout>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.305628847845207"/>
+          <y val="0.0314425051334702"/>
+        </manualLayout>
+      </layout>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout>
+        <manualLayout>
+          <layoutTarget val="inner"/>
+          <xMode val="edge"/>
+          <yMode val="edge"/>
+          <wMode val="factor"/>
+          <hMode val="factor"/>
+          <x val="0.0483729111697449"/>
+          <y val="0.145918891170431"/>
+          <w val="0.9271265234325921"/>
+          <h val="0.8145533880903491"/>
+        </manualLayout>
+      </layout>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>time_min_expected!$AW$13</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>None</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>None</a:t>
+                </a:r>
+              </a:p>
+            </txPr>
+            <dLblPos val="outEnd"/>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showLeaderLines val="1"/>
+          </dLbls>
+          <cat>
+            <strRef>
+              <f>time_min_expected!$AX$12:$CC$12</f>
+              <strCache>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>None</v>
+                </pt>
+                <pt idx="1">
+                  <v>None</v>
+                </pt>
+                <pt idx="2">
+                  <v>None</v>
+                </pt>
+                <pt idx="3">
+                  <v>None</v>
+                </pt>
+                <pt idx="4">
+                  <v>None</v>
+                </pt>
+                <pt idx="5">
+                  <v>None</v>
+                </pt>
+                <pt idx="6">
+                  <v>None</v>
+                </pt>
+                <pt idx="7">
+                  <v>None</v>
+                </pt>
+                <pt idx="8">
+                  <v>None</v>
+                </pt>
+                <pt idx="9">
+                  <v>None</v>
+                </pt>
+                <pt idx="10">
+                  <v>None</v>
+                </pt>
+                <pt idx="11">
+                  <v>None</v>
+                </pt>
+                <pt idx="12">
+                  <v>None</v>
+                </pt>
+                <pt idx="13">
+                  <v>None</v>
+                </pt>
+                <pt idx="14">
+                  <v>None</v>
+                </pt>
+                <pt idx="15">
+                  <v>None</v>
+                </pt>
+                <pt idx="16">
+                  <v>None</v>
+                </pt>
+                <pt idx="17">
+                  <v>None</v>
+                </pt>
+                <pt idx="18">
+                  <v>None</v>
+                </pt>
+                <pt idx="19">
+                  <v>None</v>
+                </pt>
+                <pt idx="20">
+                  <v>None</v>
+                </pt>
+                <pt idx="21">
+                  <v>None</v>
+                </pt>
+                <pt idx="22">
+                  <v>None</v>
+                </pt>
+                <pt idx="23">
+                  <v>None</v>
+                </pt>
+                <pt idx="24">
+                  <v>None</v>
+                </pt>
+                <pt idx="25">
+                  <v>None</v>
+                </pt>
+                <pt idx="26">
+                  <v>None</v>
+                </pt>
+                <pt idx="27">
+                  <v>None</v>
+                </pt>
+                <pt idx="28">
+                  <v>None</v>
+                </pt>
+                <pt idx="29">
+                  <v>None</v>
+                </pt>
+                <pt idx="30">
+                  <v>None</v>
+                </pt>
+                <pt idx="31">
+                  <v>None</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>time_min_expected!$AX$13:$CC$13</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="219"/>
+        <overlap val="-27"/>
+        <axId val="98824304"/>
+        <axId val="88787689"/>
+      </barChart>
+      <catAx>
+        <axId val="98824304"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="c0c0c0"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-5400000"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </txPr>
+        <crossAx val="88787689"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="88787689"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <max val="100"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="c0c0c0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="0" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln w="0">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </txPr>
+        <crossAx val="98824304"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1778,9 +2815,9 @@
     </from>
     <to>
       <col>99</col>
-      <colOff>207360</colOff>
+      <colOff>204840</colOff>
       <row>30</row>
-      <rowOff>120960</rowOff>
+      <rowOff>118440</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1810,9 +2847,9 @@
     </from>
     <to>
       <col>76</col>
-      <colOff>678960</colOff>
+      <colOff>676440</colOff>
       <row>30</row>
-      <rowOff>120600</rowOff>
+      <rowOff>118080</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1842,9 +2879,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>678960</colOff>
+      <colOff>676440</colOff>
       <row>30</row>
-      <rowOff>119880</rowOff>
+      <rowOff>117360</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1874,9 +2911,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>678960</colOff>
+      <colOff>676440</colOff>
       <row>30</row>
-      <rowOff>119880</rowOff>
+      <rowOff>117360</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1887,6 +2924,97 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>66</col>
+      <colOff>9720</colOff>
+      <row>13</row>
+      <rowOff>93600</rowOff>
+    </from>
+    <to>
+      <col>72</col>
+      <colOff>676440</colOff>
+      <row>30</row>
+      <rowOff>155880</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>70</col>
+      <colOff>9720</colOff>
+      <row>13</row>
+      <rowOff>93600</rowOff>
+    </from>
+    <to>
+      <col>76</col>
+      <colOff>676440</colOff>
+      <row>30</row>
+      <rowOff>145440</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>70</col>
+      <colOff>9720</colOff>
+      <row>13</row>
+      <rowOff>93600</rowOff>
+    </from>
+    <to>
+      <col>76</col>
+      <colOff>676440</colOff>
+      <row>30</row>
+      <rowOff>145440</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -7853,6 +8981,366 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="11.53" customWidth="1" style="38" min="16357" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1" s="23">
+      <c r="A1" s="38" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B1" s="38" t="inlineStr">
+        <is>
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="C1" s="38" t="inlineStr">
+        <is>
+          <t>Adresse de courriel</t>
+        </is>
+      </c>
+      <c r="D1" s="38" t="inlineStr">
+        <is>
+          <t>État</t>
+        </is>
+      </c>
+      <c r="E1" s="38" t="inlineStr">
+        <is>
+          <t>Temps utilisé</t>
+        </is>
+      </c>
+      <c r="F1" s="38" t="n"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" s="23">
+      <c r="A2" s="38" t="inlineStr">
+        <is>
+          <t>Abdulhoussen</t>
+        </is>
+      </c>
+      <c r="B2" s="38" t="inlineStr">
+        <is>
+          <t>Houzefa</t>
+        </is>
+      </c>
+      <c r="C2" s="38" t="inlineStr">
+        <is>
+          <t>houzefa.abdulhoussen@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D2" s="38" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E2" s="26" t="inlineStr">
+        <is>
+          <t>5 min 49 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="23">
+      <c r="A3" s="38" t="inlineStr">
+        <is>
+          <t>Abdel Moneim</t>
+        </is>
+      </c>
+      <c r="B3" s="38" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="C3" s="38" t="inlineStr">
+        <is>
+          <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D3" s="38" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E3" s="26" t="inlineStr">
+        <is>
+          <t>7 min</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="23">
+      <c r="A4" s="38" t="inlineStr">
+        <is>
+          <t>Abbas</t>
+        </is>
+      </c>
+      <c r="B4" s="38" t="inlineStr">
+        <is>
+          <t>Zina</t>
+        </is>
+      </c>
+      <c r="C4" s="38" t="inlineStr">
+        <is>
+          <t>zina.abbas@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D4" s="38" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E4" s="26" t="inlineStr">
+        <is>
+          <t>1 jour 5 heures</t>
+        </is>
+      </c>
+      <c r="F4" s="38" t="n"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="23">
+      <c r="A5" s="38" t="inlineStr">
+        <is>
+          <t>Abdallah</t>
+        </is>
+      </c>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>Aboubaker</t>
+        </is>
+      </c>
+      <c r="C5" s="38" t="inlineStr">
+        <is>
+          <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D5" s="38" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E5" s="26" t="inlineStr">
+        <is>
+          <t>2 jours 10 min</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="11.53" customWidth="1" style="38" min="16361" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1" s="23">
+      <c r="A1" s="38" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B1" s="38" t="inlineStr">
+        <is>
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="C1" s="38" t="inlineStr">
+        <is>
+          <t>Adresse de courriel</t>
+        </is>
+      </c>
+      <c r="D1" s="38" t="inlineStr">
+        <is>
+          <t>État</t>
+        </is>
+      </c>
+      <c r="E1" s="38" t="inlineStr">
+        <is>
+          <t>Temps utilisé</t>
+        </is>
+      </c>
+      <c r="F1" s="38" t="n"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" s="23">
+      <c r="A2" s="38" t="inlineStr">
+        <is>
+          <t>Abdulhoussen</t>
+        </is>
+      </c>
+      <c r="B2" s="38" t="inlineStr">
+        <is>
+          <t>Houzefa</t>
+        </is>
+      </c>
+      <c r="C2" s="38" t="inlineStr">
+        <is>
+          <t>houzefa.abdulhoussen@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D2" s="38" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E2" s="26" t="inlineStr">
+        <is>
+          <t>5 min 49 s</t>
+        </is>
+      </c>
+      <c r="F2" s="38" t="inlineStr">
+        <is>
+          <t>5,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="23">
+      <c r="A3" s="38" t="inlineStr">
+        <is>
+          <t>Abdel Moneim</t>
+        </is>
+      </c>
+      <c r="B3" s="38" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="C3" s="38" t="inlineStr">
+        <is>
+          <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D3" s="38" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E3" s="26" t="inlineStr">
+        <is>
+          <t>7 min</t>
+        </is>
+      </c>
+      <c r="F3" s="38" t="inlineStr">
+        <is>
+          <t>7,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="23">
+      <c r="A4" s="38" t="inlineStr">
+        <is>
+          <t>Abbas</t>
+        </is>
+      </c>
+      <c r="B4" s="38" t="inlineStr">
+        <is>
+          <t>Zina</t>
+        </is>
+      </c>
+      <c r="C4" s="38" t="inlineStr">
+        <is>
+          <t>zina.abbas@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D4" s="38" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E4" s="26" t="inlineStr">
+        <is>
+          <t>1 jour 5 heures</t>
+        </is>
+      </c>
+      <c r="F4" s="38" t="inlineStr">
+        <is>
+          <t>1740,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="23">
+      <c r="A5" s="38" t="inlineStr">
+        <is>
+          <t>Abdallah</t>
+        </is>
+      </c>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>Aboubaker</t>
+        </is>
+      </c>
+      <c r="C5" s="38" t="inlineStr">
+        <is>
+          <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D5" s="38" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E5" s="26" t="inlineStr">
+        <is>
+          <t>2 jours 10 min</t>
+        </is>
+      </c>
+      <c r="F5" s="38" t="inlineStr">
+        <is>
+          <t>2890,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048576" ht="12.75" customHeight="1" s="23"/>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
@@ -8899,8 +10387,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -426,8 +426,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305519176800748"/>
-          <y val="0.0309423347398031"/>
+          <x val="0.305538231258576"/>
+          <y val="0.031074168797954"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -446,10 +446,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0127221702525725"/>
-          <y val="0.125687252269531"/>
-          <w val="0.963143124415341"/>
-          <h val="0.85526147551464"/>
+          <x val="0.012722963702133"/>
+          <y val="0.125703324808184"/>
+          <w val="0.963078458276163"/>
+          <h val="0.855115089514067"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -461,7 +461,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>Feuille5!$AW$13:$AW$13</f>
+              <f>Feuille5!$AS$13:$AS$13</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -508,7 +508,7 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>Feuille5!$AX$12:$CC$12</f>
+              <f>Feuille5!$AT$12:$BY$12</f>
               <strCache>
                 <ptCount val="32"/>
                 <pt idx="0">
@@ -612,7 +612,7 @@
           </cat>
           <val>
             <numRef>
-              <f>Feuille5!$AX$13:$CC$13</f>
+              <f>Feuille5!$AT$13:$BY$13</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
@@ -622,11 +622,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="46191872"/>
-        <axId val="29177310"/>
+        <axId val="84471571"/>
+        <axId val="11320165"/>
       </barChart>
       <catAx>
-        <axId val="46191872"/>
+        <axId val="84471571"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -661,7 +661,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="29177310"/>
+        <crossAx val="11320165"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -669,7 +669,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="29177310"/>
+        <axId val="11320165"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -713,7 +713,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="46191872"/>
+        <crossAx val="84471571"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -770,8 +770,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305377559994974"/>
-          <y val="0.0309423347398031"/>
+          <x val="0.305396745617893"/>
+          <y val="0.031074168797954"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -790,10 +790,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0127528583992964"/>
-          <y val="0.125687252269531"/>
-          <w val="0.962746576203041"/>
-          <h val="0.85526147551464"/>
+          <x val="0.0127536596092228"/>
+          <y val="0.125703324808184"/>
+          <w val="0.962681409813407"/>
+          <h val="0.855115089514067"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -805,7 +805,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>Feuille5!$AW$13:$AW$13</f>
+              <f>Feuille5!$AS$13:$AS$13</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -852,7 +852,7 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>Feuille5!$AX$12:$CC$12</f>
+              <f>Feuille5!$AT$12:$BY$12</f>
               <strCache>
                 <ptCount val="32"/>
                 <pt idx="0">
@@ -956,7 +956,7 @@
           </cat>
           <val>
             <numRef>
-              <f>Feuille5!$AX$13:$CC$13</f>
+              <f>Feuille5!$AT$13:$BY$13</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
@@ -966,11 +966,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="5370765"/>
-        <axId val="32017228"/>
+        <axId val="81245660"/>
+        <axId val="46782103"/>
       </barChart>
       <catAx>
-        <axId val="5370765"/>
+        <axId val="81245660"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1005,7 +1005,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="32017228"/>
+        <crossAx val="46782103"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1013,7 +1013,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="32017228"/>
+        <axId val="46782103"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1057,7 +1057,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="5370765"/>
+        <crossAx val="81245660"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1114,8 +1114,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305546830831082"/>
-          <y val="0.0310701956271577"/>
+          <x val="0.305566025882649"/>
+          <y val="0.0312020460358056"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1135,10 +1135,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0523902255166782"/>
-          <y val="0.146017133358906"/>
-          <w val="0.9242414724543"/>
-          <h val="0.814601713335891"/>
+          <x val="0.052393516773464"/>
+          <y val="0.146035805626598"/>
+          <w val="0.924173891192361"/>
+          <h val="0.814450127877238"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1311,11 +1311,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="27704434"/>
-        <axId val="65417075"/>
+        <axId val="41299039"/>
+        <axId val="63796112"/>
       </barChart>
       <catAx>
-        <axId val="27704434"/>
+        <axId val="41299039"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1350,7 +1350,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="65417075"/>
+        <crossAx val="63796112"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1358,7 +1358,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="65417075"/>
+        <axId val="63796112"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1402,7 +1402,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="27704434"/>
+        <crossAx val="41299039"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1459,8 +1459,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305609648847289"/>
-          <y val="0.0311980565145122"/>
+          <x val="0.305628847845207"/>
+          <y val="0.0313299232736573"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1480,10 +1480,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0523902255166782"/>
-          <y val="0.146017133358906"/>
-          <w val="0.9242414724543"/>
-          <h val="0.814601713335891"/>
+          <x val="0.052393516773464"/>
+          <y val="0.146035805626598"/>
+          <w val="0.924173891192361"/>
+          <h val="0.814450127877238"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1656,11 +1656,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="65124397"/>
-        <axId val="8457015"/>
+        <axId val="35133032"/>
+        <axId val="71765336"/>
       </barChart>
       <catAx>
-        <axId val="65124397"/>
+        <axId val="35133032"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1695,7 +1695,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="8457015"/>
+        <crossAx val="71765336"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1703,7 +1703,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="8457015"/>
+        <axId val="71765336"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1747,7 +1747,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="65124397"/>
+        <crossAx val="35133032"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1804,8 +1804,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.30550320392009"/>
-          <y val="0.0311980565145122"/>
+          <x val="0.305522397436703"/>
+          <y val="0.0313299232736573"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1825,10 +1825,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0483729111697449"/>
-          <y val="0.146017133358906"/>
-          <w val="0.9271265234325921"/>
-          <h val="0.814473852448536"/>
+          <x val="0.0483759502418798"/>
+          <y val="0.146035805626598"/>
+          <w val="0.92705911918075"/>
+          <h val="0.814322250639386"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -2001,11 +2001,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="16514139"/>
-        <axId val="92265786"/>
+        <axId val="53306918"/>
+        <axId val="89418232"/>
       </barChart>
       <catAx>
-        <axId val="16514139"/>
+        <axId val="53306918"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2040,7 +2040,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="92265786"/>
+        <crossAx val="89418232"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2048,7 +2048,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="92265786"/>
+        <axId val="89418232"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -2092,7 +2092,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="16514139"/>
+        <crossAx val="53306918"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -2149,8 +2149,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.30550320392009"/>
-          <y val="0.0311858316221766"/>
+          <x val="0.305522397436703"/>
+          <y val="0.0313181876524195"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -2170,10 +2170,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0483729111697449"/>
-          <y val="0.145918891170431"/>
-          <w val="0.9271265234325921"/>
-          <h val="0.8145533880903491"/>
+          <x val="0.0483759502418798"/>
+          <y val="0.145937620331151"/>
+          <w val="0.92705911918075"/>
+          <h val="0.81440123219099"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -2346,11 +2346,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="87775539"/>
-        <axId val="12380380"/>
+        <axId val="83668030"/>
+        <axId val="76635886"/>
       </barChart>
       <catAx>
-        <axId val="87775539"/>
+        <axId val="83668030"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2385,7 +2385,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="12380380"/>
+        <crossAx val="76635886"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2393,7 +2393,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="12380380"/>
+        <axId val="76635886"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -2437,7 +2437,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="87775539"/>
+        <crossAx val="83668030"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -2494,8 +2494,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305628847845207"/>
-          <y val="0.0314425051334702"/>
+          <x val="0.305648049255513"/>
+          <y val="0.0315748941085868"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -2515,10 +2515,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0483729111697449"/>
-          <y val="0.145918891170431"/>
-          <w val="0.9271265234325921"/>
-          <h val="0.8145533880903491"/>
+          <x val="0.0483759502418798"/>
+          <y val="0.145937620331151"/>
+          <w val="0.92705911918075"/>
+          <h val="0.81440123219099"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -2691,11 +2691,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="98824304"/>
-        <axId val="88787689"/>
+        <axId val="36938005"/>
+        <axId val="11693007"/>
       </barChart>
       <catAx>
-        <axId val="98824304"/>
+        <axId val="36938005"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2730,7 +2730,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="88787689"/>
+        <crossAx val="11693007"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2738,7 +2738,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="88787689"/>
+        <axId val="11693007"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -2782,7 +2782,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="98824304"/>
+        <crossAx val="36938005"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -2815,9 +2815,9 @@
     </from>
     <to>
       <col>99</col>
-      <colOff>204840</colOff>
+      <colOff>204480</colOff>
       <row>30</row>
-      <rowOff>118440</rowOff>
+      <rowOff>118080</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2840,16 +2840,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
-      <col>70</col>
+      <col>66</col>
       <colOff>9720</colOff>
       <row>13</row>
       <rowOff>93600</rowOff>
     </from>
     <to>
-      <col>76</col>
-      <colOff>676440</colOff>
+      <col>72</col>
+      <colOff>676080</colOff>
       <row>30</row>
-      <rowOff>118080</rowOff>
+      <rowOff>117720</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2879,9 +2879,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>676440</colOff>
+      <colOff>676080</colOff>
       <row>30</row>
-      <rowOff>117360</rowOff>
+      <rowOff>117000</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2911,9 +2911,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>676440</colOff>
+      <colOff>676080</colOff>
       <row>30</row>
-      <rowOff>117360</rowOff>
+      <rowOff>117000</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2943,9 +2943,9 @@
     </from>
     <to>
       <col>72</col>
-      <colOff>676440</colOff>
+      <colOff>676080</colOff>
       <row>30</row>
-      <rowOff>155880</rowOff>
+      <rowOff>155520</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2975,9 +2975,9 @@
     </from>
     <to>
       <col>76</col>
-      <colOff>676440</colOff>
+      <colOff>676080</colOff>
       <row>30</row>
-      <rowOff>145440</rowOff>
+      <rowOff>145080</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -3002,9 +3002,9 @@
     </from>
     <to>
       <col>76</col>
-      <colOff>676440</colOff>
+      <colOff>676080</colOff>
       <row>30</row>
-      <rowOff>145440</rowOff>
+      <rowOff>145080</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -8987,9 +8987,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -9024,7 +9024,7 @@
           <t>Temps utilisé</t>
         </is>
       </c>
-      <c r="F1" s="38" t="n"/>
+      <c r="H1" s="38" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" s="23">
       <c r="A2" s="38" t="inlineStr">
@@ -9052,6 +9052,16 @@
           <t>5 min 49 s</t>
         </is>
       </c>
+      <c r="F2" s="38" t="inlineStr">
+        <is>
+          <t>5,82</t>
+        </is>
+      </c>
+      <c r="G2" s="38" t="inlineStr">
+        <is>
+          <t>5,82</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="23">
       <c r="A3" s="38" t="inlineStr">
@@ -9079,6 +9089,16 @@
           <t>7 min</t>
         </is>
       </c>
+      <c r="F3" s="38" t="inlineStr">
+        <is>
+          <t>7,0</t>
+        </is>
+      </c>
+      <c r="G3" s="38" t="inlineStr">
+        <is>
+          <t>7,0</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="23">
       <c r="A4" s="38" t="inlineStr">
@@ -9106,7 +9126,17 @@
           <t>1 jour 5 heures</t>
         </is>
       </c>
-      <c r="F4" s="38" t="n"/>
+      <c r="F4" s="38" t="inlineStr">
+        <is>
+          <t>1740,0</t>
+        </is>
+      </c>
+      <c r="G4" s="38" t="inlineStr">
+        <is>
+          <t>1740,0</t>
+        </is>
+      </c>
+      <c r="H4" s="38" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="23">
       <c r="A5" s="38" t="inlineStr">
@@ -9132,6 +9162,16 @@
       <c r="E5" s="26" t="inlineStr">
         <is>
           <t>2 jours 10 min</t>
+        </is>
+      </c>
+      <c r="F5" s="38" t="inlineStr">
+        <is>
+          <t>2890,0</t>
+        </is>
+      </c>
+      <c r="G5" s="38" t="inlineStr">
+        <is>
+          <t>2890,0</t>
         </is>
       </c>
     </row>
@@ -9347,7 +9387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
@@ -9370,7 +9410,7 @@
           <t>Le cerveau est constitué uniquement de neurones</t>
         </is>
       </c>
-      <c r="H1" s="24" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>accuracy_Q27</t>
         </is>
@@ -9388,6 +9428,12 @@
       <c r="H2" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="I2" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="23">
       <c r="F3" s="38" t="inlineStr">
@@ -9401,6 +9447,12 @@
       <c r="H3" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="I3" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="23">
       <c r="C4" s="38" t="inlineStr">
@@ -9419,6 +9471,12 @@
       <c r="H4" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="I4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="23">
       <c r="F5" s="38" t="inlineStr">
@@ -9432,6 +9490,12 @@
       <c r="H5" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="I5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="23">
       <c r="B6" s="38" t="inlineStr">
@@ -9450,6 +9514,12 @@
       <c r="H6" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="I6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="23">
       <c r="B7" s="38" t="inlineStr">
@@ -9468,6 +9538,12 @@
       <c r="H7" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="I7" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" s="23">
       <c r="F8" s="38" t="inlineStr">
@@ -9481,6 +9557,12 @@
       <c r="H8" s="38" t="n">
         <v>0</v>
       </c>
+      <c r="I8" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1" s="23">
       <c r="F9" s="38" t="inlineStr">
@@ -9494,6 +9576,12 @@
       <c r="H9" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="I9" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" s="23">
       <c r="F10" s="38" t="inlineStr">
@@ -9507,6 +9595,12 @@
       <c r="H10" s="38" t="n">
         <v>0</v>
       </c>
+      <c r="I10" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="23">
       <c r="F11" s="38" t="inlineStr">
@@ -9520,6 +9614,12 @@
       <c r="H11" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="I11" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" s="23">
       <c r="F12" s="38" t="inlineStr">
@@ -9533,6 +9633,12 @@
       <c r="H12" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="I12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="23">
       <c r="F13" s="38" t="inlineStr">
@@ -9546,6 +9652,12 @@
       <c r="H13" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="I13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1" s="23">
       <c r="F14" s="38" t="inlineStr">
@@ -9557,6 +9669,12 @@
         <v>1</v>
       </c>
       <c r="H14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10388,12 +10506,12 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.53" customWidth="1" style="38" min="16361" max="16384"/>
+    <col width="11.53" customWidth="1" style="38" min="16357" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="23">
@@ -11903,15 +12021,15 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="38" min="1" max="2"/>
-    <col width="11.52" customWidth="1" style="38" min="980" max="1006"/>
-    <col width="11.53" customWidth="1" style="38" min="16367" max="16384"/>
+    <col width="11.52" customWidth="1" style="38" min="974" max="1000"/>
+    <col width="11.53" customWidth="1" style="38" min="16361" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="23">

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -9387,7 +9387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
@@ -9410,7 +9410,7 @@
           <t>Le cerveau est constitué uniquement de neurones</t>
         </is>
       </c>
-      <c r="J1" s="24" t="inlineStr">
+      <c r="N1" s="24" t="inlineStr">
         <is>
           <t>accuracy_Q27</t>
         </is>
@@ -9434,6 +9434,18 @@
       <c r="J2" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="K2" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="23">
       <c r="F3" s="38" t="inlineStr">
@@ -9453,6 +9465,18 @@
       <c r="J3" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="K3" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="23">
       <c r="C4" s="38" t="inlineStr">
@@ -9477,6 +9501,18 @@
       <c r="J4" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="K4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="23">
       <c r="F5" s="38" t="inlineStr">
@@ -9496,6 +9532,18 @@
       <c r="J5" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="K5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="23">
       <c r="B6" s="38" t="inlineStr">
@@ -9520,6 +9568,18 @@
       <c r="J6" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="K6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="23">
       <c r="B7" s="38" t="inlineStr">
@@ -9544,6 +9604,18 @@
       <c r="J7" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="K7" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" s="23">
       <c r="F8" s="38" t="inlineStr">
@@ -9563,6 +9635,18 @@
       <c r="J8" s="38" t="n">
         <v>0</v>
       </c>
+      <c r="K8" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1" s="23">
       <c r="F9" s="38" t="inlineStr">
@@ -9582,6 +9666,18 @@
       <c r="J9" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="K9" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" s="23">
       <c r="F10" s="38" t="inlineStr">
@@ -9601,6 +9697,18 @@
       <c r="J10" s="38" t="n">
         <v>0</v>
       </c>
+      <c r="K10" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="23">
       <c r="F11" s="38" t="inlineStr">
@@ -9620,6 +9728,18 @@
       <c r="J11" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="K11" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" s="23">
       <c r="F12" s="38" t="inlineStr">
@@ -9639,6 +9759,18 @@
       <c r="J12" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="K12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="23">
       <c r="F13" s="38" t="inlineStr">
@@ -9658,6 +9790,18 @@
       <c r="J13" s="38" t="n">
         <v>1</v>
       </c>
+      <c r="K13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1" s="23">
       <c r="F14" s="38" t="inlineStr">
@@ -9675,6 +9819,18 @@
         <v>1</v>
       </c>
       <c r="J14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="38" t="n">
         <v>1</v>
       </c>
     </row>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -9487,7 +9487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
@@ -9511,7 +9511,7 @@
           <t>Le cerveau est constitué uniquement de neurones</t>
         </is>
       </c>
-      <c r="K1" s="24" t="inlineStr">
+      <c r="M1" s="24" t="inlineStr">
         <is>
           <t>accuracy_Q27</t>
         </is>
@@ -9538,6 +9538,12 @@
       <c r="K2" s="20" t="n">
         <v>1</v>
       </c>
+      <c r="L2" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="23">
       <c r="F3" s="20" t="inlineStr">
@@ -9560,6 +9566,12 @@
       <c r="K3" s="20" t="n">
         <v>1</v>
       </c>
+      <c r="L3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="23">
       <c r="C4" s="20" t="inlineStr">
@@ -9587,6 +9599,12 @@
       <c r="K4" s="20" t="n">
         <v>1</v>
       </c>
+      <c r="L4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="23">
       <c r="F5" s="20" t="inlineStr">
@@ -9609,6 +9627,12 @@
       <c r="K5" s="20" t="n">
         <v>1</v>
       </c>
+      <c r="L5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="23">
       <c r="B6" s="20" t="inlineStr">
@@ -9636,6 +9660,12 @@
       <c r="K6" s="20" t="n">
         <v>1</v>
       </c>
+      <c r="L6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="23">
       <c r="B7" s="20" t="inlineStr">
@@ -9663,6 +9693,12 @@
       <c r="K7" s="20" t="n">
         <v>1</v>
       </c>
+      <c r="L7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" s="23">
       <c r="F8" s="20" t="inlineStr">
@@ -9685,6 +9721,12 @@
       <c r="K8" s="20" t="n">
         <v>0</v>
       </c>
+      <c r="L8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1" s="23">
       <c r="F9" s="20" t="inlineStr">
@@ -9707,6 +9749,12 @@
       <c r="K9" s="20" t="n">
         <v>1</v>
       </c>
+      <c r="L9" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" s="23">
       <c r="F10" s="20" t="inlineStr">
@@ -9729,6 +9777,12 @@
       <c r="K10" s="20" t="n">
         <v>0</v>
       </c>
+      <c r="L10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="23">
       <c r="F11" s="20" t="inlineStr">
@@ -9751,6 +9805,12 @@
       <c r="K11" s="20" t="n">
         <v>1</v>
       </c>
+      <c r="L11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" s="23">
       <c r="F12" s="20" t="inlineStr">
@@ -9773,6 +9833,12 @@
       <c r="K12" s="20" t="n">
         <v>1</v>
       </c>
+      <c r="L12" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="23">
       <c r="F13" s="20" t="inlineStr">
@@ -9795,6 +9861,12 @@
       <c r="K13" s="20" t="n">
         <v>1</v>
       </c>
+      <c r="L13" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1" s="23">
       <c r="F14" s="20" t="inlineStr">
@@ -9815,6 +9887,12 @@
         <v>1</v>
       </c>
       <c r="K14" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="20" t="n">
         <v>1</v>
       </c>
     </row>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Feuille3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Feuille4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Feuille5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Feuille5bis" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="color_line" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="cutinparts" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="cutinpartsbis" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="delete_lines" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="delete_lines_bis" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="time_min" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="time_min_expected" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille5bis" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="color_line" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cutinparts" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cutinpartsbis" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delete_lines" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delete_lines_bis" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="time_min" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="time_min_expected" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>
@@ -386,14 +386,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -426,8 +426,8 @@
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -465,10 +465,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -476,9 +476,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -631,7 +631,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -639,9 +639,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-5400000"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -672,7 +672,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -685,15 +685,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -716,10 +716,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="0">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -730,14 +730,14 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -770,8 +770,8 @@
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -809,10 +809,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -820,9 +820,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -975,7 +975,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -983,9 +983,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-5400000"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1016,7 +1016,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -1029,15 +1029,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1060,10 +1060,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="0">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -1074,14 +1074,14 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1114,8 +1114,8 @@
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -1154,10 +1154,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1165,9 +1165,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -1320,7 +1320,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -1328,9 +1328,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-5400000"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1361,7 +1361,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -1374,15 +1374,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1405,10 +1405,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="0">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -1419,14 +1419,14 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1459,8 +1459,8 @@
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -1499,10 +1499,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1510,9 +1510,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -1665,7 +1665,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -1673,9 +1673,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-5400000"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1706,7 +1706,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -1719,15 +1719,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1750,10 +1750,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="0">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -1764,14 +1764,14 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -1804,8 +1804,8 @@
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -1844,10 +1844,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1855,9 +1855,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -2010,7 +2010,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -2018,9 +2018,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-5400000"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -2051,7 +2051,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -2064,15 +2064,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -2095,10 +2095,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="0">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -2109,14 +2109,14 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -2149,8 +2149,8 @@
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -2189,10 +2189,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -2200,9 +2200,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -2355,7 +2355,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -2363,9 +2363,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-5400000"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -2396,7 +2396,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -2409,15 +2409,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -2440,10 +2440,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="0">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -2454,14 +2454,14 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -2494,8 +2494,8 @@
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -2534,10 +2534,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -2545,9 +2545,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -2700,7 +2700,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -2708,9 +2708,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-5400000"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -2741,7 +2741,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -2754,15 +2754,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -2785,10 +2785,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="0">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -2799,7 +2799,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>92</col>
@@ -2819,9 +2819,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -2831,7 +2831,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>50</col>
@@ -2851,9 +2851,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -2863,7 +2863,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>103</col>
@@ -2883,9 +2883,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -2895,7 +2895,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>101</col>
@@ -2915,9 +2915,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -2927,7 +2927,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>64</col>
@@ -2947,9 +2947,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -2959,7 +2959,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>70</col>
@@ -2979,9 +2979,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3006,9 +3006,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3193,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -8261,7 +8261,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8978,7 +8978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -9303,12 +9303,12 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -9493,7 +9493,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10732,7 +10732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -11143,12 +11143,12 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -11695,12 +11695,12 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -12246,7 +12246,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -4,22 +4,23 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille5bis" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="color_line" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cutinparts" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cutinpartsbis" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delete_lines" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delete_lines_bis" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="time_min" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="time_min_expected" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille5bis" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="color_line" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cutinparts" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cutinpartsbis" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delete_lines" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delete_lines_bis" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="time_min" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="time_min_expected" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>
@@ -93,7 +94,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -160,11 +161,6 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000a933"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -185,7 +181,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -304,15 +300,6 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,8 +407,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305881618381618"/>
-          <y val="0.0330684439887208"/>
+          <x val="0.306321515663103"/>
+          <y val="0.036122894973647"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -440,10 +427,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0127372627372627"/>
-          <y val="0.125993335042297"/>
-          <w val="0.961913086913087"/>
-          <h val="0.852473724685978"/>
+          <x val="0.0127555805664978"/>
+          <y val="0.126365856793932"/>
+          <w val="0.960420183830426"/>
+          <h val="0.849080858722201"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -488,7 +475,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
               </a:p>
             </txPr>
@@ -616,11 +603,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="14518309"/>
-        <axId val="60989673"/>
+        <axId val="56122524"/>
+        <axId val="50545305"/>
       </barChart>
       <catAx>
-        <axId val="14518309"/>
+        <axId val="56122524"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -651,11 +638,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="60989673"/>
+        <crossAx val="50545305"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -663,7 +650,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="60989673"/>
+        <axId val="50545305"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -703,11 +690,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="14518309"/>
+        <crossAx val="56122524"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -764,8 +751,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305742499528272"/>
-          <y val="0.0330684439887208"/>
+          <x val="0.306185437137818"/>
+          <y val="0.036122894973647"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -784,10 +771,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0127680986225549"/>
-          <y val="0.125993335042297"/>
-          <w val="0.961507013019687"/>
-          <h val="0.852473724685978"/>
+          <x val="0.0127865961199295"/>
+          <y val="0.126365856793932"/>
+          <w val="0.960002519526329"/>
+          <h val="0.849080858722201"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -832,7 +819,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
               </a:p>
             </txPr>
@@ -960,11 +947,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="14271991"/>
-        <axId val="89056044"/>
+        <axId val="46807081"/>
+        <axId val="67128242"/>
       </barChart>
       <catAx>
-        <axId val="14271991"/>
+        <axId val="46807081"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -995,11 +982,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="89056044"/>
+        <crossAx val="67128242"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1007,7 +994,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="89056044"/>
+        <axId val="67128242"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1047,11 +1034,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="14271991"/>
+        <crossAx val="46807081"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1108,8 +1095,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305911949685535"/>
-          <y val="0.0333247885157652"/>
+          <x val="0.306355104868678"/>
+          <y val="0.0363799974289755"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1129,10 +1116,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0524528301886792"/>
-          <y val="0.146372724942322"/>
-          <w val="0.922955974842767"/>
-          <h val="0.811714944885927"/>
+          <x val="0.0525288152673679"/>
+          <y val="0.146805501992544"/>
+          <w val="0.921395729671852"/>
+          <h val="0.808201568324978"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1144,7 +1131,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>Feuille5bis!$CD$13:$CD$13</f>
+              <f>Feuille5bis!$CB$13:$CB$13</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -1177,7 +1164,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
               </a:p>
             </txPr>
@@ -1191,7 +1178,7 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>Feuille5bis!$CE$12:$DJ$12</f>
+              <f>Feuille5bis!$CC$12:$DH$12</f>
               <strCache>
                 <ptCount val="32"/>
                 <pt idx="0">
@@ -1295,7 +1282,7 @@
           </cat>
           <val>
             <numRef>
-              <f>Feuille5bis!$CE$13:$DJ$13</f>
+              <f>Feuille5bis!$CC$13:$DH$13</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
@@ -1305,11 +1292,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="32859559"/>
-        <axId val="65554506"/>
+        <axId val="64947617"/>
+        <axId val="47730532"/>
       </barChart>
       <catAx>
-        <axId val="32859559"/>
+        <axId val="64947617"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1340,11 +1327,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="65554506"/>
+        <crossAx val="47730532"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1352,7 +1339,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="65554506"/>
+        <axId val="47730532"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1392,11 +1379,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="32859559"/>
+        <crossAx val="64947617"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1453,8 +1440,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305974842767296"/>
-          <y val="0.0333247885157652"/>
+          <x val="0.306418089059646"/>
+          <y val="0.0363799974289755"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1474,10 +1461,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0524528301886792"/>
-          <y val="0.146372724942322"/>
-          <w val="0.922955974842767"/>
-          <h val="0.811714944885927"/>
+          <x val="0.0525288152673679"/>
+          <y val="0.146805501992544"/>
+          <w val="0.921395729671852"/>
+          <h val="0.808201568324978"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1489,7 +1476,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>color_line!$CB$13</f>
+              <f>color_line!$CB$13:$CB$13</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -1522,7 +1509,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
               </a:p>
             </txPr>
@@ -1650,11 +1637,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="68368596"/>
-        <axId val="67354340"/>
+        <axId val="80769000"/>
+        <axId val="14935417"/>
       </barChart>
       <catAx>
-        <axId val="68368596"/>
+        <axId val="80769000"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1685,11 +1672,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="67354340"/>
+        <crossAx val="14935417"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1697,7 +1684,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="67354340"/>
+        <axId val="14935417"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1737,11 +1724,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="68368596"/>
+        <crossAx val="80769000"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1798,8 +1785,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305868293603371"/>
-          <y val="0.0333247885157652"/>
+          <x val="0.306311413454271"/>
+          <y val="0.0363799974289755"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1819,10 +1806,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0484307189131392"/>
-          <y val="0.146372724942322"/>
-          <w val="0.925844392729103"/>
-          <h val="0.811586772622405"/>
+          <x val="0.0485008818342152"/>
+          <y val="0.146805501992544"/>
+          <w val="0.9242882338120429"/>
+          <h val="0.8080730170973131"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1834,7 +1821,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>time_min!$AQ$13:$AQ$13</f>
+              <f>time_min!$AG$13:$AG$13</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -1867,7 +1854,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
               </a:p>
             </txPr>
@@ -1881,7 +1868,7 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>time_min!$AR$12:$BW$12</f>
+              <f>time_min!$AH$12:$BM$12</f>
               <strCache>
                 <ptCount val="32"/>
                 <pt idx="0">
@@ -1985,7 +1972,7 @@
           </cat>
           <val>
             <numRef>
-              <f>time_min!$AR$13:$BW$13</f>
+              <f>time_min!$AH$13:$BM$13</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
@@ -1995,11 +1982,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="20156421"/>
-        <axId val="67491740"/>
+        <axId val="83729158"/>
+        <axId val="94084734"/>
       </barChart>
       <catAx>
-        <axId val="20156421"/>
+        <axId val="83729158"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2030,11 +2017,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="67491740"/>
+        <crossAx val="94084734"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2042,7 +2029,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="67491740"/>
+        <axId val="94084734"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -2082,11 +2069,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="20156421"/>
+        <crossAx val="83729158"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -2143,8 +2130,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305868293603371"/>
-          <y val="0.0329345169175351"/>
+          <x val="0.306311413454271"/>
+          <y val="0.036"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -2164,10 +2151,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0484307189131392"/>
-          <y val="0.146275569278271"/>
-          <w val="0.925844392729103"/>
-          <h val="0.811655731377846"/>
+          <x val="0.0485008818342152"/>
+          <y val="0.146709677419355"/>
+          <w val="0.9242882338120429"/>
+          <h val="0.808129032258065"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -2179,7 +2166,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>time_min_expected!$AW$13</f>
+              <f>time_min_expected!$AW$13:$AW$13</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -2212,7 +2199,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
               </a:p>
             </txPr>
@@ -2340,11 +2327,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="33825216"/>
-        <axId val="74722375"/>
+        <axId val="66731125"/>
+        <axId val="44216272"/>
       </barChart>
       <catAx>
-        <axId val="33825216"/>
+        <axId val="66731125"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2375,11 +2362,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="74722375"/>
+        <crossAx val="44216272"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2387,7 +2374,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="74722375"/>
+        <axId val="44216272"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -2427,11 +2414,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="33825216"/>
+        <crossAx val="66731125"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -2488,8 +2475,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.30599408767847"/>
-          <y val="0.0337064196577898"/>
+          <x val="0.306437389770723"/>
+          <y val="0.0367741935483871"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -2509,10 +2496,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0484307189131392"/>
-          <y val="0.146275569278271"/>
-          <w val="0.925844392729103"/>
-          <h val="0.811655731377846"/>
+          <x val="0.0485008818342152"/>
+          <y val="0.146709677419355"/>
+          <w val="0.9242882338120429"/>
+          <h val="0.808129032258065"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -2524,7 +2511,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>time_min_expected!$AW$13</f>
+              <f>time_min_expected!$AW$13:$AW$13</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -2557,7 +2544,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>None</a:t>
+                  <a:t/>
                 </a:r>
               </a:p>
             </txPr>
@@ -2685,11 +2672,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="88303966"/>
-        <axId val="82706032"/>
+        <axId val="12625198"/>
+        <axId val="44906408"/>
       </barChart>
       <catAx>
-        <axId val="88303966"/>
+        <axId val="12625198"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2720,11 +2707,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="82706032"/>
+        <crossAx val="44906408"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2732,7 +2719,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="82706032"/>
+        <axId val="44906408"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -2772,11 +2759,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="88303966"/>
+        <crossAx val="12625198"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -2809,9 +2796,9 @@
     </from>
     <to>
       <col>99</col>
-      <colOff>198000</colOff>
+      <colOff>189720</colOff>
       <row>30</row>
-      <rowOff>111600</rowOff>
+      <rowOff>103320</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2841,9 +2828,9 @@
     </from>
     <to>
       <col>56</col>
-      <colOff>669240</colOff>
+      <colOff>660960</colOff>
       <row>30</row>
-      <rowOff>111240</rowOff>
+      <rowOff>102960</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2866,16 +2853,16 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
-      <col>103</col>
+      <col>101</col>
       <colOff>9360</colOff>
       <row>13</row>
       <rowOff>92880</rowOff>
     </from>
     <to>
-      <col>109</col>
-      <colOff>669240</colOff>
+      <col>107</col>
+      <colOff>661320</colOff>
       <row>30</row>
-      <rowOff>110520</rowOff>
+      <rowOff>102240</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2905,9 +2892,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>669600</colOff>
+      <colOff>661320</colOff>
       <row>30</row>
-      <rowOff>110520</rowOff>
+      <rowOff>102240</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2930,16 +2917,16 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
-      <col>64</col>
+      <col>54</col>
       <colOff>9720</colOff>
       <row>13</row>
       <rowOff>93600</rowOff>
     </from>
     <to>
-      <col>70</col>
-      <colOff>669240</colOff>
+      <col>60</col>
+      <colOff>660960</colOff>
       <row>30</row>
-      <rowOff>149040</rowOff>
+      <rowOff>140760</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2969,9 +2956,9 @@
     </from>
     <to>
       <col>76</col>
-      <colOff>669600</colOff>
+      <colOff>661320</colOff>
       <row>30</row>
-      <rowOff>138600</rowOff>
+      <rowOff>130320</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2996,9 +2983,9 @@
     </from>
     <to>
       <col>76</col>
-      <colOff>669600</colOff>
+      <colOff>661320</colOff>
       <row>30</row>
-      <rowOff>138600</rowOff>
+      <rowOff>130320</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -3200,11 +3187,11 @@
   </sheetPr>
   <dimension ref="A1:DL14"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="I1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.09" customWidth="1" style="20" min="1" max="7"/>
     <col width="140.36" customWidth="1" style="20" min="8" max="8"/>
@@ -8271,347 +8258,193 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
+    <col width="11.31" customWidth="1" style="20" min="1" max="3"/>
+    <col width="21.53" customWidth="1" style="20" min="4" max="4"/>
+    <col width="11.31" customWidth="1" style="20" min="5" max="5"/>
+    <col width="13.5" customWidth="1" style="20" min="6" max="6"/>
+    <col width="11.91" customWidth="1" style="20" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="23">
-      <c r="A1" s="34" t="inlineStr">
-        <is>
-          <t>Les électrons sont plus petits que les atomes</t>
-        </is>
-      </c>
-      <c r="B1" s="35" t="inlineStr">
-        <is>
-          <t>accuracy_Q6</t>
-        </is>
-      </c>
-      <c r="C1" s="24" t="inlineStr">
-        <is>
-          <t>Toute radioactivité résulte de l’action de l’homme</t>
-        </is>
-      </c>
-      <c r="D1" s="24" t="inlineStr">
-        <is>
-          <t>accuracy_Q7</t>
-        </is>
-      </c>
-      <c r="E1" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  La Terre fait le tour du Soleil en un mois</t>
+      <c r="A1" s="20" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B1" s="21" t="inlineStr">
+        <is>
+          <t>Réponse 2</t>
         </is>
       </c>
       <c r="F1" s="24" t="inlineStr">
         <is>
-          <t>accuracy_Q8</t>
+          <t>Les chromosomes du père déterminent si le bébé est un garçon ou une fille</t>
         </is>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="23">
       <c r="A2" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B2" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D2" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
-      <c r="F2" s="20" t="n">
-        <v>1</v>
+          <t>Aatif Mieulet</t>
+        </is>
+      </c>
+      <c r="B2" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="C2" s="21" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+      <c r="D2" s="39" t="inlineStr">
+        <is>
+          <t>partie 2 : Faux</t>
+        </is>
+      </c>
+      <c r="E2" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="F2" s="20" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+      <c r="G2" s="20" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="23">
       <c r="A3" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B3" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D3" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
-      <c r="F3" s="20" t="n">
+          <t>Abbas</t>
+        </is>
+      </c>
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">partie 1 : Vrai; partie 2 : Vrai; partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="C3" s="21" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+      <c r="D3" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 2 : Vrai</t>
+        </is>
+      </c>
+      <c r="E3" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="F3" s="20" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+      <c r="G3" s="20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="23">
       <c r="A4" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B4" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D4" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
-      <c r="F4" s="20" t="n">
-        <v>1</v>
+          <t>Abdallah</t>
+        </is>
+      </c>
+      <c r="B4" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="C4" s="21" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+      <c r="D4" s="39" t="inlineStr">
+        <is>
+          <t>partie 2 : Faux</t>
+        </is>
+      </c>
+      <c r="E4" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="F4" s="20" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+      <c r="G4" s="20" t="inlineStr">
+        <is>
+          <t>fdff</t>
+        </is>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="23">
-      <c r="A5" s="36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Faux</t>
-        </is>
-      </c>
-      <c r="B5" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D5" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
-      <c r="F5" s="20" t="n">
-        <v>1</v>
+      <c r="A5" s="20" t="inlineStr">
+        <is>
+          <t>Abdel Moneim</t>
+        </is>
+      </c>
+      <c r="B5" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="C5" s="21" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+      <c r="D5" s="21" t="inlineStr">
+        <is>
+          <t>Partie2 : Faux</t>
+        </is>
+      </c>
+      <c r="E5" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="F5" s="20" t="inlineStr">
+        <is>
+          <t>partie 1 : Faux</t>
+        </is>
+      </c>
+      <c r="G5" s="20" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="23">
-      <c r="A6" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
-      <c r="F6" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" s="23">
-      <c r="A7" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B7" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D7" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
-      <c r="F7" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" s="23">
-      <c r="A8" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B8" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D8" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
-      <c r="F8" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" s="23">
-      <c r="A9" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B9" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D9" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
-      <c r="F9" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" s="23">
-      <c r="A10" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B10" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D10" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
-      <c r="F10" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" s="23">
-      <c r="A11" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B11" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D11" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
-      <c r="F11" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" s="23">
-      <c r="A12" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
-      <c r="F12" s="20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="23"/>
-    <row r="14" ht="12.75" customHeight="1" s="23"/>
-    <row r="15" ht="12.75" customHeight="1" s="23"/>
-    <row r="16" ht="12.75" customHeight="1" s="23"/>
-    <row r="17" ht="12.75" customHeight="1" s="23"/>
-    <row r="18" ht="12.75" customHeight="1" s="23"/>
-    <row r="19" ht="12.75" customHeight="1" s="23"/>
-    <row r="20" ht="12.75" customHeight="1" s="23"/>
-    <row r="21" ht="12.75" customHeight="1" s="23"/>
-    <row r="22" ht="12.75" customHeight="1" s="23"/>
-    <row r="23" ht="12.75" customHeight="1" s="23"/>
-    <row r="24" ht="12.75" customHeight="1" s="23"/>
+      <c r="G6" s="20" t="inlineStr">
+        <is>
+          <t>partie2:Faux</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="23"/>
+    <row r="8" ht="12.75" customHeight="1" s="23"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -8635,11 +8468,11 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
   </cols>
@@ -8962,6 +8795,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" ht="12.75" customHeight="1" s="23"/>
+    <row r="14" ht="12.75" customHeight="1" s="23"/>
+    <row r="15" ht="12.75" customHeight="1" s="23"/>
+    <row r="16" ht="12.75" customHeight="1" s="23"/>
+    <row r="17" ht="12.75" customHeight="1" s="23"/>
+    <row r="18" ht="12.75" customHeight="1" s="23"/>
+    <row r="19" ht="12.75" customHeight="1" s="23"/>
+    <row r="20" ht="12.75" customHeight="1" s="23"/>
+    <row r="21" ht="12.75" customHeight="1" s="23"/>
+    <row r="22" ht="12.75" customHeight="1" s="23"/>
+    <row r="23" ht="12.75" customHeight="1" s="23"/>
+    <row r="24" ht="12.75" customHeight="1" s="23"/>
+    <row r="25" ht="12.75" customHeight="1" s="23"/>
+    <row r="26" ht="12.75" customHeight="1" s="23"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -8983,15 +8830,365 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.75" customHeight="1" s="23">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>Les électrons sont plus petits que les atomes</t>
+        </is>
+      </c>
+      <c r="B1" s="35" t="inlineStr">
+        <is>
+          <t>accuracy_Q6</t>
+        </is>
+      </c>
+      <c r="C1" s="24" t="inlineStr">
+        <is>
+          <t>Toute radioactivité résulte de l’action de l’homme</t>
+        </is>
+      </c>
+      <c r="D1" s="24" t="inlineStr">
+        <is>
+          <t>accuracy_Q7</t>
+        </is>
+      </c>
+      <c r="E1" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  La Terre fait le tour du Soleil en un mois</t>
+        </is>
+      </c>
+      <c r="F1" s="24" t="inlineStr">
+        <is>
+          <t>accuracy_Q8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="23">
+      <c r="A2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B2" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D2" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F2" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="23">
+      <c r="A3" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F3" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="23">
+      <c r="A4" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F4" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="23">
+      <c r="A5" s="36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Faux</t>
+        </is>
+      </c>
+      <c r="B5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F5" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="23">
+      <c r="A6" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F6" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="23">
+      <c r="A7" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F7" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="23">
+      <c r="A8" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B8" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D8" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="23">
+      <c r="A9" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B9" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D9" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F9" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="23">
+      <c r="A10" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B10" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D10" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="23">
+      <c r="A11" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="23">
+      <c r="A12" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B12" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D12" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.53" customWidth="1" style="20" min="16355" max="16384"/>
+    <col width="11.53" customWidth="1" style="20" min="16345" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="23">
@@ -9020,7 +9217,7 @@
           <t>Temps utilisé</t>
         </is>
       </c>
-      <c r="N1" s="20" t="n"/>
+      <c r="F1" s="20" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" s="23">
       <c r="A2" s="20" t="inlineStr">
@@ -9048,46 +9245,6 @@
           <t>5 min 49 s</t>
         </is>
       </c>
-      <c r="F2" s="20" t="inlineStr">
-        <is>
-          <t>5,82</t>
-        </is>
-      </c>
-      <c r="G2" s="20" t="inlineStr">
-        <is>
-          <t>5,82</t>
-        </is>
-      </c>
-      <c r="H2" s="20" t="inlineStr">
-        <is>
-          <t>5,82</t>
-        </is>
-      </c>
-      <c r="I2" s="20" t="inlineStr">
-        <is>
-          <t>5,82</t>
-        </is>
-      </c>
-      <c r="J2" s="20" t="inlineStr">
-        <is>
-          <t>5,82</t>
-        </is>
-      </c>
-      <c r="K2" s="20" t="inlineStr">
-        <is>
-          <t>5,82</t>
-        </is>
-      </c>
-      <c r="L2" s="20" t="inlineStr">
-        <is>
-          <t>5,82</t>
-        </is>
-      </c>
-      <c r="M2" s="20" t="inlineStr">
-        <is>
-          <t>5,82</t>
-        </is>
-      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="23">
       <c r="A3" s="20" t="inlineStr">
@@ -9115,46 +9272,6 @@
           <t>7 min</t>
         </is>
       </c>
-      <c r="F3" s="20" t="inlineStr">
-        <is>
-          <t>7,0</t>
-        </is>
-      </c>
-      <c r="G3" s="20" t="inlineStr">
-        <is>
-          <t>7,0</t>
-        </is>
-      </c>
-      <c r="H3" s="20" t="inlineStr">
-        <is>
-          <t>7,0</t>
-        </is>
-      </c>
-      <c r="I3" s="20" t="inlineStr">
-        <is>
-          <t>7,0</t>
-        </is>
-      </c>
-      <c r="J3" s="20" t="inlineStr">
-        <is>
-          <t>7,0</t>
-        </is>
-      </c>
-      <c r="K3" s="20" t="inlineStr">
-        <is>
-          <t>7,0</t>
-        </is>
-      </c>
-      <c r="L3" s="20" t="inlineStr">
-        <is>
-          <t>7,0</t>
-        </is>
-      </c>
-      <c r="M3" s="20" t="inlineStr">
-        <is>
-          <t>7,0</t>
-        </is>
-      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="23">
       <c r="A4" s="20" t="inlineStr">
@@ -9182,47 +9299,7 @@
           <t>1 jour 5 heures</t>
         </is>
       </c>
-      <c r="F4" s="20" t="inlineStr">
-        <is>
-          <t>1740,0</t>
-        </is>
-      </c>
-      <c r="G4" s="20" t="inlineStr">
-        <is>
-          <t>1740,0</t>
-        </is>
-      </c>
-      <c r="H4" s="20" t="inlineStr">
-        <is>
-          <t>1740,0</t>
-        </is>
-      </c>
-      <c r="I4" s="20" t="inlineStr">
-        <is>
-          <t>1740,0</t>
-        </is>
-      </c>
-      <c r="J4" s="20" t="inlineStr">
-        <is>
-          <t>1740,0</t>
-        </is>
-      </c>
-      <c r="K4" s="20" t="inlineStr">
-        <is>
-          <t>1740,0</t>
-        </is>
-      </c>
-      <c r="L4" s="20" t="inlineStr">
-        <is>
-          <t>1740,0</t>
-        </is>
-      </c>
-      <c r="M4" s="20" t="inlineStr">
-        <is>
-          <t>1740,0</t>
-        </is>
-      </c>
-      <c r="N4" s="20" t="n"/>
+      <c r="F4" s="20" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="23">
       <c r="A5" s="20" t="inlineStr">
@@ -9248,46 +9325,6 @@
       <c r="E5" s="26" t="inlineStr">
         <is>
           <t>2 jours 10 min</t>
-        </is>
-      </c>
-      <c r="F5" s="20" t="inlineStr">
-        <is>
-          <t>2890,0</t>
-        </is>
-      </c>
-      <c r="G5" s="20" t="inlineStr">
-        <is>
-          <t>2890,0</t>
-        </is>
-      </c>
-      <c r="H5" s="20" t="inlineStr">
-        <is>
-          <t>2890,0</t>
-        </is>
-      </c>
-      <c r="I5" s="20" t="inlineStr">
-        <is>
-          <t>2890,0</t>
-        </is>
-      </c>
-      <c r="J5" s="20" t="inlineStr">
-        <is>
-          <t>2890,0</t>
-        </is>
-      </c>
-      <c r="K5" s="20" t="inlineStr">
-        <is>
-          <t>2890,0</t>
-        </is>
-      </c>
-      <c r="L5" s="20" t="inlineStr">
-        <is>
-          <t>2890,0</t>
-        </is>
-      </c>
-      <c r="M5" s="20" t="inlineStr">
-        <is>
-          <t>2890,0</t>
         </is>
       </c>
     </row>
@@ -9307,7 +9344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9319,7 +9356,7 @@
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.53" customWidth="1" style="20" min="16361" max="16384"/>
   </cols>
@@ -9503,17 +9540,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.2109375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.2109375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.08" customWidth="1" style="20" min="6" max="6"/>
-    <col width="11.52" customWidth="1" style="20" min="940" max="1017"/>
-    <col width="11.53" customWidth="1" style="20" min="16378" max="16384"/>
+    <col width="11.52" customWidth="1" style="20" min="932" max="1009"/>
+    <col width="11.53" customWidth="1" style="20" min="16370" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="23">
@@ -9522,34 +9559,34 @@
           <t>Test !!!!</t>
         </is>
       </c>
-      <c r="F1" s="24" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Le cerveau est constitué uniquement de neurones</t>
         </is>
       </c>
-      <c r="M1" s="24" t="inlineStr">
+      <c r="L1" s="24" t="inlineStr">
         <is>
           <t>accuracy_Q27</t>
         </is>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="23">
-      <c r="F2" s="20" t="inlineStr">
+      <c r="F2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="G2" s="20" t="n">
-        <v>1</v>
-      </c>
       <c r="H2" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="20" t="n">
         <v>1</v>
@@ -9557,35 +9594,34 @@
       <c r="L2" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="M2" s="20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="23">
-      <c r="F3" s="20" t="inlineStr">
+      <c r="E3" s="20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="G3" s="20" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="20" t="n">
         <v>1</v>
       </c>
       <c r="L3" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9595,22 +9631,27 @@
           <t>Il doit y avoir des notes.</t>
         </is>
       </c>
-      <c r="F4" s="20" t="inlineStr">
+      <c r="E4" s="20" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="F4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="G4" s="20" t="n">
-        <v>1</v>
-      </c>
       <c r="H4" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="20" t="n">
         <v>1</v>
@@ -9618,35 +9659,34 @@
       <c r="L4" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="M4" s="20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="23">
-      <c r="F5" s="20" t="inlineStr">
+      <c r="E5" s="20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="G5" s="20" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="20" t="n">
         <v>1</v>
       </c>
       <c r="L5" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9656,30 +9696,32 @@
           <t>zdzd</t>
         </is>
       </c>
-      <c r="F6" s="20" t="inlineStr">
+      <c r="E6" s="20" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="F6" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="G6" s="20" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="20" t="n">
         <v>1</v>
       </c>
       <c r="L6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9689,22 +9731,22 @@
           <t>zdzd</t>
         </is>
       </c>
-      <c r="F7" s="20" t="inlineStr">
+      <c r="F7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="G7" s="20" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="20" t="n">
         <v>1</v>
@@ -9712,19 +9754,16 @@
       <c r="L7" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" s="23">
-      <c r="F8" s="20" t="inlineStr">
+      <c r="F8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="G8" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" s="20" t="n">
         <v>0</v>
       </c>
@@ -9740,27 +9779,24 @@
       <c r="L8" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1" s="23">
-      <c r="F9" s="20" t="inlineStr">
+      <c r="F9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="G9" s="20" t="n">
-        <v>1</v>
-      </c>
       <c r="H9" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="20" t="n">
         <v>1</v>
@@ -9768,19 +9804,16 @@
       <c r="L9" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="M9" s="20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" s="23">
-      <c r="F10" s="20" t="inlineStr">
+      <c r="F10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="G10" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" s="20" t="n">
         <v>0</v>
       </c>
@@ -9796,27 +9829,24 @@
       <c r="L10" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="23">
-      <c r="F11" s="20" t="inlineStr">
+      <c r="F11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="G11" s="20" t="n">
-        <v>1</v>
-      </c>
       <c r="H11" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="20" t="n">
         <v>1</v>
@@ -9824,27 +9854,24 @@
       <c r="L11" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" s="23">
-      <c r="F12" s="20" t="inlineStr">
+      <c r="F12" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="G12" s="20" t="n">
-        <v>1</v>
-      </c>
       <c r="H12" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="20" t="n">
         <v>1</v>
@@ -9852,27 +9879,24 @@
       <c r="L12" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="M12" s="20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="23">
-      <c r="F13" s="20" t="inlineStr">
+      <c r="F13" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="G13" s="20" t="n">
-        <v>1</v>
-      </c>
       <c r="H13" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="20" t="n">
         <v>1</v>
@@ -9880,35 +9904,29 @@
       <c r="L13" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="M13" s="20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1" s="23">
-      <c r="F14" s="20" t="inlineStr">
+      <c r="F14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="G14" s="20" t="n">
-        <v>1</v>
-      </c>
       <c r="H14" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="20" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9933,384 +9951,393 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.2109375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
+    <col width="11.08" customWidth="1" style="20" min="6" max="6"/>
+    <col width="11.52" customWidth="1" style="20" min="932" max="1009"/>
+    <col width="11.53" customWidth="1" style="20" min="16370" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="23">
-      <c r="A1" s="34" t="inlineStr">
-        <is>
-          <t>Les électrons sont plus petits que les atomes</t>
-        </is>
-      </c>
-      <c r="B1" s="35" t="inlineStr">
-        <is>
-          <t>accuracy_Q6</t>
-        </is>
-      </c>
-      <c r="C1" s="24" t="inlineStr">
-        <is>
-          <t>Toute radioactivité résulte de l’action de l’homme</t>
-        </is>
-      </c>
-      <c r="D1" s="24" t="inlineStr">
-        <is>
-          <t>accuracy_Q7</t>
-        </is>
-      </c>
-      <c r="E1" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  La Terre fait le tour du Soleil en un mois</t>
-        </is>
-      </c>
-      <c r="F1" s="24" t="inlineStr">
-        <is>
-          <t>accuracy_Q8</t>
+      <c r="A1" s="20" t="inlineStr">
+        <is>
+          <t>Test !!!!</t>
+        </is>
+      </c>
+      <c r="G1" s="24" t="inlineStr">
+        <is>
+          <t>Le cerveau est constitué uniquement de neurones</t>
+        </is>
+      </c>
+      <c r="L1" s="24" t="inlineStr">
+        <is>
+          <t>accuracy_Q27</t>
         </is>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="23">
-      <c r="A2" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B2" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D2" s="20" t="n">
-        <v>1</v>
-      </c>
       <c r="E2" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F2" s="20" t="n">
         <v>1</v>
       </c>
+      <c r="G2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 12 : Faux</t>
+        </is>
+      </c>
+      <c r="H2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="23">
-      <c r="A3" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B3" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D3" s="20" t="n">
-        <v>1</v>
-      </c>
       <c r="E3" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 12 : Faux</t>
+        </is>
+      </c>
+      <c r="H3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="23">
-      <c r="A4" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B4" s="20" t="n">
-        <v>1</v>
-      </c>
       <c r="C4" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D4" s="20" t="n">
-        <v>1</v>
+          <t>Il doit y avoir des notes.</t>
+        </is>
       </c>
       <c r="E4" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F4" s="20" t="n">
         <v>1</v>
       </c>
+      <c r="G4" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 12 : Faux</t>
+        </is>
+      </c>
+      <c r="H4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="23">
-      <c r="A5" s="36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Faux</t>
-        </is>
-      </c>
-      <c r="B5" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D5" s="20" t="n">
-        <v>1</v>
-      </c>
       <c r="E5" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F5" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 12 : Faux</t>
+        </is>
+      </c>
+      <c r="H5" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="23">
-      <c r="A6" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Vrai</t>
-        </is>
-      </c>
-      <c r="D6" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
+      <c r="B6" s="20" t="inlineStr">
+        <is>
+          <t>zdzd</t>
         </is>
       </c>
       <c r="F6" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 12 : Faux</t>
+        </is>
+      </c>
+      <c r="H6" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="23">
-      <c r="A7" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B7" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D7" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
+      <c r="B7" s="20" t="inlineStr">
+        <is>
+          <t>zdzd</t>
         </is>
       </c>
       <c r="F7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 12 : Faux</t>
+        </is>
+      </c>
+      <c r="H7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" s="23">
-      <c r="A8" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B8" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D8" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
       <c r="F8" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 12 : Vrai</t>
+        </is>
+      </c>
+      <c r="H8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1" s="23">
-      <c r="A9" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B9" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D9" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
       <c r="F9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 12 : Faux</t>
+        </is>
+      </c>
+      <c r="H9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" s="23">
-      <c r="A10" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B10" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D10" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
       <c r="F10" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G10" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 12 : Vrai</t>
+        </is>
+      </c>
+      <c r="H10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="23">
-      <c r="A11" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B11" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D11" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
       <c r="F11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 12 : Faux</t>
+        </is>
+      </c>
+      <c r="H11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" s="23">
-      <c r="A12" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
       <c r="F12" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 12 : Faux</t>
+        </is>
+      </c>
+      <c r="H12" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="23">
-      <c r="A13" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B13" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Faux</t>
-        </is>
-      </c>
-      <c r="D13" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
       <c r="F13" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 12 : Faux</t>
+        </is>
+      </c>
+      <c r="H13" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1" s="23">
-      <c r="A14" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 6 : Vrai</t>
-        </is>
-      </c>
-      <c r="B14" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 7 : Vrai</t>
-        </is>
-      </c>
-      <c r="D14" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 8 : Faux</t>
-        </is>
-      </c>
       <c r="F14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 12 : Faux</t>
+        </is>
+      </c>
+      <c r="H14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10338,10 +10365,10 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
   </cols>
@@ -10740,395 +10767,382 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.53" customWidth="1" style="20" min="16341" max="16384"/>
+    <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="23">
-      <c r="A1" s="20" t="inlineStr">
-        <is>
-          <t>Nom</t>
-        </is>
-      </c>
-      <c r="B1" s="20" t="inlineStr">
-        <is>
-          <t>Prénom</t>
-        </is>
-      </c>
-      <c r="C1" s="20" t="inlineStr">
-        <is>
-          <t>Adresse de courriel</t>
-        </is>
-      </c>
-      <c r="D1" s="20" t="inlineStr">
-        <is>
-          <t>État</t>
-        </is>
-      </c>
-      <c r="E1" s="20" t="inlineStr">
-        <is>
-          <t>Temps utilisé</t>
-        </is>
-      </c>
-      <c r="F1" s="20" t="n"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" s="23">
+    <row r="1" ht="12.75" customHeight="1" s="23">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>Les électrons sont plus petits que les atomes</t>
+        </is>
+      </c>
+      <c r="B1" s="35" t="inlineStr">
+        <is>
+          <t>accuracy_Q6</t>
+        </is>
+      </c>
+      <c r="C1" s="24" t="inlineStr">
+        <is>
+          <t>Toute radioactivité résulte de l’action de l’homme</t>
+        </is>
+      </c>
+      <c r="D1" s="24" t="inlineStr">
+        <is>
+          <t>accuracy_Q7</t>
+        </is>
+      </c>
+      <c r="E1" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  La Terre fait le tour du Soleil en un mois</t>
+        </is>
+      </c>
+      <c r="F1" s="24" t="inlineStr">
+        <is>
+          <t>accuracy_Q8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="23">
       <c r="A2" s="20" t="inlineStr">
         <is>
-          <t>Abdulhoussen</t>
-        </is>
-      </c>
-      <c r="B2" s="20" t="inlineStr">
-        <is>
-          <t>Houzefa</t>
-        </is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B2" s="20" t="n">
+        <v>1</v>
       </c>
       <c r="C2" s="20" t="inlineStr">
         <is>
-          <t>houzefa.abdulhoussen@universite-paris-saclay.fr</t>
-        </is>
-      </c>
-      <c r="D2" s="20" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E2" s="26" t="inlineStr">
-        <is>
-          <t>5 min 49 s</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" s="23">
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D2" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F2" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="23">
       <c r="A3" s="20" t="inlineStr">
         <is>
-          <t>Abdel Moneim</t>
-        </is>
-      </c>
-      <c r="B3" s="20" t="inlineStr">
-        <is>
-          <t>Yasmine</t>
-        </is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B3" s="20" t="n">
+        <v>1</v>
       </c>
       <c r="C3" s="20" t="inlineStr">
         <is>
-          <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
-        </is>
-      </c>
-      <c r="D3" s="20" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E3" s="26" t="inlineStr">
-        <is>
-          <t>7 min 22 s</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" s="23">
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F3" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="23">
       <c r="A4" s="20" t="inlineStr">
         <is>
-          <t>Abbas</t>
-        </is>
-      </c>
-      <c r="B4" s="20" t="inlineStr">
-        <is>
-          <t>Zina</t>
-        </is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B4" s="20" t="n">
+        <v>1</v>
       </c>
       <c r="C4" s="20" t="inlineStr">
         <is>
-          <t>zina.abbas@universite-paris-saclay.fr</t>
-        </is>
-      </c>
-      <c r="D4" s="20" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E4" s="26" t="inlineStr">
-        <is>
-          <t>5 min 15 s</t>
-        </is>
-      </c>
-      <c r="F4" s="20">
-        <f>C5+F$5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" s="23">
-      <c r="A5" s="20" t="inlineStr">
-        <is>
-          <t>Abdallah</t>
-        </is>
-      </c>
-      <c r="B5" s="20" t="inlineStr">
-        <is>
-          <t>Aboubaker</t>
-        </is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F4" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="23">
+      <c r="A5" s="36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Faux</t>
+        </is>
+      </c>
+      <c r="B5" s="37" t="n">
+        <v>0</v>
       </c>
       <c r="C5" s="20" t="inlineStr">
         <is>
-          <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
-        </is>
-      </c>
-      <c r="D5" s="20" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E5" s="26" t="inlineStr">
-        <is>
-          <t>7 min 57 s</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" s="23">
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F5" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="23">
       <c r="A6" s="20" t="inlineStr">
         <is>
-          <t>Abdelali</t>
-        </is>
-      </c>
-      <c r="B6" s="20" t="inlineStr">
-        <is>
-          <t>Yasmine</t>
-        </is>
-      </c>
-      <c r="C6" s="20" t="inlineStr">
-        <is>
-          <t>yasmine.abdelali@universite-paris-saclay.fr</t>
-        </is>
-      </c>
-      <c r="D6" s="20" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E6" s="26" t="inlineStr">
-        <is>
-          <t>7 min 44 s</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" s="23">
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Vrai</t>
+        </is>
+      </c>
+      <c r="D6" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F6" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="23">
       <c r="A7" s="20" t="inlineStr">
         <is>
-          <t>Abdelgow</t>
-        </is>
-      </c>
-      <c r="B7" s="20" t="inlineStr">
-        <is>
-          <t>Hassan Mahamat</t>
-        </is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B7" s="20" t="n">
+        <v>1</v>
       </c>
       <c r="C7" s="20" t="inlineStr">
         <is>
-          <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
-        </is>
-      </c>
-      <c r="D7" s="20" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E7" s="29" t="inlineStr">
-        <is>
-          <t>23 min 37 s</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="23">
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F7" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="23">
       <c r="A8" s="20" t="inlineStr">
         <is>
-          <t>Abdelkarim</t>
-        </is>
-      </c>
-      <c r="B8" s="20" t="inlineStr">
-        <is>
-          <t>Yacine</t>
-        </is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B8" s="20" t="n">
+        <v>1</v>
       </c>
       <c r="C8" s="20" t="inlineStr">
         <is>
-          <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
-        </is>
-      </c>
-      <c r="D8" s="20" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E8" s="26" t="inlineStr">
-        <is>
-          <t>4 min 17 s</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" s="23">
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D8" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="23">
       <c r="A9" s="20" t="inlineStr">
         <is>
-          <t>Aatif Mieulet</t>
-        </is>
-      </c>
-      <c r="B9" s="20" t="inlineStr">
-        <is>
-          <t>Paola</t>
-        </is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B9" s="20" t="n">
+        <v>1</v>
       </c>
       <c r="C9" s="20" t="inlineStr">
         <is>
-          <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
-        </is>
-      </c>
-      <c r="D9" s="20" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E9" s="26" t="inlineStr">
-        <is>
-          <t>8 min 33 s</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" s="23">
-      <c r="A10" s="33" t="inlineStr">
-        <is>
-          <t>Abi Rizk</t>
-        </is>
-      </c>
-      <c r="B10" s="33" t="inlineStr">
-        <is>
-          <t>Rodolphe</t>
-        </is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D9" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F9" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="23">
+      <c r="A10" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B10" s="20" t="n">
+        <v>1</v>
       </c>
       <c r="C10" s="20" t="inlineStr">
         <is>
-          <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
-        </is>
-      </c>
-      <c r="D10" s="20" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E10" s="26" t="inlineStr">
-        <is>
-          <t>15 min 32 s</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="23">
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D10" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="23">
       <c r="A11" s="20" t="inlineStr">
         <is>
-          <t>Abdelhadi</t>
-        </is>
-      </c>
-      <c r="B11" s="20" t="inlineStr">
-        <is>
-          <t>Nouh</t>
-        </is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B11" s="20" t="n">
+        <v>1</v>
       </c>
       <c r="C11" s="20" t="inlineStr">
         <is>
-          <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
-        </is>
-      </c>
-      <c r="D11" s="20" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E11" s="26" t="inlineStr">
-        <is>
-          <t>9 min 27 s</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="23">
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="23">
       <c r="A12" s="20" t="inlineStr">
         <is>
-          <t>Abdenbaoui</t>
-        </is>
-      </c>
-      <c r="B12" s="20" t="inlineStr">
-        <is>
-          <t>Iness</t>
-        </is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B12" s="20" t="n">
+        <v>1</v>
       </c>
       <c r="C12" s="20" t="inlineStr">
         <is>
-          <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
-        </is>
-      </c>
-      <c r="D12" s="20" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E12" s="26" t="inlineStr">
-        <is>
-          <t>10 min 33 s</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="23">
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D12" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="23">
       <c r="A13" s="20" t="inlineStr">
         <is>
-          <t>Abed Meraim</t>
-        </is>
-      </c>
-      <c r="B13" s="20" t="inlineStr">
-        <is>
-          <t>Zakaria</t>
-        </is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B13" s="20" t="n">
+        <v>1</v>
       </c>
       <c r="C13" s="20" t="inlineStr">
         <is>
-          <t>20221641@etud.univ-evry.fr</t>
-        </is>
-      </c>
-      <c r="D13" s="20" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E13" s="26" t="inlineStr">
-        <is>
-          <t>9 min 14 s</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" s="23">
-      <c r="A14" s="33" t="inlineStr">
-        <is>
-          <t>Abi Rizk</t>
-        </is>
-      </c>
-      <c r="B14" s="33" t="inlineStr">
-        <is>
-          <t>Christian</t>
-        </is>
-      </c>
-      <c r="C14" s="20" t="inlineStr">
-        <is>
-          <t>christian.abi-rizk@universite-paris-saclay.fr</t>
-        </is>
-      </c>
-      <c r="D14" s="20" t="inlineStr">
-        <is>
-          <t>Terminé</t>
-        </is>
-      </c>
-      <c r="E14" s="29" t="inlineStr">
-        <is>
-          <t>21 min 49 s</t>
-        </is>
+          <t xml:space="preserve"> partie 7 : Faux</t>
+        </is>
+      </c>
+      <c r="D13" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F13" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="23">
+      <c r="A14" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 6 : Vrai</t>
+        </is>
+      </c>
+      <c r="B14" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 7 : Vrai</t>
+        </is>
+      </c>
+      <c r="D14" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 8 : Faux</t>
+        </is>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11143,7 +11157,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11153,13 +11166,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="11.53" customWidth="1" style="20" min="16341" max="16384"/>
+  </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="23">
       <c r="A1" s="20" t="inlineStr">
@@ -11184,19 +11200,10 @@
       </c>
       <c r="E1" s="20" t="inlineStr">
         <is>
-          <t>Prénom</t>
-        </is>
-      </c>
-      <c r="F1" s="20" t="inlineStr">
-        <is>
-          <t>Note/10,00</t>
-        </is>
-      </c>
-      <c r="G1" s="20" t="inlineStr">
-        <is>
           <t>Temps utilisé</t>
         </is>
       </c>
+      <c r="F1" s="20" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" s="23">
       <c r="A2" s="20" t="inlineStr">
@@ -11219,17 +11226,7 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E2" s="20" t="inlineStr">
-        <is>
-          <t>Houzefa</t>
-        </is>
-      </c>
-      <c r="F2" s="20" t="inlineStr">
-        <is>
-          <t>7,83</t>
-        </is>
-      </c>
-      <c r="G2" s="26" t="inlineStr">
+      <c r="E2" s="26" t="inlineStr">
         <is>
           <t>5 min 49 s</t>
         </is>
@@ -11256,17 +11253,7 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E3" s="20" t="inlineStr">
-        <is>
-          <t>Yasmine</t>
-        </is>
-      </c>
-      <c r="F3" s="20" t="inlineStr">
-        <is>
-          <t>7,83</t>
-        </is>
-      </c>
-      <c r="G3" s="26" t="inlineStr">
+      <c r="E3" s="26" t="inlineStr">
         <is>
           <t>7 min 22 s</t>
         </is>
@@ -11293,23 +11280,13 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E4" s="20" t="inlineStr">
-        <is>
-          <t>Zina</t>
-        </is>
-      </c>
-      <c r="F4" s="20" t="inlineStr">
-        <is>
-          <t>7,28</t>
-        </is>
-      </c>
-      <c r="G4" s="26" t="inlineStr">
+      <c r="E4" s="26" t="inlineStr">
         <is>
           <t>5 min 15 s</t>
         </is>
       </c>
-      <c r="H4" s="20">
-        <f>C5+H$5</f>
+      <c r="F4" s="20">
+        <f>C5+F$5</f>
         <v/>
       </c>
     </row>
@@ -11334,17 +11311,7 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E5" s="20" t="inlineStr">
-        <is>
-          <t>Aboubaker</t>
-        </is>
-      </c>
-      <c r="F5" s="20" t="inlineStr">
-        <is>
-          <t>7,98</t>
-        </is>
-      </c>
-      <c r="G5" s="26" t="inlineStr">
+      <c r="E5" s="26" t="inlineStr">
         <is>
           <t>7 min 57 s</t>
         </is>
@@ -11371,17 +11338,7 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E6" s="20" t="inlineStr">
-        <is>
-          <t>Yasmine</t>
-        </is>
-      </c>
-      <c r="F6" s="20" t="inlineStr">
-        <is>
-          <t>7,83</t>
-        </is>
-      </c>
-      <c r="G6" s="26" t="inlineStr">
+      <c r="E6" s="26" t="inlineStr">
         <is>
           <t>7 min 44 s</t>
         </is>
@@ -11408,17 +11365,7 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E7" s="20" t="inlineStr">
-        <is>
-          <t>Hassan Mahamat</t>
-        </is>
-      </c>
-      <c r="F7" s="20" t="inlineStr">
-        <is>
-          <t>7,52</t>
-        </is>
-      </c>
-      <c r="G7" s="29" t="inlineStr">
+      <c r="E7" s="29" t="inlineStr">
         <is>
           <t>23 min 37 s</t>
         </is>
@@ -11445,17 +11392,7 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E8" s="20" t="inlineStr">
-        <is>
-          <t>Yacine</t>
-        </is>
-      </c>
-      <c r="F8" s="20" t="inlineStr">
-        <is>
-          <t>8,07</t>
-        </is>
-      </c>
-      <c r="G8" s="26" t="inlineStr">
+      <c r="E8" s="26" t="inlineStr">
         <is>
           <t>4 min 17 s</t>
         </is>
@@ -11482,17 +11419,7 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E9" s="20" t="inlineStr">
-        <is>
-          <t>Paola</t>
-        </is>
-      </c>
-      <c r="F9" s="20" t="inlineStr">
-        <is>
-          <t>7,16</t>
-        </is>
-      </c>
-      <c r="G9" s="26" t="inlineStr">
+      <c r="E9" s="26" t="inlineStr">
         <is>
           <t>8 min 33 s</t>
         </is>
@@ -11519,17 +11446,7 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E10" s="33" t="inlineStr">
-        <is>
-          <t>Rodolphe</t>
-        </is>
-      </c>
-      <c r="F10" s="20" t="inlineStr">
-        <is>
-          <t>8,88</t>
-        </is>
-      </c>
-      <c r="G10" s="26" t="inlineStr">
+      <c r="E10" s="26" t="inlineStr">
         <is>
           <t>15 min 32 s</t>
         </is>
@@ -11556,17 +11473,7 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E11" s="20" t="inlineStr">
-        <is>
-          <t>Nouh</t>
-        </is>
-      </c>
-      <c r="F11" s="20" t="inlineStr">
-        <is>
-          <t>7,35</t>
-        </is>
-      </c>
-      <c r="G11" s="26" t="inlineStr">
+      <c r="E11" s="26" t="inlineStr">
         <is>
           <t>9 min 27 s</t>
         </is>
@@ -11593,17 +11500,7 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E12" s="20" t="inlineStr">
-        <is>
-          <t>Iness</t>
-        </is>
-      </c>
-      <c r="F12" s="20" t="inlineStr">
-        <is>
-          <t>6,51</t>
-        </is>
-      </c>
-      <c r="G12" s="26" t="inlineStr">
+      <c r="E12" s="26" t="inlineStr">
         <is>
           <t>10 min 33 s</t>
         </is>
@@ -11630,17 +11527,7 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E13" s="20" t="inlineStr">
-        <is>
-          <t>Zakaria</t>
-        </is>
-      </c>
-      <c r="F13" s="20" t="inlineStr">
-        <is>
-          <t>7,70</t>
-        </is>
-      </c>
-      <c r="G13" s="26" t="inlineStr">
+      <c r="E13" s="26" t="inlineStr">
         <is>
           <t>9 min 14 s</t>
         </is>
@@ -11667,17 +11554,7 @@
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E14" s="33" t="inlineStr">
-        <is>
-          <t>Christian</t>
-        </is>
-      </c>
-      <c r="F14" s="20" t="inlineStr">
-        <is>
-          <t>6,72</t>
-        </is>
-      </c>
-      <c r="G14" s="29" t="inlineStr">
+      <c r="E14" s="29" t="inlineStr">
         <is>
           <t>21 min 49 s</t>
         </is>
@@ -11705,15 +11582,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.97" customWidth="1" style="20" min="1" max="16384"/>
+    <col width="11.53" customWidth="1" style="20" min="16383" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="23">
@@ -11739,12 +11616,12 @@
       </c>
       <c r="E1" s="20" t="inlineStr">
         <is>
-          <t>Colonne insérée 1</t>
+          <t>Prénom</t>
         </is>
       </c>
       <c r="F1" s="20" t="inlineStr">
         <is>
-          <t>Colonne insérée 2</t>
+          <t>Note/10,00</t>
         </is>
       </c>
       <c r="G1" s="20" t="inlineStr">
@@ -11784,7 +11661,7 @@
           <t>7,83</t>
         </is>
       </c>
-      <c r="G2" s="20" t="inlineStr">
+      <c r="G2" s="26" t="inlineStr">
         <is>
           <t>5 min 49 s</t>
         </is>
@@ -11821,47 +11698,51 @@
           <t>7,83</t>
         </is>
       </c>
-      <c r="G3" s="20" t="inlineStr">
+      <c r="G3" s="26" t="inlineStr">
         <is>
           <t>7 min 22 s</t>
         </is>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="23">
-      <c r="A4" s="42" t="inlineStr">
+      <c r="A4" s="20" t="inlineStr">
         <is>
           <t>Abbas</t>
         </is>
       </c>
-      <c r="B4" s="42" t="inlineStr">
+      <c r="B4" s="20" t="inlineStr">
         <is>
           <t>Zina</t>
         </is>
       </c>
-      <c r="C4" s="42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" s="42" t="inlineStr">
+      <c r="C4" s="20" t="inlineStr">
+        <is>
+          <t>zina.abbas@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D4" s="20" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E4" s="42" t="inlineStr">
+      <c r="E4" s="20" t="inlineStr">
         <is>
           <t>Zina</t>
         </is>
       </c>
-      <c r="F4" s="42" t="inlineStr">
+      <c r="F4" s="20" t="inlineStr">
         <is>
           <t>7,28</t>
         </is>
       </c>
-      <c r="G4" s="42" t="inlineStr">
+      <c r="G4" s="26" t="inlineStr">
         <is>
           <t>5 min 15 s</t>
         </is>
+      </c>
+      <c r="H4" s="20">
+        <f>C5+H$5</f>
+        <v/>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="23">
@@ -11895,7 +11776,7 @@
           <t>7,98</t>
         </is>
       </c>
-      <c r="G5" s="20" t="inlineStr">
+      <c r="G5" s="26" t="inlineStr">
         <is>
           <t>7 min 57 s</t>
         </is>
@@ -11932,44 +11813,44 @@
           <t>7,83</t>
         </is>
       </c>
-      <c r="G6" s="20" t="inlineStr">
+      <c r="G6" s="26" t="inlineStr">
         <is>
           <t>7 min 44 s</t>
         </is>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="23">
-      <c r="A7" s="42" t="inlineStr">
+      <c r="A7" s="20" t="inlineStr">
         <is>
           <t>Abdelgow</t>
         </is>
       </c>
-      <c r="B7" s="42" t="inlineStr">
+      <c r="B7" s="20" t="inlineStr">
         <is>
           <t>Hassan Mahamat</t>
         </is>
       </c>
-      <c r="C7" s="42" t="inlineStr">
+      <c r="C7" s="20" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D7" s="42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E7" s="42" t="inlineStr">
+      <c r="D7" s="20" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E7" s="20" t="inlineStr">
         <is>
           <t>Hassan Mahamat</t>
         </is>
       </c>
-      <c r="F7" s="42" t="inlineStr">
+      <c r="F7" s="20" t="inlineStr">
         <is>
           <t>7,52</t>
         </is>
       </c>
-      <c r="G7" s="42" t="inlineStr">
+      <c r="G7" s="29" t="inlineStr">
         <is>
           <t>23 min 37 s</t>
         </is>
@@ -12006,7 +11887,7 @@
           <t>8,07</t>
         </is>
       </c>
-      <c r="G8" s="20" t="inlineStr">
+      <c r="G8" s="26" t="inlineStr">
         <is>
           <t>4 min 17 s</t>
         </is>
@@ -12043,44 +11924,44 @@
           <t>7,16</t>
         </is>
       </c>
-      <c r="G9" s="20" t="inlineStr">
+      <c r="G9" s="26" t="inlineStr">
         <is>
           <t>8 min 33 s</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="23">
-      <c r="A10" s="42" t="inlineStr">
+      <c r="A10" s="33" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B10" s="42" t="inlineStr">
+      <c r="B10" s="33" t="inlineStr">
         <is>
           <t>Rodolphe</t>
         </is>
       </c>
-      <c r="C10" s="42" t="inlineStr">
+      <c r="C10" s="20" t="inlineStr">
         <is>
           <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D10" s="42" t="inlineStr">
+      <c r="D10" s="20" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E10" s="42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" s="42" t="inlineStr">
+      <c r="E10" s="33" t="inlineStr">
+        <is>
+          <t>Rodolphe</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
-      <c r="G10" s="42" t="inlineStr">
+      <c r="G10" s="26" t="inlineStr">
         <is>
           <t>15 min 32 s</t>
         </is>
@@ -12117,44 +11998,44 @@
           <t>7,35</t>
         </is>
       </c>
-      <c r="G11" s="20" t="inlineStr">
+      <c r="G11" s="26" t="inlineStr">
         <is>
           <t>9 min 27 s</t>
         </is>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="23">
-      <c r="A12" s="42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B12" s="42" t="inlineStr">
+      <c r="A12" s="20" t="inlineStr">
+        <is>
+          <t>Abdenbaoui</t>
+        </is>
+      </c>
+      <c r="B12" s="20" t="inlineStr">
         <is>
           <t>Iness</t>
         </is>
       </c>
-      <c r="C12" s="42" t="inlineStr">
+      <c r="C12" s="20" t="inlineStr">
         <is>
           <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D12" s="42" t="inlineStr">
+      <c r="D12" s="20" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E12" s="42" t="inlineStr">
+      <c r="E12" s="20" t="inlineStr">
         <is>
           <t>Iness</t>
         </is>
       </c>
-      <c r="F12" s="42" t="inlineStr">
+      <c r="F12" s="20" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G12" s="42" t="inlineStr">
+      <c r="G12" s="26" t="inlineStr">
         <is>
           <t>10 min 33 s</t>
         </is>
@@ -12191,44 +12072,44 @@
           <t>7,70</t>
         </is>
       </c>
-      <c r="G13" s="20" t="inlineStr">
+      <c r="G13" s="26" t="inlineStr">
         <is>
           <t>9 min 14 s</t>
         </is>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="23">
-      <c r="A14" s="42" t="inlineStr">
+      <c r="A14" s="33" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B14" s="42" t="inlineStr">
+      <c r="B14" s="33" t="inlineStr">
         <is>
           <t>Christian</t>
         </is>
       </c>
-      <c r="C14" s="42" t="inlineStr">
+      <c r="C14" s="20" t="inlineStr">
         <is>
           <t>christian.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D14" s="42" t="inlineStr">
+      <c r="D14" s="20" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E14" s="42" t="inlineStr">
+      <c r="E14" s="33" t="inlineStr">
         <is>
           <t>Christian</t>
         </is>
       </c>
-      <c r="F14" s="42" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G14" s="42" t="inlineStr">
+      <c r="F14" s="20" t="inlineStr">
+        <is>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="G14" s="29" t="inlineStr">
         <is>
           <t>21 min 49 s</t>
         </is>
@@ -12256,101 +12137,532 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.31" customWidth="1" style="20" min="1" max="2"/>
-    <col width="11.52" customWidth="1" style="20" min="952" max="978"/>
-    <col width="11.53" customWidth="1" style="20" min="16339" max="16384"/>
+    <col width="11.97" customWidth="1" style="20" min="1" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="23">
+    <row r="1" ht="15.75" customHeight="1" s="23">
       <c r="A1" s="20" t="inlineStr">
         <is>
           <t>Nom</t>
         </is>
       </c>
-      <c r="B1" s="21" t="inlineStr">
-        <is>
-          <t>Réponse 2</t>
-        </is>
-      </c>
-      <c r="C1" s="24" t="inlineStr">
-        <is>
-          <t>Les chromosomes du père déterminent si le bébé est un garçon ou une fille</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1" s="23">
+      <c r="B1" s="20" t="inlineStr">
+        <is>
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="C1" s="20" t="inlineStr">
+        <is>
+          <t>Adresse de courriel</t>
+        </is>
+      </c>
+      <c r="D1" s="20" t="inlineStr">
+        <is>
+          <t>État</t>
+        </is>
+      </c>
+      <c r="E1" s="20" t="inlineStr">
+        <is>
+          <t>Colonne insérée 1</t>
+        </is>
+      </c>
+      <c r="F1" s="20" t="inlineStr">
+        <is>
+          <t>Colonne insérée 2</t>
+        </is>
+      </c>
+      <c r="G1" s="20" t="inlineStr">
+        <is>
+          <t>Temps utilisé</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" s="23">
       <c r="A2" s="20" t="inlineStr">
         <is>
+          <t>Abdulhoussen</t>
+        </is>
+      </c>
+      <c r="B2" s="20" t="inlineStr">
+        <is>
+          <t>Houzefa</t>
+        </is>
+      </c>
+      <c r="C2" s="20" t="inlineStr">
+        <is>
+          <t>houzefa.abdulhoussen@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D2" s="20" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E2" s="20" t="inlineStr">
+        <is>
+          <t>Houzefa</t>
+        </is>
+      </c>
+      <c r="F2" s="20" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G2" s="20" t="inlineStr">
+        <is>
+          <t>5 min 49 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="23">
+      <c r="A3" s="20" t="inlineStr">
+        <is>
+          <t>Abdel Moneim</t>
+        </is>
+      </c>
+      <c r="B3" s="20" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="C3" s="20" t="inlineStr">
+        <is>
+          <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D3" s="20" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E3" s="20" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="F3" s="20" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G3" s="20" t="inlineStr">
+        <is>
+          <t>7 min 22 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="23">
+      <c r="A4" s="38" t="inlineStr">
+        <is>
+          <t>Abbas</t>
+        </is>
+      </c>
+      <c r="B4" s="38" t="inlineStr">
+        <is>
+          <t>Zina</t>
+        </is>
+      </c>
+      <c r="C4" s="38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" s="38" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E4" s="38" t="inlineStr">
+        <is>
+          <t>Zina</t>
+        </is>
+      </c>
+      <c r="F4" s="38" t="inlineStr">
+        <is>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="G4" s="38" t="inlineStr">
+        <is>
+          <t>5 min 15 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="23">
+      <c r="A5" s="20" t="inlineStr">
+        <is>
+          <t>Abdallah</t>
+        </is>
+      </c>
+      <c r="B5" s="20" t="inlineStr">
+        <is>
+          <t>Aboubaker</t>
+        </is>
+      </c>
+      <c r="C5" s="20" t="inlineStr">
+        <is>
+          <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D5" s="20" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E5" s="20" t="inlineStr">
+        <is>
+          <t>Aboubaker</t>
+        </is>
+      </c>
+      <c r="F5" s="20" t="inlineStr">
+        <is>
+          <t>7,98</t>
+        </is>
+      </c>
+      <c r="G5" s="20" t="inlineStr">
+        <is>
+          <t>7 min 57 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="23">
+      <c r="A6" s="20" t="inlineStr">
+        <is>
+          <t>Abdelali</t>
+        </is>
+      </c>
+      <c r="B6" s="20" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t>yasmine.abdelali@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D6" s="20" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E6" s="20" t="inlineStr">
+        <is>
+          <t>Yasmine</t>
+        </is>
+      </c>
+      <c r="F6" s="20" t="inlineStr">
+        <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="G6" s="20" t="inlineStr">
+        <is>
+          <t>7 min 44 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="23">
+      <c r="A7" s="38" t="inlineStr">
+        <is>
+          <t>Abdelgow</t>
+        </is>
+      </c>
+      <c r="B7" s="38" t="inlineStr">
+        <is>
+          <t>Hassan Mahamat</t>
+        </is>
+      </c>
+      <c r="C7" s="38" t="inlineStr">
+        <is>
+          <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D7" s="38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" s="38" t="inlineStr">
+        <is>
+          <t>Hassan Mahamat</t>
+        </is>
+      </c>
+      <c r="F7" s="38" t="inlineStr">
+        <is>
+          <t>7,52</t>
+        </is>
+      </c>
+      <c r="G7" s="38" t="inlineStr">
+        <is>
+          <t>23 min 37 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="23">
+      <c r="A8" s="20" t="inlineStr">
+        <is>
+          <t>Abdelkarim</t>
+        </is>
+      </c>
+      <c r="B8" s="20" t="inlineStr">
+        <is>
+          <t>Yacine</t>
+        </is>
+      </c>
+      <c r="C8" s="20" t="inlineStr">
+        <is>
+          <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D8" s="20" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t>Yacine</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="inlineStr">
+        <is>
+          <t>8,07</t>
+        </is>
+      </c>
+      <c r="G8" s="20" t="inlineStr">
+        <is>
+          <t>4 min 17 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="23">
+      <c r="A9" s="20" t="inlineStr">
+        <is>
           <t>Aatif Mieulet</t>
         </is>
       </c>
-      <c r="B2" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
-        </is>
-      </c>
-      <c r="C2" s="20" t="inlineStr">
-        <is>
-          <t>partie 1 : Vrai</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" s="23">
-      <c r="A3" s="20" t="inlineStr">
-        <is>
-          <t>Abbas</t>
-        </is>
-      </c>
-      <c r="B3" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">partie 1 : Vrai; partie 2 : Vrai; partie 3 : Vrai </t>
-        </is>
-      </c>
-      <c r="C3" s="20" t="inlineStr">
-        <is>
-          <t>partie 1 : Vrai</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" s="23">
-      <c r="A4" s="20" t="inlineStr">
-        <is>
-          <t>Abdallah</t>
-        </is>
-      </c>
-      <c r="B4" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
-        </is>
-      </c>
-      <c r="C4" s="20" t="inlineStr">
-        <is>
-          <t>partie 1 : Vrai</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="23">
-      <c r="A5" s="20" t="inlineStr">
-        <is>
-          <t>Abdel Moneim</t>
-        </is>
-      </c>
-      <c r="B5" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
-        </is>
-      </c>
-      <c r="C5" s="20" t="inlineStr">
-        <is>
-          <t>partie 1 : Faux</t>
+      <c r="B9" s="20" t="inlineStr">
+        <is>
+          <t>Paola</t>
+        </is>
+      </c>
+      <c r="C9" s="20" t="inlineStr">
+        <is>
+          <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D9" s="20" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E9" s="20" t="inlineStr">
+        <is>
+          <t>Paola</t>
+        </is>
+      </c>
+      <c r="F9" s="20" t="inlineStr">
+        <is>
+          <t>7,16</t>
+        </is>
+      </c>
+      <c r="G9" s="20" t="inlineStr">
+        <is>
+          <t>8 min 33 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="23">
+      <c r="A10" s="38" t="inlineStr">
+        <is>
+          <t>Abi Rizk</t>
+        </is>
+      </c>
+      <c r="B10" s="38" t="inlineStr">
+        <is>
+          <t>Rodolphe</t>
+        </is>
+      </c>
+      <c r="C10" s="38" t="inlineStr">
+        <is>
+          <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D10" s="38" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E10" s="38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" s="38" t="inlineStr">
+        <is>
+          <t>8,88</t>
+        </is>
+      </c>
+      <c r="G10" s="38" t="inlineStr">
+        <is>
+          <t>15 min 32 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="23">
+      <c r="A11" s="20" t="inlineStr">
+        <is>
+          <t>Abdelhadi</t>
+        </is>
+      </c>
+      <c r="B11" s="20" t="inlineStr">
+        <is>
+          <t>Nouh</t>
+        </is>
+      </c>
+      <c r="C11" s="20" t="inlineStr">
+        <is>
+          <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D11" s="20" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E11" s="20" t="inlineStr">
+        <is>
+          <t>Nouh</t>
+        </is>
+      </c>
+      <c r="F11" s="20" t="inlineStr">
+        <is>
+          <t>7,35</t>
+        </is>
+      </c>
+      <c r="G11" s="20" t="inlineStr">
+        <is>
+          <t>9 min 27 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="23">
+      <c r="A12" s="38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B12" s="38" t="inlineStr">
+        <is>
+          <t>Iness</t>
+        </is>
+      </c>
+      <c r="C12" s="38" t="inlineStr">
+        <is>
+          <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D12" s="38" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E12" s="38" t="inlineStr">
+        <is>
+          <t>Iness</t>
+        </is>
+      </c>
+      <c r="F12" s="38" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="G12" s="38" t="inlineStr">
+        <is>
+          <t>10 min 33 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="23">
+      <c r="A13" s="20" t="inlineStr">
+        <is>
+          <t>Abed Meraim</t>
+        </is>
+      </c>
+      <c r="B13" s="20" t="inlineStr">
+        <is>
+          <t>Zakaria</t>
+        </is>
+      </c>
+      <c r="C13" s="20" t="inlineStr">
+        <is>
+          <t>20221641@etud.univ-evry.fr</t>
+        </is>
+      </c>
+      <c r="D13" s="20" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E13" s="20" t="inlineStr">
+        <is>
+          <t>Zakaria</t>
+        </is>
+      </c>
+      <c r="F13" s="20" t="inlineStr">
+        <is>
+          <t>7,70</t>
+        </is>
+      </c>
+      <c r="G13" s="20" t="inlineStr">
+        <is>
+          <t>9 min 14 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" s="23">
+      <c r="A14" s="38" t="inlineStr">
+        <is>
+          <t>Abi Rizk</t>
+        </is>
+      </c>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="C14" s="38" t="inlineStr">
+        <is>
+          <t>christian.abi-rizk@universite-paris-saclay.fr</t>
+        </is>
+      </c>
+      <c r="D14" s="38" t="inlineStr">
+        <is>
+          <t>Terminé</t>
+        </is>
+      </c>
+      <c r="E14" s="38" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="F14" s="38" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G14" s="38" t="inlineStr">
+        <is>
+          <t>21 min 49 s</t>
         </is>
       </c>
     </row>
@@ -12366,6 +12678,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12375,19 +12688,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.31" customWidth="1" style="20" min="1" max="3"/>
-    <col width="21.53" customWidth="1" style="20" min="4" max="4"/>
-    <col width="11.31" customWidth="1" style="20" min="5" max="5"/>
-    <col width="13.5" customWidth="1" style="20" min="6" max="6"/>
-    <col width="11.91" customWidth="1" style="20" min="7" max="16384"/>
+    <col width="11.31" customWidth="1" style="20" min="1" max="2"/>
+    <col width="11.52" customWidth="1" style="20" min="948" max="974"/>
+    <col width="11.53" customWidth="1" style="20" min="16335" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="23">
@@ -12401,7 +12712,7 @@
           <t>Réponse 2</t>
         </is>
       </c>
-      <c r="F1" s="24" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>Les chromosomes du père déterminent si le bébé est un garçon ou une fille</t>
         </is>
@@ -12418,29 +12729,14 @@
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="C2" s="40" t="inlineStr">
+      <c r="C2" s="20" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
       </c>
-      <c r="D2" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 2 : Faux</t>
-        </is>
-      </c>
-      <c r="E2" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 3 : Vrai </t>
-        </is>
-      </c>
-      <c r="F2" s="41" t="inlineStr">
-        <is>
-          <t>partie 1 : Vrai</t>
-        </is>
-      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="23">
-      <c r="A3" s="41" t="inlineStr">
+      <c r="A3" s="20" t="inlineStr">
         <is>
           <t>Abbas</t>
         </is>
@@ -12450,22 +12746,7 @@
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Vrai; partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="C3" s="40" t="inlineStr">
-        <is>
-          <t>partie 1 : Vrai</t>
-        </is>
-      </c>
-      <c r="D3" s="40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 2 : Vrai</t>
-        </is>
-      </c>
-      <c r="E3" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 3 : Vrai </t>
-        </is>
-      </c>
-      <c r="F3" s="41" t="inlineStr">
+      <c r="C3" s="20" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
@@ -12482,22 +12763,7 @@
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="C4" s="40" t="inlineStr">
-        <is>
-          <t>partie 1 : Vrai</t>
-        </is>
-      </c>
-      <c r="D4" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 2 : Faux</t>
-        </is>
-      </c>
-      <c r="E4" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 3 : Vrai </t>
-        </is>
-      </c>
-      <c r="F4" s="41" t="inlineStr">
+      <c r="C4" s="20" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
@@ -12514,22 +12780,7 @@
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="C5" s="40" t="inlineStr">
-        <is>
-          <t>partie 1 : Vrai</t>
-        </is>
-      </c>
-      <c r="D5" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 2 : Faux</t>
-        </is>
-      </c>
-      <c r="E5" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> partie 3 : Vrai </t>
-        </is>
-      </c>
-      <c r="F5" s="20" t="inlineStr">
+      <c r="C5" s="20" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -94,7 +94,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -161,6 +161,11 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000a933"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -181,7 +186,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -298,6 +303,15 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -475,7 +489,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
               </a:p>
             </txPr>
@@ -638,7 +652,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -690,7 +704,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -819,7 +833,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
               </a:p>
             </txPr>
@@ -982,7 +996,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -1034,7 +1048,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -1164,7 +1178,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
               </a:p>
             </txPr>
@@ -1327,7 +1341,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -1379,7 +1393,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -1509,7 +1523,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
               </a:p>
             </txPr>
@@ -1672,7 +1686,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -1724,7 +1738,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -1854,7 +1868,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
               </a:p>
             </txPr>
@@ -2017,7 +2031,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -2069,7 +2083,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -2199,7 +2213,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
               </a:p>
             </txPr>
@@ -2362,7 +2376,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -2414,7 +2428,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -2544,7 +2558,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
               </a:p>
             </txPr>
@@ -2707,7 +2721,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -2759,7 +2773,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </txPr>
@@ -3191,7 +3205,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.09" customWidth="1" style="20" min="1" max="7"/>
     <col width="140.36" customWidth="1" style="20" min="8" max="8"/>
@@ -8264,7 +8278,7 @@
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="20" min="1" max="3"/>
     <col width="21.53" customWidth="1" style="20" min="4" max="4"/>
@@ -8301,7 +8315,7 @@
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="C2" s="21" t="inlineStr">
+      <c r="C2" s="40" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
@@ -8316,7 +8330,7 @@
           <t xml:space="preserve"> partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="F2" s="20" t="inlineStr">
+      <c r="F2" s="41" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
@@ -8328,7 +8342,7 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="23">
-      <c r="A3" s="20" t="inlineStr">
+      <c r="A3" s="41" t="inlineStr">
         <is>
           <t>Abbas</t>
         </is>
@@ -8338,7 +8352,7 @@
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Vrai; partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="C3" s="21" t="inlineStr">
+      <c r="C3" s="40" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
@@ -8353,7 +8367,7 @@
           <t xml:space="preserve"> partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="F3" s="20" t="inlineStr">
+      <c r="F3" s="41" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
@@ -8373,7 +8387,7 @@
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="C4" s="21" t="inlineStr">
+      <c r="C4" s="40" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
@@ -8388,7 +8402,7 @@
           <t xml:space="preserve"> partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="F4" s="20" t="inlineStr">
+      <c r="F4" s="41" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
@@ -8410,7 +8424,7 @@
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
         </is>
       </c>
-      <c r="C5" s="21" t="inlineStr">
+      <c r="C5" s="40" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
@@ -8472,7 +8486,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
   </cols>
@@ -8836,7 +8850,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
   </cols>
@@ -9186,7 +9200,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.53" customWidth="1" style="20" min="16345" max="16384"/>
   </cols>
@@ -9356,7 +9370,7 @@
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.53" customWidth="1" style="20" min="16361" max="16384"/>
   </cols>
@@ -9540,13 +9554,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.2109375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.2109375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.08" customWidth="1" style="20" min="6" max="6"/>
     <col width="11.52" customWidth="1" style="20" min="932" max="1009"/>
@@ -9559,12 +9573,12 @@
           <t>Test !!!!</t>
         </is>
       </c>
-      <c r="G1" s="24" t="inlineStr">
+      <c r="H1" s="24" t="inlineStr">
         <is>
           <t>Le cerveau est constitué uniquement de neurones</t>
         </is>
       </c>
-      <c r="L1" s="24" t="inlineStr">
+      <c r="M1" s="24" t="inlineStr">
         <is>
           <t>accuracy_Q27</t>
         </is>
@@ -9574,14 +9588,14 @@
       <c r="F2" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="20" t="inlineStr">
+      <c r="G2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="H2" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" s="20" t="n">
         <v>0</v>
       </c>
@@ -9589,9 +9603,12 @@
         <v>0</v>
       </c>
       <c r="K2" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9604,14 +9621,14 @@
       <c r="F3" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="20" t="inlineStr">
+      <c r="G3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="H3" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" s="20" t="n">
         <v>0</v>
       </c>
@@ -9619,9 +9636,12 @@
         <v>0</v>
       </c>
       <c r="K3" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9639,14 +9659,14 @@
       <c r="F4" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="20" t="inlineStr">
+      <c r="G4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="H4" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" s="20" t="n">
         <v>0</v>
       </c>
@@ -9654,9 +9674,12 @@
         <v>0</v>
       </c>
       <c r="K4" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9669,14 +9692,14 @@
       <c r="F5" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="20" t="inlineStr">
+      <c r="G5" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="H5" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" s="20" t="n">
         <v>0</v>
       </c>
@@ -9684,9 +9707,12 @@
         <v>0</v>
       </c>
       <c r="K5" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9704,14 +9730,14 @@
       <c r="F6" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="20" t="inlineStr">
+      <c r="G6" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="H6" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" s="20" t="n">
         <v>0</v>
       </c>
@@ -9719,9 +9745,12 @@
         <v>0</v>
       </c>
       <c r="K6" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9734,14 +9763,14 @@
       <c r="F7" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="20" t="inlineStr">
+      <c r="G7" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="H7" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" s="20" t="n">
         <v>0</v>
       </c>
@@ -9749,9 +9778,12 @@
         <v>0</v>
       </c>
       <c r="K7" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9759,14 +9791,14 @@
       <c r="F8" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="20" t="inlineStr">
+      <c r="G8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="H8" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" s="20" t="n">
         <v>0</v>
       </c>
@@ -9777,6 +9809,9 @@
         <v>0</v>
       </c>
       <c r="L8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9784,14 +9819,14 @@
       <c r="F9" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="20" t="inlineStr">
+      <c r="G9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="H9" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" s="20" t="n">
         <v>0</v>
       </c>
@@ -9799,9 +9834,12 @@
         <v>0</v>
       </c>
       <c r="K9" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9809,14 +9847,14 @@
       <c r="F10" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="20" t="inlineStr">
+      <c r="G10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="H10" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" s="20" t="n">
         <v>0</v>
       </c>
@@ -9827,6 +9865,9 @@
         <v>0</v>
       </c>
       <c r="L10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9834,14 +9875,14 @@
       <c r="F11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="20" t="inlineStr">
+      <c r="G11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="H11" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" s="20" t="n">
         <v>0</v>
       </c>
@@ -9849,9 +9890,12 @@
         <v>0</v>
       </c>
       <c r="K11" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9859,14 +9903,14 @@
       <c r="F12" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="20" t="inlineStr">
+      <c r="G12" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="H12" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" s="20" t="n">
         <v>0</v>
       </c>
@@ -9874,9 +9918,12 @@
         <v>0</v>
       </c>
       <c r="K12" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9884,14 +9931,14 @@
       <c r="F13" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="20" t="inlineStr">
+      <c r="G13" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="H13" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" s="20" t="n">
         <v>0</v>
       </c>
@@ -9899,9 +9946,12 @@
         <v>0</v>
       </c>
       <c r="K13" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9909,14 +9959,14 @@
       <c r="F14" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="20" t="inlineStr">
+      <c r="G14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="H14" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" s="20" t="n">
         <v>0</v>
       </c>
@@ -9924,9 +9974,12 @@
         <v>0</v>
       </c>
       <c r="K14" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9957,7 +10010,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.2109375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.2109375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.08" customWidth="1" style="20" min="6" max="6"/>
     <col width="11.52" customWidth="1" style="20" min="932" max="1009"/>
@@ -10368,7 +10421,7 @@
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
   </cols>
@@ -10770,7 +10823,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.54" customWidth="1" style="20" min="1" max="1024"/>
   </cols>
@@ -11172,7 +11225,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.53" customWidth="1" style="20" min="16341" max="16384"/>
   </cols>
@@ -11588,7 +11641,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.53" customWidth="1" style="20" min="16383" max="16384"/>
   </cols>
@@ -12143,7 +12196,7 @@
       <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.97" customWidth="1" style="20" min="1" max="16384"/>
   </cols>
@@ -12260,37 +12313,37 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="23">
-      <c r="A4" s="38" t="inlineStr">
+      <c r="A4" s="42" t="inlineStr">
         <is>
           <t>Abbas</t>
         </is>
       </c>
-      <c r="B4" s="38" t="inlineStr">
+      <c r="B4" s="42" t="inlineStr">
         <is>
           <t>Zina</t>
         </is>
       </c>
-      <c r="C4" s="38" t="inlineStr">
+      <c r="C4" s="42" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D4" s="38" t="inlineStr">
+      <c r="D4" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E4" s="38" t="inlineStr">
+      <c r="E4" s="42" t="inlineStr">
         <is>
           <t>Zina</t>
         </is>
       </c>
-      <c r="F4" s="38" t="inlineStr">
+      <c r="F4" s="42" t="inlineStr">
         <is>
           <t>7,28</t>
         </is>
       </c>
-      <c r="G4" s="38" t="inlineStr">
+      <c r="G4" s="42" t="inlineStr">
         <is>
           <t>5 min 15 s</t>
         </is>
@@ -12371,37 +12424,37 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="23">
-      <c r="A7" s="38" t="inlineStr">
+      <c r="A7" s="42" t="inlineStr">
         <is>
           <t>Abdelgow</t>
         </is>
       </c>
-      <c r="B7" s="38" t="inlineStr">
+      <c r="B7" s="42" t="inlineStr">
         <is>
           <t>Hassan Mahamat</t>
         </is>
       </c>
-      <c r="C7" s="38" t="inlineStr">
+      <c r="C7" s="42" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D7" s="38" t="inlineStr">
+      <c r="D7" s="42" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E7" s="38" t="inlineStr">
+      <c r="E7" s="42" t="inlineStr">
         <is>
           <t>Hassan Mahamat</t>
         </is>
       </c>
-      <c r="F7" s="38" t="inlineStr">
+      <c r="F7" s="42" t="inlineStr">
         <is>
           <t>7,52</t>
         </is>
       </c>
-      <c r="G7" s="38" t="inlineStr">
+      <c r="G7" s="42" t="inlineStr">
         <is>
           <t>23 min 37 s</t>
         </is>
@@ -12482,37 +12535,37 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="23">
-      <c r="A10" s="38" t="inlineStr">
+      <c r="A10" s="42" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B10" s="38" t="inlineStr">
+      <c r="B10" s="42" t="inlineStr">
         <is>
           <t>Rodolphe</t>
         </is>
       </c>
-      <c r="C10" s="38" t="inlineStr">
+      <c r="C10" s="42" t="inlineStr">
         <is>
           <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D10" s="38" t="inlineStr">
+      <c r="D10" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E10" s="38" t="inlineStr">
+      <c r="E10" s="42" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F10" s="38" t="inlineStr">
+      <c r="F10" s="42" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
-      <c r="G10" s="38" t="inlineStr">
+      <c r="G10" s="42" t="inlineStr">
         <is>
           <t>15 min 32 s</t>
         </is>
@@ -12556,37 +12609,37 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="23">
-      <c r="A12" s="38" t="inlineStr">
+      <c r="A12" s="42" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B12" s="38" t="inlineStr">
+      <c r="B12" s="42" t="inlineStr">
         <is>
           <t>Iness</t>
         </is>
       </c>
-      <c r="C12" s="38" t="inlineStr">
+      <c r="C12" s="42" t="inlineStr">
         <is>
           <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D12" s="38" t="inlineStr">
+      <c r="D12" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E12" s="38" t="inlineStr">
+      <c r="E12" s="42" t="inlineStr">
         <is>
           <t>Iness</t>
         </is>
       </c>
-      <c r="F12" s="38" t="inlineStr">
+      <c r="F12" s="42" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G12" s="38" t="inlineStr">
+      <c r="G12" s="42" t="inlineStr">
         <is>
           <t>10 min 33 s</t>
         </is>
@@ -12630,37 +12683,37 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="23">
-      <c r="A14" s="38" t="inlineStr">
+      <c r="A14" s="42" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B14" s="38" t="inlineStr">
+      <c r="B14" s="42" t="inlineStr">
         <is>
           <t>Christian</t>
         </is>
       </c>
-      <c r="C14" s="38" t="inlineStr">
+      <c r="C14" s="42" t="inlineStr">
         <is>
           <t>christian.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D14" s="38" t="inlineStr">
+      <c r="D14" s="42" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E14" s="38" t="inlineStr">
+      <c r="E14" s="42" t="inlineStr">
         <is>
           <t>Christian</t>
         </is>
       </c>
-      <c r="F14" s="38" t="inlineStr">
+      <c r="F14" s="42" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="G14" s="38" t="inlineStr">
+      <c r="G14" s="42" t="inlineStr">
         <is>
           <t>21 min 49 s</t>
         </is>
@@ -12688,13 +12741,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.9140625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.31" customWidth="1" style="20" min="1" max="2"/>
     <col width="11.52" customWidth="1" style="20" min="948" max="974"/>
@@ -12712,7 +12765,7 @@
           <t>Réponse 2</t>
         </is>
       </c>
-      <c r="C1" s="24" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Les chromosomes du père déterminent si le bébé est un garçon ou une fille</t>
         </is>
@@ -12734,6 +12787,21 @@
           <t>partie 1 : Vrai</t>
         </is>
       </c>
+      <c r="D2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 2 : Faux</t>
+        </is>
+      </c>
+      <c r="E2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="F2" s="20" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="23">
       <c r="A3" s="20" t="inlineStr">
@@ -12751,6 +12819,21 @@
           <t>partie 1 : Vrai</t>
         </is>
       </c>
+      <c r="D3" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 2 : Vrai</t>
+        </is>
+      </c>
+      <c r="E3" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="F3" s="20" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="23">
       <c r="A4" s="20" t="inlineStr">
@@ -12768,6 +12851,21 @@
           <t>partie 1 : Vrai</t>
         </is>
       </c>
+      <c r="D4" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 2 : Faux</t>
+        </is>
+      </c>
+      <c r="E4" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="F4" s="20" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="23">
       <c r="A5" s="20" t="inlineStr">
@@ -12781,6 +12879,21 @@
         </is>
       </c>
       <c r="C5" s="20" t="inlineStr">
+        <is>
+          <t>partie 1 : Vrai</t>
+        </is>
+      </c>
+      <c r="D5" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 2 : Faux</t>
+        </is>
+      </c>
+      <c r="E5" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> partie 3 : Vrai </t>
+        </is>
+      </c>
+      <c r="F5" s="20" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,8 +412,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.306378986866792"/>
-          <y val="0.036522633744856"/>
+          <x val="0.30639814872725"/>
+          <y val="0.0366559485530547"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -432,10 +432,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0127579737335835"/>
-          <y val="0.126414609053498"/>
-          <w val="0.960225140712946"/>
-          <h val="0.84863683127572"/>
+          <x val="0.0127587716555132"/>
+          <y val="0.126430868167203"/>
+          <w val="0.960160110075677"/>
+          <h val="0.848488745980707"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -608,11 +608,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="27030680"/>
-        <axId val="52412455"/>
+        <axId val="93924197"/>
+        <axId val="19988085"/>
       </barChart>
       <catAx>
-        <axId val="27030680"/>
+        <axId val="93924197"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -647,7 +647,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="52412455"/>
+        <crossAx val="19988085"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -655,7 +655,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="52412455"/>
+        <axId val="19988085"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -699,7 +699,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="27030680"/>
+        <crossAx val="93924197"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -756,8 +756,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.306243306243306"/>
-          <y val="0.036522633744856"/>
+          <x val="0.306262600806452"/>
+          <y val="0.0366559485530547"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -776,10 +776,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0127890127890128"/>
-          <y val="0.126414609053498"/>
-          <w val="0.95980595980596"/>
-          <h val="0.84863683127572"/>
+          <x val="0.0127898185483871"/>
+          <y val="0.126430868167203"/>
+          <w val="0.959740423387097"/>
+          <h val="0.848488745980707"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -952,11 +952,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="21155409"/>
-        <axId val="40050850"/>
+        <axId val="79837500"/>
+        <axId val="28518525"/>
       </barChart>
       <catAx>
-        <axId val="21155409"/>
+        <axId val="79837500"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -991,7 +991,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="40050850"/>
+        <crossAx val="28518525"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -999,7 +999,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="40050850"/>
+        <axId val="28518525"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1043,7 +1043,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="21155409"/>
+        <crossAx val="79837500"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1100,8 +1100,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.306413002393852"/>
-          <y val="0.0367798353909465"/>
+          <x val="0.306432306432306"/>
+          <y val="0.0369131832797428"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1121,10 +1121,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0525387425979589"/>
-          <y val="0.146862139917695"/>
-          <w val="0.921191886103062"/>
-          <h val="0.807741769547325"/>
+          <x val="0.0525420525420525"/>
+          <y val="0.146881028938907"/>
+          <w val="0.9211239211239211"/>
+          <h val="0.8075884244372989"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1297,11 +1297,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="22178728"/>
-        <axId val="46711584"/>
+        <axId val="79897923"/>
+        <axId val="58552170"/>
       </barChart>
       <catAx>
-        <axId val="22178728"/>
+        <axId val="79897923"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1336,7 +1336,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="46711584"/>
+        <crossAx val="58552170"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1344,7 +1344,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="46711584"/>
+        <axId val="58552170"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1388,7 +1388,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="22178728"/>
+        <crossAx val="79897923"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1445,8 +1445,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.306475998488094"/>
-          <y val="0.0367798353909465"/>
+          <x val="0.306495306495307"/>
+          <y val="0.0369131832797428"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1466,10 +1466,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0525387425979589"/>
-          <y val="0.146862139917695"/>
-          <w val="0.921191886103062"/>
-          <h val="0.807741769547325"/>
+          <x val="0.0525420525420525"/>
+          <y val="0.146881028938907"/>
+          <w val="0.9211239211239211"/>
+          <h val="0.8075884244372989"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1642,11 +1642,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="39042115"/>
-        <axId val="99836153"/>
+        <axId val="20140759"/>
+        <axId val="81865055"/>
       </barChart>
       <catAx>
-        <axId val="39042115"/>
+        <axId val="20140759"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1681,7 +1681,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="99836153"/>
+        <crossAx val="81865055"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1689,7 +1689,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="99836153"/>
+        <axId val="81865055"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1733,7 +1733,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="39042115"/>
+        <crossAx val="20140759"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1790,8 +1790,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.306369306369306"/>
-          <y val="0.0367798353909465"/>
+          <x val="0.306388608870968"/>
+          <y val="0.0369131832797428"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1811,10 +1811,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0485100485100485"/>
-          <y val="0.146862139917695"/>
-          <w val="0.924084924084924"/>
-          <h val="0.80761316872428"/>
+          <x val="0.0485131048387097"/>
+          <y val="0.146881028938907"/>
+          <w val="0.924017137096774"/>
+          <h val="0.807459807073955"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1826,7 +1826,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>time_min!$AG$13:$AG$13</f>
+              <f>time_min!$AF$13:$AF$13</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -1873,7 +1873,7 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>time_min!$AH$12:$BM$12</f>
+              <f>time_min!$AG$12:$BL$12</f>
               <strCache>
                 <ptCount val="32"/>
                 <pt idx="0">
@@ -1977,7 +1977,7 @@
           </cat>
           <val>
             <numRef>
-              <f>time_min!$AH$13:$BM$13</f>
+              <f>time_min!$AG$13:$BL$13</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
@@ -1987,11 +1987,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="68121222"/>
-        <axId val="86841765"/>
+        <axId val="92727579"/>
+        <axId val="88261216"/>
       </barChart>
       <catAx>
-        <axId val="68121222"/>
+        <axId val="92727579"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2026,7 +2026,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="86841765"/>
+        <crossAx val="88261216"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2034,7 +2034,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="86841765"/>
+        <axId val="88261216"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -2078,7 +2078,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="68121222"/>
+        <crossAx val="92727579"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -2135,8 +2135,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.306369306369306"/>
-          <y val="0.0364011875564735"/>
+          <x val="0.306388608870968"/>
+          <y val="0.0365349857991221"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -2156,10 +2156,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0485100485100485"/>
-          <y val="0.146766490254292"/>
-          <w val="0.924084924084924"/>
-          <h val="0.807667484187427"/>
+          <x val="0.0485131048387097"/>
+          <y val="0.146785437645236"/>
+          <w val="0.924017137096774"/>
+          <h val="0.807513555383424"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -2332,11 +2332,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="47435458"/>
-        <axId val="89917584"/>
+        <axId val="67782603"/>
+        <axId val="47198003"/>
       </barChart>
       <catAx>
-        <axId val="47435458"/>
+        <axId val="67782603"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2371,7 +2371,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="89917584"/>
+        <crossAx val="47198003"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2379,7 +2379,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="89917584"/>
+        <axId val="47198003"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -2423,7 +2423,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="47435458"/>
+        <crossAx val="67782603"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -2480,8 +2480,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.306495306495307"/>
-          <y val="0.0371756809087389"/>
+          <x val="0.306514616935484"/>
+          <y val="0.0373095791376194"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -2501,10 +2501,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0485100485100485"/>
-          <y val="0.146766490254292"/>
-          <w val="0.924084924084924"/>
-          <h val="0.807667484187427"/>
+          <x val="0.0485131048387097"/>
+          <y val="0.146785437645236"/>
+          <w val="0.924017137096774"/>
+          <h val="0.807513555383424"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -2677,11 +2677,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="79012813"/>
-        <axId val="96399382"/>
+        <axId val="65227680"/>
+        <axId val="97130071"/>
       </barChart>
       <catAx>
-        <axId val="79012813"/>
+        <axId val="65227680"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2716,7 +2716,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="96399382"/>
+        <crossAx val="97130071"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2724,7 +2724,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="96399382"/>
+        <axId val="97130071"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -2768,7 +2768,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="79012813"/>
+        <crossAx val="65227680"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -2801,9 +2801,9 @@
     </from>
     <to>
       <col>99</col>
-      <colOff>188640</colOff>
+      <colOff>188280</colOff>
       <row>30</row>
-      <rowOff>102240</rowOff>
+      <rowOff>101880</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2833,9 +2833,9 @@
     </from>
     <to>
       <col>56</col>
-      <colOff>659880</colOff>
+      <colOff>659520</colOff>
       <row>30</row>
-      <rowOff>101880</rowOff>
+      <rowOff>101520</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2865,9 +2865,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>660240</colOff>
+      <colOff>659880</colOff>
       <row>30</row>
-      <rowOff>101160</rowOff>
+      <rowOff>100800</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2897,9 +2897,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>660240</colOff>
+      <colOff>659880</colOff>
       <row>30</row>
-      <rowOff>101160</rowOff>
+      <rowOff>100800</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2922,16 +2922,16 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
-      <col>54</col>
+      <col>53</col>
       <colOff>9720</colOff>
       <row>13</row>
       <rowOff>93600</rowOff>
     </from>
     <to>
-      <col>60</col>
+      <col>59</col>
       <colOff>659880</colOff>
       <row>30</row>
-      <rowOff>139680</rowOff>
+      <rowOff>139320</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2961,9 +2961,9 @@
     </from>
     <to>
       <col>76</col>
-      <colOff>660240</colOff>
+      <colOff>659880</colOff>
       <row>30</row>
-      <rowOff>129240</rowOff>
+      <rowOff>128880</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2988,9 +2988,9 @@
     </from>
     <to>
       <col>76</col>
-      <colOff>660240</colOff>
+      <colOff>659880</colOff>
       <row>30</row>
-      <rowOff>129240</rowOff>
+      <rowOff>128880</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -9179,13 +9179,13 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.53" customWidth="1" style="19" min="16345" max="16384"/>
+    <col width="11.53" customWidth="1" style="19" min="16344" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="22">
@@ -12726,7 +12726,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/fichiers_xls/test.xlsx
+++ b/fichiers_xls/test.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -58,15 +58,15 @@
       <name val="Arial"/>
       <charset val="1"/>
       <family val="2"/>
-      <color rgb="FF969696"/>
+      <b val="1"/>
+      <color rgb="FFFF00FF"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
       <charset val="1"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFF00FF"/>
+      <color rgb="FF969696"/>
       <sz val="10"/>
     </font>
     <font>
@@ -412,8 +412,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.30639814872725"/>
-          <y val="0.0366559485530547"/>
+          <x val="0.306436479639707"/>
+          <y val="0.0369226810755178"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -432,10 +432,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0127587716555132"/>
-          <y val="0.126430868167203"/>
-          <w val="0.960160110075677"/>
-          <h val="0.848488745980707"/>
+          <x val="0.0127603677988366"/>
+          <y val="0.126463398945066"/>
+          <w val="0.960030024394821"/>
+          <h val="0.848192461083237"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -447,7 +447,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>Feuille5!$AC$13:$AC$13</f>
+              <f>Feuille5!$W$13:$W$13</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -494,7 +494,7 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>Feuille5!$AD$12:$BI$12</f>
+              <f>Feuille5!$X$12:$BC$12</f>
               <strCache>
                 <ptCount val="32"/>
                 <pt idx="0">
@@ -598,7 +598,7 @@
           </cat>
           <val>
             <numRef>
-              <f>Feuille5!$AD$13:$BI$13</f>
+              <f>Feuille5!$X$13:$BC$13</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
@@ -608,11 +608,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="93924197"/>
-        <axId val="19988085"/>
+        <axId val="43873218"/>
+        <axId val="94069195"/>
       </barChart>
       <catAx>
-        <axId val="93924197"/>
+        <axId val="43873218"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -647,7 +647,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="19988085"/>
+        <crossAx val="94069195"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -655,7 +655,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="19988085"/>
+        <axId val="94069195"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -699,7 +699,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="93924197"/>
+        <crossAx val="43873218"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -756,8 +756,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.306262600806452"/>
-          <y val="0.0366559485530547"/>
+          <x val="0.306301197227473"/>
+          <y val="0.0369226810755178"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -776,10 +776,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0127898185483871"/>
-          <y val="0.126430868167203"/>
-          <w val="0.959740423387097"/>
-          <h val="0.848488745980707"/>
+          <x val="0.0127914303717706"/>
+          <y val="0.126463398945066"/>
+          <w val="0.9596093257718969"/>
+          <h val="0.848192461083237"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -791,7 +791,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>Feuille5!$AC$13:$AC$13</f>
+              <f>Feuille5!$W$13:$W$13</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -838,7 +838,7 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>Feuille5!$AD$12:$BI$12</f>
+              <f>Feuille5!$X$12:$BC$12</f>
               <strCache>
                 <ptCount val="32"/>
                 <pt idx="0">
@@ -942,7 +942,7 @@
           </cat>
           <val>
             <numRef>
-              <f>Feuille5!$AD$13:$BI$13</f>
+              <f>Feuille5!$X$13:$BC$13</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
@@ -952,11 +952,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="79837500"/>
-        <axId val="28518525"/>
+        <axId val="28757756"/>
+        <axId val="67628499"/>
       </barChart>
       <catAx>
-        <axId val="79837500"/>
+        <axId val="28757756"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -991,7 +991,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="28518525"/>
+        <crossAx val="67628499"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -999,7 +999,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="28518525"/>
+        <axId val="67628499"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1043,7 +1043,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="79837500"/>
+        <crossAx val="28757756"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1100,8 +1100,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.306432306432306"/>
-          <y val="0.0369131832797428"/>
+          <x val="0.30647092180707"/>
+          <y val="0.0371799819889361"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1121,10 +1121,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0525420525420525"/>
-          <y val="0.146881028938907"/>
-          <w val="0.9211239211239211"/>
-          <h val="0.8075884244372989"/>
+          <x val="0.0525486736815576"/>
+          <y val="0.146918821561817"/>
+          <w val="0.920987965471615"/>
+          <h val="0.807281615849736"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1297,11 +1297,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="79897923"/>
-        <axId val="58552170"/>
+        <axId val="81521387"/>
+        <axId val="86165036"/>
       </barChart>
       <catAx>
-        <axId val="79897923"/>
+        <axId val="81521387"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1336,7 +1336,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="58552170"/>
+        <crossAx val="86165036"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1344,7 +1344,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="58552170"/>
+        <axId val="86165036"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1388,7 +1388,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="79897923"/>
+        <crossAx val="81521387"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1445,8 +1445,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.306495306495307"/>
-          <y val="0.0369131832797428"/>
+          <x val="0.306533929809086"/>
+          <y val="0.0371799819889361"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1466,10 +1466,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0525420525420525"/>
-          <y val="0.146881028938907"/>
-          <w val="0.9211239211239211"/>
-          <h val="0.8075884244372989"/>
+          <x val="0.0525486736815576"/>
+          <y val="0.146918821561817"/>
+          <w val="0.920987965471615"/>
+          <h val="0.807281615849736"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1642,11 +1642,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="20140759"/>
-        <axId val="81865055"/>
+        <axId val="50136281"/>
+        <axId val="63651939"/>
       </barChart>
       <catAx>
-        <axId val="20140759"/>
+        <axId val="50136281"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -1681,7 +1681,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="81865055"/>
+        <crossAx val="63651939"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -1689,7 +1689,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="81865055"/>
+        <axId val="63651939"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -1733,7 +1733,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="20140759"/>
+        <crossAx val="50136281"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -1790,8 +1790,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.306388608870968"/>
-          <y val="0.0369131832797428"/>
+          <x val="0.306427221172023"/>
+          <y val="0.0371799819889361"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -1811,10 +1811,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0485131048387097"/>
-          <y val="0.146881028938907"/>
-          <w val="0.924017137096774"/>
-          <h val="0.807459807073955"/>
+          <x val="0.0485192186515438"/>
+          <y val="0.146918821561817"/>
+          <w val="0.923881537492124"/>
+          <h val="0.8071529653930271"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -1987,11 +1987,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="92727579"/>
-        <axId val="88261216"/>
+        <axId val="33110974"/>
+        <axId val="73066754"/>
       </barChart>
       <catAx>
-        <axId val="92727579"/>
+        <axId val="33110974"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2026,7 +2026,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="88261216"/>
+        <crossAx val="73066754"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2034,7 +2034,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="88261216"/>
+        <axId val="73066754"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -2078,7 +2078,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="92727579"/>
+        <crossAx val="33110974"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -2135,8 +2135,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.306388608870968"/>
-          <y val="0.0365349857991221"/>
+          <x val="0.306427221172023"/>
+          <y val="0.0368026859504132"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -2156,10 +2156,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0485131048387097"/>
-          <y val="0.146785437645236"/>
-          <w val="0.924017137096774"/>
-          <h val="0.807513555383424"/>
+          <x val="0.0485192186515438"/>
+          <y val="0.146823347107438"/>
+          <w val="0.923881537492124"/>
+          <h val="0.807205578512397"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -2332,11 +2332,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="67782603"/>
-        <axId val="47198003"/>
+        <axId val="12529279"/>
+        <axId val="87569729"/>
       </barChart>
       <catAx>
-        <axId val="67782603"/>
+        <axId val="12529279"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2371,7 +2371,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="47198003"/>
+        <crossAx val="87569729"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2379,7 +2379,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="47198003"/>
+        <axId val="87569729"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -2423,7 +2423,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="67782603"/>
+        <crossAx val="12529279"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -2480,8 +2480,8 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.306514616935484"/>
-          <y val="0.0373095791376194"/>
+          <x val="0.306553245116572"/>
+          <y val="0.037577479338843"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -2501,10 +2501,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0485131048387097"/>
-          <y val="0.146785437645236"/>
-          <w val="0.924017137096774"/>
-          <h val="0.807513555383424"/>
+          <x val="0.0485192186515438"/>
+          <y val="0.146823347107438"/>
+          <w val="0.923881537492124"/>
+          <h val="0.807205578512397"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -2677,11 +2677,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="65227680"/>
-        <axId val="97130071"/>
+        <axId val="81391308"/>
+        <axId val="18165893"/>
       </barChart>
       <catAx>
-        <axId val="65227680"/>
+        <axId val="81391308"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -2716,7 +2716,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="97130071"/>
+        <crossAx val="18165893"/>
         <crosses val="autoZero"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -2724,7 +2724,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="97130071"/>
+        <axId val="18165893"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -2768,7 +2768,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="65227680"/>
+        <crossAx val="81391308"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -2794,16 +2794,16 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
-      <col>92</col>
+      <col>85</col>
       <colOff>189000</colOff>
       <row>13</row>
       <rowOff>93960</rowOff>
     </from>
     <to>
-      <col>99</col>
-      <colOff>188280</colOff>
+      <col>92</col>
+      <colOff>187560</colOff>
       <row>30</row>
-      <rowOff>101880</rowOff>
+      <rowOff>101160</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2826,16 +2826,16 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
-      <col>50</col>
+      <col>44</col>
       <colOff>9720</colOff>
       <row>13</row>
       <rowOff>93600</rowOff>
     </from>
     <to>
-      <col>56</col>
-      <colOff>659520</colOff>
+      <col>50</col>
+      <colOff>659160</colOff>
       <row>30</row>
-      <rowOff>101520</rowOff>
+      <rowOff>100800</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2865,9 +2865,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>659880</colOff>
+      <colOff>659160</colOff>
       <row>30</row>
-      <rowOff>100800</rowOff>
+      <rowOff>100080</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2897,9 +2897,9 @@
     </from>
     <to>
       <col>107</col>
-      <colOff>659880</colOff>
+      <colOff>659160</colOff>
       <row>30</row>
-      <rowOff>100800</rowOff>
+      <rowOff>100080</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2929,9 +2929,9 @@
     </from>
     <to>
       <col>59</col>
-      <colOff>659880</colOff>
+      <colOff>659160</colOff>
       <row>30</row>
-      <rowOff>139320</rowOff>
+      <rowOff>138600</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2961,9 +2961,9 @@
     </from>
     <to>
       <col>76</col>
-      <colOff>659880</colOff>
+      <colOff>659160</colOff>
       <row>30</row>
-      <rowOff>128880</rowOff>
+      <rowOff>128160</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -2988,9 +2988,9 @@
     </from>
     <to>
       <col>76</col>
-      <colOff>659880</colOff>
+      <colOff>659160</colOff>
       <row>30</row>
-      <rowOff>128880</rowOff>
+      <rowOff>128160</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -3192,27 +3192,23 @@
   </sheetPr>
   <dimension ref="A1:DL14"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="I1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.09" customWidth="1" style="19" min="1" max="7"/>
-    <col width="140.36" customWidth="1" style="19" min="8" max="8"/>
-    <col width="11.09" customWidth="1" style="19" min="9" max="9"/>
-    <col width="14.38" customWidth="1" style="20" min="10" max="10"/>
-    <col width="140.36" customWidth="1" style="19" min="13" max="13"/>
-    <col width="13.5" customWidth="1" style="19" min="15" max="15"/>
-    <col width="139.25" customWidth="1" style="19" min="37" max="37"/>
-    <col width="15.61" customWidth="1" style="19" min="38" max="38"/>
-    <col width="15.61" customWidth="1" style="21" min="39" max="39"/>
-    <col width="37.25" customWidth="1" style="19" min="40" max="40"/>
-    <col width="37.25" customWidth="1" style="21" min="42" max="42"/>
-    <col width="11.5" customWidth="1" style="20" min="43" max="43"/>
-    <col width="15.61" customWidth="1" style="21" min="78" max="78"/>
-    <col width="11.5" customWidth="1" style="21" min="79" max="79"/>
-    <col width="11.53" customWidth="1" style="19" min="16383" max="16384"/>
+    <col width="11.09" customWidth="1" style="19" min="1" max="6"/>
+    <col width="13.5" customWidth="1" style="19" min="8" max="8"/>
+    <col width="139.25" customWidth="1" style="19" min="30" max="30"/>
+    <col width="15.61" customWidth="1" style="19" min="31" max="31"/>
+    <col width="15.61" customWidth="1" style="20" min="32" max="32"/>
+    <col width="37.25" customWidth="1" style="19" min="33" max="33"/>
+    <col width="37.25" customWidth="1" style="20" min="35" max="35"/>
+    <col width="11.5" customWidth="1" style="21" min="36" max="36"/>
+    <col width="15.61" customWidth="1" style="20" min="71" max="71"/>
+    <col width="11.5" customWidth="1" style="20" min="72" max="72"/>
+    <col width="11.53" customWidth="1" style="19" min="16376" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="22">
@@ -3251,7 +3247,7 @@
           <t>Réponse 1</t>
         </is>
       </c>
-      <c r="H1" s="20" t="inlineStr">
+      <c r="H1" s="21" t="inlineStr">
         <is>
           <t>Réponse 2</t>
         </is>
@@ -3396,7 +3392,7 @@
           <t>accuracy_Q14</t>
         </is>
       </c>
-      <c r="AP1" s="21" t="inlineStr">
+      <c r="AP1" s="20" t="inlineStr">
         <is>
           <t>sous-score Q1 à Q14</t>
         </is>
@@ -3411,12 +3407,12 @@
           <t>accuracy_Q15</t>
         </is>
       </c>
-      <c r="AS1" s="21" t="inlineStr">
+      <c r="AS1" s="20" t="inlineStr">
         <is>
           <t>sous-score Q15</t>
         </is>
       </c>
-      <c r="AT1" s="20" t="inlineStr">
+      <c r="AT1" s="21" t="inlineStr">
         <is>
           <t>Réponse 5</t>
         </is>
@@ -3591,12 +3587,12 @@
           <t>accuracy_Q32</t>
         </is>
       </c>
-      <c r="CC1" s="21" t="inlineStr">
+      <c r="CC1" s="20" t="inlineStr">
         <is>
           <t>sous-score Q16 à Q32</t>
         </is>
       </c>
-      <c r="CD1" s="21" t="inlineStr">
+      <c r="CD1" s="20" t="inlineStr">
         <is>
           <t>SCORE_TOTAL</t>
         </is>
@@ -3638,7 +3634,7 @@
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H2" s="20" t="inlineStr">
+      <c r="H2" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai; partie 4 : Vrai; partie 5 : Vrai; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai</t>
         </is>
@@ -3759,7 +3755,7 @@
       <c r="AO2" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="AP2" s="21" t="n">
+      <c r="AP2" s="20" t="n">
         <v>9</v>
       </c>
       <c r="AQ2" s="19" t="inlineStr">
@@ -3770,10 +3766,10 @@
       <c r="AR2" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="AS2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="20" t="inlineStr">
+      <c r="AS2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Je ne sais pas; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
@@ -3914,10 +3910,10 @@
       <c r="CB2" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="CC2" s="21" t="n">
+      <c r="CC2" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="CD2" s="21" t="n">
+      <c r="CD2" s="20" t="n">
         <v>22</v>
       </c>
     </row>
@@ -3957,7 +3953,7 @@
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H3" s="20" t="inlineStr">
+      <c r="H3" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai; partie 4 : Faux; partie 5 : Faux; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
@@ -4080,7 +4076,7 @@
       <c r="AO3" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="AP3" s="21" t="n">
+      <c r="AP3" s="20" t="n">
         <v>12</v>
       </c>
       <c r="AQ3" s="19" t="inlineStr">
@@ -4091,10 +4087,10 @@
       <c r="AR3" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="AS3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="20" t="inlineStr">
+      <c r="AS3" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas; partie 2 : Vrai; partie 3 : Faux; partie 4 : Je ne sais pas; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
@@ -4235,10 +4231,10 @@
       <c r="CB3" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="CC3" s="21" t="n">
+      <c r="CC3" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="CD3" s="21" t="n">
+      <c r="CD3" s="20" t="n">
         <v>24</v>
       </c>
     </row>
@@ -4278,7 +4274,7 @@
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H4" s="20" t="inlineStr">
+      <c r="H4" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Vrai; partie 3 : Vrai; partie 4 : Faux; partie 5 : Faux; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
@@ -4399,7 +4395,7 @@
       <c r="AO4" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="AP4" s="21" t="n">
+      <c r="AP4" s="20" t="n">
         <v>13</v>
       </c>
       <c r="AQ4" s="27" t="inlineStr">
@@ -4410,10 +4406,10 @@
       <c r="AR4" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="AS4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="20" t="inlineStr">
+      <c r="AS4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Faux; partie 3 : Faux; partie 4 : Vrai; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Oui</t>
         </is>
@@ -4554,10 +4550,10 @@
       <c r="CB4" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="CC4" s="21" t="n">
+      <c r="CC4" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="CD4" s="21" t="n">
+      <c r="CD4" s="20" t="n">
         <v>27</v>
       </c>
     </row>
@@ -4597,7 +4593,7 @@
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H5" s="20" t="inlineStr">
+      <c r="H5" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Faux; partie 3 : Vrai; partie 4 : Faux; partie 5 : Faux; partie 6 : Faux; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
@@ -4719,7 +4715,7 @@
       <c r="AO5" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="AP5" s="21" t="n">
+      <c r="AP5" s="20" t="n">
         <v>11</v>
       </c>
       <c r="AQ5" s="19" t="inlineStr">
@@ -4730,10 +4726,10 @@
       <c r="AR5" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="AS5" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="20" t="inlineStr">
+      <c r="AS5" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Faux; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
@@ -4874,10 +4870,10 @@
       <c r="CB5" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="CC5" s="21" t="n">
+      <c r="CC5" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="CD5" s="21" t="n">
+      <c r="CD5" s="20" t="n">
         <v>25</v>
       </c>
       <c r="CE5" s="23" t="inlineStr">
@@ -5021,7 +5017,7 @@
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H6" s="20" t="inlineStr">
+      <c r="H6" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai; partie 4 : Vrai; partie 5 : Faux; partie 6 : Vrai; partie 7 : Vrai; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
@@ -5143,7 +5139,7 @@
       <c r="AO6" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="AP6" s="21" t="n">
+      <c r="AP6" s="20" t="n">
         <v>10</v>
       </c>
       <c r="AQ6" s="19" t="inlineStr">
@@ -5154,10 +5150,10 @@
       <c r="AR6" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="AS6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="20" t="inlineStr">
+      <c r="AS6" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Faux; partie 3 : Faux; partie 4 : Vrai; partie 5 : Je ne sais pas; partie 6 : Vrai; partie 7 : Faux; partie 8 : Vrai; partie 9 : Faux; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
@@ -5298,10 +5294,10 @@
       <c r="CB6" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="CC6" s="21" t="n">
+      <c r="CC6" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="CD6" s="21" t="n">
+      <c r="CD6" s="20" t="n">
         <v>24</v>
       </c>
       <c r="CE6" s="23" t="inlineStr">
@@ -5445,7 +5441,7 @@
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H7" s="20" t="inlineStr">
+      <c r="H7" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Je ne sais pas; partie 3 : Vrai; partie 4 : Vrai; partie 5 : Vrai; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai</t>
         </is>
@@ -5567,7 +5563,7 @@
       <c r="AO7" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="AP7" s="21" t="n">
+      <c r="AP7" s="20" t="n">
         <v>8</v>
       </c>
       <c r="AQ7" s="19" t="inlineStr">
@@ -5578,10 +5574,10 @@
       <c r="AR7" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="AS7" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="20" t="inlineStr">
+      <c r="AS7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Je ne sais pas; partie 4 : Vrai; partie 5 : Faux; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Faux; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
@@ -5722,10 +5718,10 @@
       <c r="CB7" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="CC7" s="21" t="n">
+      <c r="CC7" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="CD7" s="21" t="n">
+      <c r="CD7" s="20" t="n">
         <v>22</v>
       </c>
     </row>
@@ -5765,7 +5761,7 @@
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H8" s="20" t="inlineStr">
+      <c r="H8" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai; partie 4 : Vrai; partie 5 : Faux; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
@@ -5886,7 +5882,7 @@
       <c r="AO8" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="AP8" s="21" t="n">
+      <c r="AP8" s="20" t="n">
         <v>11</v>
       </c>
       <c r="AQ8" s="19" t="inlineStr">
@@ -5897,10 +5893,10 @@
       <c r="AR8" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="AS8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="20" t="inlineStr">
+      <c r="AS8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Vrai; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Vrai; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
@@ -6041,10 +6037,10 @@
       <c r="CB8" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="CC8" s="21" t="n">
+      <c r="CC8" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="CD8" s="21" t="n">
+      <c r="CD8" s="20" t="n">
         <v>24</v>
       </c>
     </row>
@@ -6084,7 +6080,7 @@
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H9" s="20" t="inlineStr">
+      <c r="H9" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Vrai; partie 4 : Faux; partie 5 : Vrai; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
@@ -6207,7 +6203,7 @@
       <c r="AO9" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="AP9" s="21" t="n">
+      <c r="AP9" s="20" t="n">
         <v>11</v>
       </c>
       <c r="AQ9" s="19" t="inlineStr">
@@ -6218,10 +6214,10 @@
       <c r="AR9" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="20" t="inlineStr">
+      <c r="AS9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas; partie 2 : Faux; partie 3 : Faux; partie 4 : Je ne sais pas; partie 5 : Je ne sais pas; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
@@ -6362,10 +6358,10 @@
       <c r="CB9" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="CC9" s="21" t="n">
+      <c r="CC9" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="CD9" s="21" t="n">
+      <c r="CD9" s="20" t="n">
         <v>25</v>
       </c>
     </row>
@@ -6405,7 +6401,7 @@
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H10" s="20" t="inlineStr">
+      <c r="H10" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Je ne sais pas; partie 3 : Vrai; partie 4 : Vrai; partie 5 : Vrai; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
@@ -6527,7 +6523,7 @@
       <c r="AO10" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="AP10" s="21" t="n">
+      <c r="AP10" s="20" t="n">
         <v>10</v>
       </c>
       <c r="AQ10" s="19" t="inlineStr">
@@ -6538,10 +6534,10 @@
       <c r="AR10" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="AS10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="20" t="inlineStr">
+      <c r="AS10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Faux; partie 3 : Faux; partie 4 : Je ne sais pas; partie 5 : Je ne sais pas; partie 6 : Vrai; partie 7 : Faux; partie 8 : Vrai; partie 9 : Faux; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Vrai; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
@@ -6682,10 +6678,10 @@
       <c r="CB10" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="CC10" s="21" t="n">
+      <c r="CC10" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="CD10" s="21" t="n">
+      <c r="CD10" s="20" t="n">
         <v>21</v>
       </c>
       <c r="CE10" s="19" t="inlineStr">
@@ -6890,7 +6886,7 @@
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H11" s="20" t="inlineStr">
+      <c r="H11" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas; partie 2 : Je ne sais pas; partie 3 : Vrai; partie 4 : Faux; partie 5 : Vrai; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
@@ -7012,7 +7008,7 @@
       <c r="AO11" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="AP11" s="21" t="n">
+      <c r="AP11" s="20" t="n">
         <v>11</v>
       </c>
       <c r="AQ11" s="19" t="inlineStr">
@@ -7023,10 +7019,10 @@
       <c r="AR11" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="AS11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="20" t="inlineStr">
+      <c r="AS11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Vrai; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
@@ -7167,10 +7163,10 @@
       <c r="CB11" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="CC11" s="21" t="n">
+      <c r="CC11" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="CD11" s="21" t="n">
+      <c r="CD11" s="20" t="n">
         <v>25</v>
       </c>
       <c r="CE11" s="19" t="inlineStr">
@@ -7311,7 +7307,7 @@
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H12" s="20" t="inlineStr">
+      <c r="H12" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Vrai; partie 4 : Faux; partie 5 : Faux; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
@@ -7434,7 +7430,7 @@
       <c r="AO12" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="AP12" s="21" t="n">
+      <c r="AP12" s="20" t="n">
         <v>12</v>
       </c>
       <c r="AQ12" s="19" t="inlineStr">
@@ -7445,10 +7441,10 @@
       <c r="AR12" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="AS12" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="20" t="inlineStr">
+      <c r="AS12" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas; partie 2 : Faux; partie 3 : Faux; partie 4 : Faux; partie 5 : Je ne sais pas; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Faux; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
@@ -7589,10 +7585,10 @@
       <c r="CB12" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="CC12" s="21" t="n">
+      <c r="CC12" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="CD12" s="21" t="n">
+      <c r="CD12" s="20" t="n">
         <v>25</v>
       </c>
     </row>
@@ -7632,7 +7628,7 @@
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H13" s="20" t="inlineStr">
+      <c r="H13" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Vrai; partie 3 : Vrai; partie 4 : Faux; partie 5 : Vrai; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
@@ -7754,7 +7750,7 @@
       <c r="AO13" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="AP13" s="21" t="n">
+      <c r="AP13" s="20" t="n">
         <v>12</v>
       </c>
       <c r="AQ13" s="19" t="inlineStr">
@@ -7765,10 +7761,10 @@
       <c r="AR13" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="AS13" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="20" t="inlineStr">
+      <c r="AS13" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Vrai; partie 5 : Faux; partie 6 : Vrai; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
@@ -7909,10 +7905,10 @@
       <c r="CB13" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="CC13" s="21" t="n">
+      <c r="CC13" s="20" t="n">
         <v>15</v>
       </c>
-      <c r="CD13" s="21" t="n">
+      <c r="CD13" s="20" t="n">
         <v>28</v>
       </c>
     </row>
@@ -7952,7 +7948,7 @@
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H14" s="20" t="inlineStr">
+      <c r="H14" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Je ne sais pas; partie 3 : Vrai; partie 4 : Vrai; partie 5 : Faux; partie 6 : Vrai; partie 7 : Vrai; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
@@ -8073,7 +8069,7 @@
       <c r="AO14" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="AP14" s="21" t="n">
+      <c r="AP14" s="20" t="n">
         <v>9</v>
       </c>
       <c r="AQ14" s="19" t="inlineStr">
@@ -8084,10 +8080,10 @@
       <c r="AR14" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="AS14" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT14" s="20" t="inlineStr">
+      <c r="AS14" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="21" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Vrai; partie 5 : Je ne sais pas; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Faux; partie 14 : Faux; partie 15 : Faux; partie 16 : Non; partie 17 : Non</t>
         </is>
@@ -8228,10 +8224,10 @@
       <c r="CB14" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="CC14" s="21" t="n">
+      <c r="CC14" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="CD14" s="21" t="n">
+      <c r="CD14" s="20" t="n">
         <v>22</v>
       </c>
       <c r="CG14" s="19" t="inlineStr">
@@ -8284,7 +8280,7 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="B1" s="20" t="inlineStr">
+      <c r="B1" s="21" t="inlineStr">
         <is>
           <t>Réponse 2</t>
         </is>
@@ -8301,7 +8297,7 @@
           <t>Aatif Mieulet</t>
         </is>
       </c>
-      <c r="B2" s="20" t="inlineStr">
+      <c r="B2" s="21" t="inlineStr">
         <is>
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
         </is>
@@ -8338,7 +8334,7 @@
           <t>Abbas</t>
         </is>
       </c>
-      <c r="B3" s="20" t="inlineStr">
+      <c r="B3" s="21" t="inlineStr">
         <is>
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Vrai; partie 3 : Vrai </t>
         </is>
@@ -8373,7 +8369,7 @@
           <t>Abdallah</t>
         </is>
       </c>
-      <c r="B4" s="20" t="inlineStr">
+      <c r="B4" s="21" t="inlineStr">
         <is>
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
         </is>
@@ -8410,7 +8406,7 @@
           <t>Abdel Moneim</t>
         </is>
       </c>
-      <c r="B5" s="20" t="inlineStr">
+      <c r="B5" s="21" t="inlineStr">
         <is>
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
         </is>
@@ -9179,7 +9175,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -11204,13 +11200,13 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="E1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.53" customWidth="1" style="19" min="16341" max="16384"/>
+    <col width="11.53" customWidth="1" style="19" min="16335" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="22">
@@ -12743,7 +12739,7 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="B1" s="20" t="inlineStr">
+      <c r="B1" s="21" t="inlineStr">
         <is>
           <t>Réponse 2</t>
         </is>
@@ -12760,7 +12756,7 @@
           <t>Aatif Mieulet</t>
         </is>
       </c>
-      <c r="B2" s="20" t="inlineStr">
+      <c r="B2" s="21" t="inlineStr">
         <is>
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
         </is>
@@ -12777,7 +12773,7 @@
           <t>Abbas</t>
         </is>
       </c>
-      <c r="B3" s="20" t="inlineStr">
+      <c r="B3" s="21" t="inlineStr">
         <is>
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Vrai; partie 3 : Vrai </t>
         </is>
@@ -12794,7 +12790,7 @@
           <t>Abdallah</t>
         </is>
       </c>
-      <c r="B4" s="20" t="inlineStr">
+      <c r="B4" s="21" t="inlineStr">
         <is>
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
         </is>
@@ -12811,7 +12807,7 @@
           <t>Abdel Moneim</t>
         </is>
       </c>
-      <c r="B5" s="20" t="inlineStr">
+      <c r="B5" s="21" t="inlineStr">
         <is>
           <t xml:space="preserve">partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai </t>
         </is>
